--- a/기사데이터/토스/엑셀파일/news(토스, 2022.06.01~2022.06.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.06.01~2022.06.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2022.06.09.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>토스 결제사업, SPC그룹 ‘섹타나인’ 주주참여로 오프라인 매장 혁신</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005237181?sid=105</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>토스 결제단말기 회사 토스플레이스"매장 찾는 고객과 사업자 모두에게 새로운 가치 창출"[이데일리 김현아 기자]사진 좌측부터 섹터나인 현능호 상무, 이경배 대표, 토스 이승건 대표, 토스플레이스 최지은 대표)토스의 오프라인 결제단말기 제조 자회사 토스플레이스(대표 최지은)가 어제(8일) 서울 역삼동 토스 본사에서 SPC그룹의 토탈 마케팅 솔루션 계열사인 섹타나인(대표 이경배)과 주주간계약을 체결했다고 오늘 밝혔다. 행사에는 토스 이승건 대표, 토스플레이스 최지은 대표, 섹타나인 이경배 대표, 현능호 상무가 참여했다.섹타나인은 20억원을 출자해 토스플레이스의 보통주 주식을 취득했다. 이로써 지난 3월 법인 등기를 마친 토스플레이스는 비바리퍼블리카 80억원, 섹타나인 20억원의 출자로 오프라인 결제 단말기를 제조 유통하는 합작법인 설립을 마무리졌다.토스플레이스는 모바일 금융의 혁신을 이어온 토스의 DNA와 SPC그룹 섹타나인의 통합 마케팅 역량 및 비즈니스 경험을 오프라인 매장 결제환경에 적용, 새로운 혁신을 이끈다는 목표다. 이를 위해 토스는 결제단말기 제조와 소프트웨어 개발에 참여하고, 섹타나인은 ‘해피포인트’와 같은 모바일 커머스 서비스 노하우를 제공해 시너지를 만들 계획이다.이경배 섹타나인 대표는 “SPC그룹이 보유한 모바일 커머스 서비스 경쟁력을 토대로 토스와의 사업 시너지를 창출할 계획”이라고 말했다.계약식에 앞서, 토스플레이스는 지난 4월 유통협력사(VAN대리점)를 대상으로 사업 설명회를 열고, 1차 대리점 모집을 완료하고 계약을 진행하고 있다. 올 3분기 중 가맹점 사장님을 대상으로 한 전용 홈페이지를 오픈하고, 올해 안에 스마트 결제단말기 보급에 나설 계획이다. 스마트 결제단말기는 7인치 디스플레이를 적용한 슬림한 디자인으로 매장 계산대의 공간 효율성을 높일 수 있게 개발 중이다. IC칩과 NFC, 마그네틱 결제뿐 아니라 QR결제 포함 간편결제 등 기존의 모든 결제수단을 통합 제공하고, 기존 가맹점에 깔려있는 결제망(VAN 망)을 그대로 연동할 수 있는 오픈형 구조로 설계된다. 전용 홈페이지 오픈 시 단말기 디자인도 공개할 예정이다.최지은 토스플레이스 대표는 “섹타나인과의 주주간 계약은 토스플레이스 시작을 알리는 첫 걸음”이라 말하며 “매장을 찾는 고객과 사업주 모두에게 새로운 가치를 보여드릴 수 있는 혁신을 만들어 나갈 것”이라 포부를 밝혔다.토스플레이스는 올 3분기 중 일부 가맹점을 대상으로 결제단말기 시범 서비스에 들어가고 4분기 중 본 서비스를 시작할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2022.06.13.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>뮤직카우, 재무전문가 정인석 전략사업본부장 영입</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002259370?sid=105</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>한국씨티은행 출신...다년간 금융, 자금 관련 업무 담당뮤직카우(총괄대표 정현경)는 문화와 금융이 결합된 신 시장 확대 및 성공적인 글로벌 진출을 위한 초석 마련을 위해 한국씨티은행 출신 정인석 전략사업본부장을 영입했다고 13일 밝혔다.뮤직카우 정인석 전략사업본부장은 한국씨티은행 '최연소 상무' 타이틀을 보유한 인사로, 뉴욕대학교 스턴을 졸업했다. 정 본부장은 씨티은행에 근무하며 한국은 물론, 싱가포르, 홍콩, 시드니 등 해외 곳곳에서 관련 업무를 약 10년여 간 담당한 재무통으로도 알려져 있다.정인석 본부장은 앞으로 뮤직카우의 건강한 성장과 함께, 글로벌 진출에 힘을 싣기 위한 중장기적 전략 수립에 집중하는 것은 물론, 이를 실현시킬 수 있는 세부 계획들을 마련해 나갈 예정이다. 또 투자자 보호 강화를 위해 추진 중인 서비스 및 정책 강화 부문 책임자로서의 역할도 수행한다.뮤직카우 정인석 전략사업본부장뮤직카우 관계자는 "뮤직카우는 음악 저작권 시장에 모두가 함께 참여하고 이익을 공유할 수 있는 문화금융 생태계를 열어가고 있다"며 "뮤직카우 호에 합류한 베테랑 전문 인력들과 함께 국내 음악 IP의 해외 진출과 가치 극대화는 물론, K-콘텐츠 기반의 문화 산업 활성화와 창작자 지원에 적극 힘쓰겠다"고 말했다.종합 문화금융 플랫폼 기업으로 성장 중인 뮤직카우는 최근 이용자 보호를 한층 더 강화하고 건강한 음악IP 거래 생태계 조성을 위해 관련 전문가들을 잇달아 영입 중이다. 이번 정인석 본부장 외에도 정통 금융권 출신의 임창준 준법감시인, 카카오페이, 토스, 쿠팡 출신 김남진 CISO, 음원 IP펀드 및 관리 강화를 위해 영입된 서주희, 김재홍 리더 등이 뮤직카우 핵심 인재로 합류했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2022.06.01.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>중금리대출 늘린 인뱅, 건전성 괜찮아요?</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002737055?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>인터넷전문은행이 중금리대출 비중을 늘려가면서 건전성 관리에 나서야 한다는 목소리가 나온다. 각 사 제공    올해 1분기 인터넷전문은행이 중·저신용자 대출을 공격적으로 늘리고 나섰다. 올해 목표치보다는 아직 낮은 수준이지만 확실한 의지를 보였다는 평가다. 다만 금리상승에 따른 부실률은 증가해 건전성 관리에 더욱 주의해야 한다는 우려도 나온다.1일 금융권에 따르면 인터넷전문은행 3사 중 토스뱅크가 중금리대출 비중 35%를 넘겨 가장 앞서나가고 있다. 각사 자료에 따르면 토스뱅크는 지난달 31일 기준 35.2%, 케이뱅크가 지난 26일 기준 22.7%, 카카오뱅크가 지난 4월 말 기준 20.8%를 중금리대출로 취급하고 있다. 지난해말 목표치를 달성하지 못해 포용금융이라는 설립 취지에 맞지 않는다는 비판을 받은 인터넷은행들은 올해 들어 첫달 이자지원, 자체 신용평가모델(CSS) 고도화 등을 통해 중금리대출 비중을 늘려가고 있다. 올해 목표치는 토스뱅크가 42%, 케이뱅크와 토스뱅크가 25%다.케이뱅크는 최근 카카오페이와 협력을 통해 고객 유입을 늘리는 등 경쟁사 계열사와 손을 잡기도 했다. 지난해 12월 맺은 대출 모집 업무 위탁 신규 계약을 통해 중저신용자 고객 대상 상품인 신용대출·신용대출플러스을 취급하는 플랫폼을 확대했다.카카오뱅크는 지난 3월 한 달 간 중저신용자 대상 대출 첫 달 이자 지원 이벤트를 진행하기도 했다. 토스뱅크는 사업 초기부터 자체 개발한 신용평가 시스템 'TSS(Toss Scoring System)'를 통해 씬파일러(금융이력부족자)를 끌어모으고 있다.다만 신용도가 낮은 중·저신용자 대출을 확대하면서 일부 인터넷은행은 부실 대출이 증가하기도 했다. 각 사 공시자료에 따르면 카카오뱅크는 고정이하여신이 649억원으로 전년 같은 달보다 148억원 늘었다. 비율은 0.25%로 나타났다. 연체율은 0.26%로 전년(0.21%)보다 다소 악화됐다.케이뱅크는 고정이하여신이 497억원으로 전년보다 221억원 늘었다. 비율은 0.64%나 된다. 연체율은 0.48%로 전년(0.55%)보다 개선됐다.토스뱅크의 고정이하여신은 9억원으로 비율 0.04%, 연체율 0.04%다.고정이하여신비율이란 은행이 보유한 3개월 이상 연체된 대출로, 부실채권으로 분류된 대출을 말한다. 고정이하여신비율은 은행이 보유한 총여신 중 고정이하 여신이 차지하는 비율로 부실채권 현황을 보여주는 지표로 이용된다. 지난해 말 기준 은행권 가계대출 연체율은 0.16%, 저축은행 대출 연체율은 2.51% 정도다.향후 중·저신용자 대출을 확대해나갈 예정인만큼 대손충당금을 충분히 쌓아야 한다는 지적이 나온다. 금융당국은 지난 3월말 은행의 손실흡수능력 확충을 지속적으로 유도하고 충분한 대손충당금을 적립하도록 지도해나가겠다는 방침을 밝힌 바 있다. 인터넷은행 대손충당금적립률은 카카오뱅크가 247.72%, 케이뱅크 196.63%이다. 지난해 말 국내은행 대손충당금적립률은 165.9%다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2022.06.09.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>"갈 길 구만리"…돌 맞은 온투업계, 이구동성</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005236774?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>업체수·대출잔액 증가에도"기존 금융사와 연계 금융 필요""온투협회, 정식 인가도 있어야"[이데일리 황병서 기자] ‘1.5금융’을 표방한 온투업(온라인 투자 연계 금융업)이 오는 10일이면 제도권에 정식으로 안착한 지 1년이 되지만, ‘갈길은 구만리’라는 평가다. 중금리 대출 시장에서 메기 역할을 하겠다는 청사진과 달리 업무 범위가 협소하고, 여전히 홍보도 부족한 탓이다. [이데일리 문승용 기자]‘온투업체 수·대출잔액↑’ 양적 성장8일 금융권에 따르면 지난해 6월 10일 랜딧, 8퍼센트, 피플펀드 등 3개 업체가 금융위원회로부터 온투업자로 첫 등록한 이후, 현재까지 총 47개 온투업체가 등록과 함께 사업을 영위하고 있다. 업체 수가 증가하면서 대출잔액도 늘어났다. 온투업 중앙기관리기관에 따르면 대출 잔액은 2323억4822만원에서 1조4093억8820만원으로 늘었다.온투업은 온라인 플랫폼을 통해 투자자와 차주를 연결하는 대안 금융 서비스로, 기존에는 P2P(개인간) 금융으로 불렸다. 지난 2020년 8월 ‘온라인 투자 연계 금융업 및 이용자 보호에 관한 법률(온투법)’이 시행되고, 1년간의 유예기간을 거쳐 지난해 6월부터 온투업을 영위하는 업체들이 나타나기 시작했다.P2P 금융은 지난 2005년 영국 P2P 금융 업체 ‘조파(ZOPA)’에서부터 시작됐다. 이후 소파이(SoFi) 등 미국의 핀테크 업체들이 덩치를 키우며 핀테크 산업이 하나의 업권으로 자리 잡게 됐다. 한국에서는 2014년 한국 1호 P2P 업체인 8퍼센트를 시작으로 렌딧·어니스트펀드 등의 P2P 업체들이 시장을 확대해왔다. 초창기 ‘소액 투자 대안 상품’으로 주목받았던 P2P 금융업은 부동산 담보 대출 상품의 연체 문제 등 위험성이 부각되며 문제점이 속속 드러나기 시작했다. 이에 P2P업계 내부에서부터 새로운 금융 산업으로의 건전한 성장을 위해 규제의 필요성에 대한 목소리가 커졌고 2019년 11월 마침내 ‘온투법’이 제정됐다. 온투법은 특히 P2P 금융과 관련해 단독법이 마련된 세계 최초의 사례라는 점에서도 큰 관심을 모았다.제도미흡·규제막혀 질적 성장은 못이뤄양적 성장은 이뤘지만 재무건전성 등 질적 성장으로 이어지기 위해서는 아직 갈 길이 멀다는 지적이다. 업계는 질적 성장을 위해서는 기관 연계 투자가 이뤄져야 한다는 입장이다. 현재 온투업체들은 온투법상 기관투자자인 저축은행 등 여신금융기관으로부터 투자를 받을 수 있다. 온투법 제35조는 ‘여신금융기관 등은 연계대출 모집 금액의 100분의 40 이내에서 대통령령에서 정하는 한도를 초과하지 않는 범위 내에서 연계투자를 할 수 있다’고 규정한다. 온투업체의 부동산담보대출 연계상품은 모집금액의 20%, 그 외 상품은 40%까지 금융기관의 연계투자를 허용한다. 그러나 저축은행 등 금융기관은 금융업권법을 적용받으면서 사실상 온투업체에 연계 투자하는 것이 불가능한 상황이다. 금융기관이 온투업체에 연계투자하는 행위를 차입자에 대한 대출로 간주하고 있어서다. 온투법은 이용자 보호를 위해 차입자에 대한 정보 제공을 금지하고 있다. 결국 온투업체로부터 차입자 정보를 받지 못하는 금융기관은 연계투자를 할 수 없는 상황이다. 앞서 피플펀드는 지난해 애큐온저축은행과 전략적 업무협약을 체결했지만 현재까지 규제에 막혀 연계 투자에 나서지 못하고 있다. 플랫폼을 통한 투자자 모집 재개 논의도 필요하다는 입장이다. 금융소비자보호법(금소법)상 금융상품 판매대리, 중개 문제로 인해 지난해 플랫폼을 통한 투자자 모집이 중단됐다. 즉, 온투업 자격을 취득하지 않은 플랫폼 기업이 P2P기업의 상품을 중개할 수 없다. 실제로 지난해 카카오페이, 토스 등 핀테크 플랫폼은 P2P 제휴를 중단했다.아울러 온투업을 대변할 수 있는 온투업협회의 정식 인가도 필요한 상황이다. 법정 단체로 지난해 6월 금감원 출신의 임채율 온투업 초대 협회장이 선출됐지만, 아직까지 금융위로부터 정식 인가를 받지 못하고 있다. 당초 올해 3~4월께 정식인가를 조만간 받을 것으로 예상되면서 업계의 기대감이 나오기도 했다.온투업계 관계자는 “그간 정식 인가를 받지 못해서 업체들도 당국과의 의사소통을 해나가는데 있어 불편한 점이 있었다”면서 “하루빨리 정식 인가를 받아서 온투업체들을 대변해줄 수 있는 협회가 됐으면 좋겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2022.06.05.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>인터넷은행, 1분기 중저신용자 대출 비중 늘었다</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005099042?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>카카오뱅크·케이뱅크·토스뱅크 등 인터넷 은행 3사의 중·저신용자 대출 비중이 올해 1분기에 모두 늘어난 것으로 나타났다.5일 은행연합회 공시에 따르면 각 인터넷 전문은행의 '중·저신용자 대상 신용대출 비중(잔액 기준)'은 카카오뱅크 19.9%, 케이뱅크 20.2%, 토스뱅크 31.4%였다. 지난해 말에 비해 카카오뱅크는 2.9%포인트, 케이뱅크는 3.6%포인트, 토스뱅크는 7.5%포인트 비중이 늘었다.중·저신용자 신용 대출 비중은 각 인터넷 은행의 전체 가계 신용대출에서 개인신용평가회사 코리아크레딧뷰로(KCB) 기준 신용평점 하위 50%(KCB 850점 이하) 대출자에 대한 대출이 차지하는 비중을 뜻한다.금융당국은 지난해 5월 인터넷 전문은행이 중·저신용층에 대한 대출 공급을 확대하겠다는 당초 설립 취지와 달리 고신용층 위주의 보수적인 대출 영업을 한다고 지적하며 중·저신용자 대출 비중 확대를 주문했다. 지난해 연말까지는 3사 모두 당초 목표한 수준에는 도달하지 못했다. 올해 연말 목표치로 제시한 비중은 카카오뱅크와 케이뱅크가 25%, 토스뱅크가 42%다.토스뱅크는 중·저신용자 비중이 가장 큰 폭으로 늘어 30%를 넘어섰다. 5월말 기준으로는 35.2%에 달했다. 전체 대출 잔액이 늘었음에도 올 1분기 31.4%보다 2개월 새 3.6%포인트 늘며 타 인터넷은행과 압도적인 차이를 보였다. 8개월 간 공급한 중저신용자 대출 규모만 총 1조4185억원(실행액 기준)에 달했다.케이뱅크는 올해 1분기 신규 공급한 전체 신용대출 중 중저신용(KCB 820점 이하 기준) 고객 비율은 34%로 집계됐다. 전년 동기 대비 약 25.6%포인트(p) 늘어난 수치다. 총 대출액도 4234억원으로 같은 기간 4배 가까이 늘었다. 케이뱅크 중저신용 고객의 신용대출 규모는 2020년 3251억원에서 지난해 7510억원으로 증가한 데 이어 올 1분기 2021년 연간 공급액의 절반 이상에 달하는 4234억원을 공급했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2022.06.08.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>핀다는 '근무 혁신 중'..."주 2회 출근, 금요일 오후 퇴근해요"</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000039333?sid=105</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>핀다의 사무실 이전 기념 오피스 워밍 파티 현장.(사진=핀다)핀테크 업계가 인재 유치와 역량 극대화를 위해 근무문화부터 혁신하고 있다. 여행지에서 휴가를 즐기며 업무할 수 있는 '워케이션(Work+Vacation)' 제도를 도입하는 것은 물론, 업무 주도권을 근로자에게 전폭적으로 부여하고 있다.200명 채용 계획 밝힌 핀다, 5개월만에 100명 달성한 까닭8일 업계에 따르면 핀다는 사무실 확장 이전과 함께 새로운 근무제도인 '커스텀 워크(개인 맞춤형 근무)' 제도를 도입했다. 빠른 속도로 늘어난 구성원 사이의 유기적인 협업과 개인이 중시하는 업무 스타일을 고려한 맞춤형 근무제도다. 구성원들은 자신의 업무 스타일에 따라 주 3회 또는 주 2회 사무실 출근을 선택할 수 있다.핀다는 지난달을 기점으로 직원수가 100명을 돌파해, 사무실을 삼성역 인근 섬유센터로 이전했다. 주 3회 출근하는 구성원은 '고정좌석 존(zone)'을, 주 2회 출근자는 '자율좌석 존'을 이용할 수 있다. 자율좌석 존은 △카페처럼 자유로운 분위기의 핫데스크존 △선명한 화질과 높은 해상도의 4k존 △여러 화면을 활용할 수 있는 듀얼모니터존 △넓은 좌석에서 수월하게 서류작업을 할 수 있는 싱글모니터존으로 세분화된다.자율과 책임이라는 대원칙 아래 자유로운 근무 환경을 만들어가고 있다. 오전 7시에서 11시 사이에 자유롭게 출근해 하루에 최소 6시간에서 최대 12시간을 근무할 수 있고, 주 40시간만 근무하면 금요일 오후에는 반차를 사용한 격으로 퇴근할 수 있다. 급한 관공서 업무나 병원 등은 반반차(2시간 단위 휴가)를 사용하면 평일 업무시간에도 해결할 수 있다. 여행지에서 휴가를 즐기며 업무할 수 있는 워케이션 제도도 운영 중이다.이 같은 근무제도의 혁신은 원활한 채용으로 이어지면서 시너지를 내고 있다. 핀다는 올해 1월 200명 규모로 조직을 확대할 계획을 발표했으며, 5개월만에 목표치의 절반 수준인 100명을 달성했다. 기술, 마케팅, 데이터, 보안 등 다양한 직무의 인재를 상시 모집하고 있다.이재경 핀다 HR(인재관리) 부사장은 "핀다는 일의 본질과 우선가치에 대한 중요도를 높이는 것이 인재를 영입하고 내실을 다지기 위한 필수 요건이라고 본다"며 "회사와 구성원 모두 상호 발전할 수 있는 터전을 만들고 구성원이 자부심을 가질 수 있는 환경을 구축하기 위해 최선을 다하고 있다"고 설명했다.남해에 오피스 차린 토스, 일과 '불멍'을 한 곳에서?서울 강남구에 본사를 두고 있는 토스는 경상남도 남해에 오피스를 차렸다. 일본 도쿠시마현에 소재한 마을인 '카미야마'의 사례에서 영감을 얻었다. 카미야마는 지역격차 해소를 위해 2000년대 중반부터 전 지역에 광대역을 설치했다. 통신속도를 도쿄 도심지보다도 높이며 냇가에서도 빠른 속도로 작업을 할 수 있게 했다. 고령인구가 높았던 시골이었지만 IT기업의 사무실과 인력을 지속 유치하면서 명실상부한 IT마을이 됐다.토스는 남해오피스를 만들면서 △업무에 충분히 집중할 수 있는 사무실 환경 △업무하지 않을 때면 고개만 들어도 해당 지역의 자연환경을 느낄 수 있는 자연친화적인 공간 △로컬 에이전트와 연계해 토스팀원들이 해당 지역에만 할 수 있는 경험 등에 주안점을 뒀다고 설명한다.토스 남해오피스 외부 전경.(사진=토스피드)남해오피스로 워케이션을 다녀온 토스 팀원들에 따르면, IT 인프라가 잘 설치된 덕분에 서울 팀원들과 줌이나 허들(슬랙의 음성채팅 기능)로 큰 불편함 없이 소통이 이뤄졌다고 한다. 일에 대한 집중도는 직군마다 의견이 갈렸지만 "고민하던 것을 솔직하게 이야기해서 서로의 컨디션을 이해할 수 있었다", "휴식의 밀도가 굉장히 높았다" 등의 호평이 많았다. '불멍(장작불을 멍하니 본다는 뜻)'을 기억에 남는 장면으로 꼽기도 했다.이외에도 토스는 구성원들이 업무에만 몰두할 수 있도록 커뮤니티 팀을 별도로 구성해 맛집 추천, 가사 도움 등의 다양한 서비스를 제공하고 있다. 아울러 △점심·저녁 식대 △반기별 팀 성과에 따른 성과급 △직장 단체보험 및 연 1회 종합건강검진 △사내 카페·편의점·헤어살롱 무료 이용 △주택자금 1억원 무이자 대출 등을 지원한다.이런 제도 덕분에 토스는 퇴사율과 입사율이 균형을 이루고 있다. 나이스기업정보에 따르면 토스의 연간 입사자는 396명(86.84%), 연간 퇴사자는 295명(64.69%)이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2022.06.08.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>고전을 재발견하다…민음사 새 인문교양 시리즈 '인문학 클래식'</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013234028?sid=103</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>'오뒷세이아'·'철학자의 위로' 등 4권 출간인문교양 고전 시리즈 '인문학 클래식'[민음사 제공]     (서울=연합뉴스) 이은정 기자 = 도서출판 민음사가 인문교양 고전 시리즈 '인문학 클래식'을 새롭게 선보였다.     '인문학 클래식'은 문학, 역사, 철학, 예술 분야에서 교양으로 꼭 읽어야 하는 고전들을 선별해 내놓는 시리즈다. 호메로스의 '오뒷세이아', 루키우스 안나이우스 세네카의 '철학자의 위로', 샤를 보들레르의 '우울의 고백', 에우리피데스의 '메데이아' 등 4권이 나란히 출간됐다.'오뒷세이아'[민음사 제공]     '오뒷세이아'는 그리스 최고의 시인으로 꼽히는 호메로스의 영웅 서사시다. 아버지 오뒷세우스를 찾는 텔레마코스의 모험, 오뒷세우스의 모험과 귀향으로 구성됐다. 트로이 전쟁을 승리로 이끈 그리스 영웅 오뒷세우스가 전쟁이 끝난 뒤 고향으로 돌아가기까지 험난한 모험을 겪는 이야기다. 서양 고전학자 김기영 씨가 희랍어 원문을 새롭게 번역했다.    '철학자의 위로'는 후기 스토아철학의 대표 사상가이자 로마 제정 시대 정치인인 세네카의 '위로 3부작'으로 유명한 작품이다. 가족의 죽음이나 추방을 견뎌야 하는 이들을 위로하는 서간문이다. 세 통의 편지 중 두 번째 편지는 정치적으로 억울하게 추방당한 세네카가 도리어 어머니를 위로하는 글로, 스토아철학자의 수사법이 담긴 '위안문학'의 정수로 꼽힌다.     '우울의 고백'은 현대시의 창시자로 불리는 19세기 후반 프랑스 시인 보들레르의 정신적 자서전이다.     시인이 중학생 시절인 1832년부터 세상을 떠나기 전 해인 1866년까지 쓴 편지 1천420통 중 불문학자 이건수 씨가 43통을 선별해 소개했다. 편지들은 평생 시인이 맺어 온 인간관계와 성장 배경, 경제적 상황, 그로 인해 형성된 정서, 작품 세계 등을 이해하는 실마리가 된다.    '메데이아'는 아이스킬로스, 소포클레스와 함께 고대 그리스 3대 비극 작가로 꼽히는 에우리피데스의 대표작이다. 현존하는 18편 가운데 대표작 '메데이아'와 '힙폴뤼토스', '엘렉트라', '알케스티스' 등 4편을 실었다. 방송에서 고대 그리스 신화와 문학을 소개하는 강대진 씨가 번역을 맡았다.    민음사는 "고전은 끊임없이 재발견돼야 한다"며 "고대 그리스 신화에서부터 르네상스를 거쳐 20세기 초 모더니즘까지 지적인 오디세이를 감행한 거장들을 만나보고자 한다. 인문교양 고전들이 우리의 생각에 새로운 창을 열어줄 것"이라고 소개했다.     오뒷세우스 = 호메로스 지음. 김기영 옮김. 720쪽. 2만6천 원.     철학자의 위로 = 루키우스 안나이우스 세네카 지음. 이세운 옮김. 216쪽. 1만5천 원.     우울의 고백 = 샤를 보들레르 지음. 이건수 옮김. 272쪽. 1만6천 원.     메데이아 = 에우리피데스 지음. 강대진 옮김. 428쪽. 1만6천 원.     mimi@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2022.06.02.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>시동만 걸면 법인차 운행일지 자동 작성...7만개 기업 '엄지척'</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004753966?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>[[스타트UP스토리]업무용 차량관리 솔루션 카택스 안재희 대표 "보험 결합상품으로 사업 확대"]카택스 사무실 창문에 붙은 '자생' 문구/사진=카택스'자생'(自生), 업무용 차량관리 솔루션 개발사인 카택스(Cartax)의 사무실 창문에 붙어 있는 문구다. 다른 창문엔 '널리 회사를 이롭게 하라'가 새겨져 있다. 벽면에도 '테스트만의 살길', '손님이 짜다면 짜다', '고객이 늦다면 늦다', '일이 있을 때 잘하자' 등의 문구가 덕지덕지 붙었다.'그많은 문구 중 왜 이거냐?'라고 물었더니 안재희  카택스 대표는 "투자 유치를 진행해 보니까 시간은 많이 걸리고, 매번 투자설명회(IR) 보고서 업데이트도 해야 하고, 특히 지방기업이라 관심도는 떨어졌다. 차라리 IR 준비할 시간에 서비스 완성도 높이고 새로운 고객사 발굴하는 게 더 낫겠다는 생각에 그렇게 써 붙인 것"이라고 답했다. 그러면서 "스타트업이라고 해서 카카오나 토스처럼 투자를 빨리 받아 단기간 급성장해야 한다는 공식·원칙은 어디에도 없다"며 "우수한 기술력으로 작은 시장에 도움을 줄 수 있는 스타트업이 되는 게 목표다. 마음을 느긋하게 먹기로 했다"고 덧붙였다.카택스 사무실 내부, 벽면에 다양한 다짐을 문구로 프린터해 붙였다/사진=카택스 신한스퀘어브릿지 대구 관계자는 최근 '친환경 인큐베이션 1기'로 선정된 카택스에 대해 "구멍가게 마인드지만 그게 지금 정답이 되는 회사"라고 치켜세웠다. "퍼스트펭귄에 선정돼 큰 금액의 보증지원을 받았지만 자금이 충분하다는 너무 안일한 생각에 나중에 큰 어려움을 겪었죠. 이후 악착같이 벌어 매월 5000만원 정도 매출을 내며 비용을 감당했어요. 투자 안 받고 우리 힘으로만. " 카택스는 최근 BEP(손익분기점)를 맞췄다. 특유의 경상도 어투로 근래 보기 드문 '무대뽀·헝그리 정신'을 강조하며 "가난해야 번다"를 인터뷰 내내 강조한 안 대표를 유니콘팩토리가 만났다. ━카택스 앱 하나로 법인차 관리 끝━고유가에 기업의 ESG(환경·사회·지배구조) 경영이 화두가 된 가운데 카택스는 법인차량이 있다면 꼭 설치해야 할 모바일 앱(애플리케이션)으로 꼽힌다. 골치 아픈 업무용 차량 비용 관리를 도와주기 때문이다.최초 기획은 2016년초 국세청의 '업무용 승용차 세법 개정'이 이뤄진 시점에 나왔다. 법인이 연간 1000만원 이상 업무용 차량 관련 비용을 처리하기 위해선 업무용 자동차 전용 보험에 가입하고 차량 운행일지를 작성해야 한다는 내용이다. 유류비, 통행료 등의 추가금액이 나오면 따로 정리해 '업무용 승용차 관련 비용 명세서'라는 서류에 별도 기입해야 한다. 제대로 작성 안하면 불성실 가산세를 지불하게 된다. 만약 운행일지에 수상한 기록이 있으면 과세관청에서 바로 소명 요청이 들어오기 일쑤다. 그러면 운행일지를 뒷받침할 근거와 자료를 제출해야 하는 데 수기 형태의 아날로그 방식으론 대응에 속수무책일 때가 많다. 안 대표는 "수많은 회사들이 제대로 운행기록을 작성하지 않았다가 추징금이나 세무조사 등 금전적 손실을 입는다"고 했다. 이런 불편을 카택스로 모두 해결할 수 있다는 설명이다. 스마트폰에 탑재된 GPS(위성위치확인시스템)를 통해, 버튼만 누르면 운행 거리, 출발지와 도착지를 자동으로 파악하고 운행기록부도 생성해준다.  유류비 정산도 쉽다. 한국 석유공사의 공식 유가를 적용해 두면 운행거리에 따라 자동 계산된다. 카택스 주요 서비스 이미지/사진=카택스 이밖에 지도상에서 실시간으로 회사 차량 위치를 파악할 수 있다. 자주 가는 거래처 동선을 수월하게 짜 탄소 배출을 줄일 수 있도록 지원하고, 차량이 지정한 반경 내 진입·이탈할 경우 알림도 받을 수 있다. 현재 카택스에 가입한 기업 고객은 이마트, KFC, 신세계 푸드, 금호석유화학 등 전국 약 7만 개 기업에 이른다. 전체 누적 운행기록은 5500만건, 하루 평균 약 4만건의 운행일지가 생성되고 있다.  ━가격책정 잘 못한게 되레 경쟁력  ━카택스는 안 대표의 손길을 거쳐 완성된 100개 앱 가운데 하나다. 안 대표는 2011년 카택스의 전신인 제이코프를 세워 앱 제작 외주를 받아 납품하는 일을 해왔다. 그중엔 단체 티셔츠를 손쉽게 디자인하는 구글 인기 앱부터 대통령 표창을 수상한 앱도 있었다고. 안 대표는 "외부 용역으로 앱을 만들다 내부 사업용도 한 번 만들어보자고 해서 나온게 카택스인데 한 달 다운로드 수나 동시접속자가 제법 나오자 새롭게 간판을 달기로 한것"이라고 말했다.  카택스는 서비스 개설 1주일 후부터 특별한 홍보를 하지 않았음에도 불구하고 출·퇴근 시간 동시 접속자가 100명 이상을 꾸준히 넘었다고 했다. 안재희 카택스 대표/사진=카택스 안 대표는 '앱의 연금술사'로 불리나 경영·마케팅·판촉 부문에선 아직 아마추어라고 했다. 그는 "신한스퀘어브릿지에서 멘토링 받을 때 서비스 비용이 성능에 비해 너무 싸게 책정됐다는 지적을 받았죠. 카택스 서비스를 한 지 5년이 넘었는데 아직 경쟁사를 찾아 보기 힘든 이유가 이만큼의 성능에 이만한 가격대로 서비스를 제공하는 업체가 나오기 어려워서라고 하더라"며 너털웃음을 터뜨렸다. 카택스의 현재 서비스 비용은 한 대당 1년 기준으로 6만원이다. 신한스퀘어브릿지로부터 BM(사업모델) 컨설팅을 받고 있는 카택스는 향후 운전자 습관 등을 분석한 '안전운전지수' 등을 개발, 업무용 자동차 보험 결합상품 등 다양한 부가가치 상품을 선보일 예정이다.[머니투데이 스타트업 액셀러레이팅 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2022.06.15.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>삼성·카카오·네이버 등 취업 등용문 ‘이곳’…벌써 3700명 배출</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002003312?sid=101</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>15일, SSAFY 서울캠퍼스에서 6기 수료식 개최…누적 교육생 3678명 SSAFY, 대표 민관협력 프로그램으로 청년 고용 활성화에 기여삼성청년SW아카데미 1기 개소식 모습[삼성전자 제공][헤럴드경제=김지헌 기자] 삼성이 청년들을 대상으로 진행하는 ‘삼성청년SW아카데미(SSAFY)’가 6기 수료식을 진행, 현재까지 약 3700명의 교육생을 배출하며 국내 소프트웨어 인재 양성의 요람으로 자리매김하고 있다.삼성은 15일 서울 강남구 ‘SSAFY’ 서울캠퍼스에서 SSAFY 6기 수료식을 열었다고 밝혔다. SSAFY 6기 수료식에는 고용노동부 권기섭 차관, 국민의힘 윤주경 의원, 더불어민주당 김영배 의원, 박학규 삼성전자 경영지원실 사장, 수료생 100명이 참석했다. 서울·대전·광주·구미 등 전국 5개 캠퍼스 수료생 400여명은 온라인으로 참여했다.SSAFY는 삼성이 2018년 발표한 ‘경제 활성화와 일자리 창출 방안’의 일환으로, 국내 정보기술(IT) 생태계 저변을 확대하고 청년 취업 경쟁력을 높이기 위해 실시하는 사회 공헌 프로그램이다. 삼성은 고용노동부와 함께 교육생 선발, 교육 운영, 취업 지원 등 전 분야에서 협력을 통해 취업을 준비하는 청년들을 돕고 있다.2018년 12월부터 시작한 ‘SSAFY’는 6기까지 3678명이 수료했고, 이 가운데 2770명이 취업해 75%의 취업률을 보였다. 취업에 성공한 수료생 중 35%를 차지하는 965명은 소프트웨어 비전공자로 SSAFY에서 새로운 진로를 찾았다.수료생들은 삼성전자를 비롯해 카카오, 네이버, LG 유플러스, 롯데정보통신, 신세계 I&amp;C, 현대오토에버, 현대모비스, KB국민은행, 신한은행, NH농협은행 등 IT·금융권과 같은 다양한 기업에 취업했다. 이들이 취업한 기업의 수는 730개에 달한다.기업 현장에서 근무하는 SSAFY 수료생들이 늘어나면서, 실전형 인재로 인정받아 채용시 우대하는 기업들도 신한은행, 우리은행, 현대오토에버, 딜리버리히어로코리아 등 120여개에 달한다. 수료생들은 카카오, 네이버에 100명 이상 취업하며 국내 IT 서비스 기업으로 활발하게 진출하고 있으며, 컬리, 토스, 의식주컴퍼니 등 유망 스타트업으로도 취업을 확대하고 있다.지금까지 3000명 이상의 수료생을 배출한 SSAFY는 소규모로 운영되던 수료생 커뮤니티를 확대해 동문회를 결성하고, 지난 9일 SSAFY 서울캠퍼스에서 발대식을 가졌다. 국내 우수 IT 기업과 다양한 분야로 진출한 SSAFY 수료생들이 폭넓은 교류를 통해 소프트웨어 개발자로서의 역량을 키워나가도록 한다는 계획이다.사회적 관심과 지원으로 개발자로서 진로를 찾은 SSAFY 출신들은 향후 동문회를 통해 사회에 기여할 수 있는 다양한 활동을 마련해 나눔의 선순환을 실천해 나갈 계획이다.권기섭 차관은 “우리 경제가 한 단계 더 도약하기 위해서는 신산업, 신기술 분야의 인재 양성이 중요하다”며 “민관 협업 방식으로 청년들이 충분한 직무훈련, 일경험 기회를 가질 수 있도록 힘쓰겠다”고 말했다.박학규 사장은 “누구나 편리하고 쉽게 이용할 수 있는 소프트웨어로 새로운 세상을 개척해 달라”며 “미래 기술의 핵심 일원으로서 디지털 리더로 성장하길 바란다”고 밝혔다.주요 IT기업 대표들은 SSAFY 수료생들을 응원하는 메시지를 영상을 통해 전해왔다.모바일 게임 개발 기업인 컴투스의 송재준 대표는 “1년 간의 교육과정을 완주한 교육생의 수료를 축하한다”며 “모바일 게임, 블록체인, 메타버스 등 미래 기술에 관심이 많은 수료생들은 컴투스에 많이 지원해달라”고 말했다.모빌리티 플랫폼 기업 쏘카의 유석문 최고기술경영자(CTO)는 “1600시간의 교육을 성공적으로 이수한 경험이 개발자로 발돋움하는 디딤돌이 될 것”이라며 “쏘카는 언제나 재능있는 여러분들과 함께 하기를 희망한다”고 응원했다.연 2회 교육생을 모집하는 SSAFY는 올해 1월에 입과한 7기 약 1150명이 교육을 받고 있으며, 7월부터 1년간의 과정을 시작하는 8기를 포함 연간 2300명의 청년을 대상으로 교육을 진행한다.1년간 매일 8시간씩 총 1600시간의 집중적인 교육과 교육생간 협업 프로젝트 등을 통해 기업에 즉시 투입될 수 있는 역량을 갖춘 소프트웨어 개발자를 양성하는 것을 목표로 과정이 운영되고 있다. 교육 과정은 무상이며, 교육생 전원에게는 매달 100만원의 교육지원금도 지급하고 있다.삼성 소프트웨어 개발 담당 직원들도 SSAFY 교육에 동참하고 있다. 지난해 시범 운영을 시작해 올해 본격적으로 실시하는 SSAFY 교육생 대상 삼성 임직원 재능기부에는 90여명의 임직원이 멘토단으로 참여하고 있으며, 이 중 12명은 SSAFY 출신 임직원이다. SSAFY는 서울, 대전, 광주, 구미, 부울경 등 전국 5개 캠퍼스를 운영하고 있다.삼성은 내부적으로 소프트웨어 인재를 체계적으로 양성하는데 힘 쓰는 한편, 국가 차원의 생태계 저변 확대를 위해서도 지속적으로 노력해 왔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2022.06.14.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>김대웅號 웰컴저축은행, 디지털금융 차별화…용산시대 전초전</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002612099?sid=101</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>지난해 자산규모 6조원 돌파디지털종합금융 도약 속도전김대웅 웰컴저축은행 대표이사.ⓒ웰컴저축은행[데일리안 = 이세미 기자] 올해 창립 20주년을 맞은 웰컴저축은행이 발 빠른 디지털 전환을 시도하며 성장 출구를 찾는 저축은행들의 이정표 역할을 자처하고 있다. 지난해 말 모기업인 웰컴금융그룹이 대부업을 청산한 데 이어 한 단계 더 나아가 저축은행 업계를 이끄는 리딩기업으로 도약하겠다는 의지다.웰컴저축은행의 이같은 움직임은 수장인 김대웅 대표이사의 선구안이 큰 역할을 하고 있다는 평이다.14일 금융권에 따르면 최근 웰컴저축은행은 본인신용정보관리업(마이데이터) 서비스를 저축은행중앙회를 통해 제공하고 있다. 이는 2금융권 대출 비교 서비스 맞춤대출로 중소저축은행에 고객이 유입될 기회를 제공하는 역할을 하고 있다.여기에 대형 시중은행 2곳과 토스, 핀다 등 핀테크 업체 6곳, 우수 대부업체들도 참여하면서 폭넓은 대출 서비스를 가능토록 했다.그러나 웰컴저축은행은 이를 수익화하지 않기로 했다. 2년 동안 마이데이터 제휴 서비스를 무료로 제공하고, 이후에도 서비스를 이용하는 데 드는 실비만 받겠다는 방침을 세운 것이다. 이는 영업력이 부족한 중소형 저축은행사의 대출 심사 능력을 키워주고, 업계 전체의 데이터 경쟁력을 강화할 수 있는 기회가 될 것이라는 김 대표의 의지다.웰컴저축은행 관계자는 “웰컴마이데이터를 중심으로 생태계를 조성해 다양한 파트너들과 협력하고 새로운 서비스 및 상품을 시장에 공급하고자 한다”며 “나아가 국가 금융산업 발전에 기여할 수 있을 것으로 기대한다”고 강조했다.2017년 3월부터 웰컴저축은행을 이끌고 있는 김 대표는 지난해 3월 연임에 성공하며 디지털 혁신에 두 팔을 걷었다. 김 대표는 실제 지난 2018년 저축은행 업계 최초 모바일뱅킹 앱 ‘웰뱅’을 선보이며 성공적인 디지털 전환 성과를 거뒀다.지난해 ‘웰뱅3.0’를 개편해 기존 신용관리서비스, 자동차시세조회 서비스를 비롯한 소유한 차량의 시세 확인은 물론 보험상품, 자동차담보대출 추천서비스 등을 제공하는 플랫폼으로 끌어올린 것도 김 대표의 과감한 결단에 따른 결과물로 꼽힌다.실제 웰컴저축은행의 디지털 전환은 이용자들의 주목을 받아 지난해 9월 말 웰뱅 다운로드 수는 250만건, 월간순방문자 30만명, 가입자 80만명이라는 기록을 세웠다.웰컴저축은행 당기순익 및 자산규모 현황.ⓒ데일리안 이세미 기자실적도 꾸준히 개선되면서 지난해 업계 자산순위 5위에서 3위로 껑충 뛰었다. 웰컴저축은행의 지난해 누적 당기순익은 1121억원으로, 전년도 956억원과 비교해 17%(165억원) 증가했다. 같은 기간 자산규모는 6조1787억원으로 전년(4조2798억원) 대비 44%(1조8989억원) 늘었다. 웰컴저축은행은 이 같은 호실적에 힘입어 올해 총 자산 규모 목표를 7조1574억원으로 잡았다.또 올해 하반기 모회사인 웰컴금융이 용산 신사옥으로의 이전을 통한 제2의 도약이라는 청사진을 그림에 따라 저축은행 역시 ‘초격차 디지털경쟁력으로 승리하는 1등 웰컴’을 내세우며 포트폴리오 강화에 나선다는 계획이다. 웰컴저축은행은 경영전략의 핵심 키워드를 ▲디지털종합금융그룹 도약 전략 구체 ▲디지털 경쟁력 강화 ▲기업금융 및 투자금융 전문역량 강화를 제시했다.웰컴저축은행 관계자는 “디지털 생태계 강화로 다양한 파트너들과 협력을 통해 고객에게 좋은 서비스를 제공하려 한다”며 “올해 기업금융 및 투자금융 역량 강화로 한 단계 더 성장할 계획”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2022.06.13.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>[기업 사례로 이해하는 산업] 핀테크 산업이 준비해야 할 미래는?</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004757857?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>핀테크(FinTech)란 금융(Finance)과 기술(Technology)이 합쳐진 합성어다. 서비스 과정이 복잡하고 불편했던 기존의 금융서비스를 보다 간편하게 개선하기 위해 기술을 접목한 것으로, 스마트폰 시대에 없어선 안 될 서비스로 자리를 잡았다.사진제공=메인콘텐츠특히 올해 1월에 시행된 마이데이터는 고객 금융정보들을 모아 한 곳에서 관리할 수 있는 서비스로, 이는 비트코인 같은 가상의 자산까지 포함해 모든 자산을 한 번에 관리하는 것을 가능케했다. 자체 데이터, 공공데이터 등 빅데이터를 활용해 고객에게 보다 세분화된 금융 서비스를 제공하는 새로운 핀테크 기업들이 성장하고 있으며 대표적인 기업 및 서비스 사례는 다음과 같다.-정보를 한 번만 공유해주면 결제를 간편하게, 결제 중개 서비스네이버페이, 카카오페이, 토스는 어떤 플랫폼에서든지 볼 수 있는 간편결제 서비스이다. 각각 네이버파이낸셜, 카카오페이, 비바리퍼블리카의 서비스이며 간편결제 외에도 간편송금과 같은 편리한 금융 서비스를 제공한다. -인공지능을 활용해 자동 분석과 자동 투자를 해주는 주식거래 서비스투자 열풍으로 투자에 대한 관심이 커지고 접근성이 좋아지면서 플랫폼 기반 핀테크사들의 다양한 투자상품과 서비스들이 개발되고 있다. AI를 기반으로 고객 자산과 재테크 성향을 수집해 포트폴리오를 구성해주고 직접 자동화 투자 서비스를 제공하기도 한다.이외에도 복잡한 세금을 관리해주고 대신 환급을 처리해주는 서비스, 암호화 화폐, NFT 거래를 도와주는 금융 서비스 등이 핀테크에 포함된다.혁신에는 과도기가 따르는 만큼 핀테크 산업의 중심이 되는 마이데이터 사업도 편리함과는 별개로 고객 데이터 수집에 있어 개인정보보호와 관련한 우려가 대두되고 있다. 또한 금융사 및 핀테크 기업 간의 형평성 문제도 계속해서 제기된다.기술 발전의 속도에 가속이 붙는만큼 반복되는 규제와 규칙 안정화로 인한 뒤처지는 속도에 대해 핀테크 산업에서는 어떤 준비가 필요한지 생각해볼 필요가 있다. 금융사와 핀테크 기업 간 형평성 문제와 같은 산업 생태계만의 문제뿐만 아니라 고객 데이터 보호와 관련해서도 기업의 투명성과 고객 보호정책의 발전이 필요하다. 편의성의 증대만 강조하는 것이 아니라 고객 개인들의 정보와 권리를 인지하도록 해야 하며, 즉 핀테크 산업의 중심이 되는 고객 데이터에 대해 기업의 상품화나 데이터 유통의 측면에서만 바라보고 있는 것은 아닌지 주의할 필요가 있다.핀테크는 이제 테크핀이라고 불리는 전환의 국면을 맞이하며 금융 기반이 아닌 기술 기반의 산업이 되고 있다. 금융권의 기존 은행과 핀테크 기업들의 새로운 비즈니스 모델을 만들면서 그만큼 미래 하나의 산업 분야에서 어떤 편의성과 효율성을 통해 어떤 미래 금융서비스 업계가 만들어질지 핀테크 산업과 정책의 변화가 기대된다. 도움글 / (주)메인콘텐츠 윤희연 칼럼리스트</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2022.06.03.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>넥슨 ‘블루 아카이브’ 0.5주년 페스티벌 ‘성료’</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004973175?sid=105</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>이용자 참여 어워즈에 온라인 OST 음악회까지넥슨이 ‘블루 아카이브’의 0.5주년 페스티벌을 성공적으로 마쳤다.&lt;사진=사운드 아카이브, 제공=넥슨&gt; 넥슨(대표 이정헌)이 서브컬처게임 ‘블루 아카이브’ 0.5주년 페스티벌을 성공리에 마쳤다. 게임 외적인 볼거리를 다채롭게 마련하며 이용자의 호응을 얻었다. 이용자 참여 공모전은 물론 온라인 랜선 굿즈 팝업 스토어, 온라인 음악회 ‘사운드 아카이브’를 개최했다.‘블루 아카이브’는 넥슨의 개발자회사 넥슨게임즈가 제작한 미소녀 소재 서브컬처게임이다. 지난해 11월 9일 국내 및 해외 시장에 출시됐다. 넥슨은 지난 5월 ‘블루 아카이브’의 국내 서비스 0.5 주년을 맞아 페스티벌 이벤트를 전개했다.첫 포문은 5월 10일부터 22일까지 개최된 ‘블루 아카이브 어워즈’다. 이용자들이 ‘블루 아카이브’를 소재로 2차 창작물을 제작해 응모하는 방식으로 진행됐다. 게임 속 ‘샬레 부속 카페’를 자신만의 방식으로 꾸미는 ‘인테리어 전문가’, 25자 이내로 ‘블루 아카이브’를 표현하는 ‘최고의 시인’, 그림, 음악, 피규어 등 다양한 형태로 작품을 제작하는 ‘키보토스 예술가’, 실제 일상 속 ‘블루 아카이브’를 표현하는 ‘샬레 행동대장’ 등 총 네 개 분야로 개최했다.이용자들은 약 10만건의 작품을 접수하며 열띤 경쟁을 펼쳤다. ‘샬레 행동대장’ 부문 특별상을 수상한 ‘H4YA5HI’의 작품은 이용자 사이에서도 화제가 됐다. 게임 내 캐릭터 ‘시로코’의 사이클링 슈트 디자인을 반영한 오토바이를 소개하고 휴대폰 배경화면도 ‘시로코’로 설정했다. 기상 음악도 ‘블루 아카이브’ OST를 사용한다는 본인만의 사연을 제출해 호응을 얻었다. ‘블루 아카이브 어워즈’의 ‘샬레 행동대장’ 부문 특별상 수상작&lt;제공=넥슨&gt; 넥슨은 ‘블루 아카이브’의 매력적인 캐릭터들과 함께할 수 있도록 ‘온라인 랜선 굿즈 팝업 스토어’도 열었다. 모바일부터 PC 및 태블릿, 스마트워치까지 각 기기에 알맞은 배경화면을 제공했다. 특히 iOS와 안드로이드를 구분해 각 운영체제에 맞는 이미지를 선보여 이용자 편의성을 높였다.또 각종 용도로 활용할 수 있는 디지털 노트, 프로필 사진 모음, 스티커, 그림 템플릿도 선물해 이용자들이 월간 계획표를 작성하거나 메신저 프로필 사진을 설정할 때에도 ‘블루 아카이브’의 캐릭터들과 함께할 수 있게 했다.지난 5월 27일에는 ‘블루 아카이브’ 서비스 200일을 맞아 온라인 음악회 ‘사운드 아카이브’도 진행했다. 음악회에서는 ‘블루 아카이브’ OST를 밴드 및 DJ 등 다양한 편곡 버전으로 선보였다. 공연 말미에는 인기 유튜버이자 가수 라온(Raon)이 한국 버전 메인 OST ‘Target For Love’를 열창했다. 싱어송라이터 이진아의 독특한 음색을 바탕으로 청량한 분위기를 주었던 원곡과 달리 라온(Raon)만의 파워풀한 보컬과 밴드 연주가 어우러져 색다른 느낌을 선사했다.‘사운드 아카이브’ 영상은 6월 2일 기준 10만회의 조회수를 기록하기도 했다.‘블루 아카이브’ 개발을 총괄하는 넥슨게임즈 김용하 EPD는 “이용자분들께서 ‘블루 아카이브’에 보내주신 성원에 힘입어 0.5주년 페스티벌을 성공적으로 마무리할 수 있었다”라며 “앞으로도 게임 안팎으로 즐길 수 있는 다양한 콘텐츠를 제공할 수 있도록 노력하겠다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2022.06.07.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>고금리 시대 예·적금에 몰리는 돈… 만기 긴 상품은 피해야</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001531433?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>불안한 금융시장… 목돈 마련 팁코로나19 팬데믹 기간 팽창한 증시가 조정기에 들어서자 시중 자금이 증시를 이탈해 은행권 예·적금으로 몰리고 있다. 불안정한 시장 상황에 맞서 위험상품에 무리하게 투자하기보다는 안전하게 예·적금으로 수익을 얻으려는 목적이다. 단기예금, 특판상품, 파킹통장 등 본인 상황에 맞는 상품을 적절히 이용하면 목돈을 쏠쏠하게 굴릴 수 있다는 조언이 나온다. 다만 금리 인상기가 한동안 이어질 것으로 예상되는 만큼 섣불리 만기가 긴 상품에 돈을 묶는 것은 주의해야 한다.뭉칫돈 은행 예·적금으로6일 금융권에 따르면 5대 시중은행의 지난달 말 기준 예·적금 잔액은 716조5365억원이다. 5월 한 달 동안 19조9374억원이 증가했다. 반면 주식 투자 대기 자금인 투자자예탁금은 5월 3일 77조9018억원에서 5월 말 57조5671억원으로 약 20조원이 빠져나갔다. 주식 투자 열풍이 사그라들며 투자금이 안전자산으로 몰리는 형국이다. 이처럼 증시 자금이 은행권으로 이동하며 자연스럽게 고금리 예·적금 상품에 관한 관심이 폭발적으로 커지고 있다. 은행권도 이에 부응해 적금족을 잡기 위한 상품을 출시하고 있다.목적 따라 선택… 제휴 상품도 눈길최근 시중은행 상품 중에서는 최고 금리가 연 4.6%에 달하는 신한은행의 ‘안녕, 반가워 적금’이 눈에 띈다. 우대 금리를 받아야 최고 금리에 근접할 수 있는데 이 은행에서 첫 적금에 가입하거나 이벤트 페이지를 통한 가입 등 조건이 까다롭지 않다. 최대 납입금액도 월 50만원으로 적지 않다. NH농협은행은 ‘NH1934월복리적금’을 판매 중이다. 기본 금리는 최고 연 1.90%지만, 우대금리 조건 충족 시 연 5.35%까지 올라간다.이미 만들어놓은 목돈을 굴리고 싶다면 정기예금이 적합하다. 저축은행업계에서는 대부분 예금에 연 3% 이상의 이자가 붙는다. 하나저축은행에서 출시한 세바퀴 정기예금은 최고 금리가 연 3.40%다. 대한저축은행·스마트저축은행·참저축은행도 비대면 가입상품에 한해 연 3.35% 금리를 주는 정기예금을 판매 중이다. 예금자보호법에 따라 저축은행 예금도 원금과 이자를 합쳐 5000만원까지는 예금보험공사에서 지급을 보증한다.배달음식·슈퍼마켓 등 특정 업종을 자주 이용한다면 이와 연계돼 출시된 제휴상품을 활용해도 좋다. KB국민은행 ‘KB쿠폰북적금 with 요기요’는 최고 연 4.0% 이율을 제공하는 예금 상품이다. 적금 기간 13회에 걸쳐 총 3만원 상당의 요기요 할인쿠폰을 제공한다. 요기요를 통해 배달음식을 자주 시켜 먹는다면 저축과 할인을 동시에 받을 수 있는 셈이다. KB국민은행의 다른 상품인 ‘KB쿠폰북적금 with 이마트’의 경우 마찬가지로 최고 연 4.0% 금리가 제공된다. 할인쿠폰은 6회에 걸쳐 3만2000원어치가 지급된다.‘묻지마 가입’은 금물금리가 높다고 해서 섣부르게 가입하는 것은 금물이다. 각국 중앙은행의 금리 인상이 몇 차례 더 예고된 만큼 예·적금 금리가 추가로 오를 가능성이 크기 때문이다. 특히 현재 연 3%대 초중반 이율을 제공하는 저축은행들의 경우 만기를 늘려도 추가 금리가 없거나 높지 않다. 다올저축은행의 경우 12개월과 24개월 만기 ‘e-정기예금’이 동일한 이자율(연 3.25%)을 제공한다. 따라서 2~3년 만기 상품에 돈을 묶어두기보다는 6개월~12개월 만기 상품에 가입한 이후 시중 금리가 오르면 금리가 더 높은 상품으로 갈아타는 방법이 추천된다.상품에 가입한 이후 기준금리가 올라 손해를 볼까 걱정되면 ‘회전예금’을 눈여겨볼 만하다. 회전예금은 만기가 도래하지 않아도 일정 기간마다 금리 인상분을 반영해 금리를 재설정해주는 상품이다. 가령 36개월이 만기여도 12개월을 주기로 금리를 ‘회전’한다면 시중 금리가 올라간 만큼 이자를 추가로 받을 수 있다. 다만 기준금리 인상 폭(회당 0.25% 포인트)에 훨씬 못 미치는 경우가 많다는 점을 알아둬야 한다.통장 쪼개기·파킹통장도 목돈 비법‘통장 쪼개기’도 목돈을 모으는 방법의 하나다. 이따금 출시되는 신규 고객 모집용 특판 적금상품의 경우 금리가 높지만 납입 한도가 낮다. 대부분 20만~30만원선이다. 따라서 재테크족 사이에서는 이런 특판 상품을 여러 은행에서 복수로 가입하는 것이 인기를 끌고 있다. 다만 현재 은행권은 대포통장 난립을 막기 위해 통장을 한 번 개설하면 20영업일간 추가 개설을 제한하고 있다. 본인이 언제 통장을 개설했는지를 달력에 표시하고 주기를 계산해 다음 적금에 가입하는 등 ‘적금 스케줄’ 관리를 적극적으로 해야 한다.조만간 큰돈을 써야 할 일이 있거나 오랜 기간 목돈이 묶이는 게 싫다면 ‘파킹통장’도 훌륭한 선택지다. 파킹통장은 자동차를 잠시 주차(파킹)해놓듯 목돈을 잠시만 맡겨도 이자를 제공해주는 수시입출금통장이다. 대표적으로 토스뱅크는 하루만 맡겨도 매일 연 2%의 이자를 일복리로 제공해주는 토스뱅크 통장을 판매 중이다. 별도 우대금리 조건 없이 모든 고객에게 연 2% 금리를 제공한다. OK저축은행의 ‘OK e-읏통장’은 최고 연 3%까지 금리가 제공된다. 다만 토스뱅크의 경우 최고 1억원, OK저축은행은 500만원까지만 해당 금리가 적용된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2022.06.09.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>높은 인플레이션에 가격은 그대로 두고 제품 내용물 줄이는 ‘슈링크플레이션’ 확산</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003152288?sid=104</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>미국 펜실베니아주 글렌사이드에서 팔리고 있는 게토레이. 왼쪽은  946㎖, 오른쪽은 828㎖다. AP연합뉴스기업들이 제품 가격은 그대로 둔 채 수량, 무게, 용량 등을 줄여 사실상 가격을 올리는 이른바 ‘슈링크플레이션’(shrinkflation)이 세계 곳곳에서 나타나고 있다고 AP통신이 8일(현지시간) 보도했다. 기업들이 인플레이션에 따른 원재료 가격 급등 부담을 소비자들에게 몰래 떠넘기고 있다는 것이다.미국에서는 몇 달 전까지만 해도 소형 크리넥스 티슈 한 상자에 티슈 65장이 들어 있었으나 지금은 60장만 들어 있다. 초바니 플립 요거트의 무게는 150.2그램에서 127.5그램으로 줄었다. 코트넬 울트라 클린 케어 화장지는 두루마리 하나의 용량이 340장에서 312장으로 줄었다. 폴저스 커피는 1.5ℓ용기를 1.3ℓ 용기로 줄였다. 폴저스는 그러나 최신 기술로 커피콩의 무게를 줄였을 뿐 한 통으로 커피 400잔을 만들 수 있다는 점은 달라지지 않았다고 설명했다. 제과업체 프리토스는 종전에 510그램이던 스쿱스 과자 ‘파티 사이즈’의 무게를 439그램으로 줄이면서 가격마저 올렸다.영국에서는 네슬레가 네스카페 아메리카노 커피 캡슐 용량을 100그램에서 90그램으로 줄였고, 인도에서는 가정용 세제 등을 제조하는 기업 빔이 주방용 비누 무게를 155그램에서 135그램으로 줄였다. 일본 제과회사 가루비는 지난달 원재료 가격 급등으로 자사 제품 대부분의 무게를 10% 줄이고 가격도 10% 올린다고 발표했다. 가디언에 따르면, 호주에서도 네슬레, 켈로그, 캐드베리 등 유명 기업들이 내용물을 줄이면서 가격을 그대로 유지하거나 더 올린 것으로 나타났다. 슈링크플레이션을 추적해온 소비자 운동가 에드거 도스키는 AP통신에 “인플레이션 때문에 슈링크플레이션의 파도가 밀려오고 있다”면서 기업들은 소비자들이 가격 변화에는 민감하지만 내용물의 변화는 잘 눈치채지 못한다는 점을 이용한다고 말했다. 일부 기업들은 내용물을 줄이면서 포장을 더 화려하게 만드는 방식으로 소비자들을 기만하기도 한다. 공급망 전문가인 애리조나주립대의 히텐드라 챠투르베디 교수는 많은 기업들이 인력 부족 및 원재료 가격 상승과 싸우고 있지만 일부 기업들은 이 같은 상황을 이용해 큰 돈을 벌고 있다고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2022.06.08.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>상담 신청했더니 내 정보가 보험 설계사에게?…토스 보험 논란</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000289259?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>[토스 앱 내 '내 보험'에서 '5분 상담'을 신청하면 필수적으로 '고객 개인정보 수집이용'에 동의해야 한다. 이렇게 수집된 개인정보가 일부 토스 보험 설계사에게 판매됐다.(자료 : 토스 앱)토스가 자사의 보험 관련 설계사 일부에게 고객 데이터베이스(DB)를 판매한 것으로 나타나 논란이 되고 있습니다.오늘(8일) 보험업계에 따르면 토스는 최근 자사 보험인슈어런스 소속 설계사와 설계사 전용 앱 '토스보험파트너' 가입 설계사들에게 고객DB를 건당 6만9000원에 판매했습니다.토스 앱 내 '내 보험' 서비스에서 '5분 상담 신청하기'를 누르면 개인정보 수집 이용 동의를 필수적으로 해야 합니다.이렇게 동의받은 고객 정보에 대한 이용권이 토스 보험 설계사 650명에게 건당 6만9천원에 판매된 것입니다.토스는 13만명에 달하는 전체 토스 보험 설계사 가운데 평가가 우수한 3만명 정도에게 이용권을 살 수 있는 기회를 제공했고, 이 중 650명이 고객 DB 이용권을 구매했다고 설명했습니다.이같은 과정을 통해 제공된 고객 DB는 ▲성명 ▲생년월일 ▲성별 ▲보험가입 내역 등이며, 휴대전화 번호는 1시간마다 바뀌는 가상 전화번호 형태로 제공하고 있다고 덧붙였습니다.보험 설계사 입장에서는 고객 DB를 확보하는 게 쉽지 않은 만큼 고객 DB를 구매해서라도 보험 영업을 하려고 하는 니즈가 있는데, 이에 부합했다는 설명입니다.토스는 "고객DB를 '제3자 정보 제공'에 동의한 고객에게만 판매해 법적으로 문제는 없다"면서도 "고객 DB가 설계사들에게 판매될 수 있다는 점을 고지하지 않은 점이 문제로 지적된 만큼 이에 대한 동의를 받는 방안 등에 대해 검토하고 있다"고 밝혔습니다.금융당국은 추가적인 위법성 여지에 대해 살펴보겠다는 입장이어서, 금융당국의 결정에 따라 토스도 제도 변경을 하게 될 전망입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2022.06.10.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>“토스가 7억원 쐈다” 중졸에서 인생역전 24세 ‘이 남자’ 누구?</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002001488?sid=105</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>김민준 어웨이크코퍼레이션 대표[토스가 제작한 스타트업 서바이벌 ‘파운드’ 영상 중][헤럴드경제=홍승희 기자] “지금 당장 10년 뒤를 확신할 순 없다. 하지만 현재의 비효율을 파괴한다면 어느 시점에선 거대한 무언가를 만들 수 있다”(김민준 어웨이크코퍼레이션 대표의 발표 중)1999년생, 고교 중퇴. 토스의 투자를 받은 창업가 김민준 어웨이크코퍼레이션 대표의 이력이다. 고등학생 시절부터 포브스의 영향력 있는 리더로 선정되는 등 ‘연쇄 창업가’라는 별명을 가지고 있는 김 대표는 토스가 진행한 스타트업 서바이벌에서 우승컵을 손에 넣었다.토스는 스타트업 생태계에 활력을 불어넣겠다며 자사의 유튜브 채널을 통해 스타트업 서바이벌 '파운드'를 진행했다. 지난 8일엔 마지막 회가 공개되며 최종 우승자가 가려졌다. 파운드는 예고편부터 6화까지 누적 조회수가 70만회를 기록하는 등 창업을 꿈꾸는 청년들로부터 뜨거운 관심을 받았다.1위는 김민준 대표가 이끄는 스타트업 ‘어웨이크코퍼레이션’으로 이 회사는 총 7억원의 투자를 받게 됐다. 어웨이크코퍼레이션은 크리에이터가 MCN(다중채널네트워크) 없이 1인 기업으로 성장할 수 있는 솔루션을 제공하는 스타트업이다. 2위는 보안 강화가 필요한 기업에게 ‘버그바운티’ 방식의 대규모 보안점검을 제공하는 ‘해킹존’이, 3위는 반려동물 등록 서비스 플랫폼 ‘페오펫’이 차지하며 각각 2억원, 1억원의 투자금을 받게 됐다.토스 이승건 대표[출처 토스 유튜브]토스의 스타트업 서바이벌 파운드 중 한 장면[출처 토스 유튜브]투자는 조건부 지분 인수계약으로 진행된다는 설명이다. 조건부 지분 인수계약 방식은 기업 가치를 산정하지 않고 투자를 진행한 후, 후속 투자가 이뤄졌을 때의 기업 가치 평가에 따라 투자자들의 지분율을 결정하는 방식이다.심사위원에는 이승건 토스 대표를 비롯해 박재욱 쏘카 대표, 한킴 알토스벤쳐스 대표 등 다수의 파트너들이 포함됐다. 코리아스타트업포럼 차기 의장에 선발된 쏘카 박 대표는 비트윈, 타다, 쏘카 등 이용자의 ‘니즈’를 꿰뚫는 서비스를 탄생시킨 주역으로 평가받는다. 한킴 대표는 스타트업이 투자받고 싶은 1위 VC 알토스벤쳐스를 이끌며 ‘유니콘 제조기’란 별명을 가지고 있다.명성 높은 심사위원에게 극찬을 받으며 우승을 거머쥔 김민준 어웨이크코퍼레이션 대표는 특별한 이력을 가지고 있다. 1999년생, 24세의 김 대표는 18살 때 동탄국제고를 자퇴하고 창업에 뛰어들었다. 고등학교 시절부터 메디칼 케어 O2O 플랫폼 바오바브코리아를 설립해 중국 의약품 시장에 충격을 안겼으며 2017년 미국 경제지 ‘포브스’는 ‘아시아에서 가장 영향력 있는 30세 이하 리더’ 중 한 사람으로 선정하기도 했다.김 대표는 우승한 데 대해 “늘 불안정한 상태로 가설을 검증하는 과정에 있는 스타트업 씬에서, ‘파운드’를 통해 ‘어웨이크코퍼레이션’이 바라보는 사명에 대한 확신과 믿음을 갖게 됐다. 생태계 조성을 위해 힘쓰고 계신 파트너 분들께 보답하기 위해, 함께한 파운더 분들에게 부끄럽지 않기 위해 겸허한 태도로 계속 도전하고 노력하겠다”고 소감을 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2022.06.07.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>[THE FINANCE] 통장에 넣어둔 여윳돈… 저절로 쌓이는 목돈</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002737835?sid=101</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>국민·신한·하나·우리·농협 수신상품 금리 '최대 3%대'토스뱅크, 은행권 최초 '2% 일복리' 지급 파격적 시도경남·부산 등 지방은행은 일부 상품에 '4%대' 승부수주요은행 이미지. 연합뉴스    '정기예금' 안정적 수익으로 몰리는 금융소비자한국은행의 기준금리 인상으로 주요은행들이 수신금리를 상향하면서 정기예금 금리가 2%를 훌쩍 넘어섰다. 이에 따라 금융소비자들은 여윳돈을 은행에 맡겨 안정적인 수익을 내는 등 이전과는 다른 투자 움직임을 보이고 있다.국민은행은 지난달 말 정기예금 및 적립식예금 34종의 금리를 최고 0.3%포인트 인상했다. 상품별로 살펴보면 '사업자우대적금'과 사회초년생을 위한 'KB국민첫재테크적금'의 금리를 0.3%포인트 올린다. KB더블모아 예금의 경우 1년만기 기준 최고 연 2.55%로 변경되며, KB국민프리미엄적금(정액적립식)의 경우 5년만기 기준 최고금리가 3.75%로 올라간다.신한은행도 수신금리를 올렸다. 정기예금 및 적립식 예금 36종의 금리가 최대 0.4%포인트 상승했다. 신한은행의 대표 정기예금인 S드림 정기예금 금리는 만기별 0.2~0.4%포인트 인상되며 대표 적립식 상품인 '신한 안녕, 반가워 적금' 1년만기는 최고금리 연 4.6%로 변경된다. 또한 서민의 목돈 마련을 지원하는 적립식 상품인 신한 새희망 적금 금리는 0.3%포인트 인상돼 최고 연 5.0%가 적용된다.하나은행은 총 22개 수신 상품에 대해 최고 0.25%포인트 금리를 올렸다. '급여하나 월복리 적금'과 '주거래하나 월복리 적금'은 1년 만기 기준 최고 연 2.95%에서 3.20%로, 3년 만기 기준 최고 연 3.25%에서 3.50%로 각각 0.25%포인트 상향된다. 또 중도해지를 하더라도 고금리를 적용받을 수 있는 '369 정기예금' 1년제의 경우 기본금리가 0.25%p 인상돼 최고 연 2.05%가 적용된다.우리은행은 한은 금리인상 직후 수신금리 인상에 나섰다. 우리은행은 22개 정기예금과 16개의 적금 금리를 최고 0.40%포인트 인상했다. 우리은행의 비대면 전용상품인 '우리 첫거래우대 예금'은 최고 연 2.8%에서 최고 연 3.1%로 'WON 예금'은 최고 연 2.30%에서 최고 연 2.50%로 상향한다. 비대면 전용 적금인 'WON 적금'은 최고 연 2.80%에서 최고 연 3.00%로, '우리 으쓱(ESG) 적금'은 최고 연 2.65%에서 최고 연 2.90%까지 인상된다. 우리아이행복적금은 기존 1.55%에서 1.95%로 0.40%포인트 상향된다. 나머지 상품들은 0.10∼0.30%포인트씩 오른다.농협은행도 거치식예금(정기예금)은 연 0.25∼0.3%포인트, 적립식 예금(적금)은 연 0.25∼0.40%포인트 인상했다. 이에 따라 수신 금리 매력이 약화된 인터넷전문은행도 경쟁에 동참하는 모양새다. 하루만 넣어도 2%대의 금리를 제공하는 파킹 통장을 통해 이용객을 끌어모은 인터넷은행들은 정기예금 금리를 대폭 올려 차별화에 나섰다.케이뱅크 CI. 케이뱅크 제공    케이뱅크는 지난 1일부터 '코드K정기예금'의 금리를 기간별로 최대 연 0.7%포인트 인상했다. 이에 따라 코드K정기예금의 가입기간 1년 이상 2년 미만은 연 2.40%에서 연 3.00%로 연 0.6%포인트, 2년 이상 3년 미만은 연 2.55%에서 연 3.20%로 연 0.65%포인트, 가입기간 3년은 연 2.80%에서 연 3.50%로 연 0.7%포인트 올랐다.가입기간 3개월 이상 6개월 미만까지는 연 1.70%에서 연 1.80%로 연0.1%포인트, 가입기간 6개월 이상에서 12개월 미만까지는 연 2.00%에서 연 2.30%로 연 0.3%포인트 상향됐다. 이번 인상으로 케이뱅크의 1년 이상 정기예금의 금리는 일제히 연 3%대로 올라섰다.또한 케이뱅크는 가입 후 14일 이내에 금리가 오르면 오른 금리를 소급일로부터 적용하는 금리보장 서비스를 적용하고 있다. 이에 따라 지난달 19일부터 코드K정기예금에 가입한 고객은 이번 금리 인상의 혜택이 소급 적용된다. 케이뱅크가 특판에 나선 자유적금은 10만좌를 돌파하기도 했다. 새로운 브랜드 캠페인을 진행하면서 최대 연 5.0%를 받을 수 있는 '코드K 자유적금'이 출시 이틀 만에 10만좌를 넘어섰다. 지난 1일 앱 공지를 통해 1만좌 한정 우대금리 연 2.0% 이벤트(1년 연 4.6%, 2년 연 4.7%, 3년 연 5.0%)를 실시한 결과 지난 2일 자정까지 10만4229좌를 기록했다. 이에 케이뱅크는 목돈 모으기 상품인 '챌린지박스'의 금리 최고 연 3.0%로 인상한다. 기존 연 2.6% 금리를 최고 연 3.0%로 0.4%p 인상했다. 기본금리 연 1.5%에 목표일까지 모으기를 성공하면 우대금리 연 1.5%가 적용돼 연 3.0%의 이자를 받을 수 있다.카카오뱅크는 지난달 초 수신금리를 인상했다. 100만원부터 금액 제한이 없는 정기예금의 경우 12개월 2.25%, 36개월 2.7%를 준다. 자유적금은 월 1000원부터 300만원까지 자유롭게 납입할 수 있다. 적용 금리는 12개월 2.40%(자동이체 +0.2%), 36개월 2.8%(자동이체 +0.2%)다. 소액 적금으로 인기를 끌고 있는 26주 적금의 경우 1000원, 2000원, 3000원, 5000원, 1만원 중 선택 가능하다. 26주 자동이체와 만기달성 시 2.6%의 금리를 준다. 수시입출금이 가능한 '파킹 통장' 개념의 세이프박스는 최대 1억원으로 금리 1.2%가 붙는다.토스뱅크 로고. 토스뱅크 제공    토스뱅크는 2% 금리를 제공하는 수시 입출금 통장 하나만 운영 중이다. 토스뱅크는 수신금리 인상 대신 은행권에서 처음으로 '일복리'를 주는 파격적인 시도에 나서기도 했다. 토스뱅크의 '지금 이자받기' 서비스는 고객이 매일 통장에 들어있는 금액에 대해 이자를 지급받을 수 있다. 4월 말 기준 상시 이용고객이 100만명을 넘어섰고, 지급된 이자는 총 261억5600만 원이다. 이는 고객 1인당 평균 약 2만6156원의 이자를 받은 셈이란 설명이다.지방은행도 다양한 상품에 대해 수신금리를 인상했다. 부산은행은 예금 상품은 0.15%포인트에서 최대 0.25%포인트, 적금 상품은 0.20%포인트에서 최대 0.30%포인트 올렸다. 우대이율을 고객이 직접 선택해 가입·변경할 수 있는 상품인 'BNK내맘대로 예금' 금리는 1년제 기준 연 2.40%로 0.25%포인트 오른다. 적금 상품으로는 월드엑스포 부산유치 기원 상품인 '2030부산월드엑스포적금' 금리를 3년제 기준 최고 연 4.30%에서 연 4.60%로 0.30%포인트 인상한다.경남은행 수신금리인상. 경남은행 제공    경남은행은 수신상품 금리를 최대 0.45%포인트 올리고 특판 정기적금 판매에 나섰다. 정기예금, 마니마니정기예금, 주택청약예금 등 거치식예금 7종과 정기적금(고객님 감사합니다), 마니마니자유적금, 행복DREAM적금 등 적립식예금 19종은 0.25%포인트 오른다. 이에 따라 정기적금(고객님 감사합니다)은 3년제 가입에 우대금리 조건을 모두 충족할 경우 최고 연 4.72% 금리를 받아볼 수 있다. 경남은행 창립 52주년을 기념해 오는 10월 31일까지 특판 중인 정기적금(고객님 감사합니다)은 총 2만좌 한정이다. 직원이 드리는 우대금리(1.50%), 가입 기간 24개월 이상(0.50%), 창립 52주년 기념 추첨 5200명(0.52%) 등 조건 충족 여부에 따라 우대금리를 제공한다. 또 '2022 BNK 야구사랑정기예금'은 기본금리에 우대금리 조건을 모두 충족할 경우 1년제는 최고 연 3.0%, 2년제는 최고 연 3.2% 금리를 준다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2022.06.09.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>산업은행·무역협회, 글로벌 스타트업 페어 '넥스트라이즈' 개최</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006148557?sid=101</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>이달 16~17일 진행…현대차 등 대기업 및 유니콘 기업 참여산업은행 본점 전경© 뉴스1(서울=뉴스1) 김상훈 기자 = KDB산업은행은 오는 16~17일 서울 삼성동 코엑스에서 국내 최대 글로벌 스타트업 페어인 '넥스트라이즈 2022 서울'(NextRise 2022, Seoul)을 개최한다고 9일 밝혔다.올해 4회차인 이 행사는 산업은행이 무역협회, 국가과학기술연구회, 벤처기업협회, 한국벤처캐피탈협회 등과 함께 공동으로 주최하는 국내 최대 스타트업 페어다.이번 부스 전시에는 역대 최다인 310여개의 스타트업이 참여한다. 현대차, LG, 아마존웹서비스(AWS) 등 국내외 대기업은 물론 직방, 리디 등 유니콘 기업과 다양한 벤처 생태계 구성원들이 함께 한다.올해는 대학관과 글로벌존이 확대 설치된다. 대학관에는 포스텍 등 창업이 활발한 9개 대학의 30개 스타트업이 참여한다. 글로벌존에는 미국, 스페인 등 11개국의 30개 스타트업이 참여한다.사업협력과 투자유치를 위해 마련된 1대1 상담에는 국내외 1000여개 스타트업과 175개 대·중견기업, 투자자 등이 참여할 예정이다. 사전 검토를 통해 상호 매칭된 기업이 현장에서 약 2000회의 협력 상담을 진행한다.아울러 국내외 유명인사들의 스타트업 트렌드 및 해외진출 등에 대한 강연 무대도 준비됐다. 토스, 직방, 오늘의집, 브랜디, 뤼이드 등 국내 대표 유니콘 기업과 캐러셀, 루앙구루 등 동남아 유니콘의 창업자들이 직접 무대에서 다양한 강연을 펼칠 예정이다.또 별도 채용 설명회를 마련해 다양한 스타트업 채용정보를 제공하며 현장에서 AI(인공지능) 모의 면접 체험도 진행한다. 산업은행 관계자는 "넥스트라이즈 2022는 국내 스타트업 생태계의 글로벌화, 창업 열기 확산 등에 중점을 두어 준비했다"며 "우리나라 스타트업 생태계가 한 단계 점프업 할 수 있도록 지속 발전시켜 나갈 계획"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2022.06.08.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>보통주자본비율, 카카오·농협 오르고 하나·우리 떨어져</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002737989?sid=101</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>지난해 국내은행의 BIS기준 보통주자본비율은 12.99%로 전년도와 같은 것으로 나타났다. 모든 은행이 규제비율을 상회한 가운데 위험가중자산 증감 영향으로 보통주자본비율 추세가 상이했다.금융감독원이 8일 발표한 '3월말 은행지주회사 및 은행 BIS기준 자본비율 현황(잠정)' 기준에 따르면 국내은행의 BIS기준 보통주자본비율, 기본자본비율, 총자본비율 및 단순기본자본비율은 각각 12.99%, 14.22%, 15.52% 및 6.42%로 나타났다.전년말 대비 총자본비율 및 단순기본자본비율은 소폭 하락했지만 보통주자본비율은 동일하고, 기본자본비율은 소폭 상승했다.금감원은 이에 대해 "대출 증가 등으로 위험가중자산이 확대(+51.7조원, +2.6%)되었으나, 순이익 시현·증자 등으로 자본도 증가(+7.7조원, +2.5%)하면서 자본비율이 전반적으로 전년말과 유사한 수준을 유지했다"고 설명했다.규제비율은 보통주자본 7.0%, 기본자본 8.5%, 총자본 10.5%이고 단순기본자본비율 3.0%(은행지주는 미도입)이다.3월말 현재 모든 은행은 규제비율을 상회하고 있는 상황이다. 세부 은행을 살펴보면 위험가중자산이 감소하거나 증자 등으로 자본 증가폭이 상대적으로 컸던 카카오·SC·농협·씨티·BNK·산업 등 6개 은행은 자본비율이 전년말 대비 상승했다. 반면 위험가중자산 증가율이 자본 증가율을 상회한 케이·수출입·하나·우리·수협·DGB·신한·JB·KB·기업 10개 은행은 자본비율이 소폭 하락했다.토스뱅크의 경우 2023년까지는 바젤Ⅰ 적용으로 완충자본 및 단순기본자본비율 규제를 적용하지 않는다.금감원은 "국내은행의 자본비율은 전년말과 유사한 수준을 유지하는 등 자본적정성은 양호하다"면서도 "최근 시장금리가 급등하는 등 금융시장 변동성이 확대되고, 국내외 경기침체 우려 등 대내외 경제여건이 악화되고 있어 예상치 못한 손실이 확대될 가능성에 대비할 필요가 있다"고 했다.그러면서 "대내외 경제 충격에도 은행이 충분한 손실흡수능력을 바탕으로 자금중개기능을 충실히 수행할 수 있도록 은행의 자본확충을 지속적으로 유도할 예정이다. 은행의 핵심 손실흡수능력을 나타내는 보통주자본비율 중심으로 감독을 강화함으로써 은행의 자본충실도를 제고해 나갈 방침"이라고 말했다.3월말 우리나라 은행 보통주자본비율이 모두 규제를 상회하는 것으로 나타났다. 연합뉴스</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2022.06.02.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>토스뱅크, 은행 최초 지불카드 보안 표준 최상위 등급 획득</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004845677?sid=101</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>토스뱅크의 '지불카드업계 정보보안표준(PCI-DSS)' 레벨 1 획득 홍보 이미지. 토스뱅크 제공  [파이낸셜뉴스] 토스뱅크는 국내 은행권 최초로 글로벌 신용카드 데이터 보안인증인 '지불카드업계 정보보안표준(PCI-DSS)' 인증을 획득했다고 2일 밝혔다.   PCI-DSS는 정보가 전송되는 과정에서 카드 소유자의 데이터 등을 안전하게 보호하고 있는지를 검증하는 표준이다. 이번 인증 획득으로 토스뱅크는 고객의 카드 정보가 강도 높은 보안 정책에 따라 보호되고, 전송 및 저장되는 모든 처리 영역에서 암호화되고 있어 중도 노출 위험도 없다는 점을 인정받은 셈이다.   토스뱅크는 이번 인증 심사에서 △카드 소유자 데이터 및 민감한 데이터의 저장, 전송, 처리 절차카드 결제 프로세스 안정성 △정보보호 대책과 시설 및 설비 운영·보안관리 절차 등 총 12개 분야 412개 세부 항목에 대해 종합적으로 평가 받았다.   특히 토스뱅크는 레벨 1부터 4까지 중 최상위 등급인 레벨 1을 받았다. 이번 심사는 'PCI 보안표준위원회'로부터 인증심사 기관으로 지정받은 브로드밴드시큐리티 한국지점이 심사를 진행했다.   아울러 PCI-DSS 인증 획득 후에는 분기마다 준수 상태 검토 및 준수 여부를 증명해야 하기 때문에 토스뱅크 고객들은 보다 안전하게 토스뱅크의 체크카드를 이용할 수 있다. 현재 토스뱅크 고객의 80% 이상이 토스뱅크 체크카드를 사용하고 있다. #신용카드 #토스뱅크 #PCI-DSS #정보보안표준</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2022.06.15.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>프로배구 스타의 재능기부… 홍천 찾은 한전 빅스톰 배구단</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000680881?sid=102</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>서재덕·오재성·황동일 '원 포인트' 레슨지원 프로그램 지속 유망주 발굴 계획남자 프로배구 한전 빅스톰은 간판스타인 오재성과 서재덕, 황동일(뒷줄 오른쪽부터)이 15일 강원 홍천군민스포츠센터를 찾아 배구 꿈나무들에게 원 포인트 레슨을 하는 자리를 마련했다. 한전 제공"배구 꿈나무들을 응원할게요."남자 프로배구 한국전력 빅스톰 배구단이 15일 강원 홍천군을 찾아 유소년 선수들에게 재능기부에 나섰다.이날 홍천 남산초교와 홍천중·고교 선수들은 아웃사이드 히터(레프트)와 아포짓 스파이커(라이트) 포지션을 두루 소화하는 서재덕(33)과 리베로 오재성(30), 세터 황동일(36)과 함께 알토란 같은 시간을 보냈다.국가대표를 지낸 팀의 간판인 이들은 유소년 선수 27명과 스텝과 토스, 스파이크, 리시브 등 기본기와 전술훈련을 함께했다. 레슨 이후엔 유니폼과 운동화를 전달하고 어린 선수들과 소통의 시간을 갖는 등 의미 있는 하루를 보냈다.한전은 배구열기가 뜨거운 홍천지역 선수들과 팬을 위해 이날 자리를 마련했다. 남산초교와 홍천중고는 부족한 선수층에도 전국대회에서 상위권 성적을 유지하는 지역사회의 자랑이다. 이들 학교는 전문클럽 형태로 운영해 배구계에서도 많은 관심을 갖고 있다.한전은 올 겨울 선수들을 V리그 정규시즌 경기에 초대하고 비시즌에도 지원활동을 지속해 유망주 발굴에 나설 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2022.06.03.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>토스뱅크, 결제 데이터 PCI-DSS 최고레벨 보안인증 획득</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003701868?sid=101</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>토스뱅크는 국내 은행권에서 최초로 글로벌 신용카드 데이터 보안인증인 ‘지불카드업계 정보보안표준(PCI-DSS·Payment Card Industry Data Security Standard)’ 인증을 획득했다고 2일 밝혔다.   PCI-DSS는 정보가 전송되는 과정에서 카드 소유자의 데이터 등을 안전하게 보호하고 있는지를 검증하는데 목적이 있다. 고객의 카드 정보는 강도 높은 보안 정책에 따라 보호되며, 전송 및 저장되는 모든 처리 영역에서 암호화되고 있어 중도에 노출될 우려도 없다.    토스뱅크가 이번에 받은 인증은 레벨 1~4 중 최상위 등급으로 국내 은행권에서는 최초다. 이번 심사는 ‘PCI 보안표준위원회’로부터 인증심사 기관으로 지정받은 브로드밴드시큐리티 한국지점이 심사를 진행했다.    카드를 소유한 고객의 경우 개인정보와 신용카드번호, 각종 추가 정보를 포함한 거래정보가 이른바 ‘민감정보’로 다뤄진다. 이들 정보는 고객이 결제를 할 때마다 카드사가 구축한 인프라를 통해 전송되는데, 이 과정에서 보안이 취약할 경우 탈취되거나 노출되는 문제가 발생한다.   토스뱅크는 이번 인증 심사에서 △카드 소유자 데이터 및 민감한 데이터의 저장, 전송, 처리 절차 △카드 결제 프로세스 안정성 △정보보호 대책과 시설 및 설비 운영·보안관리 절차 등 총 12개 분야 412개 세부 항목에 대해 종합적으로 평가받았다. 아울러 PCI-DSS 인증 획득 후에는 분기마다 준수 상태 검토 및 준수 여부를 증명해야 하기 때문에 토스뱅크 고객들은 보다 안전하게 토스뱅크의 체크카드를 이용할 수 있다. 현재 토스뱅크 고객의 80% 이상이 토스뱅크 체크카드를 사용하고 있다.   토스뱅크 체크카드는 현재 커피·패스트푸드·편의점·택시·대중교통 등 5대 생활밀착형 업종에서 결제하면 캐시백 혜택을 준다. 해외결제는 온·오프라인 구분 없이 이용금액의 3%를 즉시 캐시백하고 있다. 또한 NFC(근거리 무선통신) 기술을 활용한 OTP 기능을 탑재해, 휴대폰 뒷면에 체크카드를 접촉하면 안전하고 손쉽게 고액 송금이 가능하도록 했다.   토스뱅크 관계자는 “이번 PCI-DSS 인증은 외부 컨설팅 없이 토스뱅크가 자체적으로 준비하여 보안 인증을 취득해 그 의미가 크다”며, “급변하는 ICT 사회에서 새로운 위협과 기술에 적극 대응하고 보안성과 안정성을 지속 강화해나갈 것”이라고 말했다.    PCI-DSS 인증은 비자(Visa), 마스터카드(MasterCard), 아메리칸익스프레스(American Express) 등 6개 국제브랜드 카드사가 공동으로 카드정보 해킹, 도난, 분실 등의 사고로부터 고객의 신용카드 정보를 보호하기 위해 마련한 카드결제 국제 보안표준 인증이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2022.06.15.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>[업앤다운] 네이버페이 1위 굳히는데…길 잃은 카카오페이</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003129556?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>[일간스포츠 권지예]   -    간편결제 경쟁자 네이버페이과 카카오페이의 온도 차가 극명하다. 네이버의 간편결제 서비스 부문으로 독립한 네이버파이낸셜은 네이버쇼핑을 기반으로 급격히 몸집을 키우며, 곧장 흑자 서비스로 1위 자리를 지키고 있다.    이에 반해 카카오페이는 짙은 그늘이 드리워졌다. 곤두박질친 주가는 말할 것도 없고, 가능성 있는 금융사업에 계속해서 발을 들이면서도 내로라할 성적을 보여주지 못하며 좀처럼 턴어라운드에 실패하고 있다.        신뢰 잃은 카카오페이, 턴어라운드 언제쯤 지난 한 주 동안 카카오페이는 암울한 시간을 보내야 했다. 지난 7일부터 10일까지 한주 내내 주가가 하락 마감하며, 21%가량 빠진 것이다.      이달 초까지만 해도 10만원을 웃돌던 카카오페이 주가는 이내 공모가 밑으로 떨어졌고, 7만원대까지 추락하며 투자자들을 울렸다. 13일 카카오페이 최저가는 7만6900원이었다.     여기에는 카카오페이의 2대 주주인 알리페이가 보유 지분 500만주를 블록딜로 매각한 영향이 컸다. 이는 카카오페이 총 발행 주식의 2.77% 수준이다. 알리페이는 당초 카카오페이 지분 38.52%에 달하는 5101만5205주를 보유하고 있었는데, 지난달 상장 6개월을 맞아 보호예수가 전량 해제됐다.     알리페이의 잔여 지분에 대해서는 120일 동안 보호예수가 적용된다. 다만 알리페이 지분이 높은 만큼 오버행(잠재적 물량 출회 가능성) 우려가 남아있다는 점도 투자심리 악화로 나타나고 있다.     삼성증권은 목표 주가를 기존 16만2000원에서 12만원으로 낮췄고, SK증권은 14만5000원에서 11만원으로 내렸다.     최관순 SK증권 연구원은 카카오페이에 대해 "4분기 연속 영업적자에 따른 수익성 개선 지연으로 목표 주가를 하향한다"고 했다.     말 그대로 카카오페이는 흑자전환을 하지 못하고 있다.     카카오페이는 올해 1분기 10억7900만원의 영업손실을 냈다고 공시했다. 작년 2분기부터 4분기 연속 적자다.       올해 2분기 전망도 밝지 않다. 금융정보업체 에프앤가이드에 따르면 증권사들이 예상한 카카오페이의 이번 2분기 영업손실은 34억원이다. 지난해 2분기부터 5개 분기 연속 적자가 유력해진 셈이다.       카카오페이의 월간 활성 이용자 수(MAU)는 2156만명에 달하지만, 이용률이 실적으로 이어지지 못하고 있다는 목소리가 나온다.     판은 이미 키워놨다. 카카오페이는 간편결제 서비스는 물론이고 증권, 보험을 아우르는 종합 금융 플랫폼을 지향한다. 이에 이미 보험대리점(GA)부터 증권, 디지털손해보험 등의 라이선스를 획득한 상태다.       카카오페이증권MTS(모바일트레이딩시스템)는 문을 열고 거래는 물론 13일에는 주식 선물하기 서비스를 추가하는 등 카카오 DNA인 '기발함'을 섞은 콘텐츠를 계속해서 시도하고 있다. 하반기에는 카카오톡에서 주식 종목을 공유하고 시세를 확인할 수 있게 되고 다양한 대출 서비스도 내놓는다는 계획이다.       가장 기대가 큰 디지털손해보험사는 3분기 첫 상품 출시로 본격 영업을 시작한다. 손해율이 높은 자동차보험과 장기보험 등은 배제하고 단기 상품을 위주로 한 생활밀착형 보험 판매에 집중한다는 계획이다. 카카오모빌리티와 연계해 택시나 바이크, 대리기사 등 소액 단기 보험 같은 상품으로 카카오그룹 내 시너지를 낼 수도 있다.     최 연구원은 "하반기에는 카카오톡을 통한 주식거래, 디지털 손해보험사 등 성장세가 확대되며 연간 영업이익은 흑자전환이 가능할 전망"이라고 내다봤다.     서비스가 착착 준비돼가는 과정 중에 해결해야 할 가장 큰 문제는 '신뢰 회복'이다. 경영진 먹튀 사건으로 무너진 주주와 소비자들의 신뢰는 단기간에 제자리를 찾을 것 같지 않은 분위기다.     굳건한 네이버페이, 서비스 확대는 과제로  네이버페이는 단단하다. 흔들리지 않고 간편결제 서비스 사업자 압도적 1위를 유지하며, 몸집을 키우고 있는 모습이다.     네이버파이낸셜은 지난해 459억원의 영업이익을 올렸다. 2019년 설립한 네이버파이낸셜은 이듬해인 2020년에도 363억원의 영업이익을 거두며 흑자를 냈다. 올해 1분기도 흑자 기조를 유지하고 있는 것으로 알려졌다.     다른 페이사에 비해 결제 규모도 월등히 많다. 윤창현 국민의힘 의원실이 최근 공개한 자료에 따르면 지난해 네이버파이낸셜의 결제 규모는 44조188억원, 지난 1분기에만 11조2000억원이었다. 지난해 기준 카카오페이 결제액은 17조4536억원, 토스는 2조1978원이다.     성장 배경은 역시 네이버쇼핑 결제 수단으로 네이버페이가 사용된다는 점이다. 특히 네이버페이 포인트 적립 혜택이 소비자를 당겼다는 분석이다.     30대 직장인 김 모 씨는 "어느 사이트에서 쇼핑하든지 간에 간편결제가 있는지 꼭 확인하게 된다. 앱카드 결제 같은 수단보다 간편결제가 훨씬 편리하기 때문"이라며 "네이버페이와 카카오페이가 모두 있을 때는 아무래도 적립을 많이 해주는 네이버페이를 열게 된다"고 말했다.     월 4900원을 주면 적립 혜택을 크게 늘려주는 '네이버플러스' 멤버십 역할도 소비자들을 락인(가두기) 시키는 효과를 주고 있다. 이 멤버십은 보통 사용처에 따라 결제금액의 3~5%를 적립해준다. 이에 지난해 말 기준 멤버십 가입자 수는 600만명을 넘어섰다.    네이버페이로 탄탄대로를 걷고 있기는 하지만, 새로운 서비스에 대한 도전은 미약하다는 평가가 나온다. 카카오페이와 비교해 금융 사업에 대한 라이선스 획득이 더디다.     네이버파이낸셜은 지난해 9월 대출중개 서비스를 위한 라이선스를 획득했다. 은행, 저축은행, 카드사 등 금융사의 대출상품을 비교할 수 있는 대출비교 서비스를 오는 3분기에 출시한다는 계획이다.         금융업계 관계자는 "네이버파이낸셜은 사업에 직접 뛰어들기보다는 타 금융사와 함께 협업하며 상품을 보여주는 방식의 플랫폼 역할의 서비스를 구성하는 듯 보인다"며 "자체적으로 사업을 진행하지 않는다는 점에서 한계는 있을 것"이라고 말했다.    권지예 기자 kwonjiye@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2022.06.02.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>청와대 하루 관람 1만명 더 늘린다...추첨제→선착순</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011224808?sid=103</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>기사내용 요약기존 3만9000명→4만9000명으로 확대'청와대 개방 누리집'으로 창구 단일화3일 오전 10시부터 접수[서울=뉴시스] 고승민 기자 = 16일 서울 종로구 청와대를 찾은 관람객들이 군 의장대 장병들의 공연을 관람하고 있다. 2022.05.16. kkssmm99@newsis.com[서울=뉴시스] 신효령 기자 = 오는 12일부터 청와대 일일 관람 정원이 1만명 늘어난다. 예약 창구도 단일화된다.문화재청 청와대국민개방추진단은 "청와대를 상시 개방함과 동시에 그동안 여러 경로(네이버·카카오·토스)로 나눠져 있던 신청창구를 단일화해 새로운 관람예약시스템 '청와대개방누리집'을 도입했다"고 2일 밝혔다. "네이버·카카오·토스 등 민간 플랫폼을 통한 청와대 관람 신청 인원은 5월31일 기준 659만여명이며, 이중 총 57만4000여명이 실제 관람을 했다"고 덧붙였다.청와대국민개방추진단은 12일부터 일일 관람 인원을 기존 3만9000명에서 4만9000명(현장발급 1000명 포함)으로 확대했다. 회당 입장객이 6500명에서 8000명으로 늘어났으며, 하루 6차례에 걸쳐 1시간30분 단위로 입장을 구분한다.인터넷 접수가 힘든 65세 이상 어르신·장애인·외국인에 한해 각각 500명씩 하루 두 차례(오전 9시·오후 1시30분) 영빈문 안내데스크에서 현장발급을 지원한다. 65세 이상 어르신은 주민등록증·운전면허증·여권, 장애인은 장애인등록증, 외국인은 여권·외국인등록증 등의 신분증을 제시해야 한다.관람자 선정 방식은 추첨제에서 선착순으로 변경했다. 관람 시간도 '오전 7시~오후 7시'에서 '오전 9시~오후 6시'로 조정됐다. 휴관일은 매주 화요일이다.[서울=뉴시스] 배훈식 기자 = 제8회 전국동시지방선거일인 1일 오후 서울 종로구 청와대를 찾은 시민들이 경내를 거닐며 휴일을 보내고 있다. 2022.06.01. dahora83@newsis.com12일부터의 관람 신청은 3일 오전 10시부터 가능하다. 관람을 원하는 국민은 청와대개방 누리집에 접속한 뒤 관람 희망일을 선택하면 된다. 선착순 접수 결과에 따라 선택한 날짜에 관람할 수 있게 된다.2일부터는 청와대와 연계된 북악산 등산로 중 삼청동 방면 출입구를 춘추관으로 옮긴다. 이에 따라 시민들이 보다 쉽게 청와대 연계 등산로를 통해 북악산을 오를 수 있다. 지난달 10~31일 북악산을 찾은 등산객은 전년 동기대비 약 7배 증가한 9만4000여명으로 집계됐다.문화재청 청와대국민개방추진단은 쾌적한 관람환경 제공을 위해 편의시설을 확충하는 등 청와대를 국민 모두가 함께하는 역사문화공간으로 적극 조성할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2022.06.09.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>[성공예감] 갓생 살며 추가 소득 버는 MZ 트렌드 - 슈미트 조가연 수석팀장</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011280612?sid=101</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>■ 인터뷰 자료의 저작권은 KBS 라디오에 있습니다.  인용보도 시 출처를 밝혀주시기 바랍니다.■ 프로그램명 : 성공예감 김방희입니다■ 방송시간 : 6월 8일(수) 09:05-10:53 KBS1R FM 97.3 MHz■ 진행 : 김방희 소장 (생활경제연구소)■ 출연 : 조가연 수석팀장 (슈미트)- 블록체인과 결합된 웹3.0으로 플랫폼에 참여하고 돈을 버는 X to Earn 방식 늘어- 모든 기업과 플랫폼의 목표는 고객 확보... 돈을 주는 건 가장 쉽고 빠른 마케팅- 호주 스테픈, 대표적인 M2E(Move to Earn)... 걸으면서 암호화폐 채굴하는 방식- 국내에도 걸으면 포인트 주는 캐시워크 이용자 많아... 비즈니스 모델도 양호한 편- P2E(Play to Earn) 동남아 젊은 세대 사로잡아... 싱가포르 가상화폐 발행 합법화 등 영향- 습관을 형성하는 챌린지 서비스 인기... 일상을 인증하면 보상- 회사는 기업 간 제휴 사업으로 수익 창출... 브랜드 이미지 구축용 플랫폼으로 사용하기도- MZ세대 소비보다는 작더라도 돈을 벌 수 있는 짠테크쪽으로 관심 이동- 코로나 이후에도 갓생 트렌드 지속될 것... 운동 경제 트렌드도 활발- 기존의 기업만 돈을 벌었다면, X2E는 소비자도 이익 공유하는 공익성 담겨◇김방희&gt; 대부분 우리 중장년층은 시간 팔아서 돈 번다는 얘기가 실감날 정도였죠. 그러니까 직장인이라면 회사에서 일한 만큼 봉급 받고 식당 사장님이라면 음식을 판매한 시간만큼 매출을 올리는 거죠. MZ세대는 조금 다릅니다. 가장 먼저 떠오른 게 저희가 몇 차례 소개해드렸던 PtoE. Play to Earn이라고 그래서 게임하면서 돈 버는 것처럼 일상생활에서도 꾸준히 수익을 내고 있는데. 이런 흐름을 타고 어떤 행동을 하면 경제적 보상을 얻는 이른바 X to Earn이라고 하는 X는 여러 가지 활동을 뜻하고요 X to Earn. 이렇게, 이렇게 해서 돈 버는 비즈니스 모델이 점차 확장되고 있습니다. 여기서 X는 걷기도 있고 공부하기, 글쓰기, 운전하기 같은 것 뭐든 가능한데요. MZ 세대 뭘 하면서 돈 버는지 그 무궁무진한 X의 세계에 대해서 알아보겠습니다. 미래 생활사전 슈미트의 조가연 수석팀장입니다. 어서 오십시오◆조가연&gt; 네, 안녕하세요.◇김방희&gt; 운동하고 독서는 본인 좋으라고 하는 건데 돈을 벌어요? 돈을 벌 수 있습니까? X to Earn. 개념부터 정리하고 구체적인 사례들을 찾아보죠. ◆조가연&gt; 앞에 말씀해 주신 것처럼 지금까지는 내 노동과 시간의 대가로 금전적인 보상을 얻었던 거고요. 이게 조금 변했습니다. 스마트폰과 모바일 플랫폼들이 등장을 하면서 어떤 회사에 소속되지 않아도 플랫폼 노동자처럼 보통 주문형 일자리라고 하죠. 이런 식의 프리랜서 수익 창출 모델들이 등장하기 시작했고요. 최근에는 웹3.0이라고 불리는 소위 블록체인과 결합되어 있는 탈중앙화 또는 참여자, 참여형 플랫폼들이 등장하면서 이런 블록체인 네트워크나 어떤 커뮤니티나 플랫폼에 기여를 하면서 또는 참여하면서 동시에 돈을 벌 수 있는 기회들이 생겨났다라고 보시면 좋을 것 같습니다. 그리고 그 방식들이 기여하는 방식들이 게임 같은 경우에는 게임을 직접 하는 거고요. 그리고 운동을 하는 플랫폼이라면 운동을 하는 방식으로 기여를 할 수 있습니다.◇김방희&gt; 뭐든 해서 돈을 번다. 그런 얘기인데 대체 X가 뭘지 이것들이 하나하나 궁금한데. 그런데 이런 얘기를 할 때 늘 나오는 이름들이 P 2C, E2E, W2E. 비슷비슷한 이름들이 많아서 다 알아두실 필요는 없을 것 같고 어떤 차이들이 좀 있습니까?◆조가연&gt; 일단 X에 뭐가 들어갈 수 있냐라고 상상을 해보면 게임을 하면서 돈을 버는 P to E가 있고요.◇김방희&gt; Play to Earn이죠.◆조가연&gt; 이런 경우는 게임을 하면서 내가 얻은 아이템을 현금화시켜서 돈을 버는 거고요. 그리고 운동을 하거나 움직여서 돈을 버는 E2E나 M2E도 있습니다. 요즘 같은 경우에는 심지어 공부를 하면서 돈을 벌 수 있는 L2E. 그리고 내가 어떤 행동에 참여를 하면서 돈을 버는 P2E. 그리고 디자인을 직접 하면서 돈을 버는 C2E나 D2E 같은 경우도 있고요. 예를 들어보면 질의응답을 하는 약간 국내의 지식인 같은 비슷한 플랫폼이라고 한다면 거기에 어떤 질문자의 질문에 해결 방안이나 댓글을 달아주고 내가 현금화가 가능한 포인트를 얻어갈 수도 있고요. 요즘 가장 핫 했던 메타버스 플랫폼 같은 경우는 내가 직접 아이템이나 아바타 같은 콘텐츠를 만들어서 여기에서 돈을 버는 C2E. 수익 창출 모델도 가능합니다.◇김방희&gt; 다양한 참여를 통해서 수익을 올리는 구조들이 있다는 걸 알게 됐는데. 그런데 플랫폼이나 기업들이 돈을 주는 걸 텐데. 물론 포인트나 마일리지 여러 가지 방식으로 줄 텐데. 왜 굳이 돈을 줍니까? 이게 왜 참여자한테 소득이 생기도록 만들어야 되는 거죠?◆조가연&gt; 모든 기업과 플랫폼들의 가장 큰 목표가 고객을 모아야 한다인데. 우리에게 와서 뭘 하면 돈을 줍니다라고 하는 것만큼 가장 쉬운 마케팅 캐치 프레이즈가 없는 거죠. 그래서 돈을 준다는 개념 때문에 플랫폼의 사용자나 고객이 자발적으로 유치가 되고 유입이 되고요. 또 어떤 보상을 얻기 위해서 이 서비스나 앱을 사용하는 빈도도 굉장히 높아집니다. 당연히 보통 얘기하는 체류 시간이라고 하는 그 어떤 서비스를 지속적으로 이용하는 시간도 같이 증가하게 되고요. 또 자체적으로 가상화폐를 도입함으로써 이 안에서 번 돈이나 아이템을 사고 팔 때 기본적으로 거래 수수료를 또 추가적인 수익 모델로 활용할 수 있습니다. 마지막으로는 자체 발행한 가상화폐가 좀 비싸진다면. 즉, 시세가 높아진다면 이걸 발행한 기업이나 플랫폼도 더불어서 수익을 얻을 수 있다는 점 때문에 이런 P2E, E2E 같은 X to Earn 플랫폼들이 생기고 있습니다.◇김방희&gt; 참여자들에게 돈을 줌으로써 최고의 마케팅 효과를 노린다. 그런 얘기인데. 본격적으로 뭘 통해서 돈을 버는지 이게 우리나라에도 적용이 될지 이런 것들을 좀 따져보겠습니다. 미래의 새로운 수익 창출 모델이니까요. MZ세대가 돈 버는 방법 걷는 만큼 돈 번다. Move to Earn. M2E인데 이게 글로벌 시장에서 인기인데 기업 하나가 있죠, 여기 대표적인 데가.◆조가연&gt; 호주의 회사인데요. 스테픈이라고 하는 회사입니다. 여기는 솔라나라고 하는 블록체인 기술을 가지고서 이동하면서 또는 걸으면서 돈을 벌 수 있는 서비스를 내놨습니다. 일단 앱 형태고요. 야외에서 일정한 속도로 걷거나 또는 뛰는 활동을 통해서 수익을 얻을 수 있는 건데. 정확하게는 걸으면서 암호화폐를 채굴한다라고 이해하시면 제일 좋을 것 같고요. 보통 알려지기로는 글로벌하게 매일 사용하고 있는 사용자가 한 4~50만 명 정도이고 회사가 밝히기로는 전 세계 어디서든 지난 30분 동안 우리의 앱을 사용한 평균 사용자가 5만 명 정도 된다고 이야기하고 있습니다.◇김방희&gt; 실제 저는 이런 서비스를 이용해 보지 않았는데 소비자 입장에선 그냥 걷기만 하면 됩니까? 앱을 깔고.◆조가연&gt; 저도 사실 이 앱을 초기에 써봤던 사용자이기는 한데요. 일단 야외에서 걷거나 뛸 때 그 자체 발행한 이 플랫폼의 가상화폐 GST를 얻을 수 있습니다. 이 적립된 GST는 나중에 앞에서 말씀드린 기반이 되는 블록체인 코인인 솔라나로 변환시켜서 나중에 거래소에서 현금화시킬 수 있는 방식이고요. 움직여야 되기 때문에 일단 실내 운동은 안 됩니다. 그리고 일정 속도 이상 걷거나 뛰는 것을 유지를 해야 되고요. 이게 기술적으로는 GPS가 변화하는지를 측정하고 보통 사람이 뛰거나 걸을 때 휴대전화가 움직이는데 그 흔들림들을 감지하고 있습니다. 어떤 분들은 그러면 좀 꼼수를 쓸 수 있지 않나라고. ◇김방희&gt; 국내에서도 이 만보기 같은 거 막 흔드시는 분들이 계신데 뛰면서 더 올라가라고.◆조가연&gt; 생각하실 텐데요. 일단 우리 집 강아지한테 착용을 한다, 불가합니다. 왜냐하면 강아지들이 뛰는 것과 사람의 보폭이 다르기 때문에 이걸 인지를 하고요. 또 자전거나 전동 킥보드처럼 너무 빠른 속도인 경우에도 일단 걷기와 뛰기와 속도가 다르고 흔들리는 패턴이 다르기 때문에 일단 이것도 안 되고요. 당연히 GPS 이동이기 때문에 헬스장이나 실내 운동도 안 됩니다. 일정 시간 동안 정해진 걷기 속도와 뛰기 속도를 유지하면 GST라고 하는 코인 이외에도 이벤트 박스를 제공하는데 이 아이템이 얼마나 희귀한지에 따라서 적게는 수십만 원 많게는 수백만 원짜리가 나오기도 한다고 알려져 있습니다.◇김방희&gt; 뛰거나 걷기만 하면 돈 번다. 이거 상당히 솔깃한 제안인데 앱만 설치하면 되는 건가요?◆조가연&gt; 저도 그렇게 기대를 하고 처음에 깔았던 건데요. 정확하게는 초기 투자금이 필요하고요. 그리고 가상화폐 거래소, 특히 해외 플랫폼들을 이용할 수 있는 노하우도 필요합니다. 초기 투자금이라고 하면 왜 필요하냐면 채굴을 하기 위해서는 이 앱에서 내놓고 있는 가상의 운동화를 구입을 해야 됩니다. 그 운동화가 현재 기준으로는 우리 돈으로 최소한 100만 원에서 150만 원 정도가 들거든요. 사실 적지 않은 돈이고요. 또 가입할 때도 아무나 가입할 수 있는 것은 아니고 스마트폰 앱에 가입할 수 있는 액티베이션 코드, 즉 초대 코드가 필요합니다. 그런데 이런 것들은 운영하고 있는 공식 카페라든지 텔레그램 같은 이런 방에서 받아갈 수 있고요. 처음에 가상의 운동화를 구입한 다음에는 최소 한 켤레 이상 구입을 해서 운동화가 종류별로 있고 그 종류마다 정해진 속도에 맞춰서 뛰거나 걸어야 되고요. 운동화별로 최대 100분까지 뛸 수 있는데 이러한 것들을 잘 맞춰서 걷거나 뛰어야 채굴이 가능합니다.◇김방희&gt; 지금 말씀하신 게 진짜 운동화가 아니라 그 공간 안에서 가상의 운동화를 얘기하는 거죠?◆조가연&gt; 보통 게임 같은 경우도 처음에 게임을 하려면 캐릭터를 만들어야 하는 것처럼 그런데 대신 이 플랫폼 안에서는 캐릭터라고 불리는 그 운동화를 구입을 하는 거고요. 운동화가 무료가 아니라 실제로 내가 가상화폐를 구입을 해서 사야 되기 때문에 그 초기 비용이 지금 시세로 한 100만 원 정도 든다고 하고 있습니다.◇김방희&gt; 100만 원, 부담스러운 금액이잖아요? 사실은. 왜 이렇게 비싼 겁니까?◆조가연&gt; 서비스 초기에는 상대적으로 운동화 가격이 저렴했습니다. 다만 이 플랫폼에 들어오는 사용자가 많아지면서, 즉 수요가 많아지면서 자연적으로 운동화 NFT 가격이 올라간 거고요. 운동화가 그럼 왜 비싸지냐라고 본다면 이게 레벨을 높일수록 채굴되는 GST가 많아집니다. 그렇다 보니 다들 이 운동화를 레벨을 높이고 싶어 하는데 레벨이 올라가는 순간순간마다 수수료로 일정한 GST 가상 코인이 들어가고요. 또 이 두 가지 운동화를 결합시켜서 세 번째 신규 운동화를 탄생시키는 행동을 할 수 있는데 이걸 보통 민팅이라고 부르는데요. 여기에도 수수료가 들어갑니다. 그렇다 보니까 그동안 투입된 어떤 코인들 그리고 그 시장에서의 시장가를 고려했을 때 지금 약간의 프리미엄이 붙어서 100만 원에서 150만 원 정도의 초기 비용이 들어간다라고 이야기 드리고 있고요. 또 소유한 신발 수나 등급이나 내가 얼마나 레벨을 높여놨느냐에 따라서 매일 벌 수 있는 가상화폐 채굴 보상 수준도 달라집니다. 공식적인 사이트가 알려지기로는 보통 이렇게 운동화를 가지고 뛰면 하루에 적게는 10달러, 그러니까 우리 돈 한 1만 2천 원 정도 되겠죠. 이 정도부터 많게는 800달러까지 벌 수 있다고 얘기를 하고 있고요. 다만 유의하실 점은 가상화폐는 시세가 계속 변동하고 있고 요즘 같은 하락장에서는 초기 비용을 다시 거둬들이는 데 좀 더 시간이 걸릴 수 있다는 점이 있습니다.◇김방희&gt; 다만 이게 연동된 게 건강에 좋은 운동이니까. 그렇죠? 사람들한테 이렇게 참여하려는 의지를 북돋는 여러 가지 장치들을 만들어놨다 이렇게 보면 될 텐데 생각해 보면 아예 이런 게 없었던 건 아니고 예전에 왜 포켓몬고 같은 것들도 걷기 열풍을 주도했었고 국내에서는 이 서비스 많이들 이용하나 모르겠고 이거 말고도 비슷한 서비스들이 있을 것 같은데요?◆조가연&gt; 스태픈 같은 경우는 일단 국내 서비스가 출시된 것은 올해 2월이고요. 이제 한 4개월 차 정도 됐습니다. 알려진 한국 사용자로는 회사 측 발표로는 한 2만 명, 아마도 좀 늘어났을 것 같다는 추정을 하고 있고요. 유사하게 어글릿이라고 하는 서비스도 있습니다. 여기는 스태픈보다는 조금 더 먼저 나왔는데 포켓몬고와 굉장히 유사합니다. 실제로 현실의 지도상으로 특정 위치를 찾아가면 포인트라든지 가상의 신발을 얻을 수 있는데요. 실제로 아디다스나 뉴발란스 같은 이런 프리미엄 브랜드들이 앱 속에 구현되어 있고 이게 특정한 포인트를 얻으면 실제 신발로도 교환이 가능합니다. 2016년도에 나온 영국의 스웻코인이라고 하는 플랫폼도 있는데요. 여기도 역시 사용자의 매일 걸음수를 측정해서 포인트를 주는데 이건 바로 현금화는 불가능하고요. 아마존이나 넷플릭스 같은 이런 협업사에서 어떤 할인 쿠폰을 구매하는 데 사용할 수 있습니다.◇김방희&gt; 우리나라 서비스 중에는 당장 떠오르는 거는 많은 분들이 이용하시니까 만보기 앱 같은 것들이 떠오르는데 이건 돈과 관련은 없나요.◆조가연&gt; 국내에서는 2017년도에 출시된 캐시워크라고 하는 서비스가 아마도 좀 연령층 상관없이 잘 알려져 있을 것 같습니다. 여기는 앱을 설치하면 사용자의 매일 걸음수를 자동으로 측정을 하고요 국내 돈으로 100걸음 당 1원을 줍니다. 이건 현금으로 주는 게 아니라 이 앱에서 제시하고 있는 캐시라고 하는 포인트로 주는 거고요. 이 포인트가 특정 금액 이상 모이면 음식점이나 편의점 같은 곳에서 현금처럼 사용을 할 수가 있습니다. 알려지기로는 누적 다운로드 수가 1600만 정도인데, 이걸 사람으로 환산하면 사실 국민 5명 중 1명이 사용하고 있다고 볼 수 있고요. 매일 사용하는 사용자 DAU 수치도 300만 명 정도 되는 것으로 알려져 있습니다.◇김방희&gt; 이 캐시워크라는 회사는 또 보통 스타트업이 성장해가는 과정에서 외부 투자를 많이 받게 되는데 이걸 안 받아서 유명해진 곳이죠?◆조가연&gt; 여기가 운영하는 곳은 넛지헬스케어라고 하는 회사이고요. 좀 특이하게도 의사 출신 창업자입니다. 원래는 취업 정보를 공유하는 커뮤니티로 시작을 했다가 연쇄 창업으로 캐시워크라고 하는 만보기 서비스를 낸 거고요. 굉장히 돈을 잘 벌고 있는 스타트업 중에 하나입니다. 비즈니스 모델이 앱 안에 내놓는 광고라든지 또 이게 만보기라고 하는 게 건강과 연결되어 있다 보니까 건강식품들을 판매하고 있는데요. 작년 매출이 570억 원 그리고 영업이익이 110억 원 정도이니 굉장히 양호한 재무지표를 가지고 있습니다.◇김방희&gt; 뭘 하면서 돈 번다. X2E. 지금 운동하면서 돈 번다 이런 모델들을 살펴봤고. 또 하나 저희도 몇 차례 소개해드렸던 P2E 게임하면서 돈 번다, 이런 모델인데. 이거는 늘 논란이 벌어지는 건데 원조를 어디로 봐야 될까요?◆조가연&gt; 원조라고 하면 가장 먼저 알려져 있는 것은 2017년도에 등장한 블록체인 게임 크립토키티스라고 하는 게 있는데요. 아주 간단하게 말씀드리면 고양이 캐릭터를 수집하고 잘 키워서 새끼를 낳으면 이게 또 도움이 되는 그런 진화 게임이었습니다. 유사하게 P2E 서비스를 본격화시킨 것은 베트남의 엑시인피니티라고 하는 게임인데요. 몬스터를 구매를 해서 키우고 또 교배를 통해서 신규 몬스터를 창출해내면 이 몬스터를 팔아서 돈을 벌 수 있는 방식입니다. 역시나 플랫폼이 자체적으로 발행한 가상화폐를 가지고 나중에 이걸 현금화시킬 수가 있고요. 또 포커 게임을 내놔서 P2E를 만들었던 디센트럴랜드 같은 것들도 대표적인 P2E 회사 중에 하나입니다.◇김방희&gt; 지금 P2E는 베트남이나 필리핀 같은 데서는 그야말로 젊은 세대를 사로잡고 있다고 그러던데. 아까 말씀해 주셨는데 엑시인피니티라는 P2E 1세대 게임을 베트남 회사가 만들었다는 게 좀 새로운데 그쪽에서 나온 건가요?◆조가연&gt; 네, 이 스카이마비스라고 하는 베트남의 게임 스타트업이 만들었고요. 필리핀과 베트남에서는 정말 약간은 좀 시쳇말로 폭발적인 인기다라고 이야기를 하고 있습니다. 이게 동남아시아 쪽이 이러한 P2E 게임의 성지라고 불리고 있는데. 이게 일단 가상화폐를 발행하는 ICO 자체가 싱가포르가 굉장히 합법화되어 있는 국가여서 그렇고요. 미국과 스위스에 이어서 싱가포르가 가상화폐 ICO로는 가장 많이 이루어지고 있는 국가다 보니 아무래도 이런 P2E 블록체인 게임들도 여기서 등장하지 않나라고 보고 있습니다.◇김방희&gt; 아직도 게임을 안 하시는 분은 어떻게 게임하면서 돈 버는지 이해가 안 되실 텐데 어떤 방식입니까?◆조가연&gt; 그냥 게임 하나를 가지고 예를 들어보면요. 미르4라고 하는 게임이 있습니다. 여기에서 특정한 광물을 10만 개 모으면 게임 안에서 작동하는 코인으로 교환이 가능하고요. 이 얻은 코인을 연결되어 있는 가상자산 지갑으로 옮겨서 거래소에서 판매하고 있는 위믹스라고 하는 코인으로 바꿀 수가 있습니다. 그러면 이 코인이 상장되어 있는 거래소라면 어디든지 그곳으로 입금시켜서 내가 시장에서 판매해서 원화로 받아갈 수 있는 거고요 사실은 이렇게 블록체인 기반의 P2E 모델들이 다 비슷합니다. 각자 보유한 아이템을 NFT처럼 블록체인을 기록할 수 있고 내가 이것을 판매한 다음에 돈을 얻어가는 방식이고요. 다만 이게 참 되게 말처럼 계속해서 돈을 벌리지 않고 코인의 시장 변동성이 있기 때문에 이런 부분들은 반드시 염두에 두셔야 됩니다.◇김방희&gt; 게다가 지금 우리나라에서는 이게 불법이잖아요.◆조가연&gt; 맞습니다. 국내 같은 경우는 사행성 우려도 있고 게임법 규제가 있기 때문에 국내 사용자들이 P2E 모델 게임들을 할 수는 없습니다. 엄밀하게는 국내에서 불가하다고 보시면 되는데 일부 사용자들이 IP를 조금 우회한다든지 해서 글로벌 서비스용 P2E 게임들을 사용하고 있는 방식이고요. 사실 게임으로 돈 번다가 국내 사용자분들에게는 아주 어색한 개념은 아닐 것 같습니다. 과거에 여러 가지 게임들 같은 경우도 2차 시장이라든지 개인 간 거래를 통해서 물론 공식적으로는 아니지만요. 용돈 벌기용 게임 아이템 거래가 있었기 때문에 그런 것들이 암암리에 벌어지던 것들이 어떻게 보면 공식적으로 게임에서 가능하다고 보시면 좋겠습니다.◇김방희&gt; 그래서 우리나라 P2E 모델 불법화한 규제가 유지돼야 되느냐, 이런 논란도 벌어지고 있는데. 실제로 해외에서는 이 시장 얼마나 됩니까?◆조가연&gt; NFT를 가장 많이 거래하고 있는 플랫폼이 오픈씨라고 하는 곳인데요. 여기가 올해 초에는 하루 최고 거래액이 2억 6000만 달러, 한국 돈으로 환산하면 한 3000억 원 정도가 좀 넘습니다. 이 정도가 이루어졌었고. 거래되는 거래량의 대부분이 P2E 게임을 통해서 얻은 아이템들이었습니다. 다만 이제 시장이 하락하다 보니까 당연히 거래량도 우하향하고 있는 상황이긴 합니다.◇김방희&gt; 말씀하신 것처럼 대개 다 자체적인 가상화폐를 발행하고 그건 시장에서 거래되는 가상화폐 연동이 돼 있는데. 게임에서 돈 버는 P2E 같은 경우도 이번 루나, 테라 사태 때문에 시장이 많이 꺾이지 않았어요?◆조가연&gt; 가상화폐 시장이 추락하면서 당연히 사용자 감소도 알려져 있고요. 앞에서 말씀드린 엑시인피니티 같은 경우는 작년 11월 이후로 계속해서 자체 발행한 코인이 가격이 떨어지고 있습니다. 스테픈 같은 경우도 올해 계속 시세가 하락하다 보니까 사용자들 커뮤니티에 들어가면 불만의 목소리도 나오고 있고요. 다만 한국은 P2E가 불법임에도 불구하고 국내 게임사들이 계속 이쪽에 등장을 하려고 하고 있습니다. 그 이유는 앞에서 말씀드린 X2E를 가지고서 마케팅 효과를 노린다거나 가상화폐 시세를 통해서 어떤 차익을 노릴 수 있다는 장점들이 있기 때문이고요. P2E 게임의 대명사인 엑시인피니티 같은 경우도 올해 초에. 물론 가상화폐 시장이 조금 폭락하기 전에 투자받기는 했지만요. 그 당시 기업 가치가 한 50억 달러 정도이고 걸으면서 돈을 버는 스테픈 같은 경우도 올해 1월에 한 61억 원 정도 시드 투자를 유치를 하면서 아직까지 어떤 투자 시장에서의 인기는 있는 편입니다.◇김방희&gt; 그렇군요. 운동하면서 돈 벌고, 게임하면서 돈 벌고, 여기까지 알아봤는데 아무래도 그 게임하면서 돈 번다는 건 가상화폐 코인이 개입되니까 조금 신경이 쓰이는데 시장 상황을 반영할 수밖에 없고 여기에 얽매이지 않고 돈 버는 방법은 없어요?◆조가연&gt; 챌린지 서비스들이라고 하는 것들이 국내외 시장에서 인기인데요. 간단하게는 정해진 시간에 일어나거나, 운동하거나, 독서를 하거나, 반려동물과 산책을 주기적으로 하거나 이런 일상들을 인증을 하고 도전을 하면 거기에 맞게 보상을 주는 플랫폼들이 굉장히 등장해 있고요. 이런 것들은 블록체인과 연결되지 않고서 그냥 현금을 내고 현금 보상을 받는 방식으로 운영되고 있습니다.◇김방희&gt; 대표적인 게 미국의 웨이 베터라는 곳인데 여기는 어떤 모델이에요?◆조가연&gt; 일단 한 10달러에서 60달러 정도 선결제를 하고요 제가 각자 도전자가 정한 기간 동안 매일 운동을 해서 마지막 운동일까지 잘 지키며 남아 있는 사람들이 처음에 선결제한 금액을 상금처럼 나눠 갖는 방식입니다.◇김방희&gt; 예전에 금연 계획 결성할 때랑 비슷한 거군요. 담배 끊는 사람한테 몰아주는...◆조가연&gt; 그게 온라인으로 왔다고 보시면 좋을 것 같고요 일종의 게임 미피케이션 같은 방식입니다. 사람들이 같이 참여하기 때문에 서로 동기 부여를 해줄 수가 있고요. 금전적인 보상이 있기 때문에 내가 건강도 챙기면서 어떤 재미있는 경쟁을 할 수 있는 방식이고요. 2011년도에 시작을 했는데 누적 참여자가 124만 명 그리고 홈페이지에 들어가면 실시간으로 누적 상금이 갱신이 되는데요. 어제 낮에 확인해 보니까 누적 상금이 1억 3000만 달러, 우리 돈으로 환산하면 한 1700억 원 정도가 됩니다. 그런데 여기만 있는 건 아니고 이런 웨이 베터 외에도 페블러스나 마이 루틴 같은 굉장히 여러 가지 서비스들이 등장해 있기 때문에 참여할 수 있는 플랫폼은 굉장히 많습니다.◇김방희&gt; 일종의 자기 개발 앱인데 여기에 보상을 걸었다는 점에서 도전하고 돈을 벌 수 있다는 건데 국내에서도 챌린져스라는 거 많이들 이용하시던데요.◆조가연&gt; 네 국내 대표 챌린지 앱이라고 보시면 좋을 것 같고요. 비슷합니다. 일정 금액을 예치금처럼 걸고 내가 원하는 미션에 참여를 하고요. 지정된 날짜나 시간에 내가 미션을 했다는 것을 인증을 하고 실패한다면 초기에 예치금에서 벌금이 차감이 되고요. 100% 성공한다면 내가 걸었던 예치금과 더해서 추가적인 상금을 받을 수 있는 방식입니다. 우리나라에서는 2018년도 말에 출시가 됐는데 원래는 7년 동안 오프라인 자기개발 모임을 운영하던 창업진들이 만들었고요 오프라인의 경험들을 가지고서 온라인 플랫폼 서비스를 내놓았습니다.◇김방희&gt; 참가비도 있을 테고 아까 말씀해 주셨습니다마는 가장 궁금한 게 성공한 걸 인증샷으로 확인하나요? 그럼?◆조가연&gt; 만약에 아침 6시 기상이라고 하는 미션에 도전을 한다면 내가 5시부터 6시 사이에 세면대 앞에 가서 손 씻는 사진, 또는 밖에 나가 있는 사진들을 올리면 됩니다. 그걸 보고서 이 사람이 일어났구나라는 것을 사진으로 인증을 하는 거고요. 일단 앞에서 말씀드렸던 예치금 같은 경우는 적게는 1000원부터 도전을 할 수 있습니다. 당연히 상금을 많이 받으려면 걸어야 하는 예치금도 비례해서 높아지고요. 100% 달성하면 참가비에 비례해서 상금을 얻을 수가 있고 내가 모은 상금이 3000원이 넘어가면 출금을 할 수도 있습니다.◇김방희&gt; SNS 등에서 사실 이게 많이 회자되고 있던데 이용자 수는 어때요?◆조가연&gt; 올해 1월에 회사가 밝힌 보도자료를 보면 누적 가입자가 100만 명 참가했던 미션이 한 400만 건 정도가 되고요. 거래액이라고 해야 될 것 같습니다. 거래액이 2200억 원 정도가 됩니다. 재미있게도 코로나19였던 작년 한 해 동안 이런 참가자가 50% 정도 증가했다고 밝히고 있고요. 목표를 달성하는 주기는 보통 한 2주 정도 미션이 이뤄지는데 달성률이 90% 정도니까 낮지는 않습니다. 이게 사실은 작심삼일이라고 해서 혼자 한다면 굉장히 어려울 수 있는데 같이 도전한다는 점이 조금 달성률을 높였던 것 같고요. 사용자 비중 중에 소위 MZ세대는 한 85% 정도 된다고 알려져 있습니다.◇김방희&gt; 그렇겠군요. 그런데 목표 달성률이 90%라는 얘기는 회사 측이 줘야 될 돈도 늘어난다는 얘기인데 회사는 그럼 뭘 먹고 살죠? 돈은 어떻게 법니까?◆조가연&gt; 물론 목표 달성에 실패한 사람들의 예치금 매출도 있겠지만 상당히 미미하고요. 회사가 돈을 벌고 있는 비즈니스 모델은 B2B, 즉 기업 간 제휴 사업입니다. 앞에서 말씀드린 것처럼 기업의 가장 큰 목표는 고객들을 모으는 것인데 일종의 마케팅 플랫폼으로 활용할 수 있습니다. 우리 제품 A라고 하는 제품이 있는데 한 10일간 써보시고 리뷰를 주세요라고 하는 체험형 챌린지를 낼 수도 있고요. 또 마케팅도 할 수 있는 방식이 요즘에 친환경 이런 ESG 사업을 많이 하다 보니까 우리 A라고 하는 기업과 같이 어떤 정리 정도를 한다든지, 분리수거를 한다든지 이런 사진들을 계속 챌린지를 해서 우리가 사회에 기여를 하고 있는 브랜드라고 하는 브랜드 이미지 구축용 플랫폼으로도 활용될 수 있습니다.◇김방희&gt; 기업의 마케팅 채널로 돈을 벌어서 목표 달성자들에게 돈을 준다. 이런 건데 지금 말씀해 주신 것들이 예전에 미라클 모닝인가요? 그러니까 아주 사소한 거지만 자신이 보람을 느끼는 그 부분을 앱으로 옮겨놓은 비즈니스 모델하고 비슷하다는 생각이 드는데요. 약간 작은 계획들을 실천하면서 자기만족을 하는 그런 거죠?◆조가연&gt; 미라클 모닝이라고 했던 것들이 사실은 이제 리추얼 트렌드라고 얘기를 할 수 있는데요. 보통 리추얼이라고 하면 의식이라는 뜻인데 스스로가 아주 작은 실천이나 습관을 나의 의식처럼 만들어서 스스로를 관리하는 보통 자기 챙김이라고 하는 그런 트렌드와도 맞닿는 편입니다. 그 미라클 모닝이 가장 대표적이었던 챌린지였고 이런 실천 과정이나 성공을 공유를 하면서 MZ 세대 사이의 새로운 트렌드로 떠올랐고요 금전 보상이 아니어도 여러 가지 서비스가 있습니다. 루티널이라고 하는 서비스는 국내에서 한 150만 사용자를 보유하고 있는데 아주 간단하게 매일 아침 물 마시기, 내 몸무게 확인하기, 운동하기처럼 기상한 다음부터 이루어지는 어떤 일과를 설정하고 내가 얼마나 달성을 했는지 확인하는 앱이고요. 또 하루콩이라고 하는 서비스는 이모티콘으로 매일 하루의 기분을 기록하는 방식입니다. 굉장히 간단하고요. 이렇게 아침 먹기, 산책하기 같은 굉장히 작은 습관들을 목록화하거나 미션화시켜서 지키는 것을 통해서 보상을 받거나 아니면 개인 스스로 관리하는 서비스들이 많이 있습니다.◇김방희&gt; 실제로 이 앱들 활용하시는 분들이 많군요. 2193번님도 요새 걸어서 돈 벌고 있습니다. 해 주셨고 8297번님 저는 MZ세대는 아닙니다마는 60대라도 걷기로 현금 포인트가 적립돼서 커피도 즐기고 작은 돈도 쌓이니까 재미가 쏠쏠하답니다. 이미 이용하시는 분들이 꽤 있군요. 세상에 공짜는 없네요. 그거 본전 뽑을 수 있을까요. 7785번님. 이게 비즈니스 모델 얘기를 거듭 드리는 이유입니다. 기업이 돈 버는 게 있어야 되는데 돈을 쓰는 데는 분명한데 버는 게 불분명한 모델들은 망하는 거죠. 충청도 걷쥬앱도 있습니다. 신일재 님.◆조가연&gt; 아, 지역형 앱도 있군요.◇김방희&gt; 포인트도 주고 이것으로 커피 등을 사 마실 수 있습니다. 새로운 걸 알았군요. 충청도 걷쥬. 재미있습니다. 권오성 님은 다른 문제이긴 합니다만 토스는 개인 정보 1건당 6만 9000원을 받고 보험설계사한테 팔아넘겼다는 기사 봤습니다. P2E에서 개인정보 보호 부분도 생각해 봐야 할 것 같습니다. 그렇죠. 스타트업 기업이 아무래도 이런 개인정보 보호 부분이 좀 취약하다 보니까 여러 가지 부작용도 나타날 것 같기는 합니다. 제가 이런 낯선 앱이나 기업 그리고 그들의 비즈니스 모델을 알려드리는 이유는 사업이나 투자에 자극을 받으시라는 뜻입니다. MZ세대가 뭘 하면서 돈 버는지 저희가 따져보고 있는데 그런데 사실 플렉스 문화라는 게 있어서 SNS에서 일종의 자신의 과소비를 과시하는 거하고는 조금 다른 결 같기도 해요. 이런 것들이.◆조가연&gt; 그러니까 원래 MZ세대는 뭐 욜로라든지 플렉스 같은 약간의 소비 지향적이고 과시적인 트렌드랑 엮여 있는 게 아닌가라는 생각을 했었는데요. 요즘 같은 경우는 소비라기보다는 아주 작지만 돈을 벌 수 있는 방식들의 재테크에 관심이 많고 또 소소하지만 건강 지향적이고 좋은 습관을 만드는 것들에 좀 더 관심을 두고 있다고 보고 있습니다. SNS를 보니까 갓생을 산다는 얘기의 갓생 트렌드라고도 불리기도 하고.◇김방희&gt; 아, 갓생. 그렇죠. 7723번님은 챌린저스를 하는데요. 아침 일어나기랑 만보 걷기 두 개를 도전했습니다. 참가비는 5000원이고 2주간 도전하는데 상금 평균이 500원에서 800원 정도입니다. 그렇게 높지는 않군요. 2주 동안. 건강해지라고 하는 거니까 돈이야 조금 부차적인 문제가 될 수 있겠죠. 코로나가 이런 트렌드를 좀 더 폭발시킨 면이 있지 않을까요. 코로나가 마무리되면 이런 트렌드도 변화가 있지 않을까 싶기도 한데 어때요?◆조가연&gt; 그러니까 코로나19 동안 일상의 소중함이 많이 이야기가 됐었었고요. 또 스스로 재택근무를 하는 분들이 좀 많아지면서 하루의 일과를 챙기는 것들이 반강제적으로 필요했던 것 같습니다. 그러다 보니 이러한 기간 동안 스태픈이나 챌린저스 같은 플랫폼들의 사용자가 굉장히 늘었다고 알려져 있고요. 사실은 기존의 사회 통념상의 어떤 성취라고 불리는 취직이나 승진, 결혼 같은 것들이 이제 MZ세대에서는 조금 어려워졌다는 그런 세대적인 우울한 현실도 반영을 하는 게 아닌가라고 분석을 하고 있습니다. 다만 코로나19가 끝났다고 달라지기보다는 결국에는 작은 성취를 이뤄가는 것. 건강을 관리하는 것. 또는 스스로 공부를 하거나 독서를 하는 것들은 계속 지향하는 부분이다 보니까 이런 챌린지 앱이라든지 P2E나 X2E 같은 플랫폼들이 계속 사용자가 늘지 않을까라는 전망입니다.◇김방희&gt; 그러게요. 그러니까 X2E. 뭘 해서 돈을 버는 MZ세대들의 경향을 다른 차원에서 살펴보면 일종의 습관 앱들이죠. 습관을 고쳐나가는 앱들인데 특히 건강, 운동 이런 것들을 강조하는 요즘 이걸 덤벨 경제라고 그러던데 덤벨 경제 트렌드하고 맞물려 있다고 봐야 되겠죠?◆조가연&gt; 덤벨이 아령이잖아요. 그러니까 건강이나 체력 관리에 대한 관심들이 증가하다 보니까 헬스나 요가 같은 것들 외에도 집에서 활용할 수 있는 홈 케어나 이런 쪽에 전반적으로 지출이 증가하고 있습니다. 당연히 주역은 MZ세대이고요. 덤벨 이코노미라고 하는 것에 포함되는 것들이 단순히 운동뿐만이 아니라 건강기능식품, 운동용품 그리고 애슬레저라고 불리는 운동복까지 포함이 되는 거고요. 그렇다 보니 국내 유니콘 스타트업들도 이런 생활습관 시장에 진출을 하는 것 같습니다. 앞서 말씀해 주신 토스 같은 경우도 만보기 서비스를 출시를 했고요. 내가 어떤 곳에 걷거나 방문을 하면 하루 최대 100원 정도 포인트를 제공해 주고 있고요. 교육 플랫폼이었던 야나두 같은 경우도 유캔두라고 하는 서비스를 내놨는데 여기는 참가비는 없고 스폰서들의 어떤 프로모션 이벤트를 가지고서 도전을 하면 성공 지원금을 주고 있습니다.◇김방희&gt; 여기서 조금 더 나가면 헬스케어 시장하고도 연결이 될 텐데 요즘 시장 어떤 트렌드에 주목하고 또 어떤 방향으로 갈까요?◆조가연&gt; 이 생활습관 앱이라고 하는 것의 근간이 뭐냐라고 들여다보면 결국 사람의 일상과 행동을 변화시키는 건데요. 여기에 엮여 있는 게 당뇨나 비만이나 고혈압 같은 만성질환들이 있습니다. 당뇨나 비만 같은 경우는 단순히 약만 먹는 게 아니라 일상생활 속의 행동 관리도 굉장히 필요하고요. 또 요즘 떠오르고 있는 DTX 이런 디지털 치료제 같은 경우도 생활 습관의 관리가 굉장히 중요한데 그렇다 보니 이런 챌린지 앱이나 X2E 움직여서 돈을 버는 이런 플랫폼들도 중장기적으로는 헬스케어와 연결될 수 있다는 가능성을 보고 있습니다.◇김방희&gt; 개인정보 유출 문제는 오히려 부차적일 수도 있고 여러 가지 잡음들이 끊이지 않고 있는데 X2E. 뭘 해서 돈 번다. 이 분야 업계 전망은 어때요?◆조가연&gt; 앞서 말씀드린 헬스케어랑 연결해서 한 번 더 말씀을 드리면 웨이베터라고 하는 걸으면서 돈을 버는 플랫폼 같은 경우는 실제로 미네소타주의 한 연구소와 신규 서비스를 하고 있습니다. 이게 담배 끊기 플랫폼을 내놨는데요. 4주 동안 담배 끊기에 도전을 하고 30달러를 내면 나중에 성공했을 때 돈을 실제로 돌려주는 방식인데 그냥 담배 끊기만 하는 게 아니라 연구소에서 무료 호흡 테스트 장치를 제공해 줍니다. 이걸 가지고서 매일 내가 담배를 안 피웠다는 증명을 하기 위해서 일산화탄소 호흡 테스트를 하고요. 성공했을 때 어떤 상금을 주는 방식인데요. 사실 이 X2E가 단순히 돈을 번다는 것뿐만이 아니라 연결되어 갈 수 있는 부대 사업이 많다는 점도 주목해 봐야 될 것 같습니다.◇김방희&gt; 그렇겠군요.◆조가연&gt; 그리고 아무래도 아직까지는 서비스 인기가 한동안 지속되지 않을까라고 보고 있는데 거래되는 가상화폐 리스크뿐만이 아니라 플랫폼 자체의 기술은 또 다른 거고요. 요즘 같은 경우는 내가 글을 써서 돈을 버는 플랫폼도 등장을 하고 있고 또 지도 앱의 데이터 수집을 하기 위해서 운전을 해서 가면서 돈을 벌 수 있는 플랫폼도 등장을 하고 있습니다. 근본적으로는 이 X2E 모델이 기존에는 기업이나 플랫폼만 돈을 벌었던 것들에서 벗어나서 여기에 기여하고 있는 사용자나 소비자나 참여자도 같이 이익을 공유하자라는 공익성이 붙어 있기 때문에 이러한 근본 취지가 헤쳐지지 않는다면 P2E 모델, X2E 모델은 계속해서 인기가 있지 않을까 그렇게 보입니다.◇김방희&gt; 플랫폼 기업만 돈을 버는 게 아니라 참여한 사람들도 혜택을 공유하는 거니까 그런 점에서 인기가 금방 식을 것 같지는 않다. 이런 얘기를 해주셨는데 성공예감도 들으면서 반성을 많이 했습니다. 매일 듣기 챌린지 같은 걸 해서 그걸 인증하면 푸짐한 상품을 보내드려야 되는데 문제는 매일 들었다는 걸 어떻게 인증하죠. 참 기술적으로 어렵네요. 슈미트의 조가연 수석 팀장과 함께 했습니다. 고맙습니다.◆조가연&gt; 감사합니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2022.06.10.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>금리 노마드족의 ‘필수코스’ 정착…대출비교플랫폼 날개 달다</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002001328?sid=101</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>자고나면 뛰는 금리 민감도 ↑지난달 2조원 안팎 대출 실행시중은행·인터넷은행도 입점조만간 주담대로도 확장 전망주거래 은행에서 우대금리를 따지며 대출을 받던 차주들의 모습은 이제 찾아보기 어렵게 됐다.하루가 멀다하고 껑충뛰는 대출 이자에 0.1%포인트라도 더 낮은 금리를 찾아 발품을 파는 금융 소비자들이 늘고 있다. 그러다보니 대출비교 서비스를 찾는 이들도 한층 늘어나고 있다.10일 금융권에 따르면 지난달에만 2조원 가량의 대출이 대출비교 서비스를 통해 실행됐을 것으로 추산된다.핀테크 플랫폼 토스의 경우 지난달 대출비교 서비스 실행액이 1조원을 돌파했다. 올해 1월부터 5월까지 월평균 대출실행액은 7920억원으로, 지난해 월평균 대출실행액 4380억원 대비 약 81% 증가했다.대출비교 서비스를 제공하는 플랫폼들이 그만큼 호황을 누리고 있다는 얘기다. 이는 장기간 저금리 기조와 증시 활황으로 차주의 금리 민감도가 높지 않았는데, 최근 기준금리가 거듭 오르면서 0.1%포인트에도 아쉬운 이들이 많아져서다.한국은행은 지난 8개월간 기준금리를 5번이나 인상했다. 이 기간 기준금리 인상폭만 1.25%에 달한다.이같은 흐름에 금융사들도 부쩍 대출비교 서비스에 눈길을 돌리는 모습이다. 대형 대출비교 플랫폼으로 분류되는 토스, 카카오페이, 핀다 등 주요 업체들에는 50~60개 안팎의 금융사들이 입점한 상태다. 지방은행은 물론 우리·하나 등 시중은행도 일부 포함됐다.대출비교 플랫폼 업계 관계자는 “지방은행, 저축은행의 경우 특히 적극적”이라며 “이들은 그간의 경험으로 플랫폼 입점 자체를 큰 기회로 인식하고 있다”고 설명했다.최근에는 상대적으로 금리 경쟁력이 높은 인터넷은행들도 대출비교 플랫폼에 합류했다. 케이뱅크는 지난달부터 카카오페이 대출비교 서비스에 자사 전세대출 상품 2종(전세대출, 청년 전세대출)을 제공하고 있고, 토스뱅크는 토스와 핀다에 입점했다.다만 각 금융사가 제공하고 있는 상품이 평균 2~3개 수준이라는 점은 문제로 지적된다. 결국 소비자가 최적의 금리·한도를 찾기 위해서는 대출비교 플랫폼을 이용한 이후, 이 조건이 과연 최선인지 각 금융사 앱에서 ‘손품’을 팔아야 하는 것이다.대출비교 서비스를 제공하는 또다른 핀테크 업계 관계자는 “과거에는 금융사와 협상력 자체가 없었는데 최근 점차 시장 규모가 확대되면서 제안받는 상품 라인업이 늘어나고 있는 상황”이라며 “창구에서만 판매하던 상품을 플랫폼에 제공하는 등 변화가 감지되고 있어 추후 더 많은 상품이 비교 라인업에 올라갈 것”이라고 말했다.현재는 대출비교 플랫폼 시장이 신용대출 위주로 돌아가고 있지만, 조만간 주택담보대출(주담대)로도 본격 확장될 전망이다. 박자연 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2022.06.12.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>“BTS 아미처럼…핀테크도 ESG 속도내야”</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005239673?sid=105</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>이근주 한국핀테크산업협회장 인터뷰"새정부 핀테크 과제로 금융상생 추구""규제혁파 요구 넘어 사회적 책임 이행""ESG 외면하면 투자자도 핀테크 외면"[이데일리 최훈길 기자] “방탄소년단(BTS) 아미가 친환경 대체불가능토큰(NFT) 발행을 요구하지 않았습니까. 유명 가수의 팬클럽이 이렇게 ESG(환경·사회·지배구조)를 요구하는 것처럼, 핀테크 기업들도 이제는 ESG에 속도를 내야 합니다.”이근주 한국핀테크산업협회장. △1960년생 △동국대 대학원 핀테크블록체인학과 △전 IBK기업은행 전산정보부·뉴욕지점·국제업무부·스마트금융부 △전 소상공인 간편결제사업추진단장 △전 한국핀테크산업협회 설립준비국장·사무국장 △한국간편결제진흥원 원장(2019년 10월~) △한국핀테크산업협회장(2022년 2월~). (사진=김태형 기자)이근주(사진·62) 한국핀테크산업협회 회장은 12일 이데일리와의 전화 인터뷰에서 윤석열정부 취임 이후 올해 중점 과제에 대해 “이제는 핀테크 기업들이 규제 혁파를 요구하는 것을 넘어서 금융시장에서 다 함께 잘사는 상생도 고려해야 한다”며 이같이 말했다. 앞서 이 회장은 이승건 비바리퍼블리카(토스) 대표, 김대윤 피플펀드 대표, 류영준 전 카카오페이(377300) 대표를 이은 4대 협회장에 지난 2월 선출됐다. 회원사는 네이버파이낸셜 등 지급결제 회사, 두나무·빗썸·코인원·코빗 등 가상자산거래소, 피플펀드·8퍼센트·렌딧 등 온라인투자연계금융업, 와디즈 등 크라우드펀딩, 보안인증 기업까지 370곳이 넘는다. IBK 기업은행 전산정보부, 뉴욕지점, 국제업무부, 스마트금융부 등을 거친 이 회장은 금융 업계 마당발이다. 그는 핀테크산업협회 설립준비국장·사무국장도 맡아 핀테크 태동기부터 기업인들의 애로사항을 살뜰히 챙겼다. 특히 그는 협회장에 출마하면서 ‘상생하는 핀테크 산업 환경 조성’을 공약으로 제시하기도 했다. 이 회장이 핀테크 ESG, 상생을 강조하는 것은 “시대가 달라졌다”는 판단에서다. 이 회장은 “그동안 정부·국회·금융기관 등을 만나면 ‘왜 핀테크 기업은 만날 때마다 규제 풀어달라는 요구만 하느냐’는 얘기를 많이 들었다”며 “이제는 핀테크 기업들이 규제 어려움을 얘기하되 상생에 대해서도 고민하고 사회적 책임을 이행할할 때가 됐다”고 전했다. 그는 협회에서 구성한 자문교수단과 함께 법무법인 사례를 검토하고 ESG 대책을 논의했다. 일례로 법무법인 광장은 지난 4월에 ‘광장 ESG 지속가능경영 연구원’을 설립해 ESG 정책·규제·사례 분석, 기업별 맞춤형 컨설팅 등을 진행 중이다. 이 회장은 “ESG에 대한 핀테크 업계의 관심을 모을 것”이라며 “이익 추구를 넘어 상생하는 핀테크 문화를 만들기 위한 구체적인 맞춤형 대책을 모색할 것”이라고 전했다. 정부와도 구체적인 정책 협의도 진행될 예정이다. 이 회장은 “앞으로 ESG에 관심 없는 핀테크 기업들은 투자자들로부터 외면받게 될 것”이라며 “앞으로 정부도 금융혁신과 ESG를 본격 추진할 것이다. 핀테크 기업들이 정책에 발맞춰 나갈 수 있도록 협회 차원에서 지원할 것”이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2022.06.02.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>토스뱅크 가입고객 330만 돌파… 중저신용 대출 비중 35% 넘어</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003701442?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>토스뱅크가 출범 8개월 만에 가입고객이 330만명을 돌파했다. 인터넷전문은행 최초로 중저신용 고객 대출 비중 35%(잔액 기준)도 넘어섰다.   1일 토스뱅크에 따르면 지난달 30일 기준 토스뱅크의 가입·이용고객은 총 331만명으로 집계됐다. 연 2% 금리(세전) 혜택을 제공하는 토스뱅크통장, 대출한도 조회부터 대출 실행 등 다양한 서비스를 선보이며 지난해 말 124만2700명보다 206만명이 늘었다.   고객 5명 중 2명은 40대 이상으로, 이용자층도 전 연령대로 확산하고 있다. 40대 고객은 24.2%, 50대 이상 고객은 18.7%를 차지했다.     특히 전체 이용고객 가운데 연 2% 금리를 제공하는 토스뱅크통장을 개설한 고객은 300만3600명이었다. 지난해 말 115만5000명 대비 2.6배 이상 늘었다. ‘지금 이자받기’ 서비스를 통해 매일 이자를 받는 상시 이용고객 수가 130만 명으로 늘며 이를 견인했다.   통장 개설 고객 중 85%가 계좌에 ‘1원 이상’ 잔고를 보유하며 토스뱅크를 실사용했다. 지난해 말 82.1%에 비해 실사용 고객 비중은 2.9%포인트 늘었지만, 고객 수는 160만명 이상 늘어난 셈이다. 고객들은 1인당 평균 3만6000원의 이자를 받았다.   토스뱅크는 금리 인상기임에도 연 2% 금리(세전) 수시입출금 통장과, ‘지금 이자받기’ 혜택이 더해지면서 ‘실속 추구형’ 고객들의 발길이 이어진 것으로 분석했다.   인터넷은행 본연의 목표인 중저신용자 대출 비중은 35.2%를 달성했다. 전체 대출 잔액이 늘었음에도, 올 1분기 31.4%에서 2개월 만에 3.6%포인트 늘었다.   이는 출범 첫해 토스뱅크가 약속한 비중(34.9%)을 넘긴 것이기도 하다. 토스뱅크는 지난해 10월 출범 당시 중저신용 고객을 적극적으로 포용하겠다고 약속한 바 있다.    8개월간 공급한 중저신용자 대출 규모만 총 1조4185억 원(실행액 기준)에 달했다. 올해 1월 대출 영업 재개와 함께 금융 사각지대를 살피고 적기에 자금을 공급한 덕분으로 토스뱅크는 분석했다.    토스뱅크는 올 1분기에 순이자이익이 큰 폭으로 개선되며 성공적으로 시장에 안착하는 모습을 보였다. 1분기 말 기준 총 여신잔액은 2조5900억원, 총 수신잔액은 21조원이었다. 순이자 이익은 올 1분기 -29억원을 기록하며 지난해 10월 출범 후 3개월간 발생한 약 -113억원(지난해 말 기준)과 비교해 큰 폭으로 감소했다. 토스뱅크는 신규 대출이 늘며 대손충당금 234억원을 적립해 건전성을 강화했다. 이 과정에서 당기순이익은 -654억원을 기록했다.   중저신용 대출 비중이 커졌지만, 각종 건전성 지표는 시중은행 대비 낮은 수준을 유지했다. 고정이하 여신비율(NPL)은 0.04%였으며, 1개월 이상 연체율도 0.04%로 집계됐다. 지난해 말 기준 은행권 가계대출 연체율은 0.16%, 저축은행 대출 연체율은 2.51%였다. 위험 가중 자산 취급 여부에 따라 은행의 자본 건전성을 측정하는 국제결제은행(BIS) 총자본비율은 17.6%로, 국제결제은행 기준치(8%)를 웃돌았다.   토스뱅크 관계자는 “금융권에서 오랫동안 풀지 못했던 ‘포용금융’을 금융소비자 중심의 혁신을 바탕으로 빠르게 풀어냄과 동시에 안정적으로 성장하고 있다”며 “앞으로도 금융 사각지대를 포용하면서도 건전성을 유지할 계획”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2022.06.07.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>토스 대출 비교 서비스, 월 대출실행액 1조원 최초 돌파</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004062097?sid=101</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>누적 대출액 11조원 넘겨1~5월 평균 대출액 7920억사진 제공=비바리퍼블리카[서울경제] 비바리퍼블리카(토스)는 대출 비교 서비스의 월 대출 실행 금액이 처음으로 1조 원을 달성했다고 7일 밝혔다.토스에 따르면 지난 5월 한 달간 ‘대출 비교 서비스’를 통해 실행된 대출 규모는 1조 445억 원이다. 누적 대출 실행액은 11조 1000억 원에 이른다.토스 애플리케이션 내 ‘대출받기’ 메뉴로 제공되는 대출 비교 서비스는 지난 2019년 5월 금융위원회로부터 혁신금융서비스로 지정된 후 같은 해 8월부터 실시됐다. 현재 신한은행, 우리은행, 토스뱅크 등 총 52개 금융사의 상품을 비교할 수 있다.올해 1월부터 5월까지 월 평균 대출 실행액은 7920억 원 수준으로, 지난해 월 평균 대출 실행액(4380억 원) 대비 약 81% 증가했다.토스 관계자는 “대출 비교 서비스는 고객의 시간과 공간적 비용을 혁신적으로 줄여주며 비교할 수 있는 금융사도 52개사로 늘었다”며 “52개 금융기관의 대출 심사를 한번에 조회함으로써 신용점수에도 영향을 미치지 않아 요즘 같은 금리상승기에 꼭 필요한 필수 금융서비스”라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2022.06.02.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>청와대 관람객 12일부터 하루 4만9천 명으로 확대...화요일 휴관</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/052/0001746691?sid=103</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>지난달 10일 개방 이후 57만여 명이 찾은 청와대의 관람객 정원이 늘어납니다.문화재청 청와대국민개방추진단은 오는 12일부터 하루 관람 인원을 3만9천 명에서 1만 명 많은 4만9천 명으로 늘린다고 밝혔습니다.12일 이후 관람 예약 창구는 내일(3일)부터 '청와대 개방' 누리집으로 단일화됩니다.기존에는 네이버, 카카오톡, 토스 등을 이용해야 했습니다.관람자 선정 방식은 추첨에서 선착순으로 바뀌고, 1명이 예약할 수 있는 인원은 4명에서 6명으로 늘어납니다.경복궁과 마찬가지로 화요일은 청와대와 청와대 연계 북악산 등산로, 칠궁이 문을 닫습니다.관람 시간은 오전 7시∼오후 7시에서 오전 9시∼오후 6시로 변경됩니다.온라인 관람 예약이 어려운 65세 이상 국민과 장애인, 외국인은 오전 9시와 오후 1시 30분에 영빈문 안내 데스크에서 관람권을 받을 수 있습니다.지난달 31일까지 청와대 관람 신청자는 659만 명을 넘었고, 관람자는 57만4천여 명이었습니다.※ '당신의 제보가 뉴스가 됩니다'[카카오톡] YTN 검색해 채널 추가[전화] 02-398-8585[메일] social@ytn.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2022.06.14.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>네이버페이 이용액 2025년까지 100조원…해외 결제 확대(종합)</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005103004?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>박상진 네이버파이낸셜 대표 14일 기자간담회박상진 네이버파이낸셜 대표가 2025년까지 간편결제 서비스인 네이버페이의 연간 이용액 100조원을 달성하겠다고 14일 밝혔다. 네이버파이낸셜은 이달 중 ‘스마트플레이스 사업자 대출’을 출시하고, 하반기에는 핀테크 최초로 개인사업자 대출 비교 서비스도 시작한다.100조 노리는 네이버페이 성장 박차…라인페이 연동도지난 3월 취임한 박 대표는 이날 오전 열린 ‘네이버파이낸셜 미디어데이 2022’에서 "결제와 금융 사업 모두 외연 확장을 지속해 이용자와 중·소상공인(SME)이 가장 많이 찾는 핀테크 플랫폼으로 가치를 증명할 것"이라고 강조했다.박 대표는 네이버파이낸셜이 간편결제 사업자로 자리를 확실히 굳히도록 하고 마이데이터 서비스의 월간활성이용자수(MAU)도 1000만까지 키우겠다는 포부를 밝혔다. 데이터 인텔리전스에 기반한 혁신적 금융 서비스를 이용하는 SME를 지금보다 5배 늘리겠다는 방침이다. 데이터 인텔리전스는 네이버페이 주문·결제 데이터와 스마트스토어에서 발생한 데이터 등 비금융 데이터와 인공지능(AI)을 통합한 기술이다.우선 네이버페이 성장에 박차를 가한다는 계획이다. 네이버페이의 연간 이용액은 지난해 기준 38조원이다. 지난 5월에는 월간 이용액이 4조원을 돌파했다. 박 대표는 "네이버페이 이용자는 현재 3078만명으로 초기보다 22% 증가해 국내 생산가능인구의 84% 수준"이라고 설명했다. 네이버페이는 의료·문화·모빌리티 등 네이버페이의 생활업종 가맹점을 늘리고 대만 라인페이 연동을 시작으로 해외 현지 결제 연동도 확대한다는 계획이다. 박 대표는 해외 진출과 관련해선 "금융사업이 외국으로 나가 현지 금융사보다 잘하기는 쉽지 않다"면서도 "(네이버의) 데이터 분석 역량과 기술이 파트너와 결합하면 분명히 기회가 있을 것"이라고 덧붙였다.'대출 비교' 서비스 출시네이버파이낸셜은 이달 중으로 ‘스마트플레이스 사업자 대출’을 출시한다. 스마트플레이스는 오프라인 SME가 네이버 검색, 지도 등 가게 정보를 등록하고 네이버예약·주문 등 비즈니스 도구도 무료로 활용할 수 있는 플랫폼이다. 네이버파이낸셜은 이를 이용하는 250만 SME만을 위한 대출상품을 우리은행·전북은행과 함께 선보일 예정이다. 또 이달 중 ‘보험통합조회’ 서비스를 출시해 이용자가 가진 보험에 대한 보장 분석을 해주고 이용자 맞춤형 보험 정보와 팁도 콘텐츠도 제공한다.올 하반기에는 개인사업자 대출 비교 서비스를 핀테크 업계 최초로 시작한다. 전업권의 사업자 대출 상품이 입점하고, 금융사들과 함께 사업자 특성에 맞는 상품 개발도 추진한다.또 네이버파이낸셜은 SME 상생도 지속적으로 확대한다. 빠른정산, 네이버페이 주문관리 수수료 지원, 반품안심케어 등도 1년간 무료로 지원한다. 박 대표는 "혁신적인 핀테크 스타트업에 대한 투자와 해외 핀테크 제휴 기회도 모색하겠다"며 "기술력을 총동원해 사용자 데이터 관리·보호에도 더욱 힘쓰겠다"고 말했다."필요하다면 라이선스도 취득"박 대표는 이날 그간 네이버파이낸셜이 카카오뱅크, 카카오페이, 토스 등에 비해 소극적인 방식으로 금융 사업을 전개한 한다는 지적에 대해서도 입을 열었다.그는 "핀테크사업자로 전자금융에 필요한 라이선스는 모두 취득했다"며 "(네이버파이낸셜은) 기존 금융을 단순히 온라인으로 가져오는 금융만을 하고자하는 것이 아니라 차별화된 금융의 가치를 만드는 혁신금융에 목적이 있다"고 설명했다.박 대표는 "금융 사업은 역사가 길기 때문에 많은 금융 전문 기업들이 그동안의 경험과 네트워크를 가지고 있기 때문에 협업해서 좋은 상품을 만들고자 하는 것"이라며 "혁신금융이 높은 가치를 만들 수 있다면 라이선스를 취득할 생각도 있다"고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2022.06.14.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>핀테크는 MZ세대만 쓴다고?…시니어 이용자도 '대표 고객' [긱스]</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004711456?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>뉴시니어 80% "뱅킹 앱 경험"핀다, 50대 이용자 1년새 4배 증가"금융권 실버고객 모시기 경쟁"이 기사는 프리미엄 스타트업 미디어 플랫폼 한경Geeks에 게재된 기사입니다.게티이미지뱅크핀테크 서비스 이용자층의 외연이 확장되고 있다. 디지털에 익숙한 MZ세대(밀리네얼+Z세대)를 중심으로 초기 성장을 이뤘는데 최근엔 50대 이상 시니어 고객들도 빠르게 늘고 있다. 핀테크가 전 연령대가 사용하는 서비스로 자리매김하고 있다는 분석이다.하나금융경영연구소가 지난달 펴낸 보고서에 따르면 1억원 이상 금융자산을 보유한 만 50~64세의 ‘뉴 시니어’의 83.3%는 최근 6개월간 뱅킹 앱 등 모바일 채널을 이용해 금융거래를 한 경험이 있었다. 영업점을 이용했다는 비율(49.3%)의 1.7배에 달했다.뉴 시니어들은 금융 트렌드에도 민감하게 반응하는 모습을 보였다. 최근 1년 내 신규로 거래한 금융기관을 물어본 결과 토스(6.5%), 토스뱅크(5.8%), 카카오페이(5.4%), 카카오뱅크(4.6%), 네이버페이(4.3%) 등 핀테크와 빅테크 업체가 상위권을 차지했다. 이들은 모바일 채널의 편리성을 사유로 꼽았다.실제로 주요 핀테크 업체의 이용자 중에서 중장년층 비율이 적지 않다. 올해 1분기 기준 토스뱅크 고객 중 40대 비율은 24.2%, 50대 이상 비율도 18.7%나 된다. 대출비교 서비스 핀테크 핀다의 지난해 50대 이상 이용자 비중도 전년 대비 4배 가까이 증가했다.50대 이상을 겨냥한 서비스도 나오고 있다. 고령자를 위한 ‘큰 글씨 서비스’나 장년층이 주로 이용하거나 관심도가 높은 이체, 연금관리, 건강정보 등을 앱 전면에 배치하는 등의 노력이 대표적이다. 연금관리 서비스 마이머플러를 운영하는 웰스가이드처럼 50대 이상을 타깃으로 하는 핀테크 기업도 있다.금융권이 이처럼 ‘실버 고객 모시기’에 나서는 것은 단순히 고객층 확장이나 고령층 사각지대를 해소하기 위한 차원만은 아니다. 하나금융경영연구소에 따르면 &lt;2030 축의 전환&gt;의 저자인 마우로 기옌 케임브리지대 교수는 10년 내에 부와 힘의 중심이 밀레니얼 세대에서 실버 세대로 이동할 것으로 예상했다.60세 이상이 전세계 자산의 50%를 갖고 있는 만큼 이들을 액티브 유저로 만들면 수익 창출 측면에서도 적잖은 기여를 할 것이라는 판단이다. 향후 은퇴·노후 설계나 자산관리, 상속·증여, 헬스케어 등과 관련된 실버 특화 금융상품 출시 경쟁도 이어질 것이란 관측이 나온다.시니어 특화 상품이나 서비스를 이용한 고령층은 해당 금융사와 거래를 더 자주하는 경향을 보인다. KB골든라이프(국민은행), S-미래설계(신한은행), 행복노하우(하나은행), 시니어플러스(우리은행) 등을 이용해본 적이 있는 소비자의 74.1%는 해당 금융사와의 거래가 증가했거나 향후 이용할 의사가 있다고 답했다. 비경험자 중에선 이 같은 응답 비율이 40.3%에 그쳤던 것과 대비된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2022.06.02.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>청와대 관람 이제 선착순으로…12일부터 변경</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002737220?sid=100</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>선착순 관람신청은 3일 오전10시부터 가능청와대개방누리집 통해 신청청와대 관람이 오는 12일부터 선착순으로 바뀐다.관람 신청도 네이버·카카오·토스가 아닌 새로운 관람예약시스템으로 통일된다.문화재청 청와대국민개방추진단은 2일 "청와대를 상시 개방함과 동시에 그동안 여러 경로로 나눠져 있던 신청창구를 단일화해 새로운 관람예약시스템 '청와대개방누리집'을 도입했다"고 밝혔다.관람예약시스템이 변경되면서 관람자 선정 방식도 추첨제에서 선착순으로 변경했다. 관람 시간도 '오전 7시~오후 7시'에서 '오전 9시~오후 6시'로 조정됐고, 휴관일은 매주 화요일이다.청와대 일일 관람 정원은 12일부터 기존 3만9000명에서 4만9000명(현장발급 1000명 포함)으로 1만명 늘어난다. 회당 입장객이 6500명에서 8000명으로 늘어났으며, 하루 6차례에 걸쳐 1시간30분 단위로 입장을 구분한다.인터넷 접수가 힘든 65세 이상 어르신·장애인·외국인에 한해 각각 500명씩 하루 두 차례(오전 9시·오후 1시30분) 영빈문 안내데스크에서 현장발급을 지원한다. 65세 이상 어르신은 주민등록증·운전면허증·여권, 장애인은 장애인등록증, 외국인은 여권·외국인등록증 등의 신분증을 제시해야 한다.12일 이후의 관람신청은 3일 오전 10시부터 가능하다. 관람을 원하는 국민은 청와대개방 누리집에 접속한 뒤 관람 희망일을 선택하면 된다. 선착순 접수 결과에 따라 선택한 날짜에 관람할 수 있게 된다.2일부터는 청와대와 연계된 북악산 등산로 중 삼청동 방면 출입구를 춘추관으로 옮긴다. 시민들이 더욱 쉽게 청와대 연계 등산로를 통해 북악산을 오를 수 있게 됐다. 현재까지 청와대 관람 인원은 5월31일 기준 57만4000여명이다.  청와대 본관 및 관저 건물이 일반에 공개된 지난달 26일 시민들이 청와대 본관 입장 순서를 기다리고 있다. 연합뉴스</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2022.06.09.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>‘메뚜기식’ 저금, 0.1%라도 이자 더 챙기세요</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003278870?sid=101</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>금리 인상기 금융상품 활용법토스뱅크 ‘2%’ 통장, 일복리 효과케이뱅크 ‘3%’ 챌린지박스 주목우리 첫거래우대 정기예금 ‘2.5%’OK·웰컴저축 ‘3%’ 파킹통장 인기금리 인상기를 맞아 금융 소비자들의 자금이 ‘이사철’에 접어들었다. 기간이 짧은 수신 상품을 여러 개 가입하는 한편 각기 다른 은행들의 수신 상품을 조합해 보다 높은 이자를 챙기기도 한다. 이 상품 저 상품을 오가는 이른바 ‘메뚜기’식 저금법이다.8일 은행연합회에 따르면 KB국민·신한·하나·우리·NH농협은행 등 5대 은행의 수시입출금식 저축성예금(MMDA)의 금리는 최고 연 0.35~0.70%(1억원 이상 예치 시) 수준이다. MMDA는 하루만 맡겨도 금리혜택을 받을 수 있는 상품인데 수시입출금 통장에 1억원이 넘는 돈을 넣어 봐야 연 1%도 채 되지 않는 이자가 붙는다는 얘기다. 이에 자금 유동성을 확보하면서도 높은 수준의 이율을 챙길 수 있는 방법을 찾기 위해 입출금식 파킹통장이나 단기 예적금 상품 등을 비교하며 발품을 파는 이들이 늘었다.1억원까지 연 2% 금리가 적용되는 토스뱅크 수시입출금 통장은 지난해 하반기 출시 이후 대표적인 파킹통장으로 자리잡았다. 매일 이자를 받을 수 있어 일복리 효과가 있다. 직장인 A씨는 “토스뱅크 통장을 평소 파킹통장으로 활용하면서 금리가 오른 적금 상품에도 새로 가입하기 시작했다”고 말했다. A씨는 적금 이체 날짜에 맞춰 토스뱅크에서 적금 상품을 가입한 은행으로 금액이 자동이체되도록 설정하는 방식을 활용한다. 파킹통장의 하루 단위 이자도 챙기는 한편 적금 이자도 쏠쏠하게 챙기겠다는 전략이다.직장인 B씨는 연 3% 금리가 적용되는 케이뱅크 챌린지박스를 30일 단위로 10개 가입했다. 챌린지박스의 개당 한도는 500만원이다. 최대 5000만원을 한 달 단위로 굴리며 자금 유동성을 확보하면서 월복리 효과도 노린 것이다.금리가 오르면서 예적금 가입도 늘어나고 있다. 5대 시중은행의 지난달 말 기준 총수신은 1820조 9374억원으로 한 달 사이에 18조 2527억원 불었다. 특히 6개월 단위로 짧게 돈을 묻어 두는 예금 상품도 연 2%대 금리가 넘어서면서 관심이 쏠린다. 우리은행의 우리 첫거래우대 정기예금은 최고 연 2.5%, IBK기업은행의 IBK 디데이(D-Day) 통장은 최고 연 2.36%의 금리가 6개월 만기 상품에 적용된다. 단기 증시 부진 등에 대응하기 위한 제2금융권의 파킹통장도 인기다. OK저축은행의 OK읏통장과 웰컴저축은행의 웰뱅모두페이통장은 최고 연 3%의 금리가 적용된다. 다만 이들 상품은 입출금이 자유로운 만큼 높은 금리가 적용되는 예치금 한도를 꼼꼼하게 확인해야 한다. OK저축은행의 경우 연 3% 최고금리가 500만원 이하분에 대해서만 적용된다. 웰컴저축은행도 예치금 잔액 100만원 초과분에 대해서는 우대금리를 적용하지 않는다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2022.06.04.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>"초봉 5000만원, 전공 제한 無"…'파격 채용' 문 열렸다</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004707613?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>대형 저축은행, 공채 문 '활짝'높은 급여에 워라밸 문화까지총자산 118조 돌파·임직원 1만명 육박"채용 규모 확대, 연봉 상향 가능성 有"사진=연합뉴스문과생 최후의 '취업 통로'였던 시중은행들이 공개채용 문을 걸어 잠그고 있다. 연간 3000여명에 달했던 5대 시중은행의 정기 공채 인원은 지난해 1000명 아래로 떨어졌다. 고연봉 일자리로 분류되는 은행들이 채용 문을 좁히는 가운데, 국내 저축은행이 신입직원 공채를 열면서 취업준비생들의 대안으로 떠오르고 있다. 신입 초봉 5000만원대로 금융권 내에서도 높은 수준의 급여를 보장하는 것은 물론 '워라밸(일과 가정의 양립)' 문화를 갖춘 것이 호감도를 끌어올리면서다.4일 저축은행 업계에 따르면 SBI저축은행은 오는 15일까지 대졸 신입사원을 공개 채용한다. 모집 분야는 금융영업과 통계, IT 등이다. SBI저축은행은 전공, 어학성적에 제한을 두지 않고 국내외 대학 학사 이상이면 누구나 지원할 수 있는 파격적인 채용 방식을 고수하고 있다. 선발 인원도 제한을 두지 않는다. 우수 인재가 많을 경우 최대한 많은 인력을 수용하기 위해서다. 신입 초봉은 5000만원 초반 수준이다. 각종 인센티브와 복리후생비를 포함해서다.업계 1위 대형 저축은행의 위상에 걸맞은 복지혜택도 제공한다. 임직원의 정시 퇴근을 위해 근무 시간이 지나면 컴퓨터가 자동으로 꺼지는 PC오프제를 실시하고, 여가 생활을 지원하기 위해 콘도·리조트 등 휴양시설도 제공한다. 여기에 각종 경조금부터 의료비, 학자금까지 지원한다. 기본적으로 처우가 좋고 워라밸 실현도 가능하다 보니 취준생 사이에서 인기가 높아지고 있다. 실제 SBI저축은행의 신입 공채 경쟁률(입사연도 기준)은 2020년 77 대 1, 2021년 82 대 1, 2022년 101 대 1로 나날이 높아지고 있다.앞서 상상인저축은행, 상상인플러스저축은행을 핵심 계열사로 둔 상상인그룹은 올해 1월 신입·경력 공개채용을 실시한 바 있다. 상상인그룹 계열사 저축은행의 신입 초봉은 4000만원대 중후반으로 알려졌다. 고정 인센티브와 복리후생비 등을 포함해서다. 상상인그룹은 차별화된 직원 복지 혜택으로 이목을 끌었다. 현재 상상인그룹은 업계 최초로 주 4.5일제를 도입하고 있다. 금전적인 지원은 덤이다. 임직원 가족 여행 시 200만원, 출산 시 축하금 200만원을 제공한다. 연간 120만원의 자녀수당도 지원한다.또 다른 대형 저축은행 OK저축은행은 올해 하반기 대규모 신입·경력 공개채용에 나설 것으로 보인다. OK저축은행은 매년 9~10월께 공채를 진행해왔다. OK저축은행의 신입 초봉 수준은 5000만원을 웃돈다. 기본적으로 임직원의 건강 복지 향상을 위해 본인과 가족 대상 의료실손 보험 가입, 건강검진 등도 지원한다. 신입사원을 위한 별도의 케어 프로그램도 두고 있다. 교육 과정을 통해 신입사원의 조직 이해를 돕고, 직무역량 및 전문성 강화를 돕는 것이 목표다.적극적인 인재 영입 의지를 보이는 저축은행업계의 행보는 채용 문을 좁히고 있는 시중은행과 비교된다. 금융감독원 금융통계정보시스템에 따르면 지난해 12월 말 기준 저축은행 79곳의 임직원 수는 9855명으로 1만명에 육박했다. 이는 전년 말 집계된 9637명보다 2.26% 늘어난 규모다. 케이뱅크와 카카오뱅크, 토스뱅크를 제외한 국내 은행의 임직원 수는 같은 기간 11만7136명에서 11만4482명으로 2.26% 감소했다.저축은행업계 인력 수요가 커진 데에는 가파른 성장세의 영향이 컸다. 지난해 12월 말 국내 저축은행의 총자산은 118조2000억원으로 집계됐다. 이는 전년 말(92조원) 대비 28.5% 증가한 수치다. 저축은행 총자산은 지난해 금감원 집계 이래 처음으로 100조원을 돌파한 뒤 증가세를 이어가고 있다. 총자산이 2016년 말 기준 52조원에 불과했던 것을 감안하면 5년 새 2배 이상 뛴 셈이다. 저축은행이 비대면 금융, 기업금융 등으로 사업 범위 확장에 공격적으로 나서고 있는 만큼 추후 채용 규모가 확대되고 연봉 수준이 상향될 여지가 크다는 게 업계 중론이다.대형 저축은행 관계자는 "금융권 전체를 기준으로 봐도 현재 저축은행의 처우와 직원 복지 수준은 매우 높은 편이다. 최근 자금 규모가 확대되고 경영 건전성이 빠르게 개선된 점이 긍정적인 인식을 키우는 데 영향을 미쳤다고 본다"며 "시중은행보다 인재 영입 의지가 크고 자금력이 탄탄해지고 있는 시점인 만큼 추후 채용 규모와 처우가 좋아질 가능성이 충분하다고 생각한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2022.06.03.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>뮤직카우, 금융전문가 서주희·김재홍 리더 영입</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002258679?sid=105</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>음원 IP 펀드 조성 및 전문 운용 목적뮤직카우(총괄대표 정현경)는 음원 IP 관리 강화는 물론, 대규모 음원 IP 펀드 조성 및 전문 운용을 위해 금융전문가인 서주희, 김재홍 리더를 영입했다고 3일 밝혔다.뮤직카우 IP상품기획팀 책임자로 합류하게 된 서주희 리더는 삼일회계법인, 한국씨티은행, 삼성생명보험, 삼성자산운용, 삼성헤지자산운용, 토스뱅크 등 기존 금융권과 핀테크 업계 전반에서 금융 업무를 두루 경험한 17년 경력의 전문가다. 서울대학교와 콜롬비아 비즈니스 스쿨에서 경영학 학위를 받았으며, 자산운용 전문가로 그 밖에 재무자문, 심사 등의 업무 경험도 갖고 있다.서주희 리더는 뮤직카우에서 추진 중인 대규모 음원 IP 펀드 조성과 운용에 대한 전반적인 업무를 이끌어 가는 것과 동시에, 뮤직카우가 보유한 음원 IP의 고도화된 상장 시스템을 구축 예정이다. 이용자를 위한 IP 펀드 상품 다양화도 진두지휘한다.뮤직카우 서주희 뮤직카우 IP상품기획팀 리더(왼쪽), 김재홍 IP자산관리팀 리더IP자산관리팀 책임자로 신규 선임된 김재홍 리더는 NH투자증권에서 17년 이상 근무하며 다양한 분야의 금융 업무를 맡아온 전문가다. 중앙대학교 법학과 졸업 후 NH투자증권에서 지점 영업, 해외투자펀드 기획 및 영업, 유가증권 담보 신용 및 대출 업무 등을 경험했으며, 헤지펀드 운용에 필요한 종합 서비스를 제공하는 프라임 브로커리지 서비스(PBS) 업무를 담당해왔다.김재홍 리더는 그동안 쌓아온 업무 경험을 기반으로 뮤직카우가 보유한 음원 IP에 대한 체계적인 관리 및 체제를 한층 더 강화하고 IP 관련 데이터를 취합, 분석하는 업무를 총괄할 예정이다. 뮤직카우에서 매입하고 관리하는 음악 저작권의 규모가 급성장하고 있는 만큼 뮤직카우는 이번 영입을 통해 더욱 체계적이고 전문성 높은 음악 저작권 관리를 전개해 나갈 것으로 기대된다.뮤직카우 관계자는 "이번 전문가 영입을 통해 더욱 체계적인 음원 IP 관리 시스템 강화 및 상품 다각화에 속도를 높일 수 있을 것으로 기대한다"며 "뮤직카우는 음악이라는 K-콘텐츠를 기초자산으로 하는 '혁신 문화금융 상품'을 고안해내고 시장을 만들어낸 문화금융 기업으로, 앞으로도 계속해서 음악 산업 활성화에 기여하는 것은 물론, K팝의 가치를 보다 높여 나가기 위해 최선을 다하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2022.06.12.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>카카오도 '놀금' 검토…'근무시간 단축' 나서는 IT 기업들</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006152115?sid=105</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>카카오케임즈 이어 추진…SKT는 주 4일제 격주 시행스타트업 업계 "일도 휴식도 몰입할 수 있어 긍정적"카카오 판교오피스 전경 (카카오 제공) © 뉴스1(서울=뉴스1) 이정후 기자 = IT 기업과 스타트업을 중심으로 근무 시간을 단축하려는 시도가 이어지고 있다. 카카오는 '놀금'(일하지 않고 쉬는 금요일) 제도의 격주 도입을 검토하고 있고 SK텔레콤은 매달 셋째 주 금요일에 쉬는 '해피 프라이데이' 제도를 이번달부터 한 달에 두번으로 확대했다.지난 8일 카카오는 이전에 공개했던 메타버스 근무제의 수정안을 발표하면서 놀금 제도의 격주 도입을 검토하겠다고 밝혔다. 이는 현재 논의 중인 사안으로 세부 내용은 확정되지 않은 상태다. 메타버스 근무제 도입과 함께 직원 복지 강화 및 능률 향상을 노리는 것으로 풀이된다.남궁훈 카카오 대표는 카카오게임즈 대표 재임 시절 '놀금' 제도를 도입한 바 있다. 지난 2018년 7월, 매월 마지막 주 금요일에 전사 직원을 대상으로 한 놀금 제도를 처음 도입했고 2021년 4월에는 격주 시행으로 확대했다.현재까지 운영되고 있는 카카오게임즈의 놀금 제도는 업무의 집중도와 효율을 높이는 것과 동시에 직원 복지 차원에서 내부적으로 만족도가 높은 것으로 전해진다.SK텔레콤은 매달 셋째 주 금요일에 쉬는 '해피 프라이데이' 제도를 이번 달부터 한 달에 두 번(둘째 주, 넷째 주)으로 확대했다. 2020년부터 해당 제도를 시행해온 바 격주로 주 4일 근무제를 확대해도 문제가 없다는 판단에서다.근무시간을 단축하는 움직임은 스타트업 업계에서 이미 선제적으로 있어왔다. 배달의민족을 운영하는 우아한형제들과 숙박 플랫폼 여기어때를 운영하는 여기어때컴퍼니는 2017년부터 월요일 오후 1시에 출근하는 주 4.5일제를 시행 중이다.특히 우아한형제들은 주 35시간 근무제를 유지하다가 올해 1월부터는 주 32시간으로 근무시간을 단축했다. 월요일은 오후 1시부터 5시까지 근무하고 화~금요일에는 오전 9시30분부터 오후 5시30분까지 근무하는 형태다.토스를 운영하는 비바리퍼블리카 역시 Δ토스뱅크 Δ토스증권 Δ토스페이먼츠 등 계열사 모두에게 '얼리 프라이데이' 제도를 운영 중이다. 얼리 프라이데이는 법정 근로시간인 주 40시간을 유지하되 매주 금요일에는 오후 2시에 퇴근하는 제도다.이처럼 근무시간을 단축하는 흐름은 '놀 때 놀고 일할 때 일하자'는 분위기의 확대라는 게 업계의 평가다. 지난 2년간 재택근무를 도입하며 업무 효율성의 중요성을 경험한 IT 기업들이 이번에는 근무시간을 단축해 능률 향상과 직원 복지 혜택 강화라는 '두 마리 토끼'를 잡겠다는 이야기다.스타트업 업계 관계자는 "근무 시간이 단축되면서 주말 시간을 좀 더 여유롭게 쓸 수 있게 돼 일도 휴식도 몰입해서 할 수 있어 긍정적이다"며 "기존 방식대로 근무하는 평일에 더 집중해 근무하게 되면서 직원들의 만족도도 높아졌다"고 내부 분위기를 전했다.김대종 세종대학교 경영학과 교수는 "유럽에서 실험 중인 주 4일제 근무가 기존의 주 5일제 근무와 비교해 업무 생산성이 떨어지지 않는다는 연구결과가 있어 국내 기업이 근무 시간을 단축하는 것도 긍정적으로 본다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2022.06.10.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>섹타나인, 토스플레이스에 20억원 출자</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003703908?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>토스의 오프라인 결제단말기 제조 자회사 토스플레이스는 지난 8일 서울 역삼동 토스 본사에서 SPC그룹의 토탈 마케팅 솔루션 계열사인 섹타나인과 주주간계약을 체결했다고 9일 밝혔다. 이날 행사에는 토스 이승건 대표, 토스플레이스 최지은 대표, 섹타나인 이경배 대표, 현능호 상무가 참여했다.   섹타나인은 20억원을 출자해 토스플레이스의 보통주 주식을 취득했다. 이로써 지난 3월 법인 등기를 마친 토스플레이스는 비바리퍼블리카 80억원, 섹타나인 20억원의 출자로 오프라인 결제 단말기를 제조 유통하는 합작법인 설립을 마무리했다.   토스플레이스는 모바일 금융의 혁신을 이어온 토스의 DNA와 SPC그룹 섹타나인의 통합 마케팅 역량 및 비즈니스 경험을 오프라인 매장 결제환경에 적용, 새로운 혁신을 이끈다는 목표다. 이를 위해 토스는 결제단말기 제조와 소프트웨어 개발에 참여하고, 섹타나인은 ‘해피포인트’와 같은 모바일 커머스 서비스 노하우를 제공해 시너지를 만들 계획이다. 이경배 섹타나인 대표는 “SPC그룹이 보유한 모바일 커머스 서비스 경쟁력을 토대로 토스와의 사업 시너지를 창출할 계획”이라고 말했다.   토스플레이스는 지난 4월 유통협력사(VAN대리점)를 대상으로 사업 설명회를 개최한 데 이어 1차 대리점 모집을 완료하고 계약을 진행 중이다. 올 3분기 중 가맹점을 대상으로 한 전용 홈페이지를 오픈하고, 올해 안에 스마트 결제단말기 보급에 나설 계획이다.   스마트 결제단말기는 7인치 디스플레이를 적용한 슬림한 디자인으로 매장 계산대의 공간 효율성을 높일 수 있게 개발 중이다. IC칩과 NFC, 마그네틱 결제뿐 아니라 QR결제 포함 간편결제 등 기존의 모든 결제수단을 통합 제공하고, 기존 가맹점에 깔려있는 결제망(VAN 망)을 그대로 연동할 수 있는 오픈형 구조로 설계된다. 전용 홈페이지 오픈 시 단말기 디자인도 공개할 예정이다.   최지은 토스플레이스 대표는 “섹타나인과의 주주간 계약은 토스플레이스 시작을 알리는 첫 걸음”이라 말하며 “매장을 찾는 고객과 사업주 모두에게 새로운 가치를 보여드릴 수 있는 혁신을 만들어 나갈 것”이라 포부를 밝혔다.   토스플레이스는 올 3분기 중 일부 가맹점을 대상으로 결제단말기 시범 서비스에 들어가고 4분기 중 본 서비스를 시작할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2022.06.06.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>곪아터진 ‘쥐어짜기’ 관행…‘네카오’, 소통으로 달라졌다</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002593502?sid=105</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>네이버 직원 사망 1년…바뀐 조직문화이메일 청원·이사 선임 반대운동 등카카오 노조, CEO ‘주식먹튀’ 제동회사쪽, ‘민심’ 달래려 문제제기 수용지난해 6월 네이버 노동조합 기자회견. 연합뉴스1년 전 경기 성남시 분당구 네이버 본사 사옥 로비에는 이 회사 임직원들이 가져온 흰 국화꽃이 쌓였다. 지난해 5월25일 과도한 업무 압박 등을 호소하며 사망한 네이버 직원을 추모하기 위한 임시 분향소였다. ‘신의 직장’으로 불리던 대형 인터넷기업에서 터진 직장 내 괴롭힘 사건에 아이티(IT)는 물론 다른 업계 회사원들도 큰 충격을 받았다.파장이 컸던 만큼 사건 이후 1년 동안 아이티 기업의 조직문화에 큰 변화가 일었다. 성과경쟁 등으로 파편화됐던 아이티 노동자들이 회사 문제와 처우에 제 목소리를 내고, 회사도 이를 경영 방침에 반영하기 시작했다. 국내서 손꼽히는 대기업이 된 아이티 회사들이 기업 규모에 걸맞는 조직문화를 갖춰야 한다는 게 구성원들의 주문이다. “조직문화에 목소리 내야 내 동료 지켜”5일 아이티 업계 노사 관계자들의 말을 종합하면, 지난 1년 동안 네이버·카카오 등 인터넷 기업들에서 직원들이 회사 문제에 적극적으로 의견을 밝히는 문화가 자리잡았다. 이전까지는 직장인 익명 커뮤니티인 ‘블라인드’ 등에서 직원들이 제각각 불만을 내는 것 외에 ‘대외적인’ 문제제기가 드물었다. 하지만 최근에는 사내 게시판에 실명 의견을 내거나, 언론·시민사회 등을 통해 회사 문제를 공론화하는 이들이 늘었다.직원 사망 사건 직후인 지난해 6월 네이버 임직원들이 정치권에 회사의 괴롭힘·격무 관행을 알리는 ‘릴레이 이메일 청원’을 쓴 게 대표적이다. 당시 직원들은 국회 환경노동위원회 소속 국회의원 16명과 네이버 부사장 출신의 윤영찬 더불어민주당 의원 등 정치인 20여명에게 이메일 청원서를 보냈다. 사건 책임자에 대한 조사와 형사처벌, 아이티 노동자들의 격무 구조 개선 등을 호소하는 내용이 담겼다. 이에 성남이 지역구였던 김은혜 당시 국민의힘 의원, 윤영찬 의원 등이 답장을 써 “아이티 노동환경을 챙기겠다”는 뜻을 밝혔다.직원 사망 당시 그룹의 인사 책임자였던 채선주 전 부사장의 사내이사 선임을 막으려는 ‘반대표 인증운동’은 지난 3월 벌어졌다. 각자가 스톡그랜트 등으로 보유한 회사 주식으로 정기 주주총회에서 사내이사 선임 안건에 반대표를 던진 뒤, 익명으로 인증하는 방식이었다. 직원들의 ‘개인플레이’ 성향이 특히 강한 것으로 알려져온 네이버에서 ‘집단행동’이 이어지자, 업계에선 이례적이라는 반응이 나왔다. 여기에 참여했던 네이버 한 직원은 &lt;한겨레&gt;에 “지난해 사건 이후, 조직문화가 건강하지 않으면 소중한 동료를 잃을 수 있다는 공감대가 생겼다”고 말했다.카카오의 경우 지난 연말 류영준 당시 대표이사 내정자의 이른바 ‘주식 먹튀(먹고 튀기)’ 논란이 터지자 직원들이 회사 안팎에 이 문제를 고발하고 나섰다. 노동조합인 ‘크루유니언’이 사내망에 류 내정자의 사퇴를 촉구하는 게시물을 올리자, 임직원 수백명이 실명으로 지지를 표했다. 일부 직원들은 윤석열 당시 대선후보 캠프 등을 찾아가 임원의 주식 매도를 제한할 제도 개선을 호소하기도 했다. ※ 이미지를 누르면 크게 볼 수 있습니다.“우리는 ‘팀 네이버’” 소통 나선 회사들 회사들의 태도도 바뀌는 추세다. 경영진이 적극적인 내부 소통을 약속하며 ‘민심 달래기’에 나서고 있다.최수연 네이버 대표이사는 지난 3월 취임 이후 사내외 간담회에서 노동조합인 ‘공동성명’을 여러차례 “대화 파트너”로 소개했다. 조합을 임직원의 대표로 인정하고 조직문화·처우 개선 등의 과제를 한 테이블에서 논의하겠다고 밝힌 것이다. 그는 지난달 기자간담회에서 “네이버에는 노동조합이라는 파트너가 있기에, 취임 후 노동조합을 대화 상대방으로 인정하는 것부터 (조직문화 개선을) 시작했다”고 말했다.그는 새 경영진이 지향하는 회사의 조직문화를 ‘팀 네이버’라는 말로 요약해 표현했다. 수직적인 의사결정 구조와 상호 경쟁 위주의 문화를 고쳐 구성원들의 소속감·팀웍을 높이겠다는 구상으로 풀이된다. 실제로 네이버는 최근 공동성명과의 단체협약에서 직장내 괴롭힘 사건을 예방·조사하는 상시기구를 대표이사 직속으로 신설하기로 합의했다. 아이티 업계에서 이런 기구를 둔 곳은 카카오와 네이버뿐이다.직원들의 반응은 긍정적인 편이다. 네이버의 한 직원은 “이전에는 임원들이 사내 간담회를 열고도 건의사항에 대해 ‘검토·고려·고민하겠다’는 말만 반복해 직원들의 실망이 컸다”며 “현 경영진은 난감한 질문도 거르지 않고 답하는 편이라 이전보다 소통에 능하다는 평”이라고 전했다. 오세윤 공동성명 지회장도 “회사가 노사간 단협을 통해 직장 괴롭힘 조처기구를 신설하고 주기적으로 조직문화를 진단하기로 한 점 등은 괄목할 만한 변화다. 회사가 앞으로도 노동조합과의 대화로 새로운 노사 관계를 열어가길 기대한다”고 밝혔다.사내 최대 화두인 임금 정책에도 직원 여론이 크게 반영되는 모습이다. 그간 아이티 대기업들은 ‘근로 의욕을 높인다’는 명목으로 대체로 기본급 인상폭을 낮게 제한하고 급여에서 인센티브(성과급) 비중을 높여왔다. 근무 평정에 연동된 스톡옵션 등을 월급 대신 늘리려는 곳들도 많았다. 예컨대 지난해 네이버에서는 ‘주식 등이 아닌 기본급 인상으로 성과를 보상해달라’는 직원들의 요구에 이해진 네이버 창업주 겸 글로벌투자책임자(GIO)가 “일괄적인 연봉 인상이 건강한 방법인지 고민된다”고 밝혀 직원들의 반발을 산 바 있다. 카카오에서도 김범수 전 이사회 의장 겸 창업주가 직원들의 비슷한 요구에 대해 “나는 공산주의보다 자본주의가 맞다고 생각한다. 회사는 (성과를 균등하게 나누는) 엔(N)분의 1로 운영될 수 없다”고 답해 논란이 일었다.반면 올해는 카카오·네이버·라인 등이 노동조합과의 임금 협상에서 임직원 연봉 예산을 각각 두자릿수 비율 이상 올리기로 합의했다. 카카오페이는 개인마다 1000만원, 카카오와 라인은 최소 500만원 인상을 보장하는 등 소수 고성과자에게만 보상이 쏠리지 않도록 ‘최저 인상폭’도 뒀다. 네이버의 경우 애초 회사가 개인마다 양도제한조건부 주식(RSU) 200만원어치를 연봉 대신 주겠다고 제안했지만, 기본급을 높여달라는 사내 여론을 받아들여 입장을 바꿨다. 최수연 네이버 대표는 기자간담회에서 “‘개발자·기획자 등 아이티 인재들에게는 자신의 몸값이 올랐다는 체감이 중요하다’는 노동조합의 입장을 받아들여 임금협상 합의에 도달했다”고 설명했다.‘격무 일상’ 스타트업·중견사들도 바뀔까아이티업계 노사가 해결해야 할 숙제도 여전히 남아 있다. ‘크런치모드’로 불리는 장시간 격무 관행이 대표적이다. ‘네카라’(네이버·카카오·라인플러스) 등 대기업들이 시작한 노사 소통이 스타트업·중견사나 게임업계로 이어질지도 관건이다.지난해 12월 성남시가 판교테크노밸리 등 성남지역 아이티 회사 노동자 2300여명을 설문한 결과, 응답자의 51%가 ‘최근 1년간 야근·특근을 반복하는 크런치모드를 경험했다’고 답했다. 이들이 크런치모드를 겪은 기간은 연 평균 34일이었다. 응답자 46%는 퇴근 뒤나 휴일에 회사 메신저 등으로 상사에게 업무지시를 받았다. 특히 증시 상장 등을 앞둬 실적 압박이 심한 스타트업에서는 주 50시간 이상의 격무가 여전하다는 게 아이티 노동자들의 말이다. 높은 업무강도로 유명한 핀테크회사 토스의 경우 업계에서 ‘토징어게임’(드라마 &lt;오징어게임&gt;과 토스의 합성어), ‘토양어선’(원양어선과 토스의 합성어)이라고 불릴 정도다.카카오 크루유니언의 서승욱 지회장(화섬식품노동조합 아이티위원회)은 “연장근무 수당을 정액으로 계산하는 포괄임금제 등을 폐지해 사업주 입장에서도 임직원의 초과근무를 단축할 유인을 만들어야 한다”며 “출퇴근 시간을 자유롭게 정하는 유연근무제 역시 노동시간을 줄이는 방향으로 적용돼야 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2022.06.05.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>인터넷은행 가계대출 5개월째 증가…감소세 5대 시중은행과 대조</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013227179?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>가입자 수 확대 속 성장세…다채널 전략에 여신 포트폴리오도 확장고금리·경기 부진 가능성에 리스크 관리 능력 우려도 인터넷 전문은행 3사    (서울=연합뉴스) 오주현 기자 = 올해 들어 카카오뱅크와 케이뱅크 등 인터넷전문은행의 가계대출 잔액이 다섯 달 연속 증가세를 기록했다.     5대 시중은행의 가계대출이 5개월째 감소하고 있는 것과는 대조된다.     5일 은행권에 따르면 지난달 말 기준 카카오뱅크와 케이뱅크의 가계대출 잔액은 각각 26조5천445억원, 8조4천900억원으로 집계됐다.    4월 말과 비교하면 한 달 새 각각 3천100억원, 2천881억원 증가했다.    토스뱅크는 지난달 말 기준 가계대출 잔액을 공개하지 않았으나, 출범 초기인데다 공격적으로 영업을 확대해나가고 있는 만큼 증가세를 이어갔을 것이라는 관측이 나온다.     토스뱅크의 4월 말 기준 가계대출 잔액은 2조8천354억원이었다. 토스뱅크의 대출 잔액이 올해 들어 매월 평균 약 4천억원씩 증가해온 것을 고려하면 5월 말 기준 인터넷 전문은행 3사(카카오·케이·토스뱅크)의 가계대출 잔액은 38조원대에 육박했을 것으로 추정된다.    인터넷 은행의 가계대출 확대 추세는 올해 들어 주요 시중은행의 가계대출 잔액이 5개월 연속 감소한 것과 대조된다.     KB국민·신한·하나·우리·NH농협 등 5대 시중은행의 지난달 말 가계대출 잔액은 701조615억원으로, 4월 말보다 1조3천302억원 줄었다. 지난달 감소 폭은 4월(8천20억원)보다도 커졌다.     전세자금 대출은 늘었지만, 신용대출과 주택담보대출이 감소한 영향 때문이었다.    부동산과 주식 등 자산시장이 냉각되면서 고신용자들의 대출 수요가 감소한 반면, 생활비 목적 등의 중·저신용자 대출 수요는 꾸준한 영향으로 풀이된다.    특히 인터넷 은행의 경우 중·저신용자 대출뿐 아니라 전 여신 상품군에서 고르게 대출이 증가하는 것으로 전해졌다.    한 인터넷 은행 관계자는 "중·저신용자 대출에 힘을 싣고 있는 것이 사실이지만, 전·월세대출과 주택담보대출 등이 고루 성장하고 있는 상황"이라고 전했다.     최근 인터넷 은행권은 존재감을 키우고 있다. 지난해 말 토스뱅크가 제3호 인터넷 전문은행으로 출범하며 업권의 세가 커진데다, 공격적인 영업과 입소문 속에 신규 가입자가 지속해서 큰 폭 늘어나 성장을 이끌고 있다.    지난달 말 기준 카카오뱅크의 고객 수는 1천896만명, 케이뱅크는 772만명이었다. 전달 대비 각각 18만명, 10만명이 늘었다.    인터넷 은행은 자체 애플리케이션(앱)뿐만 아니라 기타 채널에서의 노출도를 높이는 전략도 구사하고 있다.    최근 케이뱅크는 카카오페이 대출상품 중개 서비스에서 자사 전세대출 상품을 조회할 수 있도록 제휴하는 등 채널 다변화를 꾀하고 있다.     토스뱅크 역시 지난 4월부터 대출 비교·중개 플랫폼 핀다에 입점해 있다.    인터넷 은행이 올해 들어 여신 포트폴리오를 본격적으로 확장하고 있는 점도 성장 요인으로 꼽힌다.    카카오뱅크는 비대면 주택담보대출을 선보였으며, 토스뱅크와 케이뱅크는 개인 사업자 대출을 출시해 기업금융에 진출했다.     하반기에는 카카오뱅크의 개인사업자 대출 및 전용 수신 상품 출시도 예정돼 있다.     하지만 인터넷 은행의 공격적 영업에 대한 우려도 제기되고 있다.     전 세계 주요 중앙은행들의 강도 높은 긴축으로 기준금리가 빠르게 올라가고 있고 이에 맞춰 시장 금리도 급등하고 있다. 경기가 부진해질 수 있다는 전망도 나오고 있다.    고금리에 경기 부진까지 겹치면 인터넷 은행의 주요 고객인 중·저신용자들의 원금과 이자 상환 능력이 떨어질 가능성이 크다.     금융업계 관계자는 "인터넷 은행들이 이런 리스크를 제대로 관리할 수 있을지 지켜봐야 한다"고 말했다.     viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2022.06.15.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>법무부는 허용, 금융위는 불허…기재부 "부처간 통합 조정해야"</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005242606?sid=105</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>로톡은 합법, 핀테크 비교추천은 위법영업 방식 비슷한데 부처판단에 따라 갈려기재부, '서비스발전기본법'으로 통합조정해야과기정통부, "민간주도 자율규제, 플랫폼발전전략 마련할것"이준석 "기존 직역과의 충돌시 제약없도록 노력"[이데일리 김현아 기자]법률플랫폼에 대한 인식(좌)와 전문직 서비스(법률·의료 등)의 플랫폼화 필요성. 출처=박유리 정보통신정책연구원 플랫폼정책연구센터장플랫폼의 본질이 비교하고 추천하는 것인데 유사 개념인 ‘알선·중개(현행법상 불법)’를 이유로 규제하는 게 타당할까.15일 국회4차산업혁명포럼(공동대표 서병수·이상민)이 주최한 ‘디지털플랫폼산업의 혁신과 성장을 위한 과제’ 세미나에서는 부처별로 다르게 해석해 온 플랫폼 규제에 대해 윤석열 정부는 새로운 정책이 필요하다는 의견이 대세였다.코로나19이후 첨단 IT기술과 산업의 융·복합을 통해 확산 중인 디지털플랫폼은 우리 경제의 새로운 성장 엔진인 것은 물론,  법률·의료·미용 같은 전문직 서비스는 플랫폼화를 통해 소비자에게 더 정확한 정보를 제공하고 서비스의 질도 높일 수 있기 때문이다. 로톡은 합법, 핀테크 비교추천은 위법지난 정부에서는 법률플랫폼(로톡)은 불법이 아니고, 금융플랫폼(네이버파이낸셜, 카카오페이, 토스)의 온라인 금융상품 비교·추천 서비스 중 일부는 불법이고, 뷰티플랫폼(강남언니)은 유권해석하지 않았다. 업종은 달라도 영업방식이나 서비스는 유사한데 부처 판단에 따라 합법과 불법이 갈린 셈이다. 문경호 기획재정부 서비스경제과장은 “법무부는 로톡을 광고플랫폼으로 해석한 반면, 금융위는 단순한 광고대행이 아니라며 위법하다고 봤다”면서 “이는 플랫폼 전반의 정책 검토 없이 개별 이슈, 개별 산업에 산발적으로 대응한 결과다. 부처간 통합적으로 조율하는 메커니즘이 필요하다. 서비스산업발전기본법을 통해 해결할 수 있다”고 말했다. 그는 “서발법이 되면 민간과 정부의 협력을 토대로 4차산업혁명시대에 디지털플랫폼 산업에 대해 효율적인 지원이 가능할 것”이라며 “기재부 권한 강화 의도는 오해”라고 부연했다.기재부 서비스발전기본법, 과기부 자율규제 등 부처간 온도차 기재부가 ‘서비스발전기본법’ 입법을 통한 부처간 통합조정을 제시했다면, 과기정통부는 혁신과 공정의 균형이라는 정책비전과  ‘민간주도의 자율규제’를 대안으로 제시했다. 한정원 과학기술정보통신부 디지털플랫폼팀장은 “민간 주도의 자율규제와 함께, 신뢰할 수 있는 디지털플랫폼 구축을 위한 발전 전략을 관계 부처와 함께 만들고 있다”면서 “2020년부터 다양한 이해관계자와 함께 소통하며 운영해온 디지털플랫폼정책포럼을 통해 논의를 모으고 정책 제안을 발전시키려 한다”고 밝혔다. 구태언 코리아스타트업포럼 리걸테크산업협의회장(변호사)은 “30만건의 형사 사건 판례를 분석해 본인의 형사 사건이 어느정도 형량을 선고받게 되는지 통계로 알려주는 서비스는 변호사에게 보다 전문적인 고객 상담을 할 수 있게 해준다. 그런데 대한변호사협회는 반감을 가진다”라고 아쉬워했다. 그러면서 “업계는 변호사 광고플랫폼의 허위·과장 광고 우려를 없애기 위해 ‘표준 광고 가이드’를 만들었고 AI 모니터링 시스템을 통해 자율규제하고 있다”고 소개했다.국민의힘은 규제철폐 약속이준석 국민의힘 당 대표는 축사에서 “디지털플랫폼이 가치를 창출할 때 기존 직역과의 충돌이나 규제 때문에 불합리한 제약을 받는 일이 없도록 노력하겠다”며 “윤석열 정부의 키워드는 규제철폐와 규제 혁신”이라고 말했다. 권성동 국민의힘 원내대표는 “각종 규제를 철폐해 민간에 활력을 주겠다는 게 윤석열 정부의 이야기”라면서 “국내 디지털플랫폼이 다른 나라와의 경쟁에서 승리하고 4차산업혁명 경쟁에서도 이길 수 있도록 새로운 산업에 맞는 제도나 여건을 만들어줄 필요가 있다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2022.06.02.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>토스뱅크, 체크카드 최상위 등급 보안 인증 획득…안정성 강화</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000676339?sid=101</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>지불카드업계 정보보안표준 획득…카드 소유자 데이터 보호토스뱅크가 국내 은행권에서 최초로 글로벌 신용카드 데이터 보안인증인 '지불카드업계 정보보안표준(PCI-DSS)' 인증을 획득했다고 2일 밝혔다.PCI-DSS는 정보가 전송되는 과정에서 카드 소유자의 데이터 등을 안전하게 보호하고 있는지를 검증하는데 목적이 있다. 고객의 카드 정보는 강도 높은 보안 정책에 따라 보호되며, 전송 및 저장되는 모든 처리 영역에서 암호화되고 있어 중도에 노출될 우려도 없다.토스뱅크'PCI-DSS 보안' 인증 획득 이미지. [사진=토스뱅크]PCI-DSS 인증은 레벨 1부터 4까지 있는데 이번 토스뱅크가 받은 인증은 레벨 1인 최상위 등급으로 국내 은행권에서는 최초다. 이번 심사는 'PCI 보안표준위원회'로부터 인증심사 기관으로 지정받은 브로드밴드시큐리티 한국지점이 심사를 진행했다.카드를 소유한 고객의 경우 개인정보와 신용카드번호, 각종 추가 정보를 포함한 거래정보가 이른바 '민감정보'로서 다뤄진다. 이들 정보는 고객이 결제를 할 때마다 카드사가 구축한 인프라를 통해 전송되는데, 이 과정에서 보안이 취약할 경우 탈취되거나 노출되는 문제가 발생한다.이에 토스뱅크는 이번 인증 심사에서 ▲카드 소유자 데이터 및 민감한 데이터의 저장, 전송, 처리 절차 ▲카드 결제 프로세스 안정성 ▲정보보호 대책과 시설 및 설비 운영/보안관리 절차 등 총 12개 분야 412개 세부 항목에 대해 종합적으로 평가받았다.아울러 PCI-DSS 인증 획득 후에는 분기마다 준수 상태 검토 및 준수 여부를 증명해야 하기 때문에 토스뱅크 고객들은 보다 안전하게 토스뱅크의 체크카드를 이용할 수 있다. 현재 토스뱅크 고객의 80% 이상이 토스뱅크 체크카드를 사용하고 있다.토스뱅크 체크카드는 현재 커피·패스트푸드·편의점·택시·대중교통 등 5대 생활밀착형 업종에서 결제하면 캐시백 혜택을 준다. 해외결제는 온·오프라인 구분 없이 이용금액의 3%를 즉시 캐시백하고 있다.또한 NFC(근거리 무선통신) 기술을 활용한 OTP 기능을 탑재해, 휴대폰 뒷면에 체크카드를 접촉하면 안전하고 손쉽게 고액 송금이 가능하도록 했다.토스뱅크 관계자는 "이번 PCI-DSS 인증은 외부 컨설팅 없이 토스뱅크가 자체적으로 준비하여 보안 인증을 취득해 그 의미가 크다"며 "급변하는 ICT 사회에서 새로운 위협과 기술에 적극 대응하고 보안성과 안정성을 지속 강화해나갈 것"이라고 말했다.한편 PCI-DSS 인증은 비자(Visa), 마스터카드(MasterCard), 아메리칸익스프레스(American Express) 등 6개 국제브랜드 카드사가 공동으로 카드정보 해킹, 도난, 분실 등의 사고로부터 고객의 신용카드 정보를 보호하기 위해 마련한 카드결제 국제 보안표준 인증이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2022.06.08.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>[영어 이야기] 접두어 uni는 1, deca는 10, hecto는 100을 의미해요</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004708811?sid=102</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>기업가치가 10억달러에 달하는 스타트업을 유니콘이라고 부릅니다. 유니콘 가치의 10배나 되는 스타트업을 decacorn이라고 합니다. deca는 10이라는 뜻의 접두어입니다. 이와 반대로 deci는 10분의 1이란 뜻입니다. decimeter는 1m의 10분의 1, 즉 10㎝입니다.게티이미지뱅크Viva Republica Inc., the Seoul-based fintech company behind Toss, is in the process of a pre-IPO round worth 1 trillion won. While the fintech startup was aiming for a valuation of over 20 trillion won, its market capitalization has plunged to 12 trillion won.Earlier this year, Viva Republica was widely expected to become the country's fourth decacorn - a private, venture-backed company with a valuation of at least $10 billion- after its IPO.Not all is lost in the bear market, with some experts saying the time is ripe to filter out the lackluster startups from the promising ones. In other words, some are hopeful that venture capital firms will conduct more stringent due diligence.Optimists are saying that the Ice Age that followed the Dot- Com Bubble of the 1990s will not repeat in the venture capital sector. Unlike the internet companies of yore, much of the startup and VC ecosystem is buoyed by government funding, such as pension funds.핀테크 금융회사 토스를 운영하는 비바리퍼블리카는 1조원 규모의 프리 IPO를 진행하고 있다. 이 회사는 20조원 이상의 기업가치를 목표로 했지만 최근 12조원 수준으로 가치가 급락했다.올해 초만 해도 비바리퍼블리카는 기업공개를 마치면 기업가치가 100억달러를 웃돌며 한국에서 네 번째 데카콘 반열에 오를 것으로 기대를 모았었다.약세장이라고 해서 모든 기업이 어려움을 겪지는 않을 전망이다. 일부 전문가는 벤처시장이 성숙 단계로 접어들면서 스타트업 사이에서 ‘옥석 가리기’가 본격화할 것이라는 전망을 내놓고 있다. 벤처캐피털 회사들이 더욱 엄격한 잣대로 스타트업을 평가할 것이라는 얘기다.낙관론자들은 1990년대 닷컴버블 이후와 같은 투자 빙하기는 오지 않을 것으로 보고 있다. 당시 인터넷 기업들과 달리 지금은 대부분의 스타트업과 벤처캐피털이 정부 정책자금과 연기금 등의 투자를 등에 업고 있기 때문이다. 해설최근 경기 부진과 금리 상승 등의 영향으로 벤처투자 시장으로 몰려들던 자금이 얼어붙고 있다는 내용의 기사입니다. 오늘 살펴볼 표현은 decacorn(데카콘)입니다.벤처나 스타트업 기사에서 흔히 보는 단어가 unicorn(유니콘)입니다. 유니콘은 uni(하나)와 corn(뿔)의 합성어로 전설 속에 나오는 동물인, 뿔 하나 달린 말입니다. 한자어로 일각수(一角獸)라고 하지요. 벤처업계에서는 기업가치가 10억달러에 달하는 스타트업을 유니콘이라고 부릅니다.이런 유니콘 가치의 10배나 되는 스타트업을 decacorn이라고 합니다. deca는 10이라는 뜻의 접두어입니다. 뿔이 10개 달린 말이네요. 이탈리아의 작가 보카치오의 소설 데카메론은 ‘열흘간의 이야기’란 뜻이지요. 10년은 decade입니다.박해영 The Korea Economic Daily Global Edition 편집장이와 반대로 deci는 10분의 1이란 뜻입니다. decimeter는 1m의 10분의 1, 즉 10㎝입니다. 소리의 세기를 나타내는 단위인 데시벨(decibel)도 bel이란 단위의 10분의 1이란 뜻입니다.100을 뜻하는 접두어는 hecto입니다. 기압의 단위인 hectopascal(헥토파스칼)은 1파스칼의 100배입니다. decacorn의 10배 가치가 되는 스타트업은 hectocorn이라고 부를 수 있겠네요. 반대로 100분의 1은 여러분도 잘 아는 centi입니다.더 큰 배수를 알아보면 1000은 kilo, 100만은 mega, 10억은 giga, 1조는 tera로 표시합니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2022.06.09.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>LGU+ '디지털 혁신기업'도약…'헤쳐 모여' 애자일조직 시험대 [IT돋보기]</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000677856?sid=105</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>8월 소상공인 대상 AI 콜봇 'AI 가게 매니저' 출시…스타트업처럼 빠르게 일하는 '프로덕트' 중심 조직으로 시장 진출"LG유플러스는 통신사를 넘어 고객 중심의 '디지털 혁신기업'으로 재탄생한다, 인공지능(AI)과 데이터 중심의 '소프트웨어 회사'로 진화하겠다."황규별 LG유플러스 CDO가 9일 기자간담회에서 발표하고 있다.  [사진=LG유플러스 ]9일 LG유플러스는 서울 용산 사옥에서 기자간담회를 열고, 지난해 7월 신설한 '최고데이터책임자(CDO)조직'을 첨병 삼아 AI와 데이터 기반 '디지털 혁신기업'으로 진화하겠다고 발표했다.이에 앞서 회사는 지난 1월 데이터사업전문가 황규별 씨를 CDO로 영입하고, CDO조직형태도 상품별 조직구성이 가능하도록 '애자일'하게 바꿨다.이날 간담회를 통해선, 오는 8월 소상공인용 'AI컨택트센터(AICC) 서비스' 등 사업화를 시작할 예정이며 AI 분야 전문성을 갖춘 스타트업과 파트너십 확장, 전문인력 200여명 채용을 추진해 '디지털 혁신기업'진화라는 목표를 달성하겠다고 강조했다.이날 사업 설명에 나선 황규별 CDO는 LG유플러스 경영진의 AI·데이터를 통한 도약 의지와 다양한 인재들이 공존하는 환경에서 LG유플러스가 '디지털 혁신기업'으로 변화할 수 있는 가능성을 봤다고 설명했다.황 CDO는 "황현식 사장님은 '데이터를 통해서 회사가 전체적으로 변하기를 바란다고 요청했다"고 설명했다.이어 "와서 보니 경영진 전체에서 데이터와 AI를 통해 회사가 변화해야 한다는 것에 대해 절실히 공감하고, 필요하다고 느끼고 있었다"면서 "이런 러더십의 의지 자체가 저희가 변화할 수 있는 가장 큰 자산, 가능성이라고 생각한다"고 말했다.또 "LG유플러스에는 다양한 배경을 가진 굉장히 다양한 인재들이 있다"면서 "다양한 경험과 다양한 지식을 가진 분들이, 이를 강점으로 시장을 제대로 읽고, 이를 고객에게 새로운 경험으로 제공할 수 있다고 생각한다"고 말했다.황 CDO는 미국 델타항공에서 고객관리시스템(CRM) 분석 업무를 시작으로 다이렉TV(DirecTV) 비즈니스 분석 수석이사, AT&amp;T 콘텐츠인텔리전스·빅데이터 책임자, 워너미디어 상품·데이터플랫폼·데이터수익화 담당 임원을 역임한 데이터사업 전문가다.LG유플러스는 황 CDO의 미국 주요 통신·미디어기업에서 경험과 전문역량에 주목해 지난 1월 AI·데이터를 통한 '디지털 혁신기업'전환을 위해 CDO로 영입했다.◆'헤쳐모여'애자일 조직으로 '디지털 혁신' 이룬다황 CDO는 "LG유플러스는 안정된 통신사를 넘어 고객 중심의 '디지털 혁신기업'으로 재탄생한다"면서 "AI와 데이터 중심의 소프트웨어 회사로 진화하겠다"고 강조했다.그가 내세운 LG유플러스 '디지털 혁신기업' 전환 방안은 ▲고객 가치 달성을 위한 프로덕트 중심의 애자일조직 ▲AI 데이터 사이언스 및 엔지니어링 인재 확보 ▲톱티어 파트너와 공동연구 생태계 조성 등이다.우선, LG유플러스 CDO 조직은 '애자일'하게 움직인다. 상품·프로젝트 매니저, 데이터 엔지니어, AI·데이터 사이언티스트, 소프트웨어 엔지니어 등이 프로젝트별, 상품별 가상조직을 구성해 목표 달성을 위해 일한다.사안에 따라 전문가들이 '헤쳐 모여'조직을 구성하고, 목표 달성을 위해 전력투구하는 '자기 완결형 조직'이다. 이런 애자일 조직 형태는 시장과 이용자 변화에 기민하게 움직일 수 있다는 것이 장점이다. 이에 이미 아마존웹서비스(AWS)·구글·토스 등 테크기업들이 도입한 바 있다.황 CDO는 "CDO 조직의 목표는 LG유플러스 상품들에 하나하나 들어가서 저희가 상품의 동력도 되고, 또 변화의 동력이 되는 것이 가장 큰 지표이고 KPI"라고 말했다.성준현 DX전략담당(상무)는 "애자일 조직으로 진화는 CDO뿐만 아니라 유플러스 전체적으로 진행을 하고 있다"면서 "한쪽은 애자일인데 협력해야 하는 다른 조직이 그렇지 않으면 아무래도 어긋나는 부분이 있기 때문에 전사적인 관점에서 애자일을 추진하고 있다"고 말했다.LG유플러스 프로덕트 설명 도표 [사진=LG유플러스 ]◆ 데이터 확보·분석·AICC 등으로 사업화사업화를 위해선 다섯 가지 상품 주제(프로덕트 그룹)를 도출했다. ▲이용자 정보를 세분화, 분석하는 '프로파일' ▲데이터 수집과 결합을 통해 분석을 제공하는 '인사이트' ▲세그멘트별 '타게팅' ▲이용자 경험을 측정하는 '메절멘트' ▲AI·데이터로 플랫폼을 고도화하는 '디스커버리' ▲AI를 고객센터에 적용하기 위한 'AICC' 등으로, 이의 주제에 따라 상품을 구성했다.이 중 ' AICC'에는 AI 콜봇, 챗봇, 상담어드바이저, 커넥티드카 등 서비스가 포함된다. 특히 오는 8월 출시 예정인 소상공인 특화 AI 콜봇 서비스 'AI 가게 매니저'는 미리 녹음된 음성안내를 사용하는 ARS와 달리 AI가 전화로 소비자를 응대한다.예를 들어, 식당에 저녁 식사를 예약하는 전화를 걸었다면 AI가 예약시간과 인원, 주문하고자 하는 메뉴를 받아서 점주에게 자동으로 정리해 알려준다.또 다른 주제인 '인사이트'의 '데이터플러스'는 LG유플러스 이용자 특성, 미디어소비, 이동패턴 등 데이터를 기반으로 이용자 라이프스타일, 온오프라인의 다양한 수요를 분석해 사업전략을 수립·실행하는데 필요한 인사이트·데이터 마케팅 채널을 제공하는 기업용(B2B) 빅데이터 서비스다.'데이터플러스'는 지난 4월 출시 이후 대교의 보습학원 '눈높이러닝센터' 1천248곳 입지를 선정하는 데 활용했으며, 유초등학습지 브랜드 '윙크'를 운영하는 단비교육에도 도입될 예정이다.아울러 '타겟팅'의 빅데이터 기반 맞춤형 상품 추천 쇼핑플랫폼 'U+콕'은 지난해 4월 대비 1년 새 거래금액이 4배 이상 성장했다. 월평균 이용자 수(MAU)는 44만명을 돌파했으며 'U+콕'을 통한 재구매율은 40%를 넘었다. 회사는 지난 4월 'U+콕' UX를 개편한데 이어 5월에는 정기배송 서비스를 시작했으며, 이달에는 전용 모바일 앱을 선보일 예정이다.◆ 전문인력 200명 채용·전문성 있는 스타트업과 제휴 확대LG유플러스는 외주와 제휴에 의존하던 개발역량을 내재화하는 데에도 집중한다. 이에 따라 오는 2024년까지 AI·데이터 사이언티스트, 데이터·플랫폼 엔지니어, SW·ML-Ops(소프트웨어·기계학습 상용 적용) 엔지니어 등 200여명의 우수 개발인력을 채용해 현재 인원의 두 배 수준인 400명까지 전문인력을 확대할 계획이다.밖으로는 'AI파트너십'도 이어간다. 회사는 LG AI연구원과 초거대 AI 모델 '엑사원'기반 협력관계를 구축했으며, AI 스타트업 '업스테이지'와 협업을 통해 AI 기술 컨설팅과 플랫폼·엔진설계 등 분야에서 협업을 진행하고 있다.황 CDO는 "이런 구도를 통해 저희 역량도 늘리지만, 또 다른 전문성을 가진 회사들과 협력하는 체계로 가려고 한다"면서 "이를 통해 '함께 일할 수 있는 환경을 만든다'고 이해해주면 될 거 같다"고 말했다. 아울러 "제휴사에는 저희가 단순 데이터 공급자로 끝나는 것이 아니라, 서비스 고도화를 통해 함께 성장하는 방향을 지향하고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2022.06.10.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>"인재 유출 막아라" 실리콘밸리가 꺼내든 '비급' RSU가 뭐길래 [긱스]</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004709889?sid=101</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>이 기사는 프리미엄 스타트업 미디어 플랫폼 한경Geeks에 게재된 기사입니다.카카오페이 경영진이 스톡옵션으로 받은 주식을 대거 팔아 논란이 된 후 금융당국은 스톡옵션 행사에 대한 규제 강도를 높이고 있습니다. 최근 주가 하락으로 스톡옵션이 '휴지조각'이 된 사례도 늘고 있죠.  그러자 최근 주목받는 게 '양도제한 조건부 주식(RSU)'입니다. 실리콘밸리 기업들이 인재 확보를 위해 이 RSU를 적극 활용하고 있고 국내에서도 이를 도입한 기업들도 나타나고 있습니다. 한경 긱스(Geeks)가 요즘 뜨는 RSU에 대해 정리했습니다. 미국 실리콘밸리에선 매일 인재 쟁탈전이 벌어집니다. 파격적 인센티브로 우수 인재를 잔류시키는 것은 정보기술(IT)기업들의 과제입니다. 코로나19 확산세가 절정을 향하던 지난해 말에는 기업들이 특히 골머리를 앓았습니다. 비대면 시대에 접어들며 촉발된 각종 IT 신사업 경쟁에서, 담당 인력을 뺏고 뺏기는 전쟁이 한층 더 심해졌기 때문입니다.글로벌 시가총액 1위(약 3000조원) 애플 역시 다르지 않았습니다. 경쟁사의 위협이 거셌습니다. 메타(구 페이스북)로 사명을 바꾸고 하드웨어(HW)와 스마트 워치 시장에 눈독을 들이더니 지난해에만 애플 엔지니어를 100명가량 데려간 것으로 파악됩니다. 그러자 애플이 새로운 인센티브 방식을 도입했습니다. 국내에서는 아직 생소한 ‘양도제한 조건부 주식(RSU·Restricted Stock Unit)’이 그것입니다. 고성과자들에게 최대 18만달러(약 2억2600만원)을 지급하겠다는 소식에, 관련 내용을 보도한 블룸버그통신은 “이례적 조치”라 평가했습니다.실리콘밸리에선 RSU가 스톡옵션(주식매수선택권) 제도의 한계를 메워줄 보완재로 부각되고 있습니다. 애플을 포함해 구글, 아마존이 이를 적극적으로 활용하고 있고 국내서도 일부 대기업과 스타트업에서 점차 관심을 보이는 분위기입니다. 최근엔 RSU 계약·관리 전문 서비스까지 나오기도 했습니다. 업계에선 유연함을 장점으로 앞세운 RSU가 스톡옵션과 동등한 위치를 점할 수 있을 것으로 전망합니다. 시가 주식 무상 제공하는 'RSU' 뜬다사진=게티이미지뱅크RSU란 무엇일까요? 양도제한 조건부 주식이라는 명칭이 통용되고는 있지만, 정확한 번역이 아니라는 말도 많습니다. 국내선 정식 제도가 아니고, 별도로 규제하고 있지도 않아 일부 의미만 강조됐다는 것입니다. 풀어 쓴 RSU의 정의는 ‘미래 시점, 특정 조건에 정해진 수량의 주식을 지급받는 행위’로 정의할 수 있습니다.RSU를 보다 정확히 알기 위해선 먼저 스톡옵션을 제대로 이해할 필요가 있습니다. 스톡옵션의 사전적 정의는 ‘임직원이 일정 수량의 주식을 일정 가격에 살 수 있는 권한’입니다. 널리 알려져 있듯, 기업의 성장을 통해 주가가 오르면 차익을 볼 수 있는 보상제도죠. 미리 약속한 행사가격(Exercise price)으로 주식을 취득한 뒤 시가에 팔수 있기 때문에 주가 상승만 전제된다면 매력적인 유인책입니다.요즘같은 하락장에선 RSU가 더 매력적으로 보입니다. RSU는 '주식을 살 수 있는 기회'가 아니라 '주식'을 제공합니다. 이때 주식은 통상 연 단위로 분할해 배분되거나, 수년 뒤 일괄 지급되기도 합니다. 시장 상황에 상관없이 주식의 전체 가치가 온전히 직원에게 가는 구조라서 선호도가 높습니다. 회사 입장에선 행사 가능 시점까지 재직자 근로의욕을 고취하고 근속 연수를 늘릴 수 있습니다. 단기 성과에 매몰될 수 있는 성과급과 비교해도 낫다는 평가가 나옵니다.상장 게임사에 다시는 5년차 경력직 개발자 A씨의 사례를 가정해 보겠습니다. 그의 회사는 지난해 1인당 600주의 스톡옵션을 부여했습니다. 행사가격은 당시 시가인 7만원선. '특정 시점 이후 주식 600주를 7만원에 살 수 있는 권리'를 얻은 것입니다. 이후 얼마동안 그 회사 주가는 상승세를 타서 10만원까지 올랐습니다. 그 주가 수준을 그대로 유지했더라면 A씨는 주당 3만원, 도합 1800만원의 차익을 봤겠죠. 하지만 시간이 흘러 정작 스톡옵션 행사 가능 시점이 됐을 때 이 회사 주가는 6만원대로 내려앉았습니다. A씨 입장에서는 남는게 없는 셈이죠. A씨가 대신 600주를 RSU로 수령했다면 어떻게 될까요? 4년간 25%씩 주식을 분할 지급 받았다면, 그는 올해만 900만원 어치를 받게 됩니다. 행사가격 밑으로 주가가 떨어지면 휴지조각이 되는 스톡옵션과 달리 확정적인 이득입니다. (다만, 두 형태 사이에서 고민하는 기업은 스톡옵션으로 부여할 시 예상되는 차익을 기준으로 RSU를 배분하는 경우가 많습니다. 처음부터 예상 차익인 1800만원을 이상적 시가인 10만원으로 나눠 180주가 부여될 가능성이 높습니다. 가격이 6만원이 됐다면, 가정보다 더 낮은 총 1080만원의 이득을 보게 됩니다.)RSU는 스톡옵션 보다 활용의 폭이 더 넓다는 장점도 있습니다. 우선 부여 대상자를 지정하는게 자유롭습니다. 스톡옵션은 집행임원이나 이사, 감사 등 임직원에게만 부여할 수 있습니다. 반면 RSU는 특별한 제약이 없습니다. 심지어 스톡옵션에선 금지되는 대주주 부여도 가능합니다. 부여 수량과 행사 가격에도 아직은 제한이 없습니다. 스톡옵션은 발행 주식 수의 10% 이내로 부여 수량이 제한됩니다. 시가 및 액면금액 중 높은 금액을 지급한다는 요건도 상법 제340조의 제2항에 정해져 있습니다. RSU는 무상 지급이라 행사 가격과 상관이 없습니다.주주총회 특별결의는 스톡옵션의 주요 요건입니다. 법인의 활동을 규정하는 ‘정관’에 관련 내용을 미리 반영시키기도 해야 합니다. RSU는 별도의 정관 요건 없이, 이사회 결의만으로 실행이 가능해 기업 입장에서 절차상 부담을 크게 줄여줄 수 있습니다.근속요건 제한이 없는 점도 파격적입니다. 스톡옵션의 행사 기간은 매우 세밀하게 정의됩니다. 일단 2년 이상 재직 시에만 행사가 가능합니다. 당사자 합의로도 줄일 수 없습니다. 이때 2년은 최소한의 요건으로, 법인과 근로자가 기간을 늘리기로 정했다면 따라야만 합니다. 지난해에도 관련 판결이 있었습니다. 의료용 안마의자 업체에서 3년 재직 조건이 붙은 스톡옵션을 받은 임원이 조기에 해고당한 사건입니다. 당시 법원은 임원이 스톡옵션을 행사할 수 없다고 판단했습니다.하지만 RSU는 합의가 우선입니다. 천창현 법무법인 원 변호사는 “RSU는 관련 규정이 없어 회사와 임직원 사이의 계약 관계로 규율될 문제”라며 “스톡옵션보다 유연한 합의를 통해 근속연수 제한을 둘 수 있다”고 했습니다. 이 임원이 만약 RSU를 부여받았고, 기간을 2년 이하로 합의했다면 어땠을까요? RSU를 받았을지도 모르겠습니다.그렇다고 RSU가 항상 좋은 것만은 아닙니다. RSU는 받는 즉시 소득으로 인정돼 세금을 내야 합니다. 행사 시점을 미루면 소득세 납부가 연기되는 스톡옵션과는 다르죠.신주 발행 방식을 쓸 수 없다는 점도 스톡옵션과의 차이점입니다. RSU는 회사의 자사주를 나눠주는 것입니다. 상법 제462조 제1항에서는 회사가 배당가능이익분에 한해 자기주식을 취득할 것을 정의하고 있습니다. 수익이 나지 않은 영세 스타트업의 경우, RSU를 쉽사리 부여하지 못할 가능성이 있습니다. 다만 전환사채(CB)를 발행해 RSU 명목으로 나눠주는 회피 방안이 있기는 합니다.RSU는 취소 사유 등을 당사자 간 계약으로 정할 수 있습니다. 의원면직, 부여 대상자의 고의 또는 과실로 회사에 손해를 끼친 경우 등 상법상 취소 사유가 정해진 스톡옵션과 차이가 있습니다. 처분의 제한에도 RSU는 별도의 요건을 계약에 추가할 수 있습니다.조중일 법무법인 세종 변호사(판교이노베이션센터장)는 “스타트업의 경우 벤처기업 육성을 위한 특별법(벤특법)을 적용받아 스톡옵션 부여 대상이나 근속 요건 등의 규제가 일반기업에 비해 덜하고, 세제 혜택도 있다”며 “스타트업은 지분가치가 상대적으로 낮을 때 스톡옵션 행사가가 정해지고, 시가보다 낮은 가액으로 부여할 수 있는 길을 열어두고 있어 행사가에 큰 부담이 없을 수도 있다”고 했습니다. 결국 스타트업은 조건과 상황을 따져 유리한 제도를 택해야 하는 셈입니다. 스톡옵션 혼란 틈타 성장…기업 선택지 늘리다RSU의 역사는 2000년대로 거슬러 올라갑니다. 2001년 파산한 미국의 에너지·물류 업체 엔론은 현재까지도 회계 부정의 대명사로 거론되는 업체입니다. 천연가스 유통사들의 합병으로 탄생한 엔론은 출범 당시부터 50억달러(약 6조2000억원)에 이르는 채무를 지게 됐습니다. 엔론의 경영진은 각종 페이퍼컴퍼니를 통해 엔론의 재무 상태를 조작했습니다. 자산을 외부로 빼돌리는 데도 집중했습니다. AP통신에 따르면, 엔론은 파산 전 4년간 최대 21억달러(약 2조6000억원)는 매출액 조작, 29억달러(약 3조6000억원)는 자산 도피 형태로 자금 유출이 있었습니다. 이 와중에 제프리 스킬링 엔론 사장은 스톡옵션으로 1900만달러(약 235억7000만원)를 챙기며 공분을 샀습니다.미국 재무회계기준위원회(FASB)와 증권거래위원회(SEC) 등 회계 당국은 즉각 조치에 나섰습니다. 정보기술(IT) 기업들의 반발로 갈등이 지속되자, 주요 기업들 사이에선 논란의 대상인 스톡옵션을 탈피하고자 하는 움직임이 시작됩니다. 2003년 마이크로소프트(MS)가 RSU를 도입한 것이 대표적입니다. 당시 미 컴플라이언스위크닷컴의 조사에 따르면, 포춘지 선정 1000개 기업 중 2003년부터 2005년까지 기업별 부여 스톡옵션은 40.1% 감소했습니다. 같은 기간 RSU 부여는 40.7% 증가했습니다.어느덧 기업들 선택지 중 하나로 자리 잡은 RSU는 최근 들어 다시금 집중적인 검토 대상에 올랐습니다. 블룸버그에 따르면 최근 아마존은 4년 동안 점진적으로 RSU를 배분하는 보상책을 추가합니다. 해를 거듭할수록 많은 RSU를 받을 수 있는 구조입니다. 아마존은 지난해 7월과 11월 주가 하락이 이어지며 직원 유지에 어려움이 있었습니다. 그간 배분하던 RSU도 분배 원칙을 변경할 예정입니다. 현재 아마존 RSU는 첫해가 지나면 전체의 5%, 두 번째 해가 지나면 15%를 배분하는 등 독특한 방식을 취하고 있습니다. 우수 성과자에겐 이 제한을 풀어주려는 움직임이 일고 있습니다.구글 모회사인 알파벳 역시 RSU를 선택했습니다. CNBC에 따르면, SEC에 공개된 알파벳의 최고재무책임자(CFO), 최고법무책임자 등 4명의 고위 임원은 2300만달러(약 286억원)에서 3500만달러(약 435억원)에 이르는 RSU를 받았습니다. RSU는 회사에서 지속 근무하는 것을 가정하고 분기별로 12회 분할 지급하기로 했습니다. 알파벳은 전 세계 직원들을 대상으로 4년간 25%에 걸쳐 균등하게 배분하던 RSU 지급 방식을 사전 지급 형태로 바꾸는 방안도 진행하고 있습니다.국내에서는 한화그룹이 2020년 2월 도입을 시작했습니다. 대상은 임원급 이상입니다. ㈜한화를 시작으로 한화솔루션과 한화에어로스페이스, 한화시스템, 한화투자증권 등 대부분이 활용하고 있습니다. 이사회나 이사회 내 보수위원회에서 대상자를 선정하는데, 행사 가능 시점은 7년에서 10년으로 했습니다. 전무급은 2027년에, 사장급은 2030년에 실제 회사 주식을 가지는 구조입니다.쿠팡은 지난해 2월 직원당 약 200만원 상당의 RSU를 부여하기로 했습니다. 배송 기사, 물류센터 상시직 등 단순 추산으로만 5만명이 대상입니다. 1년을 근무하면 50%, 2년을 근무하면 100%를 갖도록 했습니다. 총액은 1000억원 규모입니다. 토스증권도 같은 기간 보상책을 수정했습니다. 기존 스톡옵션 제도에서 RSU를 선택해 보통주 약 39만주를 직원 70명에게 부여했습니다. 지난해 6월부터는 토스 본사에서도 RSU를 활용하게 됐습니다. 이 밖에 크래프톤, 인공지능(AI) 스타트업 몰로코 등이 RSU 제도를 채택하고 있습니다.업계에선 스톡옵션과 RSU가 주도권 다툼을 벌이기보단, 회사가 필요에 의해 적절히 활용하는 병행 구조를 취할 것이라 내다보고 있습니다. 특히 최근까지 저금리를 바탕으로 한 유동성에 힘입어 몸집을 키워낸 스타트업들이 국내서도 RSU를 자리 잡게 할 것이란 전망이 나옵니다. 실리콘밸리의 증권 관리 플랫폼 카르타에 따르면, 스타트업 보상 체계가 스톡옵션에서 RSU로 옮겨가는 데 평균 5년 반 시간이 소요됩니다. 전환 시기에서 평균 기업가치는 1억500만달러(약 1200억원)로 추산됐습니다. 참, 한 가지 더국내 최초 RSU 관리 플랫폼 내놓은 '쿼타북'최동현 쿼타북 대표. 쿼타북 제공국내서도 RSU 계약과 관리 서비스를 지원하는 스타트업이 등장했습니다. 쿼타북은 2019년 설립된 증권관리 서비스 전문 스타트업입니다. 최동현 쿼타북 대표는 최근 한국경제신문과의 인터뷰에서 “RSU는 근로자와 오랜 기간 함께하고 싶은 스타트업의 선택지를 늘려주는 제도”라며 “전자화된 관리 서비스를 통해 투자사와 스타트업, 근로자의 ‘연결 생태계’를 지원하겠다”고 전했습니다.쿼타북은 스타트업의 주주명부 및 스톡옵션 관리, 주식발행 이력 등을 종합 소프트웨어(SW)로 제공하고 있습니다. 구주 거래, 무상증자, 액면분할 등이 전산 프로그램으로 관리되고 각종 주식 계약 조건도 한 번에 조회할 수 있습니다. 고객사는 약 4000곳입니다. 토스, 당근마켓, 왓챠, 티몬 등이 사용하고 있습니다.최 대표는 미 카네기멜론대에서 컴퓨터공학을  공부했습니다. 한국으로 돌아온 뒤엔 벤처캐피털(VC) 카카오벤처스에서 일했습니다. 그는 “심사역으로 근무할 때, 투자사에 주주명부를 요청했더니 2개월이 걸린 적이 있었다”며 “전산화 프로그램이 있으면 쓸 용의가 있냐고 업계에 물었더니, 마다할 이유가 없다는 답변이 쏟아졌다”고 했습니다.처음엔 해외 프로그램을 들여올 생각이었습니다. 미국에선 이미 증권관리 서비스를 제공하는 스타트업 카르타가 이름을 알리고 있었습니다. 카르타 기업가치는 현재 7조원으로 추산됩니다. 그는 다만 “카르타의 조합 규약이나 회계 기준이 국내와 너무 달라서 사용이 불가능했다”며 직접 창업을 결심했다고 했습니다. 창업 이듬해 글로벌 액셀러레이터(AC) 와이콤비네이터의 투자를 유치한 쿼타북은 아시아 시장의 카르타를 목표로 하고 있습니다. 굿워터캐피탈, 딜라이트 벤처스, 국내에선 캡스톤파트너스 등이 투자했습니다.RSU 서비스는 지난달 처음 시작했습니다. RSU에 대한 이해가 낮아도 사용이 가능하도록, 대시보드 기반으로 사용성을 늘린 것이 특징입니다. 최 대표는 “스톡옵션 관리 분야 중 가장 큰 고객사인 토스가 RSU 도입을 준비하면서 국내서도 본격적인 바람이 불겠다고 생각했다”며 “유연하고 확정적인 보상이 지급되는 RSU는 인재 대란이 벌어진 스타트업 업계서 빠르게 자리를 잡을 것”이라고 전했습니다.그는 “종이 화폐를 모바일로 주고받을 수 있을 것이라곤 상상도 못 했던 때가 있다”며 “RSU를 포함한 다양한 증권 관리 시스템 고도화를 통해 비상장 기업들 디지털 전환을 이끌겠다”고 덧붙였습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2022.06.06.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>토스뱅크 '2% 이자'도 낮다…최고 年 3%짜리 '파킹통장' 등장</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004707917?sid=101</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>본격적 금리 상승기…고금리 파킹통장은예금 유치 치열해지며年 2~3% 이자 속출OK저축銀 'OK읏통장'年 2.8%에 우대금리하나저축銀 '하이 예금'최고 年 2.5%까지 줘다른 시중은행들도年 2% 육박 금리 잇따라본격적인 금리 상승기가 시작되면서 ‘파킹통장’의 금리도 쑥쑥 오르고 있다. 금융사 간 자금 유치 경쟁이 치열해지면서 하루만 맡겨도 연 2~3% 이자를 주는 파킹통장이 속속 등장하고 있다. 파킹통장은 차를 잠깐 주차(파킹)하듯 원할 때 단기간만 맡겨도 쏠쏠한 이자를 챙길 수 있는 수시입출식 예금을 뜻한다. 돈을 오래 묶어두고 싶지 않지만 이자를 한푼이라도 더 받고 싶은 소비자에게 제격이다.이제까지 파킹통장계의 강자는 단연 토스뱅크였다. 아무 조건 없이 예치액 1억원까지 연 2%(세전) 금리를 주는 ‘토스뱅크 통장’은 지난해 10월 출시 이후 현재까지 300만 명 넘게 가입했다. 가입자가 원하면 매일 이자를 받아 일복리 효과를 체감할 수 있다는 점도 인기 요인이다. 1억원 초과분은 연 0.1% 금리만 제공한다.지난해 파킹통장 열풍의 진원지 격인 저축은행들도 잇달아 금리 인상에 나서고 있다. OK저축은행은 지난달 31일부터 수시입출식 보통예금인 ‘OK읏통장’의 최고 금리를 기존 연 1.2%에서 연 3%로 인상했다. 예치금 500만원까지는 최고 연 3%, 500만원 초과 금액은 최고 연 1%가 적용된다. 아무 조건 없이 받을 수 있는 기본 금리는 구간별로 각 연 2.8, 연 0.8%다. 나머지 우대금리 0.2%포인트는 다른 시중은행이나 증권사 오픈뱅킹에 이 계좌를 등록하기만 하면 받을 수 있다. 하나저축은행은 최근 ‘하이(High)하나 보통예금’을 선보였다. 3000만원까지 최고 연 2.5% 금리를 주는 파킹통장이다. 기본금리는 연 1.5%지만 우대금리도 어렵지 않게 챙길 수 있다. 마케팅 등에 동의하면 0.3%포인트, 종이통장 없는 계좌로 개설하면 0.1%포인트를 주고, 나머지 0.6%포인트는 매달 말 잔액에 따라 차등 적용한다. 월말 잔액이 30만원 이상~100만원 미만이면 0.2%포인트, 100만원 이상~200만원 미만이면 0.4%포인트, 200만원 이상이면 최대인 0.6%포인트를 준다. 3000만원 초과 금액은 기본금리인 연 1.5%가 적용된다.토스뱅크의 성공 사례를 본 다른 은행들도 연 2%에 육박한 금리를 내건 파킹통장을 내놓고 있다. 저축은행에 1인당 예금자보호 한도(5000만원) 이상 맡기기 부담스럽다면 이용해볼 만하다. SC제일은행은 오는 30일까지 영업점에서 일복리저축예금(MMDA)에 1억원 이상 가입하는 첫 거래 고객에게 신규일부터 최장 60일간 매일 최고 연 1.9%의 특별금리를 제공하는 이벤트를 진행 중이다. 일복리 상품으로 매일 잔액에 따라 금리를 차등 지급하기 때문에 예치 자금이 많을수록 유리하다. 1인당 최대 가입 한도는 20억원이다. 모집 한도 2000억원이 소진되면 이벤트는 조기 종료된다.산업은행은 ‘KDB하이(Hi) 비대면 입출금통장’의 금리를 최근 연 1.85%로 올렸다. 금액 제한이나 조건 없이 예치금 전액에 대해 연 1.85%만큼 매달 이자를 받을 수 있다.파킹통장을 여러 개 만들려면 통장마다 1개월가량의 시차를 둬야 한다. 금융사들은 보이스피싱 방지 등을 위해 20영업일 내 다른 금융사에서 수시입출금 계좌를 개설한 이력이 있다면 신규 계좌 개설을 제한하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2022.06.10.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>갈 길 먼 '디지털 전환'… "금융권 IT 인력 9.6% 불과"</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000821275?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>비대면 금융거래가 확대되고 사이버 보안 위협이 높아지고 있지만 금융권의 IT(정보기술) 인력이 전체 임직원 중 9.6%에 불과한 것으로 나타났다./사진=이미지투데이 비대면 금융거래가 확대되고 사이버 보안 위협이 높아지고 있지만 금융권의 IT(정보기술) 인력이 전체 임직원 중 9.6%에 불과한 것으로 나타났다.10일 강민국(국민의힘·경남 진주시을) 의원실이 금융감독원으로부터 받은 '국내 주요 금융업권 IT 인력 현황'에 따르면 지난 3월 말 기준 시중은행과 인터넷전문은행, 증권회사, 빅테크 전체 임직원(7만1195명) 대비 IT 인력은 9.6%(6809명)에 그쳤다.빅테크 3개사 IT 인력 비중은 50.4%(2136명 중 1077명)로 가장 많았고 그 다음 인터넷은행 42.8%(1879명 중 804명), 시중은행 7.7%(5만4748명 중 4215명), 증권사 5.7%(1만2432명 중 713명) 순으로 집계됐다.강 의원은 "업권의 특수성 차이가 있다는 점을 고려해도 빅테크와 인터넷은행 대비 시중은행과 증권사의 IT 인력 채용 편차는 심각한 수준"이라고 짚었다.시중은행 중 KB국민은행이 9.2%(1만6598명 중 1522명)로 IT 임직원 비중이 가장 컸고 뒤를 이어 하나은행 7.7%(1만1470명 중 880명), 신한은행 7.1%(1만3582명 중 967명), 우리은행 6.5%(1만3098명 중 846명)로 나타났다.증권사는 미래에셋증권이 6.2%(3780명 중 235명), NH투자증권 5.9%(3094명 중 184명), 삼성증권 5.7%(2628명 중 150명), 한국투자증권은 4.9%(2930명 중 144명)로 조사됐다.빅테크 중에는 토스를 운영하는 비바리퍼블리카가 52.0%(690명 중 359명)로 IT 인력이 가장 많았다. 카카오페이는 50.1%(974명 중 488명), 네이버파이낸셜은 48.7%(472명 중 230명)를 차지했다.강 의원은 "금융 분야의 디지털 전환 가속화 등 새로운 보안 리스크에 효과적으로 대응하기 위해서는 IT 인력 확충이 그 어느 때보다 중요한 시기"라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2022.06.08.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>토스證, 해외주식 시장점유율 10% 돌파</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004708997?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>실시간 美주식 소수점거래 서비스 출시 덕토스증권은 해외주식 시장점유율이 10%를 돌파했다고 8일 밝혔다. 해외주식 서비스 시작 6개월 만이다. 해외주식 서비스를 시작한 지난해 12월 1% 수준이었던 시장점유율은 현재 12.5%로 상승했다.토스증권의 해외주식 누적 거래대금은 13조4000억원(110억 달러)을 기록했다. 지난달 토스증권의 해외주식 월 거래대금은 전월 대비 54% 증가해 4조원대에 진입했다. 같은 기간 해외주식 전체 거래대금은 약 4% 상승하는데 그쳤다. 한편 토스증권의 해외주식 서비스 이용 고객수는 140만명을 넘어섰다. 국내의 해외주식 투자자가 지난해 300만명을 넘어섰다는 점을 감안하면 3명 중 1명은 토스증권을 이용 중인 셈이다. 연령대별로는 20대가 34%로 가장 많고, 30대(30%), 40대(23%) 등이 그 뒤를 이었다.토스증권은 해외주식 소수점 거래 서비스가 시작되며 소액투자에 관심있는 투자자들을 끌어들인 것이 시장점유율을 높인 비결이라고 본다. 토스증권은 지난 4월 1000원부터 미국주식에 투자할 수 있는 미국주식 실시간 소수점거래 서비스를 출시했는데, 4월을 기점으로 월활성이용자(MAU)가 100만명을 넘어섰기 때문이다.토스증권 관계자는 “연초부터 이어지고 있는 해외주식 시장의 하락세에도 불구하고 토스증권의 4~5월 해외주식 거래대금은 이미 1분기 거래대금을 넘어섰다”며 “해외주식 투자를 처음 시작하는 고객도 쉽게 다양한 투자 정보를 탐색할 수 있고, 실시간 해외주식 소수점 거래와 같이 고객 관점에서 보다 익숙한 방식의 서비스를 제공해 높은 호응을 얻었다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2022.06.09.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>산은·무역협회, 글로벌 스타트업 페어 '넥스트라이즈' 개최</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002611091?sid=101</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>서울 여의도 KDB산업은행 ⓒ산업은행[데일리안 = 김효숙 기자] 한국산업은행과 무역협회는 오는 16일부터 이틀간 서울 삼성동 코엑스에서 글로벌 스타트업 페어인 '넥스트라이즈 2022'을 개최한다고 9일 밝혓다.올해로 4회차를 맞는 본 행사는 산업은행, 무역협회와 더불어 국가과학기술연구회, 벤처기업협회, 한국벤처캐피탈협회가 공동으로 주최하는 스타트업 페어다. 부스전시, 컨퍼런스 그리고 사업협력, 투자유치를 위한 1:1 상담으로 구성된다.올해 부스전시에는 310여개의 스타트업이 참여한다. 현대차, LG, 아마존웹서비스 등 국내외 대기업 및 직방, 리디 등 유니콘 기업과 다양한 벤처기업들이다.또한 대학관과 글로벌존이 확대된다. 청년 창업의 열기와 글로벌 스타트업 생태계에 대해 확인할 수 있는 좋은 기회가 될 것이라는 설명이다. 대학관에는 KAIST, DGIST, GIST, UNIST, 포스텍 등 9개 대학의 30개 스타트업이 참여한다. 글로벌존에는 미국, 스페인 등 11개국의 30개 스타트업 부스가 차려진다.사업협력과 투자유치를 위해 마련된 1:1 상담에는 국내외 1000여개 스타트업과 175개 대·중견기업, 투자자 등이 참여한다. 사전 검토를 통해 상호 매칭된 기업이 상담스케줄에 맞춰 현장에서 2000여회의 협력상담을 진행할 예정이다.아울러 컨퍼런스 무대를 통해 국내외 유명인사들과 스타트업 트렌드 및 해외진출 등에 대해 이야기 나누고, 별도의 채용 설명회를 진행하여 스타트업과 대학생의 구인·구직 활동을 지원할 예정이다.토스, 직방, 오늘의집 등 국내 대표 유니콘 기업과 동남아 유니콘의 창업자들도 직접 무대에서 다양한 강연을 할 예정이다.채용 설명회에는 직방 스타트업 60여개사가 참여하며, 참가자들은 다양한 스타트업의 채용정보와 함께 현장에서 AI 모의 면접 체험도 가능하다.또 해외진출을 희망하는 스타트업들의 피칭 경연대회가 KDB넥스트라운드로 진행되며, KDB넥스트원 데모데이도 진행된다.넥스트라이즈 참관을 희망하는 관람객은 무료로 입장할 수 있다. 인터넷 홈페이지를 통해 사전등록시 생성되는 QR코드 인식 후 행사장에 입장할 수 있다.이준성 산은 혁신성장금융부문 부행장은 "넥스트라이즈는 국내 스타트업 생태계의 글로벌화, 창업열기 확산 등에 중점을 두어 준비했다"며 "우리나라 스타트업 생태계가 한 단계 점프 업 할 수 있도록 지속 발전시켜 나갈 계획"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2022.06.02.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>[매경춘추] 한국의 비대면 금융전략</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004972159?sid=110</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>코로나19가 풍토병으로 전환되는 시점에서 그간 급격하게 성장한 비대면 금융 시장이 향후 질적으로 성장하기 위해 필요한 제반조건을 제안하고자 한다.최근 인텔의 CEO 팻 겔싱어는 '여느 때보다 빠른 오늘날 변화는 미래에 돌아보면 가장 느릴 것'이라면서 팬데믹 이후 변화의 속도가 더욱 빨라질 것이라고 했다. 변화의 속도는 금융시장에서도 빠르게 체감할 수 있다. 대면을 통해서만 제공되던 서비스가 모바일로 가능해지고 클릭 한번으로 전 세계 주식을 실시간으로 거래할 수 있는 시대가 펼쳐지고 있다. 이러한 변화에 발맞추어 한국의 금융시장이 질적으로 성장하기 위한 조건들은 다음과 같다.먼저 디지털 금융 시장은 대면을 바탕으로 한 공급자 중심의 프로세스를 고객 중심으로 변화시키는 촉매로 활용할 때 폭발적인 성장을 할 수 있다는 점에 주목해야 한다. 디지털에 익숙한 MZ세대가 급부상하고 모바일 사용 비중이 급격히 높아지면서 '고객 친화적' 관점의 서비스가 중요해지고 있다. 종이로 대표되는 오프라인 관점의 프로세스를 모바일 중심으로 바꾸고 직관적이고 사용이 편한 UI(User Interface)를 제공하기 위한 노력이 무엇보다 필요하다. 금융기관 선택 시 디지털 채널의 이용 편의성이 우선된다는 조사 결과는 시사하는 바가 크다.제도적으로도 디지털 시대에 맞는 규제 패러다임 전환이 검토돼야 한다. 카카오, 토스와 같은 빅테크의 등장으로 금융업의 경계가 무너지면서 전통의 금융산업 역시 플랫폼이라는 관점에서 새로운 변화에 대응해야 생존할 수 있다. 골드만삭스도 'The Google of Wall Street'라는 전략목표를 바탕으로 'Marcus'라는 디지털 브랜드를 앞세워 디지털 금융을 선도하고 있다. 핀테크를 비롯한 다양한 기업과 제휴를 통한 성장 전략이 주된 성공 요인으로 꼽히는 상황에서 우리의 금융환경에서도 이러한 성장 전략이 가능한지 되짚어볼 필요가 있다. 세계적인 금융혁신 흐름에 대응하기 위해서는 원칙에 위반되지 않는 행위는 가능하도록 하는 등 금융규제의 틀을 정비해야 한다.또한 금융산업 종사자들의 디지털 업무환경 지원을 위한 변화도 필요하다. 얼마 전 발표된 '금융분야 클라우드 및 망분리 규제 개선 방안'은 긍정적 변화의 시작이다. 미국 실리콘밸리에서 혁신적인 성과가 나오는 것은 창의적 생각을 가능하게 한 근무환경이 뒷받침되었기 때문이다. 고객의 다양한 니즈를 빠르게 충족하고 혁신적인 금융서비스를 위해 '클라우드(Cloud)'로 대표되는 디지털 근무환경 기반이 마련돼야 한다.이제 디지털 금융의 성장은 변수가 아니라 상수이다. 한국의 '디지털 골드만삭스'가 탄생하기 위해서는 금융기관의 고객 친화적 서비스뿐만 아니라 규제 패러다임 시프트, 디지털 업무환경 조성을 위한 정책 지원이 절실하다.[안인성 미래에셋증권 디지털부문 대표]</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2022.06.14.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>네이버파이낸셜 "금융사 협업 우선…별도 라이선스 생각 안 해"</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002259574?sid=105</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>"마이데이터로 얻은 개인정보 회사 자산으로 여기는 건 바람직하지 못해"네이버파이낸셜이 카카오나 토스와 다르게 은행·증권·보험 등 금융업 인·허가를 별도로 취득하지 않겠다는 입장을 재차 강조했다.네이버파이낸셜은 네이버페이 서비스를 네이버 생태계와 녹여 2025년까지 페이 이용액을 100조원까지 확대하고, 마이데이터(본인 신용정보 관리업)을 통해 올해 안으로 개인사업자대출 및 보험 통합 비교 서비스를 출시한다는 계획이다.14일 서울 중구 플라자호텔서 열린 네이버파이낸셜 기자간담회에서 박상진 대표는 "금융소비자 니즈와 불편함을 개선하는 것이 네이버파이낸셜의 일차적 목표이기 때문에 금융서비스와 소비자를 연결하는 것이 우선적이라고 생각한다"며 "금융사나 핀테크와 협업해 혁신적인 상품을 만들 수 있기 때문에 라이선스를 취득할 계획은 없다"고 설명했다.네이버파이낸셜 박상진 대표가 14일 서울 중구 플라자호텔서 열린 기자간담회에서 발언하고 있다.금융당국은 신종 코로나 바이러스(코로나19)로 인해 네이버파이낸셜이나 카카오페이같은 전자금융업자의 영향력이 커지자 업권의 라이선스를 직접 확보하도록 유도해왔다. 금융당국은 전자금융업자가 은행과 비슷한 서비스를 출시하더라도 은행업 라이선스를 받지 않아 규제 '사각지대'가 될 수 있다는 판단때문이다.이에 대해 박 대표는 "네이버파이낸셜은 전자금융업 라이선스를 보유하고 있어 라이선스를 취득할 것이냐 마냐는 말이 안된다"며 "만약 금융사와 협력이나 제휴로 못 푸는 상황이 있다면 라이선스를 받을 예정"이라고 덧붙였다.박상진 대표는 네이버파이낸셜의 대표적인 서비스 '네이버페이'의 회원과 결제금액이 늘어남에 따라 국내외 핀테크 스타트업과 협업으로 발생하는 비용을 줄이고 새로운 핀테크 서비스를 제공할 것이라고 부연했다.박 대표는 "결국은 블록체인과 웹(web)3으로 확장되는 새로운 핀테크를 준비해야 한다"며 "결제가 복잡해지면서 스토리지와 전기 소비의 증가 등이 발생하고 있는데, 기술적 연구와 협력을 통해 혁신적인 결제 플랫폼을 내놓을 수 있도록 하겠다"고 설명했다.14일 서울 중구 플라자호텔서 열린 네이버파이낸셜 기자간담회에 참석한 (사진 왼쪽부터) 서래호 금융총괄리더, 박상진 대표, 최진우 페이총괄리더, 김지식 법무책임리더.(사진=지디넷코리아)마이데이터는 네이버페이의 선불 충전금과 가상자산 등 다양한 자산을 아우를 수 있도록 서비스를 보완해 나간다는 입장이다.이날 간담회에 참석한 네이버파이낸셜 서래호 금융총괄리더는 "올해 6월 보험 통합 조회로 보험에 대한 커버리지를 확보하고 하반기에는 전자금융업자의 선불 충전금·통신·일부 캐피탈회사·가상자산까지로 영역을 넓힐 예정"이라며 "네이버 생태계의 다양한 서비스를 마이데이터와 어떻게 연결하느냐가 핵심이 될 것"이라고 언급했다.마이데이터 사업자가 고객 개인 정보를 판매할 수 있지만, 이를 통해 회사 수익성을 높이는 데 활용하지 않도록 하겠다는 답변도 나왔다.네이버파이낸셜 김지식 법무책임리더는 "마이데이터로 돈을 버는 것도 중요하겠지만 기본적으로는 정보 주체의 자기 정보 결정권을 지키는 게 목적"이라며 "기본적으로는 정보 주체가 제공한 정보를 우리의 자산으로 생각하고 판매하는 형식은 바람직하지 않다고 생각한다"고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2022.06.14.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>박상진 대표 “네이버파이낸셜, 필요하면 라이선스 취득할 것”</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000820814?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>“(네이버파이낸셜은) 차별화된 ‘혁신금융’을 만드는 데 목적이 있다. 이를 위해 필요하다면 (금융) 라이선스를 취득할 생각이 있다.”박상진 대표는 14일 서울 중구 더플라자호텔에서 열린 기자간담회에서 “은행·보험 라이선스를 가지고 금융권에 진출하는 타사에 비해 금융권 진출에 소극적인 것 같다”는 질문에 이같이 말했다. 그는 이어 “다만 지금은 금융 소비자 니즈(수요)를 고려한 금융 플랫폼 역할을 우선해서 고민하고 있다”고 밝혔다.14일 오전 서울 중구 더플라자호텔에서 네이버파이낸셜 기자간담회가 열리고 있다. 왼쪽부터 서래호 금융사업총괄 책임리더, 박상진 네이버파이낸셜 대표, 최진우 네이버페이 총괄, 김지식 법무정책실장(이사). /정민하 기자        이날 기자간담회엔 박 대표를 비롯해 서래호 금융사업총괄 책임리더, 최진우 네이버페이 총괄, 김지식 법무정책실장(이사) 등이 참석해 질의응답 시간을 가졌다.박 대표는 재무적 투자자(FI) 유치 계획이 있느냐는 질문엔 “네이버파이낸셜이 보유한 자금이나 사업 계획 등을 고려하면, 당장 FI 투자를 받을 이유는 없다”며 “전략적 투자자(SI) 투자 또한 현재로선 계획이 없다”고 답했다. 네이버파이낸셜은 법인 설립 초기인 2020년 미래에셋대우으로부터 투자 목적 및 금융 비즈니스 시너지 창출을 목적으로 투자를 받았다.마이데이터(본인신용정보관리업) 사업 차별화 계획에 대해서 책임리더는 “네이버 생태계의 다양한 서비스를 마이데이터에 연결하는 게 핵심”이라고 설명했다. 그는 “올해 하반기까지 부족한 서비스 커버리지를 확보하는데 추진할 것”이라며 “선불 충전, 통신, 캐피탈, 가상자산까지 커버리지를 확대하겠다”고 말했다.국회에 계류 중인 전자금융거래법(전금법) 개정안에 대한 네이버파이낸셜의 입장을 질문에 김 이사는 “전금법 개정안이 빅테크 특혜법이라는 논란이 있는데, 전혀 사실이 아니다”라고 강조했다. 그는 “개정안은 빅테크에 더 강한 의무를 부여하는 내용으로, 오히려 신생 핀테크업체 인허가 요건을 완화해 시장 진입에 도움을 주고 있다”고 말했다.이날 기자간담회에선 최근 논란을 빚었던 고객정보 판매 가능성에 대한 질문도 나왔다. 핀테크업체 토스는 최근 마이데이터 데이터베이스(DB) 판매업의 일종으로, ‘내 보험’ 서비스 이용 고객의 개인정보를 1건당 6만9000원의 가격으로 보험설계사에게 제공한 사실이 드러났다.김 이사는 “기본적으로 돈을 버는 것도 중요하지만, 마이데이터 사업의 목적은 정보 주체의 자기정보 결정권을 지키는 일에 있다”고 말했다. 그는 이어 “네이버파이낸셜은 정보 주체가 제공한 정보를 우리 자산으로 생각하고, 이를 판매하는 형식은 바람직하지 않다”며 “혁신적인 금융상품을 만드는 데 최적화된 상품을 데이터를 기술적으로 활용하는 데 중점을 두고 있다”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2022.06.03.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>뮤직카우, '음원 IP 펀드 사업' 앞두고 금융전문가 영입</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011227945?sid=105</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>기사내용 요약금융권-핀테크 경험한 서주희 IP상품기획 리더 발탁NH투자증권 출신 김재홍 IP자산관리 리더 영입[서울=뉴시스] 오동현 기자 = 음악 저작권료 참여 청구권 투자 플랫폼 뮤직카우가 음원 IP(지식재산권)에 대한 관리 강화는 물론, 대규모 음원 IP 펀드 조성 및 전문 운용을 위해 베테랑 금융전문가인 서주희, 김재홍 리더를 영입했다고 3일 밝혔다.뮤직카우 IP상품기획팀 책임자로 합류하게 된 서주희 리더는 삼일회계법인, 한국씨티은행, 삼성생명보험, 삼성자산운용, 삼성헤지자산운용, 토스뱅크 등 기존 금융권과 핀테크 업계 전반에서 금융 업무를 두루 경험한 17년 경력의 전문가다. 서울대학교와 콜롬비아 비즈니스 스쿨에서 경영학 학위를 받았으며, 자산운용 전문가로 재무자문, 심사 등의 업무 경험도 가지고 있다.서주희 리더는 뮤직카우에서 추진 중인 대규모 음원 IP 펀드 조성과 운용에 대한 전반적인 업무를 이끌어 가는 것과 동시에, 뮤직카우가 보유한 음원 IP의 고도화된 상장 시스템을 구축 예정이다. 이용자를 위한 IP 펀드 상품 다양화도 추진한다.IP자산관리팀 책임자로 신규 선임된 김재홍 리더는 NH투자증권에서 17년 이상 근무하며 다양한 분야의 금융 업무를 맡아온 전문가다. 중앙대학교 법학과 졸업 후 NH투자증권에서 지점 영업, 해외투자펀드 기획 및 영업, 유가증권 담보 신용 및 대출 업무 등을 경험했으며, 헤지펀드 운용에 필요한 종합 서비스를 제공하는 프라임 브로커리지 서비스(PBS) 업무를 담당해왔다.김재홍 리더는 그동안 쌓아온 업무 경험을 기반으로 뮤직카우가 보유한 음원 IP에 대한 체계적인 관리 및 체제를 강화하고 IP 관련 데이터를 취합, 분석하는 업무를 총괄할 예정이다.뮤직카우 관계자는 “이번 전문가 영입을 통해 더욱 체계적인 음원 IP 관리 시스템 강화 및 상품 다각화에 속도를 높일 수 있을 것으로 기대한다”며 “뮤직카우는 음악이라는 K-콘텐츠를 기초자산으로 하는 ‘혁신 문화금융 상품’을 고안해내고 시장을 만들어낸 문화금융 기업으로, 앞으로도 계속해서 음악 산업 활성화에 기여하는 것은 물론, K팝의 가치를 보다 높여 나가기 위해 최선을 다하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2022.06.07.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>비즈니스온, 시프티와 업무용 통합 SaaS 플랫폼 가속화</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002126021?sid=105</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 비즈니스온커뮤니케이션(대표 라민상, 강민철, 이병두 / 이하 비즈니스온)이 재무 영역을 넘어 인사영역까지 서비스를 통합 제공하며 기업의 업무 전 영역을 아우르는 클라우드 서비스 소프트웨어(SaaS) 포털로 거듭나고 있다고 밝혔다.비즈니스온은 올해 초 전략적 M&amp;A를 통해 통합인력관리 솔루션 업체인 시프티를 인수했다. 시프티는 카카오, 쿠팡, 토스, 배달의민족 등 빅테크 기업들과 SK네트웍스, 미래에셋, 롯데쇼핑, 현대오일뱅크 등의 대기업을 포함한 15만 기업을 고객사로 확보하고 있는 통합인력관리 솔루션 제공 기업이다. 비즈니스온에 따르면 최근 들어 스마트빌 플랫폼을 통해 수백만 기업고객들이 시프티의 인사관리 서비스를 자연스럽게 접할 수 있게 되어 교차 판매 효과도 두드러지게 나타나고 있다는 설명이다. 특히, 비즈니스온이 보유한 솔루션과 시프티의 솔루션 융합을 통해 전자계약, 급여 정산, 원천세 신고 등 다양한 기능들과 연계성 및 확장성이 매우 높아짐에 따라, 인력관리 솔루션으로서 시프티의 경쟁력은 더욱 강화될 전망이다.   비즈니스온은 시프티 이전에도 최근 2년간 글로싸인(전자서명), 플랜잇(데이터 분석/시각화), 넛지(재무솔루션)를 연달아 인수하였으며, 비즈니스온과 피인수 기업들 간의 유기적인 협업으로 교차 판매 확대와 솔루션 개선을 통해 인수의 시너지를 단 기간 내에 실현해 왔다. 그 결과, 2021년에는 비즈니스온 뿐만 아니라 모든 피인수 기업들을 빠르게 성장시키면서, 기업 인수 후 시너지 창출을 통한 고속 성장 달성이라는 성공 공식을 이미 시장에 입증한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2022.06.02.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>청와대 관람 12일부터 하루 4만9천명으로 확대…화요일 휴관</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013221819?sid=004</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>'청와대 개방' 누리집으로 예약 창구 단일화…추첨제→선착순청와대 본관[연합뉴스 자료사진. 재판매 및 DB 금지]    (서울=연합뉴스) 박상현 기자 = 지난달 10일 개방 이후 57만여 명이 찾은 청와대 관람 정원이 늘어나고, 예약 창구도 단일화된다.    문화재청 청와대국민개방추진단은 12일부터 하루 관람 인원을 3만9천 명에서 1만 명 많은 4만9천 명으로 확대한다고 2일 밝혔다.    12일 이후 관람 예약은 3일 오전 10시부터 청와대 개방 누리집(www.청와대개방.kr)에서 하면 된다. 기존에는 네이버, 카카오톡, 토스 애플리케이션 등을 이용해야 했다.    관람자 선정 방식은 추첨에서 선착순으로 바뀌고, 1명이 예약할 수 있는 인원도 4명에서 6명으로 늘어난다.    청와대 남쪽에 있는 경복궁과 마찬가지로 화요일은 청와대, 청와대 연계 북악산 등산로, 칠궁이 문을 닫는다.    관람 시간은 오전 7시∼오후 7시에서 오전 9시∼오후 6시로 변경된다. 1시간 30분 간격으로 6차례에 걸쳐 온라인 신청자가 8천 명씩 입장한다.    온라인 관람 예약이 어려운 65세 이상 어르신, 장애인, 외국인은 오전 9시와 오후 1시 30분에 영빈문 안내데스크에서 관람권을 받을 수 있다. 현장 발급 정원은 회차당 500명이다.    청와대와 연계한 북악산 등산로 출입구는 2일 금융연수원 인근에서 춘추관으로 옮겨진다.    지난달 31일까지 청와대 관람 신청자는 659만 명을 넘었고, 관람자는 57만4천여 명이었다. 지난달 10∼31일 북악산 등산객은 작년 같은 기간보다 7배 많은 9만4천여 명으로 집계됐다.    psh59@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2022.06.13.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>미국판 '질소 과자' 현상, 두루마리 휴지양도 줄었다</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/079/0003653125?sid=104</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>가격은 그대로에 양 줄이는 '슈링크플레이션' 현상 확대 기업의 고육지책이냐 소비자 기만이냐 의견 분분스마트이미지 제공"질소를 샀더니 과자가 덤으로 왔다"우리나라에서 몇해 전 유행했던 말이다. 과대 포장에 비해 과자 양이 줄어든 것을 비꼬아 '질소 과자'라는 비유로 기업의 기만적인 행태를 꼬집었다.미국에서도 이같은 질소 과자 현상이 일고 있다. 경제학 전문 용어로는 '슈링크플레이션'(shrinkflation)이라고 부른다. 기업들이 소비자들의 거부 심리를 줄이려고 제품 가격은 그대로 둔 채 수량, 무게, 용량 등을 줄여 사실상 가격을 올리는 현상이다.AP통신은 지난 8일(현지시간) 미국에서 일어나고 있는 슈링크플레이션을 집중 보도했다.한 요거트의 무게는 150.2g에서 127.5g으로 줄었다. 커피는 1.5ℓ 용기를 1.3ℓ 용기로 줄였다. 제과업체 프리토스는 종전에 510g이던 스쿱스 과자 '파티 사이즈'의 무게를 439g으로 줄이면서 가격마저 올렸다.생필품 휴지양도 줄었다. 코트넬 울트라 클린 케어 화장지는 두루마리 하나의 용량이 340장에서 312장으로 감소했다. 몇달 전만에도 소형 크리넥스 티슈 한 상자에 티슈 65장이 들어 있었으나 지금은 60장만 들어 있다.한 상자당 용량이 줄어든 크리넥스 티슈. 연합뉴스이런 현상은 미국 뿐 아니라 전세계적인 현상이다.영국에서는 네슬레가 네스카페 아메리카노 커피 캡슐 용량을 100g에서 90g으로 줄였고, 인도에서는 가정용 세제 등을 제조하는 기업 빔이 주방용 비누 무게를 155g에서 135g으로 줄였다. 일본 제과회사 가루비는 자사 제품 대부분의 무게를 10% 줄이고 가격도 10% 인상한다고 발표했다.소비자운동가 에드거 도스키는 AP통신에 "인플레이션 때문에 슈링크플레이션의 파도가 밀려오고 있다"면서 "소비자들이 가격 변화에는 민감하지만 내용물의 변화는 잘 눈치채지 못한다는 점을 기업들이 이용하고 있다"고 지적했다.원자재값 상승과 인력 부족 등을 극복하기 위한 기업들의 고육지책이라는 동조론도 있지만, 소비자들을 교묘하게 눈속임하고 기만해 이득을 얻고 있다는 비판론도 만만치 않다.※CBS노컷뉴스는 여러분의 제보로 함께 세상을 바꿉니다. 각종 비리와 부당대우, 사건사고와 미담 등 모든 얘깃거리를 알려주세요.이메일 : jebo@cbs.co.kr카카오톡 : @노컷뉴스</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2022.06.06.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>오르는 금융권 수신금리…셈법 복잡해진 토스뱅크</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000008358?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>시중은행 연이어 수신상품 금리 인상2% 금리 선언 토스뱅크, 금리경쟁력 하락여수신 불균형·수신상품 일원화 '독' 됐나/사진=이명근 기자 qwe123@한국은행이 기준금리를 빠르게 인상하면서 은행의 수신금리도 상승, 사라졌던 3%대 수신상품이 부활하는 모습이다.이에 가장 긴장하는 곳은 토스뱅크다. 토스뱅크는 출범 당시 역대 최저 수준의 저금리 상황임에도 불구하고 모든 수신에 2%의 이자를 주겠다는 방침을 내걸면서 많은 수신고를 확보했다. 하지만 이제 주요 시중은행들이 더 높은 금리의 수신상품을 내놓으면서 토스뱅크가 내건 2%금리 정책을 유지하는 데 셈법이 복잡해졌다는 분석이 나온다.기준금리 오르자 은행으로 '돈' 몰린다6일 금융권에 따르면 지난달 한국은행이 기준금리를 종전 1.50%에서 1.75%로 인상하자 주요 시중은행들은 예금과 적금상품에 대한 금리를 최대 0.4%포인트 인상했다.이에 따라 저금리 기조 장기화로 인해 사라졌던 3%대의 예금과 적금상품들이 부활하는 모습이다. 은행들이 수신상품의 금리를 올리자 돈의 흐름도 은행으로 흘러들어가는 모습이다. 지난달 말 기준 KB국민, 신한, 하나, 우리, 농협은행의 예금과 적금 잔액은 700조원을 넘어선 것으로 집계됐다. 전월 대비 20조원 가량 늘어난 수준이다. 은행 관계자는 "한국은행이 연이어 기준금리 인상한데 이어 은행들이 빠르게 수신금리를 인상하자 수신상품에 가입하는 고객들이 늘어나는 추세"라며 "이같은 추세는 앞으로도 이어질 것으로 보인다"라고 말했다. 파격적이었던 토뱅 2% 금리, 경쟁력 하락은행들이 수신금리를 연이어 인상한 가운데 가장 셈법이 복잡해진 곳은 토스뱅크다. 토스뱅크는 지난해 10월 출범하면서 수신상품을 일원화하고 1억원 이하 예치금에 대해 2%의 금리를 적용하겠다고 밝혔다. 고객들이 여러상품에 가입하는 불편함을 덜겠다는 취지였다. 당시만 해도 이는 파격적이었다. 지난해 10월 기준 한국은행의 기준금리는 0.75%수준으로 낮은 수준이었다. 이에 주요 은행들에서 판매하는 수신상품들 중에서 금리 1%를 넘는 상품을 찾아보기 힘들 정도였다. 이를 바탕으로 토스뱅크는 엄청난 속도로 수신고를 모았다. 지난 1분기말 기준 토스뱅크의 수신잔액은 21조원 수준이다. 약 6개월 만에 달성한 성과다. 은행권에서는 유례를 찾기 힘들다고 말할 정도다.하지만 앞으로도 이같은 추세가 이어질지에 대해서는 의문이다. 앞으로 한국은행이 연이어 기준금리를 올릴 것으로 전망되는 가운데 토스뱅크가 2%금리를 고집한다면 수신고 확대 속도가 더뎌질 수 있어서다. 일단 토스뱅크 수신상품은 일반 시중은행의 예금·적금과 다른 측면이 있기는 하다. 토스뱅크는 수신상품에 만기를 따로 정하지 않고 언제든지 입출금이 가능한 수시입출금식 상품으로 일원화했다. 일반 시중은행의 경우 수시입출금식 상품의 금리가 0%대이며 일부 나이나 한도등을 제한한 상품에만 1%대의 금리를 제공 중이다. 아직까지 토스뱅크의 수신 경쟁력은 남아있다는 의미다. 다만 시중은행들이 기준금리 인상에 따라 지속적으로 금리를 올린다면 토스뱅크의 2% 금리 수신이 언젠가는 경쟁력이 떨어질 수 있다는 게 은행권의 분석이다. 은행 관계자는 "연말까지 기준금리가 2.00%를 넘어설 것이란 관측이 나오면서 요즘 수신상품에 가입하는 고객들은 만기를 짧게 가져가서 금리 혜택을 최대로 누리려고 한다"며 "저축이라는 것이 계획적으로 이뤄진다는 특성을 고려하면 수시입출금식 상품의 금리가 높다고 하더라도 금리를 올리지 않는 이상 메리트가 언젠가는 떨어질 것"이라고 설명했다. 토스뱅크 금리 올리기 힘든 이유토스뱅크 관계자는 "당행의 수신상품은 수시입출금식 하나이며 2% 금리가 제공 중인데 이건 기존 수시입출금 계좌에 비해 20배 이상 높은 수준의 금리"라며 "아직 2% 이상 금리를 올리는 것에 대해 구체적인 계획은 없다"고 말했다.은행권은 이에 대해 크게 두가지 이유가 작용했기 때문이라는 분석을 내놓는다.첫째는 토스뱅크의 여수신 포트폴리오다. 원론적으로 은행은 수신고객으로부터 확보한 자산에 대해 이자 비용을 지출하고 이 자산을 바탕으로 대출을 취급, 이자수익을 얻는다. 때문에 수신잔액과 대출잔액이 비슷한 비중을 보이는 것이 일반적이다.수신이 지나치게 많을 경우 나가는 이자비용이 많아 수익구조가 건전하다고 볼 수 없고, 대출이 지나치게 많을 경우에는 금융당국의 제재를 받는다. 반면 지난 1분기말 기준 토스뱅크의 여신은 2조5900억원으로 집계됐다. 수신 21조원의 9분의 1 수준이다. 다시말해 받는 대출고객으로 받는 이자보다 수신고객에게 줘야 하는 이자비용이 많을 수밖에 없다는 것이다.실제 지난 1분기 금리상승기에도 불구하고 기준 토스뱅크는 이자 부분에서 29억원의 손실을 봤다. 여신과 수신이 지나친 불균형을 보인 영향이 컸다. 대출자산 성장세를 고려하지 않고 수신금리를 올린다면 토스뱅크의 수익성은 뒷걸음질 칠 가능성이 높다.두번째는 수신상품 일원화다. 토스뱅크가 출범 직후 '돌풍'을 일으키며 6개월 만에 331만명의 고객을 확보할 수 있었던 데에는 수신상품 일원화 및 2% 금리 제공이 효자 역할을 했다. 하지만 금리상승기에는 이것이 오히려 독이 된 것이다. 금리상승기에 수신고객을 유치를 지속하면서도 이자비용을 최소화하기 위해서는 수신 상품 포트폴리오중 이자비용이 적게 나가는 저원가성예금을 적극 유치하는 것이 은행의 주요 경영전략 중 하나다.그런데 토스뱅크는 수신상품을 일원화 했기 때문에 이처럼 수신 상품 포트폴리오 다각화를 통한 비용절감이 어려운 상황이다. 시중은행 관계자는 "은행들이 금리가 높은 상품에 가입 한도, 월납입 한도를 제한하는 것은 비용을 절감하기 위한 측면이 있는데 토스뱅크는 이를 너무 쉽게 생각한 측면이 있다"며 "결국 이것이 초반 흥행에는 주요 열쇠가 됐지만 장기적으로 봤을때는 사업 포트폴리오가 지나치게 좁아지는 결과를 낳게 됐고 금리상승기에는 독이 된 셈"이라고 설명했다.  이에 대해 토스뱅크 관계자는 "추후에는 수신상품 포트폴리오를 다각화할 가능성이 있다"고 답했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2022.06.08.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>3월말 국내 은행 보통주자본비율 12.99%</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004708906?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>금융감독원은 3월 말 기준 국내 은행의 국제결제은행(BIS) 기준 보통주자본비율이 작년 말과 같은 12.99%로 집계됐다고 8일 발표했ㄷ. 기본자본비율은 14.22%, 총자본비율은 15.52%, 단순기본자본비율은 6.42%로, 각각 전분기 말과 큰 차이가 없었다. 3월말 기준으로 모든 국내 은행이 금융당국이 요구하는 규제비율을 넘어서는 것으로 나타났다. 다만 토스뱅크의 경우 2023년까지 바젤Ⅰ의 적용을 받으며 완충자본과 단순기본자본비율에 대한 규제가 적용되지 않는다. 카카오·SC·농협·씨티·BNK·산업 등 6개 은행은 위험가중자산이 감소했거나 증자 등으로 보통주자본비율이 전년 말 대비 상승했고, 케이·수출입·하나·우리·수협·DGB·신한·JB·KB·기업 등 10개 은행은 보통주자본비율이 소폭 하락했다. 5대 금융지주의 보통주자본비율은 하나(13.57%), KB(13.42%), 농협(13.08%), 신한(13.00%), 우리(11.26%) 순으로 나타났다. 금감원은 "최근 시장금리가 급등하는 등 금융시장 변동성이 확대되고 국내외 경기침체 우려 등 대내외 경제여건이 악화하고 있어 예상치 못한 손실이 확대될 가능성에 대비할 필요가 있다"며 "은행들이 대내외 경제 충격에도 은행이 충분한 손실흡수능력을 바탕으로 자금중개기능을 충실히 수행할 수 있도록 자본확충을 지속해서 유도할 예정"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2022.06.13.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>소상공인과 동행·빛고을 경제 버팀목… ‘100년 신화 꿈’ 광주은행</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003279557?sid=102</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>지방은행 브랜드파워 5년 연속 1위 ‘리딩 뱅크’작년 당기 순이익 1965억 최대고정여신·연체 비율 낮은 수준지역 밀착·고객 중심 경영 성과마이데이터 시장 선점·ESG 강화목포·여수·순천 등 시 금고 석권당기 순이익 10% 지역사회 환원송종욱(가운데) 광주은행장이 지난 4월 26일 본점에서 열린 ‘2022년도 한국산업의 브랜드파워(K BPI)’ 지방은행 부문 1위 인증식에 참석해 이성욱 노조위원장, 한국능률협회 관계자 등과 포즈를 취하고 있다.광주은행 제공경기침체 장기화와 핀테크·빅테크 기업의 금융산업 진출 등으로 금융 환경이 급변하고 있다. 광주은행은 내실 있는 성장과 체질 개선을 통해 이에 맞서며 ‘지속 가능한 100년 은행’으로 성장하는 기틀을 다져 나가고 있다. 올해 슬로건도 ‘Start First, Move Fast 2022’로 정했다. 광주은행은 지난해 연간 당기 순이익이 1965억원이었다. 사상 최대 실적이다. 올해 1분기 당기 순이익도 분기 가운데 사상 최대인 622억원을 달성했다. 코로나19로 인한 경기침체와 기준금리 인상, 금융소비자보호법 전면 시행, 가계부채 총량 제한 같은 어려운 환경 속에서도 은행의 자산 건전성을 나타내는 고정이하여신비율과 연체비율이 매우 낮은 수준을 유지하고 있다. 지역 밀착 경영과 고객 중심의 현장 경영으로 질적 성장을 추진한 결과다.광주은행은 ‘리딩뱅크’로 도약하기 위해 임직원 모두가 하나 된 마음으로 역량을 극대화하고 새로운 각오로 마음가짐을 정비하자는 뜻에서 ‘ABC Mindset’도 제시했다고 12일 밝혔다. ‘ABC Mind’는 ▲혁신을 선도하는 혁신행동 마인드(Active Mind) ▲수익을 높이고 내실 성장을 추구하는 내실성장 마인드(Business Mind) ▲지역 상생과 고객 소통 기업 문화를 구축하는 공감실천 마인드(Communication Mind)의 약자다.100년 은행의 비전을 실현하기 위한 경영 기조로 ▲지역 중소기업 및 중서민 중심의 포용금융 실천 ▲디지털과 정보기술(IT) 중심 내부 역량 업스킬링 ▲핵심 사업 확대로 수익성 중심 내실 성장 추진을 발표했다. 4대 실천 과제로 ▲포스트 코로나 시대에 대응하기 위한 차별화된 미래 성장 동력 확대 ▲전략 대출과 투자은행(IB) 자산 중심 핵심 사업, 지역 중소기업 대출 기반 사업 확대를 통한 수익성 중심 내실 경영 강화 ▲고객 기반 확대를 통한 장기 성장 기반 강화 ▲금융권 최고의 건전성 관리를 제시했다.미래 성장 동력으로는 디지털, 해외사업, 환경·사회·지배구조(ESG) 경영을 설정했다. 개인이 데이터를 관리하고 활용하는 마이데이터 시장 선점과 디지털금융센터 기능을 강화하고, 베트남 증권 자회사인 JBSV의 사업을 다각화하기로 했다. 친환경 사업 모델을 발굴하고 녹색금융 투자를 확대한다.광주 동구에 있는 광주은행 본점.광주은행 제공광주은행은 상반기를 보내며 지방은행 브랜드파워 1위를 달성했다. 5년 연속 1위다. 지난해 지역 재투자 평가 결과 최우수 등급을 받았다. 같은 해 지속적 거래와 소통 등을 통해 얻은 정보를 활용하는 관계형 금융 우수 은행 중소형 그룹 1위에 선정됐고 광주시 금고와 광주 광산·동·서·남·북구 5개 자치구 금고의 전담 은행이 됐다. 전남 광양·나주·목포·순천·여수시 금고를 석권했다.특히 광주은행은 개인·기업 스마트뱅킹 전면 개편과 마이데이터 서비스 전면 시행 등 금융의 디지털 시대와 비대면 금융 활성화에 대응하기 위한 디지털 플랫폼 경쟁력 확보에 집중하고 있다. 이를 위해 금융권 최초로 핀테크 스타트업 ‘토스’와 인적 교류 프로그램을 진행하는 등 핀테크 기업의 일하는 방식과 조직 문화 등을 공유하며 디지털 금융 환경 변화에 신속히 대응하고 있다. 로봇프로세스자동화(RPA)를 통해 100개 업무 자동화 구현, 스마트뱅킹 전면 개편 등 마이데이터 시장 공략과 미래 핵심 성장 동력 강화에 총력을 기울이고 있다.ESG팀과 ESG 추진위원회를 신설해 ESG 경영 추진을 바탕으로 포용금융과 생산적 금융에도 주력하고 있다. 탈석탄·그린뉴딜 협약과 탄소포인트 기부은행 협약, 자영업자와 소상공인, 중·저신용자를 위한 포용금융 상품 판매 등 지역의 경제·사회·문화 등 다양한 분야에 관심을 가지고 문제해결에 동참하고 있다. ESG 인증 등급에서 최고 등급을 받은 1000억원 규모의 원화 ESG채권을 발행했고, 여기에서 조달된 자금은 녹색금융 활성화를 위한 친환경 사업과 코로나19로 어려움을 겪는 지역 중소기업과 소상공인을 지원하는 데 쓰이고 있다. 또 환경부에서 주관하는 한국형 무공해차 전환 사업인 ‘K EV100’ 캠페인에 노사가 동참하며 2030년까지 업무용 차량을 전기·수소차로 100% 전환할 것을 선언했다.송종욱 광주은행장이 주창한 ‘지역과의 상생, 지역민과의 동행’을 통한 ‘이익 이상의 가치 추구’라는 경영 이념에 따라 당기 순이익의 10% 이상을 지역사회에 환원하는 사회공헌활동도 활발하다. 지역 인재 양성을 위한 ‘희망이 꽃피는 공부방’(69호점)과 ‘희망이 꽃피는 꿈나무’(6호), 광주은행장학회 장학금 지원(4000여명의 지역 학생들에게 총 33억원)을 지속적으로 이어 나가고 있다.광주은행은 지역경제의 선순환 구조를 이끌며 나눔을 실천한다. ‘순천사랑통장’, ‘화순사랑통장’ 등 지역사랑통장의 판매 실적에 따라 수익 일부를 해당 지역에 기부한다. 2018년 출시한 ‘광주·전남애(愛)사랑카드’를 통해 매년 지역의 사회복지공동모금회에 기부금을 전달한다. 2018년부터 4년간 10억 3000만원의 고향사랑기부금을 광주·전남 사회복지공동모금회에 기부했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2022.06.02.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>토스뱅크, 신용카드 보안인증 'PCI-DSS' 획득</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003020873?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>토스뱅크(대표 홍민택)는 글로벌 신용카드 데이터 보안인증인 '지불카드업계 정보보안표준(PCI-DSS)' 인증을 획득했다고 2일 밝혔다.PCI-DSS는 비자, 마스터카드, 아메리칸익스프레스 등 6개 국제브랜드 카드사가 공동으로 카드정보 해킹, 도난, 분실 등의 사고로부터 고객의 신용카드 정보를 보호하기 위해 마련한 카드결제 국제 보안표준 인증이다. 정보가 전송되는 과정에서 카드 소유자의 데이터 등을 안전하게 보호하고 있는지를 검증하는데 목적이 있다.카드를 소유한 고객의 경우 개인정보와 신용카드번호, 각종 추가 정보를 포함한 거래정보가 이른바 '민감정보'로서 다뤄진다. 이들 정보는 고객이 결제를 할 때마다 카드사가 구축한 인프라를 통해 전송되는데, 이 과정에서 보안이 취약할 경우 탈취되거나 노출되는 문제가 발생한다.PCI-DSS 인증은 레벨 1부터 4까지 있는데 이번 토스뱅크가 받은 인증은 레벨 1인 최상위 등급으로 국내 은행권에서는 최초다.토스뱅크는 이번 인증 심사에서 △카드 소유자 데이터 및 민감한 데이터의 저장, 전송, 처리 절차 △카드 결제 프로세스 안정성 △정보보호 대책과 시설 및 설비 운영/보안관리 절차 등 총 12개 분야 412개 세부 항목에 대해 종합적으로 평가받았다.토스뱅크 관계자는 “이번 PCI-DSS 인증은 외부 컨설팅 없이 토스뱅크가 자체적으로 준비하여 보안 인증을 취득해 그 의미가 크다”며, “급변하는 ICT 사회에서 새로운 위협과 기술에 적극 대응하고 보안성과 안정성을 지속 강화해나갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2022.06.07.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>"1건당 6만9000원"…토스, 보험설계사에 개인정보 팔았다</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004708208?sid=101</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>토스, 회원 DB 유료로 판매법인·개인 보험설계사 대상위법 소지·불법 2차 유통 우려금감원 "적법성·타당성 집중 검토"서울 역삼동 토스(비바리퍼블리카) 본사. 사진=한경DB"1건당 6만9000원."간편금융 모바일 앱 '토스(비바리퍼블리카)'가 보험대리점과 개인 보험설계사를 대상으로 회원 데이터베이스(DB)를 유료로 판매한 것으로 드러났다. 토스는 현행법상 문제가 없다는 입장이지만, 보험대리점은 물론 보안에 취약한 개인 보험설계사에까지 회원 DB를 개별 판매함에 따라 개인정보가 불법적으로 2차 유통될 우려가 제기되고 있다. 고객들의 신상정보를 돈벌이에 악용하고 있다는 지적도 피할 수 없게 됐다.7일 &lt;한경닷컴&gt; 취재에 따르면, 토스는 회원 DB를 계열사 토스인슈어런스(법인보험대리점)와 개인 보험설계사들에 유료로 판매해 온 것으로 확인됐다. 회원 DB 판매는 토스 법인 보험대리점인 '토스인슈어런스'와 토스의 보험설계사 전용 앱 '토스보험파트너' 2가지 통로로 이뤄졌다. 토스인슈어런스에는 단체 회원 DB를, 토스보험파트너에는 개인 보험설계사를 대상으로 개별 회원 DB를 판매해 영업에 활용토록 한 것으로 파악됐다.토스가 회원 DB 1건당 판매한 가격은 6만9000원이다. 토스인슈어런스의 정규직 보험설계사 수는 130명, 토스보험파트너에 가입된 보험설계사 수는 13만명 수준으로 알려졌다. 토스에 따르면 지난 5월 말 기준(올해 2월 시범 서비스 개시) 토스보험파트너를 통한 회원 DB 유료 판매 금액은 총 9960만원으로 집계됐다. 토스인슈어런스 포함 판매 총액은 1억원을 웃돌 것으로 추산된다.토스의 보험설계사 전용 앱 '토스보험파트너' 화면.  보험설계사는 해당 앱을 통해 토스 가입 회원 개인정보를 구매해 활용할 수 있었다.  사진=토스보험파트너 화면 캡쳐토스가 판매한 회원 DB에는 크게 일반정보와 보험가입정보가 포함됐다. 일반정보로는 △이름 △휴대폰번호 △생년월일 △보험연령 △성별이 제공됐고, 보험가입정보로는 △보험사정보 △상품명 △계약자의 성명 △피보험자의 성명 △납입여부 △보험가입일 △보험료 △보험기간 △납입기간 △보장내용 △보장금액이 전달됐다. 사실상 보험 영업에 필요한 모든 개인정보가 포함된 셈이다. 토스는 가입자의 보험 내역 중 필요한 내용만 골라 알려드린다는 안내의 '내 보험-5분 상담 신청하기' 서비스 제공 과정에 '제3자 정보 제공 동의' 항목을 끼워 넣어 개인정보 매매의 합법적 근거를 확보했다. 고객들은 자신의 보험을 조회하고 월 보험료의 적정성, 불필요한 상품 가입 여부 등을 확인하고자 필수 항목에 동의한 것인데 이것이 보험 영업을 하고자 하는 설계사들에게 자신의 정보를 팔아도 된다는 허락으로 변질된 것이다.현행 법규상에서는 오직 제3자 정보 제공 동의를 하지 않은 이용자의 개인정보 매매만 처벌 대상으로 두고 있다. 정보통신망법·개인정보보호법·신용정보법에는 이런 행위에 대해 5년 이하의 징역 또는 5000만원 이하의 벌금형에 처할 수 있다고 규정하고 있다.이같은 지적에 토스 측은 "토스인슈어런스가 아닌 토스보험파트너를 통해 개인 보험설계사에 판매되는 회원 DB의 경우 휴대폰번호가 안심번호(가상번호)로 제공되며, 고객이 정보 제공을 철회하면 설계사는 더 이상 고객 정보를 확인할 수 없다"며 "마이데이터(본인신용정보관리업) 사업자 부수업무로서 '데이터 판매 및 중개업'을 수행하고 있는 만큼 현행 법규상 문제가 되는 부분은 없는 것으로 판단하고 있다"고 입장을 밝혔다.'내 보험-5분 상담 신청하기' 서비스 제공 과정에 '제3자 정보 제공 동의' 항목이 끼워져 있다. 고객들은 단순한 상담신청이라고 생각했지만, 실제로는 보험설계사에 정보를 통째로 넘겨주는 꼴이 됐다. 사진=토스 화면 캡쳐그러나 가입자가 제3자 정보 제공 동의를 했더라도 동의서 내 기재된 제공 목적 등 항목에 구체성이 떨어진다면 불법으로 판단될 수 있다. 제공 목적이 실제 정보 판매 및 이용 목적과 다르거나, 동의 절차에서 고객이 자신의 정보가 어떠한 이유로 판매 또는 제공되는 것인지 인지하기 어려운 경우 위법 행위로 간주될 수 있어서다.토스가 특정 법인이 아닌 앱에 가입한 개인 보험설계사 다수에게 회원 DB를 유상 판매한 것 자체도 문제가 될 소지가 있다. 보안이 취약한 개인 보험설계사에게 회원 DB를 판매하는 행위가 개인정보 다량 유출 등 불법 2차 유통 사고로 이어질 가능성이 있기 때문이다.금융감독원은 한경닷컴 취재가 시작된 지난 3일 토스 측에 회원 DB 유료 판매 건에 대한 소명자료를 요청해 사업의 적법성, 타당성 검토에 착수한 상태다. 금감원은 이번 주 내로 토스의 DB 유료 판매 행위가 위법한지를 검토하고, 법 위반이 발견되면 상응하는 조치를 취한다는 계획이다.금감원 관계자는 "제3자 정보 제공 동의 과정에서의 위법성을 집중 검토하고 있다. 아울러 개인 보험설계사에 회원 DB를 판매한 행위에서 정보 관리 및 정보 보호 조치 미흡 사례가 발생할 수 있는 만큼, 후속 조치에 대해 면밀히 논의 중"이라며 "내부 검토를 거친 뒤 금융위원회와 추가 조치 여부에 대해 협의할 예정이다. 이번 주 중으로 입장을 정리하겠다"고 밝혔다.토스 관계자는 "(금융당국 판단에 따른) 추가 조치에 대해서는 내부에서 면밀히 검토하고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2022.06.02.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>토스뱅크, 은행 최초 글로벌 결제 데이터 보안인증 ‘PCI DSS’ 획득</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002125803?sid=105</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 토스뱅크(대표 홍민택)는 국내 은행권에서 최초로 글로벌 신용카드 데이터 보안인증인 ‘지불카드업계 정보보안표준(PCI-DSS, Payment Card Industry Data Security Standard)’ 인증을 획득했다고 2일 밝혔다.PCI-DSS는 정보가 전송되는 과정에서 카드 소유자의 데이터 등을 안전하게 보호하고 있는지를 검증하는데 목적이 있다. 고객의 카드 정보는 강도 높은 보안 정책에 따라 보호되며, 전송 및 저장되는 모든 처리 영역에서 암호화되고 있어 중도에 노출될 우려도 없다.PCI-DSS 인증은 레벨 1부터 4까지 있는데 이번 토스뱅크가 받은 인증은 레벨 1인 최상위 등급으로 국내 은행권에서는 최초다. 이번 심사는 ‘PCI 보안표준위원회’로부터 인증심사 기관으로 지정받은 브로드밴드시큐리티 한국지점이 심사를 진행했다.카드를 소유한 고객의 경우 개인정보와 신용카드번호, 각종 추가 정보를 포함한 거래정보가 이른바 ‘민감정보’로서 다뤄진다. 이들 정보는 고객이 결제를 할 때마다 카드사가 구축한 인프라를 통해 전송되는데, 이 과정에서 보안이 취약할 경우 탈취되거나 노출되는 문제가 발생한다.이에 토스뱅크는 이번 인증 심사에서 ▲카드 소유자 데이터 및 민감한 데이터의 저장, 전송, 처리 절차 ▲카드 결제 프로세스 안정성 ▲정보보호 대책과 시설 및 설비 운영/보안관리 절차 등 총 12개 분야 412개 세부 항목에 대해 종합적으로 평가받았다.아울러 PCI-DSS 인증 획득 후에는 분기마다 준수 상태 검토 및 준수 여부를 증명해야 하기 때문에 토스뱅크 고객들은 보다 안전하게 토스뱅크의 체크카드를 이용할 수 있다. 현재 토스뱅크 고객의 80% 이상이 토스뱅크 체크카드를 사용하고 있다.토스뱅크 체크카드는 현재 커피·패스트푸드·편의점·택시·대중교통 등 5대 생활밀착형 업종에서 결제하면 캐시백 혜택을 준다. 해외결제는 온·오프라인 구분 없이 이용금액의 3%를 즉시 캐시백하고 있다.또한 보안인증 업체 센스톤의 NFC(근거리 무선통신) 기술을 활용한 OTP 기능을 탑재해, 휴대폰 뒷면에 체크카드를 접촉하면 안전하고 손쉽게 고액 송금이 가능하도록 했다.토스뱅크 관계자는 “이번 PCI-DSS 인증은 외부 컨설팅 없이 토스뱅크가 자체적으로 준비하여 보안 인증을 취득해 그 의미가 크다”며, “급변하는 ICT 사회에서 새로운 위협과 기술에 적극 대응하고 보안성과 안정성을 지속 강화해나갈 것”이라고 말했다.한편 PCI-DSS 인증은 비자(Visa), 마스터카드(MasterCard), 아메리칸익스프레스(American Express) 등 6개 국제브랜드 카드사가 공동으로 카드정보 해킹, 도난, 분실 등의 사고로부터 고객의 신용카드 정보를 보호하기 위해 마련한 카드결제 국제 보안표준 인증이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2022.06.09.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>토스플레이스, SPC그룹 '섹타나인' 주주로 참여</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002259136?sid=105</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>올해 3분기 중 결제단말기 시범 서비스 시작토스 오프라인 결제단말기 제조 자회사 '토스플레이스'에 SPC그룹의 토탈 마케팅 솔루션 계열사인 '섹타나인'이 주주로 참여한다.9일 토스플레이스는 섹티나인이 20억원을 출자해 보통주 주식을 취득했다고 밝혔다.토스플레이스는 비바리퍼블리카 80억원, 섹타나인 20억원의 출자로 오프라인 결제 단말기를 제조 유통하는 합작법인 설립을 마무리졌다. 법인 등기는 지난 3월 마쳤다.토스플레이스에 SPC그룹 ‘섹타나인’이 주주로 참여한다고 9일 밝혔다. (사진 왼쪽부터) 섹터나인 현능호 상무, 이경배 대표, 토스 이승건 대표, 토스플레이스 최지은 대표.(사진=비바리퍼블리카)토스는 결제단말기 제조와 소프트웨어 개발에 참여하고, 섹타나인은 '해피포인트'와 같은 모바일 커머스 서비스 노하우를 제공한다.토스플레이스는 지난 4월 유통협력사(VAN대리점)를 대상으로 사업 설명회를 열고, 1차 대리점 모집을 완료하고 계약을 진행하고 있다. 올 3분기 중 가맹점을 대상으로 한 전용 홈페이지를 오픈하고, 올해 안에 스마트 결제단말기 보급에 나설 계획이다.스마트 결제단말기는 7인치 디스플레이를 적용하고, IC칩과 NFC, 마그네틱 결제뿐 아니라 QR결제 포함 간편결제 등 기존의 모든 결제수단을 통합 제공하도록 개발 중이다. 기존 가맹점에 깔려있는 결제망(VAN 망)을 그대로 연동할 수 있는 오픈형 구조로 설계된다.토스플레이스는 올 3분기 중 일부 가맹점을 대상으로 결제단말기 시범 서비스에 들어가고 4분기 중 본 서비스를 시작할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2022.06.08.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>금융권 '사장님 모시기' 전쟁…씬 파일러에서 러브콜 1순위로[긱스]</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004708723?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>토스뱅크, '사장님 대출' 4000억개인사업자 CB시장 경쟁도 격화"대안정보 활용해 상환여력 심사"이 기사는 프리미엄 스타트업 미디어 플랫폼 한경Geeks에 게재된 기사입니다.사진=한경DB개인사업자들은 그동안 금융시장에서 선호도가 높은 고객군이 아니었다. 따박따박 월급을 받는 직장인 등과 달리 자영업자는 현금흐름이 다소 불안정하기 때문이다. 이런 이유로 1금융권 대출이 거절되거나, 대출이 승인되더라도 한도나 금리 등의 조건이 좋지 않은 경우가 많았다.금융 혁신 가속화로 다양한 대안정보를 활용해 개인사업자의 현금흐름과 상환 능력 등을 가늠할 여러 기법이 도입되면서 상황이 바뀌고 있다. 핀테크와 인터넷전문은행뿐 아니라 전통 금융사까지 ‘사장님 모시기’ 경쟁에 뛰어들면서 자영업자 금융시장이 블루오션으로 떠오르는 모양새다.토스뱅크는 지난 2월 ‘사장님 대출’을 출시했다. 최저금리는 연 3%대, 최대 한도는 1억원으로 시중은행 상품보다 조건이 좋다는 평가다. 별도의 담보나 보증도 필요로 하지 않고 대출 절차도 비대면으로 진행된다. 지난달 기준 대출잔액이 벌써 4000억원을 넘어섰다. 토스뱅크가 개발한 신용평가모형을 바탕으로 대출을 내주고 있다.케이뱅크도 지난달 신용보증재단중앙회와 손잡고 사장님 대출을 내놨으며, 카카오뱅크도 올해 안에 개인사업자 전용 여·수신 상품 출시를 준비 중이다. 인터넷은행들의 개인사업자 대출은 중도상환 수수료가 없다는 점도 특징이다. 네이버페이 운영사인 네이버파이낸셜도 자사의 플랫폼인 ‘스마트스토어’에 입점한 소상공인 대상 대출 프로그램을 운영하고 있다.대출 이외 분야에서도 자영업자를 겨냥한 다양한 금융 상품과 서비스들이 출시되고 있다. 토스뱅크는 지난달 개인사업자 전용 마이너스 통장을 선보였다. 핀테크 기업 핀다는 작년 말 비씨카드와 함께 가맹점 대출 중개 서비스를 시작했다. 신용카드사들은 4대보험 납부 같이 개인사업자들이 주로 쓰는 영역에 혜택을 몰아주는 전용 카드를 줄줄이 내놓고 있다.개인사업자 신용평가(CB) 시장도 격전지로 꼽힌다. 각종 데이터를 바탕으로 자영업자의 추정 매출, 상환 의지와 여력 등을 판단한 후 금융사에 제공해 수수료를 받는 비즈니스 모델이다. 개인사업자 대출 과정에선 매출이나 소득 같은 정형화된 데이터뿐 아니라 주요 비용 납부 정보, 고객 재방문율, 소비자들의 리뷰 등 다양한 대안정보가 활용된다.2020년 신용정보법이 개정돼 기존 CB업이 개인·기업·개인사업자 CB업으로 세분화되고 진출 문턱이 낮아진 점도 경쟁을 부추기는 요인이다. 인뱅과 핀테크, 카드사, 기존 CB사 등이 이 분야에 눈독을 들이고 있다. 한 금융권 관계자는 “금융 이력이 부족하다는 이유로 ‘씬 파일러’로 꼽히던 자영업자 중에서 숨어 있는 우량 고객을 발굴하려는 금융권 혁신이 이어질 수록 개인사업자들의 금융 혜택도 높아진다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2022.06.02.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>청와대 하루 관람객 4만9천명으로 확대, 선착순 도입</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001998307?sid=103</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>[헤럴드경제=함영훈 기자] 개방된 청와대 하루 관람객이 1만명 늘어 4만9000명으로 확대된다. 아울러 선착순 예약제로 형평성에 어긋나지 않도록 할 예정이다.문화재청 청와대국민개방추진단(단장 채수희)은 2일 이같은 개선책을 공개했다.청와대 [연합]청와대 관람은 지난 4월 27일부터 네이버, 카카오, 토스 등 민간 플랫폼을 이용하여 신청하는 방식을 통해 5월 31일 기준 총 659만여 명이 관람신청 접수를 했고, 이중 총 57만 4000여명이 실제 관람을 했다.6월 12일부터는 그동안 여러 경로로 나눠져 있던 신청절차의 불편함을 해소하기 위하여 청와대 개방 누리집으로 신청창구를 단일화해 더 간편하게 신청할 수 있도록 개선했다. 12일부터의 관람신청은 3일 오전 10시부터 가능하다.관람신청을 희망하는 국민은 청와대개방 누리집에 접속하여 관람 희망일을 선택하면, 선착순 접수 결과에 따라 선택한 날짜에 관람을 할 수 있게 된다.또한, 청와대국민개방추진단은 새로운 예약시스템을 마련하는 것 외에도 ▷1일 관람인원을 3만 9000명에서 4만 9000명(현장발급 1000명 포함)으로 확대(하루 6회씩, 회당 6500명→회당 8000명) ▷관람 시간을 07시~19시에서 09~18시로 조정 ▷관람자 선정 방식을 추첨제에서 선착순으로 변경 ▷개인 관람예약 최대인원을 4명에서 6명으로 확대 ▷휴관일은 경복궁과 동일하게 매주 화요일로 운영(청와대, 칠궁, 청와대 연계 등산로) 등이다.경복궁 후원 청와대 구역내 침류각또, 모바일(인터넷) 접수가 힘든 65세 이상 어르신, 장애인, 외국인을 위하여 오전(09:00~), 오후(13:30~) 2차례 걸쳐 각각 500명에 대해 영빈문 안내데스크에서 현장발급을 지원할 예정이다. 65세 이상 어르신(주민등록증, 운전면허증, 여권), 장애인(장애인등록증), 외국인(여권, 외국인등록증) 등의 신분증을 제시하여야 하며, 장애인에 한하여 동반 1인까지 입장가능하다.한편, 6월 2일부터는 청와대와 연계된 북악산 등산로 중 삼청동 방면 출입구를 춘추관으로 옮겨, 시민들이 보다 쉽게 청와대 연계 등산로를 통해 북악산을 오를 수 있게 된다.5월 10일부터 31일까지 북악산을 찾은 등산객은 전년 동 기간 대비 약 7배 증가한 9만 4000여 명으로 집계되었다.문화재청 청와대국민개방추진단은 쾌적한 관람환경 제공을 위해 편의시설을 확충하는 등 청와대를 앞으로도 국민 모두가 함께하는 역사문화공간으로 적극 조성할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2022.06.09.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>[이슈진단+] 보험 개인 정보 판 토스, 무엇이 문제였나</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002259164?sid=105</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>[이슈진단+] 한 건당 6만9천원에 설계사에게 고객 정보 판매 논란토스가 보험 상담 서비스를 통해 고객 개인 정보를 판매한 사실이 드러나면서 논란이 지속되고 있다.토스 애플리케이션(앱)서 제공하는 보험 상담 서비스는 보험설계사와 보험 관련 고민을 갖고 있는 토스 고객을 연결해주는 서비스다. 서비스를 쓰기 위해 개인 정보 일부를 제3자인 보험설계사에게 제공해야 하는데, 토스는 일부 설계사에게 개인 정보 한 건을 6만9천원에 판매했다.토스는 개인정보보호법과 신용정보법에 따라 적법하게 데이터를 판매해 법리상 문제는 없다는 입장이다. 하지만 고객들은 자신의 개인 정보가 인지없이 '판매'됐다는 점에서 문제를 제기하고 있는 상황이다.추후 관건은 토스가 개인 정보를 판매한 목적이 제공자의 편익을 위한 것인지 단순히 토스가 데이터 판매 수익을 올리기 위한 차원이었는지에 따라 사안이 달라질 것으로 관측된다.토스 보험 상담 서비스 화면.개인 정보 판매된 서비스 뭐길래이번 건과 연관된 서비스는 토스의 '내 보험' 내 '5분 상담하기'이다. 이 상담 과정서 토스에게 돈을 지불한 설계사는 고객들의 개인 정보를 토스로부터 받았다. 유료로 거래된 개인 정보는 이름·생년월일·성별과 같은 개인 식별 정보 외에도 가입한 보험 상품과 회사·피보험자의 성명 등이다.토스 내부에서는 이를 '유료 매칭'이라고 부른다. 토스가 보험설계사를 대상으로 운영하는 정보 제공 앱 '토스 보험 파트너'에 가입한 130만명의 설계사 중 3만명만 가입할 수 있도록 제한했다. 유료 매칭을 이용한 설계사에게는 무조건적으로 5분 상담하기를 신청한 토스 고객을 연결해주며, 개인 정보를 확인할 수 있도록 구성됐다.데이트 앱서 돈을 내면 자신이 원하는 파트너와 무조건적으로 채팅할 수 있도록 기회를 제공하는 것과 비슷한 서비스다.토스 측은 "지난 6월부터 유료 매칭 서비스를 시작했으며 이마저도 시범 서비스"라며 "유료 매칭은 설계사와 고객을 잇는 중개로 개인 데이터베이스(DB)를 판매하는 것이 아닌 중개에 대한 수수료를 받는 격이라고 봐달라"고 해명했다. 현재 토스에 따르면 3만명 중 유료 매칭으로 돈을 낸 설계사는 600명 수준이다.개인 정보 판매됐다는 점 왜 알리지 않았나 보험 상담을 받기 위해 필수적으로 개인 정보를 제3자인 설계사에게 제공해야 한다는 점을 알리기 때문에 토스 측은 법리상 문제는 없다고 보고 있다. 개인 정보를 제3자에게 제공할 경우 개인정보보호법에 따라 ▲제공 목적 ▲제공받는 곳 ▲제공하는 항목 ▲이용 및 보유기간 등을 명시해야 하는데 이를 잘 준수했다는 것이다.그런데 개인 정보가 설계사에게 '단순' 제공만 됐다는 점은 알 수 있지만, 설계사에게 돈을 받고 거래된다는 점은 알 수 없다. 이 지점서 고객들은 '한 번 팔린 개인 정보가 또 팔릴 수 있다'며 개인 정보 유출 가능성을 거론하고 있는 것이다.토스 측은 "통상 보험업계의 DB 판매상들과 다르게 고객의 전화번호는 설계사에게 제공하지 않고 있으며, 안심번호를 통해 전화번호가 재유통되는 것을 막고 있다"며 "다만 유료 매칭 서비스에 대해 명확히 알리지 못한 점에 대해서 회사 측에서는 수정을 검토하고 있다"고 답했다.토스 로고금융감독당국 "데이터 판매만 집중했는지 살펴보는 중"금융감독당국도 이 사안을 들여다 보고 있다. 토스 측으로부터 이번 사안이 왜 일어났는지 등에 대해 소명 자료를 받은 상태다.금융감독원은 일단 토스가 '마이데이터(본인 신용정보관리업)' 라이선스를 취득한 만큼 데이터 판매·가공이 부수업무로 신용정보법상 허용된 만큼, 정보 판매는 문제가 없을 것으로 보고 있다. 앞서 토스는 마이데이터 라이선스 신청 때, 이 같은 데이터 판매를 하겠다는 내용을 금감원에 보고했다.금감원 금융데이터실 관계자는 "마이데이터 인허가 때 보험 관련 데이터 판매를 유료화하겠다고 했으며 6월부터 진행했다"고 말했다.판매한 사실보다는 금감원에서는 데이터 판매 목적이 법상 어긋난 점이 있는지를 주목하고 있다. 신용정보법 상 제18조 6에 따르면 마이데이터는 정보 주체에 대해서만 전송 요구를 하도록 강요하거나 부당하게 유도하는 행위를 금지하고 있다.금감원 관계자는 "데이터 제공 주체에게 편익이 있어야 하는데 이것이 우선이었는지 데이터 판매를 통해 회사가 수익을 올리려고만 한 것인지 등을 따져볼 것"이라며 "마이데이터 초기인만큼 규제 미비 사항이 없는지, 토스가 개인 정보를 어떤 목적으로 제공하고, 보유 및 이용 기한에는 문제가 없는지를 살펴보고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2022.06.12.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>[미리보는 이데일리 신문]국민 망각한 정치 '팬의 장막'에 갇히다</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005240266?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>[이데일리 서대웅 기자] 다음은 13일자 이데일리 신문 주요 기사다.△1면-국민 망각한 정치 ‘팬의 장막’에 갇히다-글로벌 긴축 공포에 금리 발작...주담대, 8%까지 밀어올리나-자동차·철강 물류마비 이어...건설현장 셧다운 초읽기-연봉 2~3배 마통, 내달 다시 가능해진다-[사설]주목받는 한일정상회담, 만남과 대화 빠를수록 좋다-[사설]경제 먹구름 몰려와도 민생 팽개친 정치, 이래도 되나△2면 종합-[궁즉답]유류세 내렸는데 휘발윳값은 왜 계속 뛰나요-하루하루 출근이 버거운 美 직장인들-SM 이수만, 사우디에 K팝 심는다△3면 글로벌 긴축發 ‘금리 발작’-이자 폭탄 예고된 변동형, 당장 금리부담 큰 혼합형...갈피 못잡는 서민들-6%대 물가 시간문제...7·8월 연속 기준금리 오르나-2·3년물 국고채 금리 급등...“무너진 투자심리 당분간 회복 힘들 듯”△4면 종합-시멘트 출하량 10분의 1로 줄고 철근 운송도 막혀...주택 공급 차질 우려-재계 “정부, 화물연대 업무개시명령 적극 검토해야”-파리·뉴욕 항공료 150만~200만원 껑충 “하늘길 열렸지만 해외여행 못 떠나요”-‘범죄도시2’ 천만 돌파에 투자업계 ‘환호성’-신용대출 한도 확대로 전세대출 수요자 ‘단비’△5면 ‘팬덤’ 덫에 걸린 정치권-혐오·분노 기형적 팬덤정치에...당은 사분오열, 민심은 등 돌려-노사모→문꿀오소리→개딸...지원군서 갈등 유발자로-정치인의 팬덤 방조가 폐해 키워...선 넘을땐 자제시켜야△6면 정치-계파갈등 조기차단 나선 민주 비대위...“이번주 내 전준위 구성 매듭”-여야 국회 원구성 협상 난항에 尹대통령, 장·차관 임명 강행하나-이준석 “1년간 괴롭혔으면 그만...이젠 내 정치 할 것”-오늘 한미 외교장관 회담...北도발 공조 논의-김건희 여사, 노무현 전 대통령 묘소 참배...권양숙 여사 예방△8면 경제-믿었던 수출마저...경상·재정 ‘쌍둥이 적자’ 비상-10월까지 어업인 유가연동보조금 지원-물가안정 한시가 급한데...‘쌀가루가 왜 여기서 나와’-휘발유·경유 이틀째 역대 최고가 경신△9면 글로벌-휘발윳값 사상최고, 먹거리 줄인상...美 ‘물가 정점론’ 흔들-“2024년 대선 바이든 승산없다”-“클럽은 열고, 학교는 닫고?” 베이징 학부모들 불만 폭주-대만·인태전략 놓고...미·중 ‘신냉전 기류’△10면 이데일리 전략 포럼-“에너지냐, 핵확산 우려냐...원자력 ‘실용적 관점’서 각자 판단해야”-“기후변화 대응, 지금보다 6배 더 투자해야 목표 도달”-“40%는 쓰레기로...음식만 안 남겨도 온실가스 10% 뚝”△12면 증권-尹 취임 한달...수혜 기대 ‘원전·건설·플랫폼’株 뒷걸음질-中 다시 빗장 거나...파랗게 질린 화장품주-신한자산, TDF 라인업 확장...2055년형·장기성장 추가-더 커진 ‘S’ 공포...코스피 관망세 지속하나△13면 돈이 보이는 창-청약가점 낮아도 선정방법 다양화...특공물량 노리면 내집마련 기회온다△14면 아파트 청약 필승 전략-혼인신고 안했거나 자녀 없는 신혼부부 민간특공 추첨제 노려라-2030 청약 문턱 낮아진다...서울 85㎡ 이하도 추첨제 도입△15면 조각투자의 세계-커피 한잔 값에...천경자 그림 품고, 강남 건물주 되다-‘조각투자 증권’은 금융규제 대상...정보 명확히 알려야△16면 아트테크&amp;-355개로 쪼갠 신윤복 풍속화 NFT, 힙하게 ‘솔드아웃’-건간등급 따라 최대 44% 할인...운동하면 보험료 싸진다-‘1가구 1보험 시대’...시기별 보험가입 전략은△18면 산업-‘이재용의 복심’ 최윤호, 조기 귀국...배터리 투자 힘 받나-“르노코리아, 2026년 전기차 출시...韓 시장점유율 10% 목표”-100만원 비싸진 무풍·휘센...전 모델과 ‘격이 다르네’-KAI, 록히드마틴 손잡고...美 전술입문기 수주 본격화-LG엔솔, AI 전문가 자문단 구성...‘디지털 혁신’ 박차△19면 ICT-140여개 블록체인 기업 혁신기술 과시...올해 키워드는 ‘웹 3.0·NFT’-대통령실서도 ‘아이폰’ 쓸 수 있게 된다-네이버웍스, 협업툴에서 ‘스마트빌딩 제어’ 슈퍼앱 진화-보험 개인정보 판 토스...마이데이터 사업 신뢰성 도마위△20면 중소기업-“자율주행 반도체 기술, 車 이어 로봇으로 확장할 것”-‘대한민국 혁신대상’ 코웨이, 20년 연속 수상-캠핑족 잡아라...‘필수템’ 출시경쟁 후끈-정수기 강자 쿠쿠홈시스, 냉방가전서도 인기몰이△21면 소비자생활-불꺼진 청평화...온라인 ‘신상마켓’은 불야성-스타벅스 ‘서울시 환경상’ 자원순환 최우수상 수상-감성 입힌 골프·캐주얼웨어로 ‘MZ패션’ 공략△22면 문화·스포츠-박민지 “올해는 기록에 연연하지 않을 것”-52위로 컷 통과 신상훈 ‘반전 우승’-천만 돌파 ‘범죄도시2’...‘기생충’보다 흥행속도 2배 이상 빨라-마동석 “팬데믹 넘어 천만 돌파 기쁘다”△24면 부동산-역세권 알짜배기...가양동 복합개발 ‘속도’-5000원이면 100억 물류센터 건물주...부동산 조각투자 상품 ‘관심 집중’-토지수용 빠르고 정확하게...전자시스템 도입 추진-‘전세의 월세화’ 가속...월세, 두달 연속 전세 추월△25면 오피니언-산업전환기 맞은 노조가 가야할 길-검사 출신 금감원장에 바란다-[기자수첩]법치 흔든 대구 방화사건△26면 피플-“돈보다 사회 기여하는 스타트업 투자에 보람 느껴”-“메타버스서 게임하며 받은 NFT 에버랜드서 쓰는 날 만들어야죠”-“BTS 아미가 ESG 요구하는 시대...핀테크도 속도내야”-우즈, ‘재산 17억달러’...10억弗 넘긴 3번째 美 스포츠 스타-‘이재용 사촌형’ 이재관 전 새한그룹 부회장 별세△27면 사회-소송 졌다고 흉기로 찌르고 불 질러...씁쓸한 ‘재판 보복 범죄’-장관 사전 승인 족쇄 푸는 檢...文정권 수사 속도-“반도체 학부 늘려 인재 공급?...포인트 잘못 집어”-보유주식 방송서 추천하면 처벌 받을까-송해도 호소했던 ‘롱 코비드’...정부 특단대책은</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2022.06.07.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>출시 넉달만에 벌써 4000억 돌파…자영업 사장님들, 토뱅에 간 까닭은?</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001999773?sid=101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>통 큰 한도·낮은 금리 메리트에무보증·무담보로 진입문턱 낮춰토스뱅크가 개인 사업자를 대상으로 내놓은 대출이 입소문을 타면서 수요가 몰리고 있다. 통 큰 한도, 낮은 금리, 무보증·무담보가 소상공인에게 동앗줄 역할을 톡톡히 했다는 평가다.7일 금융권에 따르면 토스뱅크의 ‘사장님 대출’은 지난달 기준으로 4000억원을 넘었다. 지난 2월 출시 이후 매월 1000억원 이상을 모으며 흥행을 이어가고 있는 셈이다. 지난달 초 추가로 출시된 ‘사장님 마이너스 통장’ 또한 출시 4일만에 대출 약정 200억원을 넘는 등 꾸준히 수요가 몰리고 있다.토스뱅크의 사장님 대출은 실제 사업을 영위하고 있는 자영업자, 소상공인 등을 대상으로 한다. 사업자등록번호를 보유하고 1년 이상 실제 사업을 영위하거나 최근 6개월 이상 매출액이 발생하면 되는데, 최소 증빙 연소득은 소득금액증명원 기준 1000만원 이상이면 가능하다.흥행의 일차적인 이유는 낮은 진입 문턱과 후한 금리 및 넉넉한 한도 덕이다. 출시 이후 시장 상황이 변하면서 금리가 오르긴 했지만, 이달 3일 기준 금리 밴드는 연 3.98%부터 15%(변동금리)으로 형성돼있다. 여기에 노란우산공제에 가입했다면 0.5%포인트 우대를 누릴 수 있다. 최대 한도 또한 1억원으로 중도상환 수수료는 무료다. 시중은행의 개인사업자 대출금리가 최근 4%대 중반부터 형성됐고, 한도는 많아야 5000만원 정도인 점을 고려하면 차별점이 두드러진다.특히 자체적으로 개발한 신용평가모형 덕에 제1금융권을 두드리기 어려웠던 사업자들을 흡수하고 있다. 토스뱅크의 신용평가모형은 실질소득을 분석하는데 집중돼있다보니 연체 이력이 없거나 장기간 보험 계약을 유지하는 등의 이력이 확인되면 신용점수에 가산점을 받을 수 있다. 토스뱅크 관계자는 “비대면 대출 프로세스에 부가서류 등을 제출하지 않아도 다양한 금융거래정보를 활용한 대안정보를 신용대출 심사 기준에 넣다보니 자금이 몰리는 것으로 보고 있다”고 말했다.전면 비대면, 무보증·무담보라는 점에서 자율적으로 시간을 관리하기 어려운 소상공인들에게 메리트를 갖고 있다는 평가다. 케이뱅크 또한 최근 사장님 대출을 내놨으나, 신용보증재단 보증서 발급을 요건으로 했다는 점에서 토스뱅크의 대출 속도를 따라가지는 못하는 것으로 알려졌다.토스뱅크가 승기를 잡은 가운데 인터넷전문은행의 개인사업자 대출 경쟁은 치열해질 것으로 보인다. 금융위원회가 ‘은행법 시행령 및 감독규정 개정안’을 통해 인터넷전문은행도 개인사업자대출이 가계대출과 비슷한 중요성을 갖도록 했기 때문이다.케이뱅크는 사장님 대출 출시를 기념해 이달 말까지 대출받은 고객들에게 한달치 이자를 돌려준다. 카카오뱅크 또한 연말 출시를 목표로 개인사업자 대상 대출상품을 준비 중이다.인터넷전문은행 관계자는 “시중은행들이 취급하는 대출상품은 연체율과 부도율 등을 종합적으로 판단해 신용등급을 구간별로 매긴다”며 “인터넷전문은행들의 경우 소상공인에 특화된 심사 기준을 반영하다보니 1금융권 진입에 애로를 먹었던 사업자들을 폭넓게 흡수할 수 있는 것”이라고 말했다. 서정은 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2022.06.10.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>금융사 신규채용 33%가 IT인력… 구인난에 인재 직접 육성도</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003433441?sid=102</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>[IT인력 쟁탈전][Z세대가 이끄는 금융 빅뱅 ‘자이낸스’]〈5·끝〉‘개발자 모시기’ 경쟁 가속정보기술(IT) 서버 개발자인 이모 씨(34)는 2년 넘게 다니던 빅테크(대형 기술기업)를 그만두고 지난달 대형 금융사로 이직했다. 이전 직장보다 연봉을 20% 넘게 올려준 데다 자유롭게 근무할 환경을 마련해 주겠다는 제안이 매력적이었다. 이 씨는 “전통 금융사는 IT 인력에 대한 처우가 떨어지고 조직 문화도 보수적이라고 들었는데 예상보다 파격적인 연봉과 업무 조건을 제시해 이직을 결심했다”고 했다. 그와 함께 일하는 팀원 8명 가운데 5명이 빅테크나 IT 회사에서 옮겨온 이들이다. 국내 금융권의 디지털 전환이 가속화하면서 IT 인재를 확보하려는 금융사들의 쟁탈전도 치열해지고 있다. 팬데믹 이후 ‘개발자 모시기’ 경쟁이 거세지자 디지털 인재를 외부에서 영입하는 데 그치지 않고 직접 키워서 쓰려는 움직임도 활발하다.○ 4대 은행 신규 채용 15%가 IT 인력9일 강민국 국민의힘 의원이 금융감독원에서 받은 자료에 따르면 KB국민, 신한, 하나, 우리 등 4대 은행이 2019∼2021년 신규 채용한 IT 인력은 982명으로 집계됐다. 이 기간 새로 뽑은 전체 임직원(6319명)의 15.5%를 차지한다. 특히 국민은행은 3년간 신규 채용 인원의 32.6%(382명)를 IT 인력으로 채웠다. 국민은행은 올해 4월부터 진행 중인 200여 명 규모의 신입 및 경력직 채용도 자본시장과 보훈 부문 특별채용을 제외하고 모두 IT 관련 직무로 뽑고 있다. 우리은행도 상반기(1∼6월) 신입 채용에서 삼성청년소프트웨어아카데미 교육생을 우대하는 등 IT 인력 확보에 중점을 두고 있다. Z세대의 등장과 팬데믹 여파로 디지털 전환 속도가 빨라지자 전통 금융사들의 채용도 경영관리직 중심에서 디지털 인재로 넘어가고 있는 것이다. 하지만 경쟁자인 인터넷전문은행이나 빅테크에 비해 전통 금융사의 디지털 인력은 여전히 부족한 편이다. 3월 말 4대 은행 전체 임직원 중 IT 인력이 차지하는 비중은 7.7%에 그친다. 반면 토스(52.0%) 카카오페이(50.1%), 네이버파이낸셜(48.7%) 등 주요 빅테크의 IT 인력은 50% 안팎에 이른다. 시중은행 부행장은 “은행들이 전산 시스템이나 애플리케이션 개발 등을 외주에 맡긴 탓”이라고 했다. 증권사 임원은 “금융권 IT 인력은 주 업무인 금융업을 지원하는 후선 조직이라는 인식이 커 개발자들이 금융사보다 게임, IT 회사를 더 선호한다”고 했다.○ “금융, IT 모두 정통한 인재 절실”이에 따라 실력 있는 IT 인재를 영입하기 위해 전문 스카우트를 두는 곳도 생겼다. 국민은행은 개발자 영입과 관련 채용 프로세스를 개발할 ‘ICT 리크루터’를 뽑고 있다.  개발자 구인난이 심해지자 디지털 인재를 자체적으로 육성하는 데도 힘을 쏟고 있다. 하나은행은 지난해 6월 KAIST와 손잡고 ‘디지털 워리어(Warrior·전사) 프로그램’을 시작했다. 일반 직원 40명이 KAIST 본교에서 알고리즘, 소프트웨어공학 등 전산학부 전공 과목을 배운 뒤 현재 디지털 관련 부서에 배치됐다. 올 1월부터는 2기로 선발된 20명이 KAIST에서 교육받고 있다. 2기 모집 당시 경쟁률이 7 대 1일 정도로 인기가 높았다. 우리은행의 IT 부문 신입 행원 50여 명도 서울대 경영학석사(MBA) 과정에서 인공지능, 블록체인 등 혁신기술을 배운 뒤 7월 정기 인사에서 관련 부서로 배치될 예정이다. 국민은행은 지난해 8월부터 일반 직원들이 다양한 업무에 활용될 로봇프로세스자동화(RPA) 기술을 직접 개발할 수 있도록 개발자 교육을 하고 있다. 강민국 의원은 “디지털 금융이 거스를 수 없는 추세인 만큼 금융과 IT 분야에 모두 정통한 인재를 양성하는 게 중요하다”고 강조했다. 김대종 세종대 경영학과 교수는 “디지털 경쟁력은 생존과 직결된 문제이기 때문에 금융권의 IT 인재 확보전은 계속될 것”이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2022.06.07.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>[인사이드 스토리]금융권 목매는 MAU…그 '진짜가치'는?</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000008368?sid=101</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>카뱅·토스, MAU는 시중은행에 앞서MAU, 금융회사 '선호도'와 비례하지 않아MAU 의미는 있지만 과대포장 자제해야최근 금융권의 최대 화두중 하나는 모바일 금융 서비스의 경쟁력 향상입니다. 그리고 그 중심에는 MAU(Monthly Active Users, 월간활성화사용자 수) 증대가 있습니다. MAU가 얼마나 많은 사용자가 자사의 모바일 뱅킹 앱을 정기적으로 활용하는지 알려주는 지표입니다. 이 지표가 높아질수록 충성 고객을 꾸준히 확보하고 있다는 의미로 풀이할 수 있기 때문입니다. 하지만 MAU로 모든 것을 판단하기는 어려울 전망입니다. MAU와 실제 금융소비자들의 선호도, 호감도 등이 비례하지는 않는다는 조사 결과가 나왔기 때문입니다.카뱅과 토스가 강조하는 것카카오뱅크, 토스는 자사의 경쟁력을 설명할 때 늘 강조하는 것이 있습니다. 바로 MAU입니다. 4월말 기준 업계에 따르면 카카오뱅크의 MAU는 1135만여명, 토스는 1330만여명이라고 합니다.주요 시중은행에 비해 자산도, 실적도 비교할 수 없을 정도로 작지만 MAU만큼은 주요 시중은행보다 앞서고 있어 더욱 대중적이고, 이것이 경쟁력이라는 게 이를 강조하는 근거입니다.최근 집계되고 있는 MAU를 보면 이들의 주장은 설득력이 있습니다. 금융권에 따르면 지난 4월말 기준 시중은행들의 모바일 뱅킹 앱 MAU는 △KB국민은행 KB스타뱅킹 780만명 △신한은행 솔 670만명 △하나은행 하나원큐 369만명 △우리은행 우리원뱅킹 418만명 수준으로 집계됐습니다.모바일 금융 서비스를 카카오뱅크와 토스보다 먼저 서비스했고 애초에 영업을 영위했던 기간이 수십년이 지났음에도 불구하고 MAU에서는 아직 10살도 안된 카카오뱅크와 토스에 비해는 밀리는 것입니다. 카카오뱅크와 토스 입장에서는 MAU가 주요 시중은행에 비해 높다는 것이 자랑할 만한 지점인셈입니다.금융업은 흔히들 '규모의 경제'가 적용되는 업권이라고 합니다. 많은 사용자들이 몰릴 수록 회사가 빠르게 발전할 기반이 다져질 수 있습니다. 이 때문에 디지털 기반 금융회사는 물론 주요 은행들 역시 MAU증대를 주요 경영 목표로 수립하고 있습니다.MAU가 다가 아니다그런데 MAU가 높다는 것이 그 앱이 '최고'의 경쟁력을 갖고 있다고 보기는 어려워 보입니다. 높은 MAU가 막연하게 그 회사의 경쟁력과 비례한다고 보기에는 어렵다는 내용이 담긴 보고서가 나와서입니다.최근 한국은행이 내놓은 '2021년 지급수단 및 모바일금융서비스 이용행태 조사결과' 보고서에는 MAU가 높다고 자랑하던 회사들의 주장과는 정반대의 조사 결과가 집계됐습니다. /표=유상연 기자 prtsy201@이 보고서에 따르면 모바일 금융서비스를 사용하는 사용자들의 절대 다수는 은행 등 전통적인 금융회사의 서비스를 선호하는 것으로 조사됐습니다. 그 비중이 무려 94.1%에 달합니다.특히 30대를 제외한 20대부터 70대까지 전 세대에서 은행 등 전통적인 금융회사의 모바일 서비스를 선호한다는 비중이 90%를 넘어섰습니다. 30대도 89%에 달하니 사실상 모든 세대들이 전통적인 금융회사의 모바일 금융서비스를 선호한다는 의미입니다./그래프=유상연 기자 prtsy201@단순 선호도 뿐만 아니라 이용빈도 등도 마찬가지였습니다. 이번 조사 대상자중 은행의 모바일 금융 서비스를 사용해봤다는 비중은 63.3%로 집계되며 가장 높은 비중을 차지했습니다.핀테크 기업 등은 47.7%, 인터넷전문은행은 18.8%였다는 점을 고려하면 MAU가 금융소비자들이 주로 쓰는 서비스라고 보기에는 무리가 있다는 조사결과인 셈입니다.은행 디지털 부서 관계자는 "아직까지는 은행 등 전통적인 금융회사의 신뢰도가 높고 대부분 금융소비자의 거래는 은행 계좌기반에서 이뤄지다보니 은행의 모바일 서비스 이용빈도, 선호도가 높을 수 밖에 없다"라고 설명했습니다.이어 "아울러 은행도 핀테크 회사들 못지 않게 사용자경험 등을 개선하는 노력을 꾸준히 해오면서 고객만족도와 편의성이 크게 개선된 점도 영향을 끼친 것으로 보인다"고 짚었습니다.MAU기업가치 척도 될 수 있을까?'금융 플랫폼 회사'가 현재 금융회사들이 그리고 있는 미래 청사진인 만큼 얼마나 많은 사람들이 사용하고 있는 지를 의미하는 MAU는 중요한 수치중 하나입니다. 일부 회사들은 MAU가 곧 기업가치를 의미한다고 강조할 정도입니다.그런데 MAU가 서비스 선호도로 이어지지 않는 다는 조사결과가 나온 상황에서 이들 회사의 이같은 주장을 어떻게 봐야 할까요?업계의 의견은 '반반'입니다. MAU가 많으면 많을수록 정기적으로 해당 회사의 금융서비스를 이용하는 고객, 즉 충성고객이 많다는 것을 의미하기 때문입니다. 은행 관계자는 "금융회사의 경우 충성고객 확보가 가장 중요한데 이는 이러한 고객들과의 거래가 한번으로 끝나는 것이 아닌 생애 전체에 걸쳐 발생하기 때문"이라며 "정기적으로 해당 회사의 금융서비스를 사용한다는 것의 의미가 작다고 보기는 힘들다"라고 말했습니다.반면 일각에서는 '너무 과대평가 되는 모습'이라는 평가도 나옵니다. MAU가 높다고 해서 수익성이 높은 서비스를 이용하는 고객이 많다는 것을 의미하지 않기 때문이라는 이유에서입니다.현재 모바일금융 서비스에서 가장 많이 사용되는 서비스는 송금, 계좌조회 등 사실상 '무료' 서비스입니다. 높은 MAU를 보유한 기업들의 핵심 서비스도 무료로 제공되는 서비스입니다. 금융회사 입장에서는 많은 고객들이 사용한다고 하더라도 오히려 비용이 나간다는 의미입니다. 다른 은행 관계자는 "이제는 고객을 모으는 것을 넘어 이 고객들이 금융회사에 비용을 기꺼이 지불할 수 있는 서비스를 내놔야 하는 시점이 왔다"라며 "MAU가 수익성으로 이어진다는 것을 증명하는 것도 중요해지는 시점이 되는 셈"이라고 봤습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2022.06.11.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>하루만 맡겨도 연 3%...파킹통장도 '조건' 확인하세요</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005239137?sid=101</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>산은, 금액 상관없이 무조건 1.85%토뱅 1억까지 2%, 카뱅 3억까지 1.2%웰컴저축銀 5000만원까지 최고 3%[이데일리 서대웅 기자] 하루만 맡겨도 쏠쏠한 이자를 주는 수시입출금식 통장인 ‘파킹 통장’ 금리가 오르고 있다. 최근엔 연 3%짜리 상품도 나왔다. 하지만 파킹통장도 예치금, 우대실적 등에 따라 책정되는 금리가 다르다.(사진=이미지투데이)KDB산업은행은 ‘KDB Hi 비대면 입출금통장’ 금리를 0.25%포인트 올려 연 1.85%를 준다. 가입금액에 제한이 없는 점이 가장 큰 특징이다. 토스뱅크는 1억원까지 2%, 카카오뱅크는 3억원까지 1.2%를 준다. 우대실적을 쌓지 않아도 된다. 저축은행의 경우 대부분 마케팅 동의 등을 해야 우대금리를 제공해 높은 금리를 제공한다.SC제일은행은 이달 말까지 일복리저축예금(MMDA)에 1억원 이상 가입하는 첫 거래 고객에게 신규일부터 최장 60일간 매일 최고 연 1.9% 금리를 특별금리를 제공하는 이벤트를 진행 중이다. 일복리 상품으로 매일 잔액에 따라 금리를 차등 지급하기 때문에 예치 자금이 많을수록 유리하다.저축은행 업계도 파킹통장 경쟁력을 키우고 있다. 웰컴저축은행은 ‘웰컴 직장인사랑 보통예금’ 기본금리를 0.5%에서 1.5%롤 크게 올렸다. 우대금리까지 합치면 5000만원 한도까지 최고 연 3% 금리를 준다. 5000만원 초과 금액에 대해선 최고 연 2%가 적용된다.OK저축은행도 수시입출식 보통예금인 ‘OK읏통장’ 최고 금리를 기존 연 1.2%에서 3%로 인상했다. 다만 500만원까지 3%를 제공하며 500만원 초과 금액은 최고 1%를 제공한다. 기본금리는 500만원까지는 2.8%, 초과시 0.8%다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2022.06.02.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>웹3.0 UGC 게임 아치루트, 675만달러 신규 투자 유치</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004706848?sid=105</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>사진=아치루트게임파이(GameFi) 기반 웹3.0 UGC 게임 프로젝트 아치루트(Archloot)가 675만달러 규모의 신규 투자를 유치했다고 2일 밝혔다. 이로써 아치루트의 누적 투자금은 1700만달러를 돌파했다.이번 투자에는 알파비트, y2z벤처스, 크립토스, FBG캐피털, 스트랫필드, 프린시플 벤처스 등의 블록체인 전문 투자기관이 대거 참여했다.아치루트는 이번 신규 투자금을 바탕으로 오는 3분기 공식 게임 출시를 위한 시스템 고도화 작업에 속도를 낸다는 계획이다. 아울러 한국 시장을 중심으로 전방위적인 마케팅 활동을 펼쳐 본격적인 유저 확보에 나설 예정이다.조나단 유바비시우스(Jonathan Ubavicious) 아치루트 대표는 "많은 투자 기관에서 기존 게임파이와 비교해 아치루트의 게임성과 확장성이 풍부하다는 점에 주목했다"며 "향후 진행 될 추가 베타 테스트와 공식 런칭에서 더욱 높아진 게임 완성도를 보이고 아치루트의 이름을 널리 알리는 것이 목표"라고 밝혔다.한편 아치루트는 유저들을 대상으로 다양한 대체불가토큰(NFT)을 모은 'NFT 블라인드 박스'를 이번 달 특별 판매한다. 일정 등 자세한 사항은 아치루트 공식 홈페이지를 통해 확인할 수 있다.&lt;블록체인·가상자산(코인) 투자 정보 플랫폼(앱) '블루밍비트'에서 더 많은 소식을 받아보실 수 있습니다&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2022.06.12.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>기분 따라 저축, 적립금마다 편의점쿠폰… 달라진 예·적금통장</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004850430?sid=101</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>카뱅 저금통·케뱅 챌린지박스 등2030 위한 이색상품 속속 출시농협은 MBTI 따라 환전 추천  금융권이 '자산 확대' 기능과 '재미' 요소를 동시에 갖춘 이색 금융상품들을 속속 출시하고 있다. 특히 이들은 시선을 사로잡는 그래픽을 활용하거나 게임의 형태를 차용하는 한편, 상품 이용에 대한 진입장벽은 낮추는 방식을 취하고 있어 고객의 눈길을 사로잡고 있다.   12일 금융권에 따르면 이 같은 상품 출시 선두에는 인터넷은행이 있다. 앞서 카카오뱅크는 '저금통'과 '26주 적금'을, 케이뱅크는 '챌린지박스'를 각각 출시해 2030 모객에 나섰다. 토스뱅크도 비슷한 시기 경쟁적으로 '잔돈 모으기' 상품을 내놨다. 게임처럼 일정한 규칙에 따라 저금을 하다 보면 작은 돈이 큰 돈이 돼 있는 경험을 할 수 있다.   최근에는 인터넷은행이 이들 소액저축상품을 확대하려는 움직임을 보이고 있다. 가령 카카오뱅크는 이번달부터 '저금통with세븐일레븐'을 출시했다. 기존 저금통 서비스에 적금액마다 세븐일레븐에서 사용 가능한 쿠폰이 노출되는 기능을 추가한 상품이다. 이 서비스는 정식 개시 전 사전예약을 받기 시작한지 8일만에 신청자 26만명을 돌파하는 등 인기를 누렸다.   또 지난 8일에는 케이뱅크가 기분에 따라 이모지와 저축액을 설정할 수 있는 '기분통장'을 내놨다. 이는 기존 파킹통장인 '플러스박스'의 연장선이다. 자신의 기분과 비슷한 이모지를 선택하면 그에 맞는 메시지와 함께 저축액이 설정, 저금된다. 메시지와 저축액은 변경 할 수 있다.   이들 상품의 공통된 특징은 마치 게임처럼 독특한 규칙을 저축에 적용했다는 것이다. MZ세대의 호기심과 흥미를 자극한 '펀 세이빙'의 일종이다. 가시성이 높다는 점도 특징으로 꼽을 수 있다. 인터넷은행 특유의 깔끔하고 재치있는 앱 UI·UX를 활용한 것이다.   이에 더해 저축액이 최소 1원부터로 소액을 저금하기 때문에 자산이나 소득이 많지 않은 젊은층에게도 접근성이 좋다. 실제 카카오뱅크에 따르면 이번 '저금통with세븐일레븐' 가입자 중 30대 이하가 66.7%를 차지한다. 카카오뱅크 전체 가입자 중 30대 이하 비율이 59%임을 감안해도 높은 수치다.   시중은행도 MZ세대와 접점을 찾으려는 노력을 하고 있다. 상품 가입 조건으로 연령 제한을 두거나 소셜네트워크서비스(SNS), 메타버스, MBTI 성격유형 검사 등 유행 요소를 반영하려는 시도다. 지난달 12일 우리은행은 연소득 3500만원 이하 사회초년생을 위한 '우리 WON플러스 직장인대출'을 출시했다. 지난 8일 NH농협은행은 공식 SNS 채널을 통해 MBTI에 맞는 환전 서비스를 추천해주는 '환전 MBTI' 이벤트를 열었다.   뿐만 아니라 목표값과 보상을 설정해 소액 적금을 완주할 수 있도록 인센티브를 제공하는 상품들도 있다. 신한은행 '쏠편한 작심3일 적금', KB국민은행 'KB 스마트 폰 예적금', IBK기업은행 'IBK 디데이 적금' 등이 이에 해당한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2022.06.14.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>센스톤, KDB산업은행에서 50억원 신규투자 유치</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002259587?sid=105</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>국내 인증 보안 업체 센스톤(대표 유창훈)은 KDB산업은행으로부터 50억원의 신규 투자를 유치했다고 14일 밝혔다."세계 최초 단방향 다이내믹 인증 기술인 'OTAC(One-Time Authentication Code)'의 기술력과 시장성을 인정받은 결과"라고 센스톤 측은 이번 투자유치 성공 배경을 설명했다.센스톤은 이번 투자를 발판 삼아 OTAC 기술의 강력한 보안성과 편의성을 앞세워, 차세대 인증보안기술 수요가 높은 금융, 통신, 사물인터넷(IoT) 산업을 중심으로 글로벌 시장 공략에 더욱 박차를 가할 계획이다.센스톤은 지난해 하반기 토스뱅크에 고액송금을 위한 카드 태깅형 모바일 OTP를 공급한 이후, 국내 금융권, 공공기관, 일반 기업들의 관심이 크게 높아져 다수의 고객들과 적극적인 도입 논의를 이어가고 있는 중이다. 해외 전시회를 통한 적극적인 해외 홍보에 나서면서 아시아는 물론, 유럽 및 미주권에서도 비즈니스 확산을 기대하고 있다.유창훈 센스톤 대표는 "센스톤은 창립 이래 '절대 실현 불가능한 기술'이라는 편견에 맞서 '누구도 가보지 않았던 전혀 새로운 시장'을 국내는 물론 해외에서도 개척해 나가는 중"이라며, "이번 투자로 든든한 후원자이자 지원군을 새로 얻게 된 만큼, 그 동안 기존 인증보안 기술의 한계로 포기해야만 했던 전세계 산업과 시장들을 적극 발굴하여 혁신 사례를 계속해서 늘려 나갈 것"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2022.06.01.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>성장 잠재력 '아기유니콘' 기업 60개사 선정</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/660/0000009541?sid=101</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>정부가 유망 중소기업 60개사를 '아기유니콘'으로 선정했습니다.중소벤처기업부는 한국을 대표하는 유니콘 기업으로 성장할 잠재력을 가진 유망 중소기업 60개 회사를 아기유니콘으로 선정했다고 밝혔습니다.유니콘 기업은 기업 가치가 10억 달러(=1조 원) 이상이고 창업한 지 10년 이하인 비상장 스타트업 기업을 말합니다.잘 알려진 유니콘 기업으로는 미국의 우버, 에어비앤비, 중국의 샤오미, 한국의 쿠팡, L&amp;P코스메틱, 크래프톤, 비바리퍼블리카(토스), 야놀자, 위메프, 지피클럽, 무신사, 에이프로젠, 쏘카 등이 있습니다.중기부의 '아기유니콘200 육성사업'은 혁신적 사업모델과 성장성을 검증받은 유망 창업기업을 발굴해 기업가치 1,000억 원 이상 예비 유니콘기업으로 육성하는 사업입니다.그동안 2020년 40개, 2021년 60개 등 100개 아기유니콘이 선정됐습니다. 이번에 선정된 아기유니콘 60개사는 창업한지 평균 5.1년, 매출액은 46억4천만 원, 고용 인원은 35.9명으로 나타났습니다.업종별로는 정보통신과 데이터·네트워크·인공지능 기반 플랫폼 분야 기업이 27개(45.0%), 바이오·헬스 분야 16개(26.7%) 등 미래유망 분야 기업이 70%이상을 차지했습니다.선정된 아기유기콘에는 신시장 개척자금 최대 3억 원과 특별보증 최대 50억 원, 정책자금 최대 100억 원이 지원되고, 중기부 R&amp;D 사업 참여시 우대 혜택도 있습니다.중기부는 하반기에 40개 아기유니콘을 추가로 선정해 지원할 예정입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2022.06.09.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>[물살 탄 대체거래소]①'발 담글까 말까'...실익 따지는 증권사들</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000008417?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>30여개 증권사, ATS 투자 참여 시사메리츠·토스 등 불참 의사…실익 의문한국거래소와 경쟁하게 될 대체거래소(ATS) 설립에 가속도가 붙은 가운데 증권사들이 계산기 두드리기에 한창이다.의결권을 쥘 수 있다는 기대감에 30개에 달하는 증권사가 ATS 주주가 되겠다는 의사를 표시한 것으로 알려진 가운데 일부 증권사는 참여를 꺼리고 있다. 수익이 명확하지 않은 상황에서 다른 사업에 들어갈 투자금이 묶이는 상황을 피하려는 의도로 읽힌다.  /그래픽=비즈니스워치증권거래소 경쟁체제 개막9일 금융투자업계에 따르면 금융투자협회내 자본시장혁신과제 태스크포스(TF)는 지난해부터 증권사들을 대상으로 ATS 설립 참여 여부를 묻는 조사를 실시했다. TF는 금투협을 중심으로 미래에셋증권, 한국투자증권, NH투자증권, 삼성증권, KB증권, 키움증권, 신한금융투자 등 7개 ATS준비설립위원회 증권사에서 파견된 직원들로 구성됐다. TF가 제시한 ATS의 목표 자본금은 1000억원 이상이다. 7개 주요 출자자외 출자를 원하는 증권사들의 수요를 알아본 결과 약 30곳의 증권사들이 참여 의사를 밝혔다.ATS는 지난 2013년 자본시장법 개정 이후 설립 근거가 마련됐지만 9년이 지난 지금까지 한 곳도 출범하지 못하고 있다. 2016년엔 기준 거래량을 증권시장 전체의 5%에서 15%로, 개별종목의 경우 10%에서 30%로 규제를 완화했음에도 유동성 확보 우려 등으로 답보 상태에 머무르는 실정이다.증권업계는 대체로 ATS 도입에 긍정적인 반응을 보이고 있다. ATS가 설립되면 한국거래소 독점체제에서 경쟁체제로 변모하면서 수수료 인하와 거래시간 연장, 빠른 매매체결이 이뤄지면서 거래량 확대에 도움이 될 것이라는 예상이다.지분 투자를 결정한 한 대형 증권사 관계자는 "기존에 있던 거래소를 포함해 영업할 수 있는 공간이 하나 더 늘게 되는 등 장점이 있다"고 말했다.또한 주주로 참여할 경우 ATS 운영과 관련해 의견을 개진할 기회가 있을 것이란 기대도 있다. 다른 증권사 관계자는 "지분을 갖게되는 건 영향력을 행사할 수 있다는 의미"라며 "새로운 판에서 '룰 메이커' 역할도 할 수 있을 것"이라고 전했다.'실익 있을까'...메리츠·토스 불참투자 실익에 의문을 갖고 ATS 설립에 참여하지 않기로 한 곳도 있다. 메리츠증권과 토스증권이 대표적이다.이들은 우선 투자 가치가 떨어진다고 판단한 것으로 보인다. 메리츠증권은 한국거래소의 지분을 5.83% 보유하고 있다. 앞서 2015년 아이엠투자증권을 흡수합병하며 두 증권사가 갖고 있던 지분이 통합된 것이다.그러나 여기서 나오는 배당수익은 연 100억원 미만에 불과하다. 지난해 한국거래소 매출액이 1조원을 돌파했지만 메리츠증권에 떨어진 배당금은 58억원에 그쳤다. 메리츠증권으로선 거래소의 상장 계획이 무산되며 사실상 자금이 묶인 상태다. 메리츠증권 관계자는 불참 사유에 관해 "내부적으로 논의한 결과 실익이 없다고 판단해 참여하지 않기로 했다"고 설명했다.메리츠증권 입장에선 더욱이 브로커리지(위탁매매)가 사업 수익에서 차지하는 비중이 낮아 참여 유인이 더 떨어진다. 올 1분기 순영업수익 4863억원중 브로커리지 수익은 171억원으로 4%에 불과하다. 국내 주식시장 매매 거래 점유율 1위인 키움증권의 브로커리지 비중이 69%에 달하는 것과 비교하면 매우 낮다. 작년에 매매 거래 서비스를 개시한 토스증권의 경우 ATS 설립 참여를 두고 '시기상조'라는 판단을 내렸다.토스증권 관계자는 "국내 주식 서비스를 시작한 지 1년 밖에 되지 않았다"며 "일단 시장점유율을 높인 다음에 참여를 고려하는 게 맞는 순서라고 판단했다"고 전했다. 마찬가지로 매매 거래 서비스를 시작한 지 얼마 안 된 카카오페이증권을 비롯한 일부 중소형 증권사들은 참여 여부를 고민하고 있다.카카오페이증권 관계자는 "가이드라인 등이 정확하게 나온 다음에 검토해 볼 예정"이라고 말했다. 증권사 대상 수요 조사가 막바지에 이른 가운데 자본시장혁신과제 태스크포스 TF에서는 증권외 여타 업종의 참여 의사 타진을 고려 중이다. ATS에서 거래 가능한 상품군이 주식 외에도 상장지수펀드(ETF), 증권화 상품 혹은 가상자산까지 확대될 가능성이 있는 만큼 전통 증권외 여타 업종을 두루 살피고 있는 것으로 보인다. 이와 관련해 김영돈 금투협 자본시장혁신TF 부장은 "증권 외 다른 업종의 주주 참여도 검토하고 있지만 업종을 구체화하진 않은 상황"이라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2022.06.10.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>[이슈진단+] 토스 "보험설계사 고객 정보 유료조회, 보완할 것"</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002259262?sid=105</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>"무분별한 거래 없어"토스는 최근 개인정보 판매 논란과 관련해 개인 정보가 보험설계사에게 유료로 제공되는 경우, 고객이 알 수 있도록 서비스를 보완하겠다는 방침을 10일 밝혔다.토스 측은 "현재 상황을 책임감 있게 받아들이고 고객 관점에서 서비스를 더욱 발전시켜 나가기 위한 계기로 삼겠다"며 "고객 관점에서 상담과정을 보완하겠다"고 말했다.토스는 '내 보험' 서비스 중 보험 상담 선택 시, '설계사가 유료로 고객 정보를 조회한다'는 점을 동의 과정에 명시한다는 계획이다. 현재는 개인정보 제3자(설계사) 제공 동의만 받았으며, 이 정보가 설계사에게 유료로 넘어간다는 점은 알 수 없었다.토스 로고이밖에 토스 측은 "개인정보가 무분별하게 거래된다는 점은 아니다"고 못박았다.토스 애플리케이션(앱)서 제공하는 보험 상담 서비스를 이용하기 위해, 고객은 개인 정보를 설계사에게 제공한다는 동의를 해야하며 이 정보는 일부 설계사에게 건 당 6만9천원에 판매됐다. 개인 정보를 유료로 사용한 설계사 수는 토스 집계에 따르면 600명 수준이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2022.06.08.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>세계문학전집의 명성 잇는다...민음사 고전 시리즈 '인문학 클래식' 출간</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006144362?sid=103</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>고대인의 상상력에서 모더니스트의 혁신까지 고전필독서 선별인문학 클래식 1~4권© 뉴스1(서울=뉴스1) 박정환 문화전문기자 = 도서출판 민음사가 세계문학전집의 명성을 이어갈 인문교양 고전 시리즈 '인문학 클래식'을 새롭게 시작한다.'인문학 클래식'은 문학, 역사, 철학, 예술 분야에서 교양으로서 반드시 읽어야 하는 고전들을 선별해 출간하는 연작이다.민음사는 '인문학 클래식' 시작에 맞춰 1권 오뒷세이아를 비롯해 2권 철학자의 위로, 3권 우울의 고백, 4권 메데이아를 동시에 펴냈다.'오뒷세이아'는 트로이 전쟁을 승리로 이끈 오뒷세이아가 고향으로 돌아가는 과정을 담아낸 호메로스의 서사시다. '철학자의 위로'는 고통이 우리에게 언제나 닥칠 수 있는 일이기에 스스로를 강건하게 함으로써만 고통을 이겨낼 수 있음을 보여준다.'우울의 고백'은 현대시의 창시자라 불리는 프랑스 시인 샤를 보들레르의 자서전이다. 마지막 4권 '메데이아'에는 표제작 메데이아를 비롯해 힙폴뤼토스, 엘렉트라, 알케스티스 등 고대 그리스의 극작가 아우리피데스의 대표작이 실렸다.민음사 관계자는 "고대인의 상상력에서 모더니스트의 혁신에 이르기까지 지금 우리가 누리는 문화적 유산의 창조자들이 감행했던 지적 모험에 동참하기를 권한다"고 밝혔다.◇오뒷세이아 인문학 클래식 1 / 호메로스 지음 / 김기영 옮김 / 민음사 / 2만6000원.◇철학자의 위로 인문학 클래식 2/ 루키우스 안나이우스 세네카 지음/ 이세운 옮김 / 1만5000원.◇우울의 고백 인문학 클래식 3/ 샤를 보들레르 지음/ 이건수 옮김/ 1만6000원.◇메데이아 인문학 클래식 4/ 에우리피데스 지음/ 강대진 옮김 / 1만6000원.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2022.06.15.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>"대기업엔 없는 개발 문화 '요기요'엔 있다"</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002259645?sid=105</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>홍일선 테크리더·김주현 커머스 개발자가 요기요 선택한 이유적지 않은 취업준비생들이 정보기술(IT) 플랫폼 기업을 선망하는 분위기다. 젊고 생기발랄하며 일하고 싶은 근무 환경이 조성돼 너도나도 입사하길 원한다. 연봉과 복지는 덤이다. ‘네카라쿠배(네이버·카카오·라인·쿠팡·배달의민족)’가 꿈의 직장으로 분류되더니, 최근에는 ‘당토직야(당근마켓·토스·직방·야놀자)’가 추가됐다.이 기업들은 앱 기반 서비스 중심이라, 공통으로 모두 개발자에 힘을 준다. 개발자는 회사 직원들과 이용자 수요에 맞춰, 능력을 뽐내야 한다. 배달의민족, 쿠팡과 삼파전 구도를 그리며, 시장 선두 다툼을 벌이고 있는 요기요는 개발자에 ‘진심’이다. 수시로 개발자들 대상으로 설명회를 개최하고, 의견을 수렴한다.작년엔 파이썬에 이어, 자바(JAVA)까지 채용 범위를 확대했다. 상반기 세 자릿수 개발 인재를 확보해, 연구개발(R&amp;D) 센터 규모를 최대 1천명으로 키워갈 방침이다. 현재 요기요 임직원 세 명 중 한 명은 개발자다. 개발자를 중요시하는 요기요에, 어떤 개발 문화가 구축했는지 궁금했다.왼쪽부터 요기요 홍일선 인테그레이션 스쿼드 테크리더, 김주현 커머스 스쿼드 개발자.지디넷코리아는 지난달 26일 서울 서초구 요기요 본사에서 두 명의 개발자를 만났다. 요기요 안 서비스들을 연결하고, 내외부를 하나로 통합하는 홍일선 인테그레이션 스쿼드 테크리더(Integration Squad Tech Leader)는 삼성전자에서 10년 가까이 적을 둔 백엔드 개발자다. 대기업 출신이다.홍일선 테크리더가 요기요에 합류한 건 지난해 7월. 국내 최고 기업 소속 직함을 내려놓고, 요기요를 선택한 이유를 조심스레 물었다. 정답은 간단했다. 홍 테크리더는 ‘대기업스러운’ 게 싫었다. 같은해 11월 요기요 일원이 된 김주현 커머스 스쿼드 개발자도 배울 게 많은 곳으로 본인 회사를 평가했다.“요기요, 자기 주도적으로 일하며 보람 느끼는 곳”Q. 요기요에 어떤 매력을 느꼈는지.홍일선 테크리더(이하 홍): 전 직장은 제조회사였다. 코로나19 확산 후 IT 업계 방향이 급속도로 변하고 있단 걸 느꼈고, 서비스 개발로 또 다른 가치를 창출하고 싶었다. 한창 뜨고 있는 커머스, 배달에 시선이 갔다. 기술 결정 권한이 있었으면 좋겠다고 생각했는데, 요기요가 여기에 부합했다.Q. 자율적인 업무 분위기란 얘긴지.홍: 대개 개발자를 뽑을 때, 특정 분야에 한정한다. A부서에선 A 관련된 일만 집중한다. 요기요는 달랐다. 비교적 광범위하게 인력을 영입해, 다양한 일을 펼칠 수 있도록 한다. 큰 기업에선 보안 이슈로 오픈소스 사용이나 오토스케일링, 가상머신(VM) 기반 기술을 사용하는 데 제동이 걸린다.또 직군이 올라갈수록, 개발보다 경영 쪽으로 무게추가 옮겨진다. 요기요는 이런 이슈에서 자유로웠다. 개발자가 원하는 기술을 세밀히 연구하고, 이를 서비스로 녹여낼 수 있다. 자기 주도적으로 일하며 보람을 느낄 수 있는 곳이다.홍일선 테크리더.김주현 개발자(이하 김): 홍 테크리더 말에 90% 이상 공감한다. (웃음) 면접 당시 (홍 테크리더가) 면접관이었는데, 느낌이 좋았다. ‘좋은 개발자가 많으니 꼭 오라’고 했다. 요기요를 선택한 이유다. 배달 산업 성장과 확장 가능성에 대한 기대감도 있었다.일정한 트래픽에 개발 노하우를 공유할 수 있는 경력자들이 많길 원했다. 의외로 개발 능력은 출중하지만, 이를 동료들과 나누는 데 더딘 개발자들이 많다. 요기요에선 이런 고민 없이, 역량을 학습할 만한 분들이 부지기수였다.“요기요 개발자, 고객과 자영업자 등 모든 이해관계자 중요시”Q. 요기요 개발자로서, 특히 중요시하는 부분은.홍: 요기요는 배달앱이다. 고객에게 주문한 음식을 안전하게 전달해야 한다. 24시간 중단되면 안 된다. 개발자는 다만, 그 이상을 살펴볼 필요가 있다. 소비자 외 자영업자, 배달원(라이더), 배달대행 업체 등 이해관계자가 다양하다.서비스 계속성도 중요하지만, 개별 종사자들을 한데 모아 운영돼야 한다. 특별히 한 부분에 강조점을 두기보다, 요기요와 함께하는 모든 사람이 충족할 수 있는 서비스로 개발돼야 한단 얘기다.김: 같은 생각이다. 서비스 안정성에 우선순위를 두되, 요기요 고객과 자영업자 등을 위해 문제가 발생할 때 신속한 반응과 피드백이 수반돼야 한다. 가령 요기요 포트폴리오가 음식점에서 편의점, 마트로 확장하고 있다. 이 경우 다채로운 메뉴를 최신화하는 속도를 줄여, 점주에게 편의성을 가져다줄 수 있다.“돈도 벌고, 코드 리뷰도 받는다”Q. 요기요만의 차별화한 개발 문화를 소개해달라.홍: 너무 많다. (웃음) 서비스 플랫폼 특성상, 시시각각 변하는 소비자 요구에 부합해야 하기 때문이다. 먼저 다양한 직군 개발자가 팀으로 뭉쳐, 개발 초기부터 서비스 출시까지 전 과정에 참여하게 된다. 개발자로서 역량을 쌓아가는 데 최적화했다.'코드 리뷰'도 있다. 신입부터 연장자까지, 전 개발자가 서로 코드에 관해 묻고 답하는 체계다. 돈도 벌고, 자신의 코드에 대한 여러 시각과 얘기를 들을 수 있다. 애자일 스프린트 문화 역시 빼놓을 수 없다. 스프린트 기간 뭘 했는지, 본인이 기여한 바가 무엇인지 확인할 수 있다.김주현 개발자.김: ADR(Architecture Design Review)이 인상 깊었다. 개인이 진행한 코드 설계를 사내 전 백엔드 개발자에게 공개하고, 어떤 고민을 했는지 전하며 견해를 듣는다. 성장에 도움이 된단 느낌을 강하게 받았다. 신입 개발자도 목소리 낼 수 있는 시스템이다."'개발자 모시기' 추세 계속될 것"    Q. IT 업계 개발자 모시기 추세, 지속될까.홍: 사용자 눈높이가 올라갔다. 일정 수준에 부합하지 않으면, 앱 자체를 실행하지 않는다. 사용자경험(UX)에 있어, 불편함을 느낀다면 다른 앱으로 이동할 것이다. 따라서 개발자 수요는 계속해서 늘 거다. IT뿐 아니라 전 분야에서 이런 바람이 불고 있다.Q. 개발자로서 목표가 있다면. 홍: 사용자 삶에 도움이 되는 서비스를 꾸준히 제공하고 싶다.김: 거창한 지향점은 사실 없다. 즐겁게 개발하고, 이용자 효용성을 제고하면 된다.Q. 홍 테크리더가 보는 요기요 개발자 필수 덕목은.홍: 개인이 가진 기술력을 교류하며 구성원, 회사와 동반 성장할 수 있는, 즉 열린 사고를 지닌 개발자들이 합류하길 바란다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2022.06.02.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>토스뱅크, 글로벌 신용카드 데이터 보안인증 획득</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004972487?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>토스뱅크가 글로벌 신용카드 데이터 보안인증인 '지불카드업계 정보보안표준(PCI-DSS)' 인증을 획득했다고 2일 밝혔다.PCI-DSS 인증은 개인정보·카드번호 등 정보가 전송되는 과정에서 그것들을 안전하게 보호하고 있는지를 검증하는 보안인증 체계다. 비자, 마스터카드, 아메리칸익스프레스 등 6개 국제브랜드 카드사가 공동으로 카드정보 해킹, 도난, 분실 등의 사고로부터 고객의 신용카드 정보를 보호하기 위해 마련했다. PCI-DSS 인증은 레벨 1부터 4까지의 등급이 있다. 토스뱅크는 이번에 최상위 등급인 레벨 1을 받았는데, 국내 은행권 중 레벨 1은 최초라고 토스뱅크는 설명했다. 심사는 'PCI 보안표준위원회'로부터 인증심사 기관으로 지정받은 브로드밴드시큐리티 한국지점이 심사를 진행했다.토스뱅크는 이번 인증 심사에서 ▲카드 소유자 데이터 및 민감한 데이터의 저장, 전송, 처리 절차 ▲카드 결제 프로세스 안정성 ▲정보보호 대책과 시설 및 설비 운영/보안관리 절차 등 총 12개 분야 412개 세부 항목에 대해 평가를 받았다. 앞으로도 토스뱅크는 분기마다 이 인증 준수 여부를 검토받는다.토스뱅크 관계자는 "급변하는 사회에서 새로운 위협과 기술에 적극 대응하고 보안성과 안정성을 계속 강화해나가겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2022.06.03.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>[최진태의 요가로 세상 보기] 66. 영혼을 깨우고 개벽을 알리는, 수탉 자세</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001158631?sid=103</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>수탉 자세(kukuta asana)는 연화좌를 취한 후 허벅지와 장딴지 사이로 양손을 깊숙이 끼워 넣는다. 바닥을 손으로 짚고 엉덩이를 위로 들어 올리면서 몸을 허공으로 띄운다. 팔과 어깨의 근력을 높이고 균형 감각이 향상되며 내장 기능을 활성화한다. 시연 김덕선.삼국유사에 의하면 석탈해왕 시절 김알지 신화에 닭이 등장한다. 시림(始林) 숲 나무에 황금 궤가 걸려 있었는데, 그 밑에서 흰 닭이 울었으며 그 황금 궤 안에서 아이가 나왔느니 성을 김 씨라 하고, 그가 왕이 되어서 국호를 계림(鷄林)이라 하였다.이 신화에서처럼 닭 울음소리는 캄캄한 어둠 속에서 여명을 알리는 신호로 여겨졌다. 닭은 빛의 도래를 예고하는 태양의 새라고 생각했기 때문이다.신라는 이처럼 닭을 귀히 여긴 나라여서 그러한지 인도에선 신라를 일컬어 ‘쿠쿠타 예설라’라고 불렀다고 한다. 범어로 쿠쿠타는 닭, 예설라는 귀하다는 의미다. 요가에서 ‘쿠쿠타 아사나(kukuta asana)’는 ‘수탉 자세’라는 뜻이다.닭은 5000년 전만 해도 훨훨 날아다녔다. 억센 날개를 펼친 채 공기를 갈랐고 날카로운 발톱으로는 들쥐 등을 낚아챘다. 닭이기 전에 새였다고 할 수 있다. 어둠을 뚫고 새벽을 열기에 상서로운 새였으며 태양을 부르고 날마다 새로운 세상을 일으켜 세우니 영물 중에 영물이라 하였다. 그건 일종의 희망 심벌로 대변되었다. 닭은 야맹증 환자지만 대신 빛에 민감하다. 그래서 인간이 감지 못 하는 빛을 눈과 피부로 알아챈다. 빛을 느낄 때 그들은 기꺼이 울음을 터트린다. 동틀 녘 혈액 농도가 높아지면서 발생하는 일종의 생리 현상인 셈이다.대한민국 정부 수립 시 맨 처음 나온 담배 이름이 1948년에 나온 당시 돈 30원 하는 ‘계명’(鷄鳴)이었다. 대한민국 지도 위에 수탉을 그려 새날이 밝았음을 알리며 새 정부 탄생을 축하했다. 담뱃갑에는 ‘대한민국 정부 수립 축하 기념’이라고 쓰여 있었다.예로부터 반가운 손님이 오면 닭을 잡는 것이 최고의 손님 대접이었다. 백년손님이라는 사위가 처가에 가면 꼭 잡아 주던 것이 씨암탉이었다. 결혼식 초례상에도 반드시 닭이 필요했다. 신랑·신부가 초례상을 가운데 두고 마주 서서 백년가약을 맺을 때, 닭을 청홍 보자기에 싸서 상 위에 놓았다. 닭에게 큰절을 올린 뒤라야 비로소 신랑·신부는 합방할 수 있었다.일생에서 가장 중요한 의례인 혼례에 닭이 등장하는 것은 닭이 사악한 기운을 물리쳐 주는 길조라고 여겼기 때문이다. 물론 전통 농경사회에서 중시하였던 다산(多産)의 의미도 컸다. 5세기경 고구려인들의 각종 생활과 풍속을 알 수 있는 그림들이 풍부한 민속 연구의 보고인 무용총 수렵도 천장에 나오는 수탉 그림은 탁월한 묘사력과 넘치는 기운으로 우리나라 고대에 그려진 닭 그림 중 가장 수작으로 평가되고 있다.닭의 볏은 문(文)을, 발톱은 무(武)를, 용감하게 적과 싸우니 용(龍)이고, 먹이를 보면 무리를 불러 먹이니 인(仁)이요, 빠짐없이 제때 새벽을 알리니 신(信)까지 두루 갖추었다지. 이를 일러 닭이 지닌 다섯 가지 미덕이라 일컫는다.고대 인도어 중의 하나인 팔리어로 된 밀린다왕조 나가세나는 수행자가 배워야 할 수탉의 다섯 가지 특징 중 수탉이 먹는 것을 찾기 위해 끊임없이 땅을 파듯이 성실한 수행자는 항상 자기성찰과 경계를 게을리하지 말 것을, 수탉이 눈을 갖되 밤에는 앞을 보지 못하듯이 진지한 수행자는 감각을 유혹하는 모든 것을 볼 수 없어야 하며, 수탉이 설사 박해를 받아도 자기 집을 떠나지 않듯이 성실한 수행자는 의식주 문제를 비롯한 모든 일상적 의무와 관계없이 자신의 집인 마음의 평온에서 결코 떠나지 않아야 된다고 강조했다.닭의 울음소리는 개벽의 소리다. 건국 신화에 닭이 출현하는 이유도 태초의 소리로 새 시대를 깨우는 임금의 탄생을 의미하기 때문이다. 이런 상징성에 기대어 선승들은 닭 울음소리를 인간을 일깨우는 소리로 종종 비유하곤 했다.서산대사는 젊은 시절 지리산 암자를 전전하며 정진하던 중 한낮에 닭 우는 소리에 자신의 진면목을 깨닫게 된다. 오도송(悟道頌)이 탄생하는 순간이다. “머리는 세어도 마음은 늙지 않는다고/ 옛사람이 이미 말했네/ 오늘 닭 우는 소리 들으니/ 대장부 할 일 마쳤네.”천수경에서 닭은 중생의 고통을 덜어주는 군다리보살의 화신으로 불린다. 군다리는 감로병(甘露甁)이란 뜻으로 군다리보살은 늘 감로병을 들고 감로수를 뿌리면서 중생을 구제한다. 군다리보살이 싸우는 대상은 우리들 마음속에 숨어있는 탐·진·치 삼독심(三毒心)이다. 그래서 옛 조상들은 닭을 통해 나태와 방일과 타협하지 않는 주체성을 다짐했다.석가는 샛별을 보고 깨달음을 얻었고, 예수는 자신을 광명한 샛별이라고 했다. 샛별은 어둠 속에서 빛나는 계명성(啓明星)이다. 갈 길을 잃고 헤매는 영혼에게 환하게 길을 밝혀주는 진리의 빛이다. 베드로는 예수가 십자가에 못 박히자 그를 세 번이나 부인하다가 여명의 닭 소리를 듣고서 통곡했다. 그는 계명성(鷄鳴聲)을 들은 것이라고 할 수 있다.와인 좋아하시는 분들은 ‘도전과 새로운 발견을 의미하는 선물’로 주로 이용되고 있다고 하는 ‘키안티 클라시코 와인’을 기억하시리라. 와인 병목에는 수탉 문양이 그려져 있는 것이 특징이다. 이 와인병의 수탉 문양에 얽혀 있는 재미있는 에피소드가 전해진다.이탈리아 피렌체와 시에나 사이 키안티 클라시코 지역의 언덕에 자리한 이곳은 고지대라 한 때 군사 전략적 요충지였다. 토스카나 지역의 맹주 자리를 놓고 이 지역에서 피렌체와 시에나가 치열한 전투를 벌이다가 닭을 한 마리씩 준비하여 먼저 아침에 우는 쪽이 승리한 것으로 하기로 하였다. 두 지방 모두 동의하고 피렌체에서는 닭을 굶기고, 시에나에서는 배불리 먹인다. 결국 배가 고픈 닭이 먼저 울음을 터트렸고 피렌체가 승리하였다. 이처럼 키안티 클라시코 와인의 수탉 문양은 평화의 상징이자 전장(戰場)이었던 키안티 클라시코 지역을 의미하는 표식이 되었다.영화 해리포터에 나오는 수탉 머리에 뱀의 모습을 한 거대한 바실리스크에게 치명적으로 작용하는 동물의 울음소리는 역시 수탉의 울음소리였다나.황순원의 단편소설 ‘소나기’에서 소년은 윤초시네 외손녀인 소녀를 좋아하는데 윤초시네 제사 때 암탉을 가져가려는 아버지에게 덩치가 큰 수탉을 가져가라고 말한다. 암탉이 더 실속 있다는 아버지 말에, 소년이 쇠잔등을 때린 이유는 자신의 마음을 아버지에게 들킨 것 같아 쑥스러운 마음을 해소하기 위한 행동이었다. 얼굴 붉히며 수줍어하는 소년의 모습이 눈에 잡히는 듯하다. 우리에게도 그런 시절이 있었던가.김유정의 단편소설 ‘동백꽃’에서도 수탉이 등장하는데 닭싸움을 통한 두 남녀의 대립은 사뭇 긴장감을 느끼게 한다.전래동화 ‘수탉과 돼지’에서 해가 떠도 잠에서 깨어나지 못하는 사람들을 위해 노래를 불러 아침을 알려준 수탉 어미는 상으로 빨간 볏을 달아주고, 잘생긴 자신의 코가 다치기라도 할까 봐 놀기만 한 돼지에게는 벌로써 코를 납작하게 눌러버린다는 얘기도 재미있다.인간은 아직도 닭살이 돋는 멘트를 연인 간 날리며 애정 고백을 하고 있고, 이별 시에는 때론 닭똥 같은 눈물을 흘리기도 한다. 또한 닭은 인간에게 단백질의 공급원이기도 하다. 동양의학 차원에서 닭의 노린내와 구수한 맛은 특히 간 기능을 보하는 역할을 한다. 닭의 고기와 알은 곡식을 먹는 인간에게 부족한 필수 아미노산이 풍부하다.인간은 온갖 방법을 동원해서 닭을 생으로도, 삶아서도, 심지어 갈아서도 먹는다. 어린 건 연하다고, 늙은 건 쫄깃한 맛에 드신단다. 가리는 부위도 없다. 뼈는 푹 고아 육수로, 모래주머니인 닭똥집은 구워서, 닭발은 양념을 발라서 기꺼이 맛있게 잡수신다. 그리고 누가 조조의 계륵(鷄肋) 타령을 늘어놓는가?쓸모는 없는데 버리긴 아까운 게 닭갈비라고? 모르시는 말씀. 닭갈비 역시 닭의 작은 심장을 보호하는 소중한 부위인 것을.육류 가운데 종교적 문화적 금기(taboo)가 가장 적은 게 닭고기다. 무슬림이 돼지고기를, 힌두는 소고기를 안 먹지만 닭고기만은 예외다. 닭이 인류의 주된 단백질 공급원이 된 것은 우선 경제적이어서다. 소를 키우는 데 시간과 비용이 많이 들고 고기보다는 가죽 등 다른 쓸모가 많았다. 더구나 돼지나 소와 달리 인간과 먹이를 두고 다투지 않는다는 큰 장점이 있다. 게다가 빨리 자라고 달걀마저 공급해 주니 일석이조다.술 ‘주(酒)’자를 보시라. 닭(酉)이 물(水)을 먹는 것처럼 천천히 마시라는 뜻이 담겨 있다. 그런 술 특히 맥주와 최고의 궁합이 바로 치킨이 아닌가? 이름하여 그 유명한 ‘치맥’이다.2013년에 개봉한 SBS 드라마 ‘별에서 온 그대’는 14년 만에 드라마에 복귀한 천송이 역의 전지현이 도민준 역 김수현과 주역으로 등장한다. 지난 20년간 방송 한류를 이끈 대표 콘텐츠로 ‘대장금’과 ‘겨울 연가’ 그리고 ‘별에서 온 그대’가 선정된 적 있다.천송이 역의 전지현이 “비 오는 날엔 치맥인데”라는 대사 한마디로 ‘치맥’은 일본을 비롯하여 동남아시아 특히 중국인들에게 최고의 한류 식품으로 자리 잡을 정도로 인기를 끈 적이 있다.그러고 보니 한국인의 치킨 사랑도 치킨 보급과 궤를 같이했다. 1977년 최초 프랜차이즈인 ‘림스치킨’이 프라이드치킨을 선보였다. ‘시장통닭’의 진화였다. 1981년 페리카나의 ‘양념치킨’도 나왔다. 원조 격인 미국 ‘KFC’가 1984년 한국에 진출한다. 요즘은 그 여세로 가히 치킨공화국이라는 말을 들을 정도이지만.그러나 매사가 과유불급, 과음과 과식을 경계해야 할 것이다. 특히 퓨린 성분이 많이 함유된 식품의 과식은 통풍(痛風)을 야기할 수도 있다니 말이다. 과도한 나트륨(na) 성분 역시 신경이 쓰임을 어이하리.필자가 오래전 원주 군부대에서 교관으로 근무할 때 가끔씩 들렀던 원주 ‘태장동 시장통닭’ 맛은 아직도 입맛을 다시게 한다. 꿈같은 청춘의 푸른 시절, ‘시장통닭’에 맥주 한 잔 곁들이며 때로는 호기인지 객기인지 치기인지도 부려보며 미래를 꿈꾸었던 그 시간들이 지나고 보니 ‘화양연화(花樣年華)’였구나 하는 생각에 더욱 잊히지 않는 듯.닭 하면 인도 음식점에서 먹는 인도 커리와 탄두리 치킨 맛을 어이 빼놓을 수 있을까? ‘당신이 먹는 것이 바로 당신이다(아타 야남 타다 마나)’라는 말이 있을 정도다. 인도의 음식들은 사람과 음식과 향의 어울림이다.인도의 문화를 담고 있는 다양한 음식 가운데 인도의 길거리 시장에서 흔히 볼 수 있는 탄두르(tandoor·화덕)에서 구워내는 요리들이 있는데 그중에서도 ‘탄두리 치킨’은 커리(curry)와 더불어 인도의 독특한 음식문화를 보여주는 대표적인 아이콘이다.요구르트에 절인 고기에 각종 향신료, 마살라 향을 첨가한 후 이 탄두르에 넣어 기름을 쪽 빼서 구워낸 것으로 그 맛 또한 일품이다. 인도에서 탄두리 치킨은 단지 식사만을 위한 음식이 아니다. 축제나 잔칫날 어울리는 메뉴로 결혼식 같은 특별한 날에 빠지지 않고 등장한다.닭은 민간신앙에서도 더욱 상징화된 채 운용되었다. 닭이 달걀을 낳고 달걀은 닭이 되는 원리를 따라 닭은 재생적 동물로 신앙되었다. 지속적인 반복 속에 끊임없이 새 생명이 탄생하는 닭은 영원한 생산원의 동물로 여기기에 충분하였다. 이러한 닭에 대한 믿음은 보편적인 영원한 삶을 바라는 인간의 소망을 반영하는 것이었다.닭은 민요의 소리로도 많이 등장하는데 “닭아 닭아 우지 마라 네가 울면 날이 새고, 날이 새면 나 죽는다”는 심청가에 나오는 한 대목이다.비름과에 속하는 맨드라미는 닭 볏과 비슷한 꽃부리 모양 때문에 계두화(鷄頭花) 또는 계관화(鷄冠花)라고도 불린다.사실 닭은 작은 공룡이라 할 수 있다. 2007년 한 연구팀이 6800만 전에 살았던 공룡에서 추출한 단백질과 닭의 단백질이 같다는 점을 밝혔다. 닭의 직접적 조상은 적색야계(red jungle fowl)라는 고고하고 예민한 족속이었다. 이것이 약 5000년 전 동남아시아의 밀림에서 인간의 곁으로 왔다고 한다.삼국유사 권3 ‘금관성 파사석탑조’에는 수로 왕비인 허왕옥이 서역 아유타국에서 싣고 왔다는 파사석탑에 희미한 붉은 무늬가 있는데 이것은 닭 볏의 피를 찍은 것이라는 내용이 있다. 파사석탑은 범어로 바사석탑이라고 한다. 북극성을 뜻하는 파사에서 음을 빌려와 생긴 명칭인 것으로 알려져 있다.도인들의 수행처로 유명한 계룡산도 닭과 관련되어 있다. 천황봉을 중심으로 연천봉, 문필봉, 삼불봉, 관음봉 등 엇비슷한 높이의 봉우리들이 늘어선 모습이 마치 닭 볏을 쓴 용을 닮았다는 것이다.앞서 잠시 언급한 것 외에도 전 세계적으로 닭에 얽힌 신화나 에피소드 등이 많이 존재한다. 그리스 신화에서도 닭이 새벽에 우는 이유를 재미있게 설명하고 있다.군신 아레스가 미와 사랑의 여신이며 여성의 성적 아름다움과 사랑의 욕망을 관장하는 아프로디테의 남편인 헤파이토스가 부재중인 틈을 타서 그녀와 밀애를 즐기던 날, 아레스는 알렉트라온 수탉으로 하여금 문을 지키게 했지만 알렉트라온이 잠들어 버렸고 두 사람은 집에 돌아온 헤파이토스에게 발각되었다. 아레스는 알렉트라온을 벌하여 수탉으로 만들고 그때부터 수탉은 새벽의 전령이 되었단다.페르시아의 배화교 경전인 ‘젠드 아베스타’는 수탉의 울음이 악마를 쫓아 버린다고 말한다. 또한 수탉은 악마와 마법사에게 저항하기 위해 창조됐다고도 한다. 그러나 켈트족에게는 수탉이 육욕과 간통, 근친상간, 이기심, 반항의 상징이었다. 로마에서는 수탉이 아침에 우는 소리로 전쟁의 결과를 예측했으며 그를 신탁의 전달자라 생각했다.기독교인의 묘비에 새겨진 싸우는 두 마리의 수탉은 박해받던 시절의 용기를 나타낸다.중국인들은 찬란한 태양을 깨워 어둠을 몰아내는 것이 수탉의 의무라고 생각했으며, 그것은 밝은 빛을 두려워하고 밤의 악령들이 달아날 것이라는 신호이기도 했다.또한 수탉은 남성 원리를 나타내는 양(陽)의 기본적 상징이며, 따뜻함과 우주의 생명을 나타냈다. 도교나 불교에서는 한 해의 액운을 막아주는 부적으로도 사용됐다.티베트의 ‘생명의 바퀴’ 속에는 수탉과 뱀과 돼지 세 가지 동물이 있다. 이들은 탐욕과 분노와 무지라고 하는 에고의 세 가지 원동력, 즉 삼독(三毒)을 나타낸다. 이 동물들이 서로의 꼬리를 물고 있는 모습은 그런 부정적인 힘들의 상호 의존적 악순환을 상징적으로 표현한 것이다.프랑스 민족은 켈트족, 그중에서도 고대 갈리아족에 뿌리를 두고 있다. 갈리아라는 말에는 수탉의 의미가 포함되어 있다. 라틴어 갈루스(gallus)가 닭과 갈리아족 갈리아를 동시에 의미함으로 닭이 오랫동안 프랑스를 상징하는 새로 존재해 왔는데, 희망과 믿음을 상징한다. 나폴레옹 시절 닭은 힘없는 새이므로 프랑스 같은 제국을 상징할 수 없다고 배격하기도 했지만, 현대에 와서는 닭을 민족적 상징으로 삼는 데 이견이 없다. 특히 스포츠 행사를 할 때 많이 등장한다.1908년 프랑스 월드컵 당시 닭은 ‘푸틱스’라는 이름으로 마스코트 역할을 했다. 2002년 월드컵 때 프랑스 선수들은 수탉 유니폼을 입고 출전했다. 현재 프랑스 축구협회의 상징이며 대통령 관저 엘리제궁 장식 등에서 수탉을 찾아볼 수 있다.칵테일은 영어로 ‘cocktail’ 즉 수탉의 꼬리이다. 이 어원에 대한 설은 몇 가지 있으나 그중의 하나는, ‘술집 주인의 딸과 연인 관계인 사내가 결혼 허락을 받으려고, 작전상 미래의 장인과 주사위 게임을 하던 중 주인이 매번 게임에 패하자 분위기가 싸늘해졌다. 주인이 주사위를 던질 때 갑자기 수탉이 울어 놀라서 손을 멈췄는데 그때 나온 주사위 눈으로 게임이 역전되면서 기분이 좋아진 주인이 둘의 결혼을 허락하게 되었단다. 게다가 수탉의 꽁지깃을 주워 술을 저어서 장인과 딸과 셋이 축배를 들었다는 데서 기원했다’는 믿거나 말거나 하는 스토리도 흥미롭다.(필자가 조금 각색함)피카소의 목탄 소묘인 ‘수탉(The Rooster)’은 1938년 작으로 유명하다. 수탉의 공격성과 뻔뻔스러움, 우둔함을 표현했다고 한다.마르크 샤갈의 수탉 역시 빼놓을 수 없다. 한쪽 발로 팔레트를, 깃털에서 나온 손으로는 붓을 움켜쥐고 그림을 그리는 수탉이 샤갈 자신을 은유하고 있는 자화상이기도 한 작품이다. 사랑하는 연인들과 함께 등장하는 수탉은 다산과 부, 욕망과 정욕을 상징하기도 한다.한편 검은 닭은 악마의 동물이라고 생각되는 경우가 있어서, 괴테 파우스트의 에피스토텔레스처럼 가끔 악마는 검은 닭의 깃털을 띤 모습으로 등장한다.프랑스 파리 태생의 작곡가 생상스의 ‘동물의 사육제’는 여러 동물의 특징을 재미있고도 풍자적으로 표현한 음악으로 14개의 독립된 곡으로 이루어져 있는 모듬 곡이다. 그중 제2 곡이 ‘수탉과 암탉’이다. 닭이 모이를 쪼고 있는 모습을 스타카토로 표현하고, 닭이 우는 소리를 악센트로 나타냈다.수탉 자세(kukuta asana)는 연화좌(파드마 아사나)를 취한 후 허벅지와 장딴지 사이로 팔꿈치가 빠져나올 만큼 양손을 깊숙이 끼워 넣는다. 바닥을 손으로 짚은 채 엉덩이를 위로 들어 올리면서 몸을 허공으로 띄운다. 고개를 들어 정면을 응시하려고 노력하며 오직 팔의 힘만으로 신체의 균형을 잡는다.팔과 어깨의 근력을 높이고 균형 감각이 향상되며, 복부 압력을 높여 내장 기능을 활성화시키는 효과가 있다. 손목과 복부 내벽을 강화시킨다. 강한 집중력과, 회음부 위의 물라다라 차크라를 자극함으로써 ‘쿤달리니 샥티’를 자극하여 원초적인 에너지를 일깨우게 한다.쿠쿠타 아사나를 행하며 나는 너무 자신만만하여 힘과 균형의 조화를 무시하고 있지는 않은지, 나름의 강한 자긍심과 아집이 겸손함과 유연함·관대함을 짓밟고 있지는 않은지, 쉽게 굴하지 않는 용기가 언제 상대를 향한 분노와 공격성으로 바뀌지는 않는지, 끊임없이 흔들어대는 온갖 세파와 도전(challenge)에 슬기롭게 대처하며 응전(response)하고 있는지, 그런 가운데에서도 부동심(不動心)과 평정심(平靜心)은 얼마나 의연하고 꿋꿋하게 유지할 수 있는지도 되돌아볼 일이다.수탉이 먹을 것을 찾기 위해 끊임없이 땅을 파는 것처럼 부단한 자기성찰을 게을리해서는 안되겠다. 올라가기는 어려워도 탑을 쌓기는 힘들어도, 무너지고 추락하는 건 한순간임을 잠시라도 잊어서는 안 되겠다.새벽을 밝히는 계명성(啓明星)은 닭 울음소리 계명성(鷄鳴聲)과 별반 다르지 않을 듯하다. 닭 울음소리는 어둠 속에 잠들어 있는 무명(無明·avidya)을 깨우는 도력을 지닌 닭, 도계(道鷄)님의 소리이며, 도계(道界) 선계(仙界) 천계(天界)의 소리이기 때문이다.그러므로 닭 울음소리는 자아(自我)라고 여겼던 마음이 빚은 환상의 껍질을 벗기고, 내 안에 깃든 참된 나, 진아(眞我)를 불러일으키는 깨우침의 소리다.이 기회에 우리 모두 이런 닭 울음소리에, 잠든 본성을 깨워 고귀한 영혼인 내 속의 참된 나 아트만(眞我·atman)과 마주했으면 좋겠다. 시대의 흐름이 비대면(非對面)에서 대면(對面)으로 바뀌는 추세를 타고서.[오, 쿠쿠타님 / 최진태]캄캄한 어둠 뚫고 여명을 알려온다/ 빛의 도래 예고하는 태양의 새 그대로다/ 희망찬 새로운 세상 매일매일 열어주는닭살돋는 멘트일랑 닭똥같은 눈물까지/ 연인과 치맥하며 알콩달콩 사랑놀이/ 씨암탉 대접 받았던 전설같은 그 시절도새벽을 밝힌다는 계명성(啓明星)이 샛별이라/ 새벽을 알린다는 닭울음 소린 계명성(鷄鳴聲)/ 아 그렇군 그 계명성이 이 계명성 그대 생큐나태 방일(放逸) 아니되오 끊임없이 먹이찾아/ 움직이는 그대처럼 부단한 자기성찰/ 무명(無明)을 걷어내시어 참된 나와 마주하길최진태 부산요가지도자교육센터(부산요가명상원) 원장</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2022.06.02.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>토스發 메기효과 2금융권까지…대출금리 인상 `발목`</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001035287?sid=101</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>중금리대출 경쟁에 금리 하락세  저축은행·카드론 금리 모두 하락  경쟁 심화될 경우 건전성 우려도&lt;앵커&gt;연일 대출금리 인상 소식이 들려오면서 금융소비자들의 부담 역시 커지고 있습니다. 결국 은행권 평균 대출금리는 4%를 넘어서기도 했습니다. 그런데 은행과 달리 대출금리가 오히려 낮아지는 `역주행` 현상이 나타나고 있는 경우도 있는데, 과연 어떤 이유 때문인 지 취재기자와 직접 이야기 나눠보겠습니다.경제부 장슬기 기자 나와있습니다. 장 기자, 요즘 같은 금리 인상기에 금리가 오히려 낮아지는 업권이 있습니까?&lt;기자&gt;네 있습니다. 바로 저축은행과 카드업권입니다.&lt;앵커&gt;저축은행 대출과 카드사의 대출, 즉 카드론 금리가 낮아지고 있다는 말인가요?&lt;기자&gt;네 맞습니다. 은행 대출금리는 가파르게 오름세를 보이면서 지난 달 평균 4%를 넘겼습니다. 특히 신용대출 금리 상승폭은 더 커서 4월말 기준으로 5.62%를 나타냅니다.그런데 은행 대출금리가 8년여만에 최고치를 찍은 것과 달리 저축은행 대출금리와 카드론 금리는 오히려 낮아지고 있습니다. 저축은행은 전월보다 대출 평균금리가 0.03%p 낮아졌고, 카드론도 0.28%p나 떨어졌습니다.&lt;앵커&gt;모든 시장금리가 오르고 있는데, 2금융권 대출금리만 낮아지는 이유가 있습니까?&lt;기자&gt;바로 중금리대출 경쟁때문입니다. 중금리대출은 주로 10% 안팎의 금리를 의미하는데요. 은행에서 돈을 빌리기에는 신용도가 낮지만, 그렇다고 고금리를 적용받기에는 신용도가 상대적으로 높은 중신용자들을 대상으로 한 대출을 의미합니다.일반적으로 은행에서 대출을 받지 못하거나 한도가 많이 나오지 않는 사람들이 2금융권을 찾습니다. 대표적인 게 저축은행, 그리고 정말 급전이 필요할 때는 카드론까지 사용하게 되죠. 기존에는 저축은행이나 카드사들도 시장금리가 오르면 이 흐름에 따라 금리를 같이 올렸는데, 지금은 새로운 경쟁자가 생기면서 이전처럼 금리를 올릴 수 없는 상황이 됐습니다.&lt;앵커&gt;금융권의 새로운 경쟁자라고 하면, 카카오뱅크와 같은 인터넷은행들 아닙니까?&lt;기자&gt;네 맞습니다. 카카오뱅크나 토스뱅크 등 인터넷은행들은 당초 설립 목적 중 하나가 `중금리대출 활성화`였습니다. 쉽게 설명을 드리면, 10% 안 쪽 금리의 대출은 시중은행들이 취급을 했고, 10% 초반부터 중후반까지 저축은행이나 카드사들이 취급을 해왔는데, 이 중금리 시장에 새로운 경쟁자, 인터넷은행들이 뛰어든 겁니다.특히 카카오뱅크와 토스뱅크는 중저신용자들을 대상으로 첫 달 이자지원 마케팅을 진행하거나, 자체 개발한 신용평가모형을 접목시키면서 고객들의 실질소득을 분석하고, 대출금리를 싸게 해주면서 고객 끌어오기에 나섰습니다.&lt;앵커&gt;인터넷은행들이 중금리대출시장에 이렇게 공격적인 모습을 보이는 이유가 있을까요?&lt;기자&gt;지난해 인터넷은행들은 중저신용자 대출 비중을 목표치에 맞추지 못 하면서 설립취지가 무색해졌다는 비판을 받기도 했습니다. 특히 이 목표치를 달성하지 못하면 신시장 진출 제한이라던가 금융당국의 패널티를 받을 수도 있기 때문입니다.때문에 인터넷은행들은 올해 특히 더 공격적으로 중금리대출 시장 확대에 나선 모습입니다. 대표적인 사례는 토스뱅크입니다. 조금 전에 언급했듯이 자체 신용평가모델을 활용한 토스뱅크는 인터넷은행 최초로 중저신용대출 비중을 35%까지 끌어올렸습니다. 금액으로는 총 1조4,185억 원 규모입니다.&lt;앵커&gt;저축은행이나 카드사 입장에선 마음이 조급할 수밖에 없겠네요.&lt;기자&gt;네, 인터넷은행들이 금리를 낮춰서까지 중금리 고객을 끌어오고 있기 때문에 저축은행과 카드사들이 대출금리를 마냥 올릴 수 없는 상황입니다. 시장금리 흐름에 따라 대출금리를 인상하면, 현재 중저신용자들을 대상으로 공격적으로 금리 마케팅을 하고 있는 인터넷은행들에게 고객을 빼앗길 수밖에 없기 때문입니다.특히 인터넷은행은 1금융권에 해당되고, 저축은행과 카드사들은 2금융권인 만큼 대출을 받았을 때 신용도에 미치는 영향도 다르기 때문에 경쟁력을 갖출 수 있는 부분은 결국 금리인 겁니다.&lt;앵커&gt;그렇다고 금리까지 낮춰가면서 대출을 해주는 건 건전성 차원에서 문제가 있지 않습니까?&lt;기자&gt;네 그렇죠. 하지만 10% 안팎의 금리를 적용받는 중신용자들은 사실 2금융권에선 우량고객에 해당됩니다. 10% 후반대 대출을 받는 저신용자들보다는 상대적으로 신용도가 좋은, 부실이 낮은 채권일 수밖에 없습니다.때문에 오히려 건전성 차원에서도 이들을 선점하기 위해 금리 경쟁력을 갖추는 것이 불가피한 상황인 겁니다.&lt;앵커&gt;중금리대출시장의 금리 경쟁이 소비자 입장에선 어쨋든 금리가 낮아지는 효과를 볼 수 있어 긍정적일 것 같은데, 금리 역행이 주는 부작용은 없나요?&lt;기자&gt;방금 말씀하신대로 만약 이런 현상이 장기화된다면 부실이나 수익성 우려가 있을 수 있다는 지적이 나오고 있습니다. 기준금리와 시장금리는 계속해서 오르는데, 일부 업권만 역행해서 대출금리를 내린다면 당연히 충당금 부담이 높아지고 역마진 우려까지 나올 수 있습니다.특히 수신 기능이 없는 카드사의 경우에는 채권을 통해 자금을 조달하는 구조인데, 조달 금리 역시 꾸준히 오르고 있습니다. 이렇게 되면 당연히 금리마진이 줄어들 수밖에 없겠죠.&lt;앵커&gt;그렇다면 이런 금리 역주행 현상이 길게 가지는 않을 것으로 관측되겠네요.&lt;기자&gt;네. 특히 올 하반기에도 추가적인 금리 인상이 점쳐지고 있는 만큼 이런 움직임이 장기적으로 이어지기는 힘들 것이란 전망이 나옵니다. 결국 금융사들은 신사업 추진이라던가 또 다른 수익원 창출을 해내야겠죠.게다가 금융사들이 상대적으로 신용도가 높은 우량고객을 중심으로 금리 인하 같은 마케팅을 계속 펼치다보면 상대적으로 신용도가 아주 낮은 저신용자의 경우에는 오히려 대출문턱이 더 높아지는 역효과도 나타날 수 있다는 우려가 나오고 있습니다.&lt;앵커&gt;장 기자, 잘 들었습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2022.06.02.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>청와대 일일 관람 인원 4만9000명으로 확대</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005097801?sid=103</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>복수 신청창구, 청와대개방 누리집으로 단일화관람 시간은 오전 9시~오후 6시로 축소…화요일 휴관26일 서울 종로구 청와대 관저가 공개되고 있다./강진형 기자aymsdream@청와대 일일 관람 인원이 3만9000명에서 4만9000명으로 늘어난다. 문화재청 청와대국민개방추진단은 새로운 예약시스템(청와대개방 누리집)을 도입해 관람환경을 개선한다고 2일 전했다. 오는 3일부터 네이버, 카카오, 토스 등의 신청창구를 단일화해 신청 절차의 불편함을 최소화한다. 희망하는 국민은 청와대개방 누리집에 접속해 관람 희망일(12일 이후)을 선택하면 된다. 문화재청 관계자는 "추첨제가 아닌 선착순 접수 결과에 따라 선택한 날짜에 관람할 수 있다"고 설명했다.효율적인 시스템 변화로 일일 관람 인원은 4만9000명(현장발급 1000명 포함)으로 확대된다. 회당 8000명을 6회에 걸쳐 수용한다. 개인 관람예약 최대인원도 네 명에서 여섯 명으로 늘린다. 다만 관람 시간은 오전 7시~오후 7시에서 오전 9시~오후 6시로 축소된다. 매주 화요일도 휴관일로 지정된다. 문화재청 관계자는 "모바일이나 인터넷 접수가 힘든 65세 이상 어르신, 장애인, 외국인(1000명 제한)은 예약 없이도 영빈관 안내데스크에서 관람권을 발급받을 수 있다"고 했다.26일 서울 종로구 청와대를 찾은 시민들이 본관 내부를 둘러보고 있다./강진형 기자aymsdream@지난 4월 27일부터 지난달 31일까지 청와대를 관람한 인원은 57만4000여 명이다. 2일부터는 청와대 연계 등산로를 통해 북악산을 오를 수 있어 더 많은 인파가 몰릴 수 있다. 지난달 10일부터 31일까지 북악산을 찾은 등산객은 9만4000여 명이다. 지난해 같은 기간보다 약 일곱 배 증가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2022.06.02.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>청와대 관람 신청, 3일부터 선착순…하루 관람 인원 1만명으로 확대</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002609485?sid=102</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>관람 예약 창구 청와대개방 홈페이지로 일원화하루 관람 인원 1만명 확대, 예약인원 최대 6명65세 이상 어르신·장애인·외국인 현장접수 가능매주 화요일은 휴관…관람시간은 1시간 30분10일 오전 서울 종로구 청와대에서 열린 정문 개문 기념 행사에서 시민들이 안으로 입장하고 있다. ⓒ인수위사진기자단[데일리안 = 김하나 기자] 3일부터 청와대 관람 예약 방식이 추첨식에서 선착순으로 바뀐다. 선착순으로 관람이 어려워질 수 있는 65세 이상 어르신과 장애인 및 외국인 등을 위해서는 현장 접수가 새로 생긴다. 청와대 하루 관람인원은 1만명 늘어나고, 개인 관람예약 최대인원도 기존 4명에서 6명으로 확대된다.문화재청 청와대국민개방추진단(단장 채수희)은 청와대 상시 개방에 맞춰 새로운 관람예약시스템을 3일 오전 10시부터 시작한다고 2일 밝혔다. 6월 12일부터 7월 2일까지 4주 중에서 관람 가능 시간을 정해 선착순으로 예약하면 된다. 관람일 기준 한달 전부터 예약이 가능하다.먼저 네이버·카카오·토스 등 관람 예약 창구는 청와대개방 홈페이지로 일원화된다.관람을 희망하는 국민은 청와대개방 홈페이지에 접속해 관람 희망일을 선택하면 선착순 접수 결과에 따라 선택한 날짜에 관람을 할 수 있게 된다. 예약이 가능한 날짜는 매주 일요일마다 1주일씩 추가로 열린다.청와대 국민 개방 당일인 10일 오후 서울 종로구 청와대 대정원에서 종묘재례가 열리고 있다. ⓒ인수위사진기자단관람자 선정 방식은 추첨제에서 선착순으로 바뀌었다. 이전에는 관람일 8일 전까지만 신청을 넣어둔 뒤 당첨 통보를 기다리면 됐다. 1일 관람인원은 3만9000명에서 4만9000명으로 늘리기로 했다. 최대 4명까지 신청할 수 있었던 관람 예약 인원은 6명으로 늘리기로 했다.65세 이상 어르신, 장애인, 외국인을 대상으로 한 현장접수 방식도 도입됐다. 매일 오전 500명, 오후 500명 등 총 1000명이 현장에서 입장권을 발급받아 들어갈 수 있다. 청와대 영빈문 안내데스크에서 오전 9시와 오후 1시 30분 2차례에 걸쳐 현장발급 신청을 받는다.휴관일은 매주 화요일이다. 공휴일이나 대체공휴일과 겹치는 경우는 개방하지만, 공개한 공휴일 다음의 첫 번째 비공휴일에는 휴관이 원칙이다. 관람 가능 시간은 오전 7시~오후 7시에서 오전 9시~오후 6시로 조정됐다. 회당 관람시간은 2시간에서 1시간 30분으로 줄었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2022.06.01.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>촬영 사진 NFT로 팔고 ‘쇼트폼’ 보며 주식… 즐기며 돈버는 Z세대</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003431852?sid=101</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>[Z세대가 이끄는 금융 빅뱅 ‘자이낸스’]〈2〉 재미있는 재테크 추구대학생 정수민 씨(25)는 지난해 쇼트폼(짧은 동영상) 공유 플랫폼 ‘틱톡’에서 정보를 얻어 미국 주식 투자를 시작했다. 최근 가상자산 루나, 테라 폭락 사태도 틱톡에서 공부했다. 정 씨는 “3분 이내 동영상으로 핵심만 본 뒤 더 궁금한 게 있으면 유튜브나 기사를 찾아본다”고 했다. 국내 주식과 가상자산으로 투자에 첫발을 들인 20대 Z세대들이 최근 조각투자, 대체불가토큰(NFT) 등으로 눈 돌리며 재테크 영토를 빠르게 넓히고 있다. 재테크에서도 재미를 찾고 동영상 플랫폼을 통해 투자 정보를 얻는 등 기성세대와 확연히 다른 모습을 보이고 있다. 향후 Z세대가 경제 주축으로 올라서면 투자 지형과 공식이 바뀔 것이라는 전망이 나온다.○ 취미로 돈 벌고, 비싸면 쪼개서 투자필름 카메라로 사진 찍기가 취미인 이정환 씨(29)는 최근 직접 찍은 사진으로 재테크에 나섰다. 세계 최대 NFT 거래소 ‘오픈시’에서 사진들을 NFT로 발행해 팔기로 한 것이다. 이 씨는 “추억을 담기 위해 찍은 사진을 가치 있는 상품으로 만들 수 있는 데다 잘 팔리면 돈도 벌 수 있으니 일석이조”라고 했다.  ‘코인 투자 열풍’을 이끌었던 Z세대들은 최근 가상자산에 이어 NFT에 눈 돌리고 있다. NFT는 블록체인 암호화 기술을 활용해 고유한 값을 부여한 디지털 자산으로, 복제나 위·변조가 불가능하다. 이 씨의 사진처럼 무형 콘텐츠들이 새롭게 가치를 인정받아 판매되면서 지난해 글로벌 NFT 거래 규모(177억 달러)는 1년 새 2배 수준으로 성장했다. 운동을 좋아하는 직장인 김민주 씨(25·여)는 매일 모바일 금융 플랫폼 ‘토스’에 들어가 만보기를 켠 뒤 1시간 정도 달리기를 한다. 토스 만보기는 걸음 수에 따라 하루 최대 140원 포인트를 준다. 김 씨는 “매일 뛰면 한 달에 3000원 정도를 모을 수 있다”고 했다. 경험을 중요시하고 본인의 취미를 재테크로 발전시키는 Z세대를 겨냥해 운동 등의 목표를 달성하면 현금이나 포인트를 주는 핀테크 애플리케이션(앱)은 점점 늘고 있다. Z세대는 혼자 투자하기 어려운 부동산, 미술품 등을 ‘조각투자’로 사들이고 있다. 고가 자산을 1000∼10만 원 단위 지분으로 나눠 여러 명이 공동 투자하는 식이다. 직장인 홍모 씨(29)도 지난해 아트테크 플랫폼 ‘소투’와 ‘테사’에서 평소 좋아하던 앤디 워홀과 데이비드 호크니의 그림에 150만 원을 투자했다. 이 중 한 작품은 6개월 만에 팔려 13%의 수익을 올렸다. 한우, 음악저작권, 와인, 명품시계 등으로 조각투자 대상도 다양해지고 있다. 애플, 테슬라, 알파벳(구글 모회사) 등 비싼 해외 주식을 소수점 단위로 거래하는 ‘소수점 매매’ 시장도 20대를 중심으로 커지고 있다. 4월 말 현재 한국투자증권에서 해외 주식 소수점 거래를 이용한 투자자 중 20대가 38%로 가장 많았다. 아직 자산과 소득은 적지만 경제 관념이 뚜렷한 Z세대가 적은 돈으로도 수익을 올릴 수 있는 투자방법을 찾아 나선 것이다. MZ세대를 중심으로 해외 주식 소수점 거래가 인기를 끌자 9월부터 국내 주식에도 소수점 매매가 허용된다.○ 투자도 정보도 쉽고 빠르게Z세대는 투자 정보를 얻는 과정에서도 재미와 직관을 추구한다. 동아일보가 우리금융경영연구소에 자문해 20대 1009명을 대상으로 설문조사한 결과에서도 유튜브, 틱톡 등 영상 플랫폼을 통해 투자 정보를 얻는다는 응답자(39.7%)가 가장 많았다. 전문 서적(12.4%)이나 금융회사(5.6%)를 꼽은 20대는 적었다. 이를 반영해 금융사들의 소통 방식도 달라지고 있다. 삼성증권은 1월부터 자사 유튜브 채널에 딱딱한 투자정보 대신 재미를 강조한 1∼6분짜리 동영상을 매달 30편 이상 올린다. 이 덕분에 34세 이하 시청자 비중은 지난해 19.7%에서 올 1분기(1∼3월) 41.4%로 늘었다. 쉽고 빠른 투자를 선호하는 Z세대의 특성에 맞춰 인공지능(AI) 기반의 자산관리(로보어드바이저) 시장도 급성장하고 있다. 기존 금융사에선 고액 자산가들이 전문적 자산관리를 받을 수 있지만 ‘파운트’ ‘핀트’ ‘불릴레오’ 같은 앱에선 소액만 맡겨도 AI가 알아서 돈을 굴려 준다. Z세대 유입으로 국내 로보어드바이저 시장 규모는 2019년 말 9600억 원에서 4월 말 1조8000억 원으로 늘었다. 다만 Z세대 상당수가 ‘빚투’(빚내서 투자)로 투자에 입문해 본격적인 금리 상승기를 맞아 리스크가 커질 수 있다는 지적이 나온다. 이번 설문조사에서도 20대 33%는 대출로 재테크 재원을 마련했다고 답했다. 김상봉 한성대 경제학과 교수는 “최근 주식, 코인 시장이 급락하면서 팬데믹 이후 상승장에서 투자에 뛰어든 Z세대들이 큰 손실을 봤을 것”이라며 “Z세대는 금리 인상기를 겪어보지 않아 최근 금융 환경에 빠르게 대처하기 힘들 수 있다”고 말했다.창업-코인 열풍에 늘어난 ‘영리치’… 공격적 투자 성향 금융자산 10억 넘는 영리치가상자산-해외주식 투자비중 높아‘지키는 투자’ 올드리치와 대조적 5년 전 온라인 교육 관련 스타트업을 창업한 김모 씨(32)는 최근 ‘100억 부자’가 됐다. 신종 코로나바이러스 감염증(코로나19) 사태 이후 온라인 교육 플랫폼을 찾는 고객이 늘면서 회사 수익이 급증했고 김 씨의 투자 자산도 100억 원대로 불어났다.  부동산과 펀드에 주로 투자하던 김 씨는 지난해 처음 가상자산에 1억 원을 넣었다. 최근 ‘루나’와 ‘테라’ 폭락 사태로 가상자산 시장이 얼어붙었지만 오히려 코인 투자를 늘릴 계획이다. 김 씨는 “코인은 변동성이 크긴 하지만 단기 차익을 올리기에 적합하다. 장기적으로도 가치가 더 오를 것으로 본다”고 했다. 스타트업 창업이나 가상자산 투자 등을 통해 수십억 원의 자산을 축적한 20, 30대 ‘영리치(신흥 부자)’가 크게 늘고 있다. 이들은 ‘올드리치(전통 부자)’에 비해 자기 주도적이고 공격적인 투자 성향을 보였다. 지난달 30일 금융권에 따르면 삼성증권에 10억 원 이상을 맡긴 20, 30대 영리치 223명 가운데 혁신기업 종사자(18.9%), 일반 사무직(15.5%), 전문직(14.6%) 등 ‘자수성가형’이 절반을 차지했다. 가업을 승계한 이른바 ‘금수저’는 21.5%였다. 백혜진 삼성증권 SNI전략담당 상무는 “물려받은 자산은 지키는 투자를 중요시하고, 자수성가형은 공격적인 투자를 하는 경향이 있다”고 설명했다. 실제로 20대 영리치는 공격적인 주식 투자 성향을 보였다. 미래에셋증권에 10억 원 이상을 예탁한 20대 영리치 110명은 올 들어 5월 25일까지 해외 주식 가운데 ‘프로셰어스 울트라프로 QQQ 상장지수펀드(ETF)’를 가장 많이 사들였다. 이는 나스닥100지수의 하루 등락률을 3배로 쫓는 상품이다. 순매수 2위는 필라델피아 반도체 지수를 3배로 추종하는 ‘디렉시온 데일리 세미컨덕터 불 3X ETF’, 3위는 나스닥100지수를 역으로 3배 따르는 ‘프로셰어스 울트라프로 쇼트 QQQ ETF’였다.  최근 하나금융연구소가 내놓은 ‘2022 코리안 웰스 리포트’에 따르면 영리치의 21%는 비트코인 등 가상자산에 투자했다. 연구소는 설문조사를 통해 금융자산 10억 원 이상을 보유한 20∼40대 131명을 영리치로 분류했다. 반면 50대 이상 올드리치는 5%만 가상자산에 투자했다. 또 예술작품, 대체불가토큰(NFT) 같은 새로운 투자처에 투자할 의향이 있는 영리치는 47%로 올드리치(28%)보다 많았다.  이순남 대신증권 나인원 프라이빗 라운지장은 “아이디어로 돈을 번 영리치들은 눈에 보이지 않는 투자 트렌드를 읽는 데 익숙하다. 그들만의 리그에서 정보를 얻고 자기만의 확고한 기준에 따라 투자한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2022.06.02.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>내일부터 청와대 관람 '광클 경쟁' 시작된다</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004706618?sid=103</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>청와대 관람 예약 방식이 추첨식에서 선착순으로 바뀐다. 네이버·카카오·토스 등 관람 예약 창구는 청와대개방 홈페이지로 일원화된다. 관람 시간이 다소 짧아지는 대신 일일관람인원은 늘어나고, 65세 이상 어르신과 장애인 및 외국인 등을 위한 현장접수가 새로 생긴다.문화재청 청와대국민개방추진단은 2일 이같은 내용의 새로운 관람예약시스템을 도입한다고 발표했다. 앞으로 관람 예약은 어떻게 해야 하는지, 신청 절차는 이전과 무엇이 달라졌는지 자세히 알아봤다. ①3일부터 도입…4주치 예약 가능청와대가 개방된 지난 10일부터 지난달 31일까지 청와대를 방문한 관람객은 57만4000명. 누적 신청자 수는 총 659만명에 달한다. 정부는 이같은 관람 열기와 개방 기간 동안 접수된 불편사항 등을 고려해 새로운 예약시스템을 도입키로 했다. 바뀐 시스템은 오는 3일부터 적용된다.먼저 네이버 카카오 토스 등으로 복잡했던 신청 창구가 청와대 개방 홈페이지로 단일화된다. 관람을 희망하는 국민은 ①청와대개방 홈페이지에 접속해 ②관람 희망일을 선택하면 ③ 선착순 접수 결과에 따라 선택한 날짜에 관람을 할 수 있게 된다.관람일 기준 한달 전부터 예약이 가능하다. 오는 3일에는 오는 12일부터 7월 2일까지 사이 날짜에서 시간대를 골라 예약할 수 있다. 예약이 가능한 날짜는 매주 일요일마다 1주일씩 추가로 열린다. 예컨대 일요일인 오는 5일에는 다음달 3~9일 예약이 열린다는 뜻이다. ②추첨제에서 선착순으로, 대신 현장 접수 가능해졌다가장 눈에 띄는 변화는 관람자 선정 방식의 변화다. 추첨제에서 선착순으로 바뀌었다. 이전에는 관람일 8일 전까지만 신청을 넣어둔 뒤 당첨 통보를 기다리면 됐다. '광클 경쟁'을 하지 않아도 된다는 건 장점, 아무리 관람을 하고싶어도 운에만 맡겨야 한다는 게 단점이었다. 선착순은 장단점이 정 반대다. 관람 열기가 한풀 꺾일 때까지 예약이 만만찮을 전망이다. 특히 공휴일이나 휴일에는 더욱 경쟁이 치열할 것으로 보인다.어르신이나 외국인의 관람은 더욱 어려워졌다. 이를 보완하기 위해 추진단은 현장접수 방식을 도입키로 했다. 매일 오전 500명, 오후 500명 등 총 1000명이 현장에서 입장권을 발급받아 들어갈 수 있다. 대상은 65세 이상 어르신, 장애인, 외국인이다.청와대 영빈문 안내데스크에서 오전 9시와 오후 1시 30분 두 차례에 걸쳐 현장발급 신청을 받는다. 65세 이상 어르신(주민등록증, 운전면허증, 여권), 장애인(장애인등록증), 외국인(여권, 외국인등록증) 등 신분증을 제시해야 접수할 수 있다. 장애인에 한해 동반 1인까지 입장이 가능하다. ③관람인원 늘고 시간은 단축, 화요일은 쉽니다1일 관람인원은 3만9000명에서 4만9000명으로 늘리기로 했다. 회당 6500명이었던 관람인원은 회당 8000명으로 늘렸다. 최대 4명까지 신청할 수 있었던 관람 예약 인원은 6명으로 늘리기로 했다.다만 관람 가능 시간은 오전 7시~오후7시에서 오전9시~오후6시로 단축된다. 청와대 경내 유지·보수와 관리 인력들의 부담 등을 고려한 조치다. 회당 관람시간은 2시간에서 1시간 30분으로 줄어든다. 한 마디로 말하면, 청와대에 들어가기는 쉬워졌는데 관람은 다소 빡빡해졌다. 휴관일도 생겼다. 경복궁과 같은 매주 화요일이다. 문화재청 관계자는 "경복궁을 비롯한 인근 문화재를 함께 관람하는 국민이 많은 점을 고려했다"고 설명했다.한편 문화재청은 오늘(2일)부터는 청와대와 연계된 북악산 등산로 중 삼청동 방면 출입구를 춘추관으로 옮긴다고 밝혔다. 시민들이 보다 쉽게 청와대 연계 등산로를 통해 북악산을 오를 수 있게 하자는 취지다. 5월 10일부터 31일까지 북악산을 찾은 등산객은 전년 동 기간 대비 약 7배 증가한 9만4000여명으로 집계됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2022.06.09.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>LGU+, 데이터·AI로 '디지털 혁신기업 전환' 속도 낸다</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002610992?sid=105</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>8월 소상공인 대상 AI 콜봇 ‘AI 가게 매니저’ 출시…‘프로덕트’ 중심 조직 시장 진출B2B 빅데이터 서비스 데이터플러스·고객 맞춤형 상품 추천 ‘U+콕’에 데이터 활용↑프로덕트 내용. ⓒLGU+[데일리안 = 남궁경 기자] LG유플러스가 데이터와 인공지능(AI)을 전략적으로 자산화하고, 고객 중심의 디지털 혁신기업 전환에 속도를 낸다.황규별 LG유플러스 최고데이터책임자(CDO)는 9일 오전 기자간담회를 열고 구글, 아마존 등 글로벌 빅테크 기업과 같이 데이터와 AI로 수익을 창출하고, 기업가치를 제고하겠다는 내용의 사업전략을 발표했다. AI 개발과 데이터 분석 등을 전담하는 조직 ‘CDO’ 수장인 황 CDO는 미국 델타항공, 다이렉TV(DirecTV), AT&amp;T, 워너미디어 등에서 데이터 플랫폼을 구축하고 분석하여 수익화를 담당한 전문가다.황 CDO는 이날 데이터·AI를 활용한 수익창출을 위해 ▲소상공인 특화 AICC 서비스 출시 및 데이터 상품(데이터플러스/U+콕) 경쟁력 강화 ▲프로덕트 중심의 애자일 조직 개편 ▲개발역량 내재화를 위한 우수인재 두 배 확대 등을 추진하기로 했다.LG유플러스는 고객이 상품과 서비스를 경험하는 모든 과정에서 ‘편리함’과 ‘가치’를 느낄 수 있도록 AI/데이터 기술을 프로덕트 그룹으로 분류했다. AI·데이터 기술과 연관된 개별 상품은 그룹 하부의 프로덕트로 분류하고 있다.AICC(AI Contact Center) 프로덕트 그룹에는 AI 콜봇, 챗봇, 상담어드바이저, 커넥티드카 등 다양한 서비스가 있다. 오는 8월 출시 예정인 소상공인 특화 AI 콜봇 서비스 ‘AI 가게 매니저’는 미리 녹음된 음성안내를 사용하는 ARS와 달리 AI가 전화로 고객을 응대하는 서비스다.가령, 어떤 고객이 식당에 저녁 식사를 예약하는 전화를 걸었다면 AI가 예약시간과 인원, 주문하고자 하는 메뉴를 받아서 점주에게 자동으로 정리해 알려주는 식이다. 매장 위치나 주차가 가능한지 묻는 등 다양한 상황에도 능동적으로 대처할 수 있다.LG유플러스는 앞서 KB금융그룹의 AICC 구축사업자로 선정되는 등 금융기업고객 대상 AICC 확산에 힘을 쏟고 있다. SOHO 전용 상품인 ‘U+우리가게패키지’를 출시하며 소상공인 시장을 공략하고 있는 LG유플러스는 ‘AI 가게 매니저’를 통해 AICC 서비스를 확대한다는 계획이다.또 다른 프로덕트 그룹인 ‘인사이트(Insights)’ 그룹의 ‘데이터플러스’는 LG유플러스가 보유한 고객 특성, 미디어소비, 이동패턴 등 다양한 데이터를 기반으로 고객의 라이프스타일, 온·오프라인의 다양한 수요를 분석해 사업전략을 수립·실행하는데 필요한 인사이트·데이터 마케팅 채널을 제공하는 B2B 빅데이터 서비스다.데이터플러스는 지난 4월 출시 이후 교육전문기업 대교의 보습학원 ‘눈높이러닝센터’ 1248곳의 입지를 선정하는데 활용됐으며, 유초등학습지 브랜드인 ‘윙크’를 운영하는 단비교육에도 도입 예정이다. 문화산업분야에서는 국립현대미술관에 데이터플러스 기반 빅데이터 분석 리포트를 제공하고 있으며, 뮤지컬 공연기획사와도 협업을 논의 중이다.타겟팅(Targeting) 프로덕트 그룹의 빅데이터 기반 맞춤형 상품 추천 쇼핑플랫폼 ‘U+콕’은 지난해 4월 대비 1년 새 거래금액이 4배 이상 성장했다. 월평균 이용자 수(MAU)는 44만명을 돌파했으며, U+콕을 통한 재구매율은 40%를 넘었다. U+콕은 지난 4월 UX를 개편한데 이어 5월에는 정기배송 서비스를 시작했으며, 이달에는 전용 모바일 앱을 선보일 예정이다.황 CDO는 “이러한 프로덕트의 경쟁력을 확보하기 위해서는 스타트업처럼 애자일하고 민첩하게 움직이는 게 필수다”라며 “CDO는 현재 200여명이 20여개 이상의 팀으로 구성되어 있는데, 각 팀에 배속된 전문가들이 기획-개발-출시까지 사업전반에 대한 전략과 예산의 자율권을 보장받는 조직운영으로 탈바꿈시키고 있다”고 설명했다.LG유플러스는 AI, 데이터, 디지털 역량을 강화하기 위해 프로덕트 중심의 애자일 조직으로 탈바꿈하고 있다. 프로덕트 중심 조직은 아마존웹서비스(AWS)·구글·토스 등 테크기업들이 도입한 시스템으로, 시장과 고객의 변화에 기민하게 움직이는 구조다.프로덕트 중심 업무체계에서는 여러 조직에서 모인 구성원들이 함께 일하는 가상조직(Virtual Team)이 구성돼 목표달성을 위해 일하며 ‘프로덕트 매니저(Product Manager)’는 고객의 니즈를 확실하게 알아내 사업성과로 연결하는 역할을 맡으며, 개발자는 기술개발에 집중한다.LG유플러스는 이 같은 프로덕트 중심 문화를 뿌리내리고, 외주와 제휴에 의존하던 개발역량을 내재화하는데에도 집중할 계획이다. 오는 2024년까지 AI·데이터 사이언티스트, 데이터·플랫폼 엔지니어, 소프트웨어·기계학습 상용 적용(SW·ML-Ops) 엔지니어 등 200여명의 우수 개발인력을 채용해 현재 인원의 두 배 수준인 400명까지 전문인력을 확대한다는 계획이다.LG유플러스는 우수인재 확보를 위해 산학협력 인턴십 프로그램을 준비하는 등 다양한 채널을 통해 개발자들과 유기적인 관계를 구축하는 '데브렐(DevRel)' 활동을 강화할 계획이다. 이 활동은 미국에 위치한 실리콘밸리 뿐만 아니라 전세계 많은 기업이 운용하는 활동이다.황 CDO는 “초개인화, 초연결과 같은 폭발적인 고객 니즈에 선제 대응하는 자기 완결형 조직이 되려면 소프트웨어 역량은 반드시 내재화가 필요하다”며, “나아가 데이터와 디지털 능력을 기반으로 일하는 문화를 도입하고, LG유플러스가 보유한 AI와 데이터가 전략적인 자산이 될 수 있도록 가치를 창출하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2022.06.14.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>[종합] 네이버파이낸셜 ‘혁신금융’ 표방, 국내 압도적 1위 넘어 해외로</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002126495?sid=105</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>[디지털데일리 최민지기자] 박상진 네이버파이낸셜 대표가 압도적 간편결제 1위 사업자를 넘어 해외로 진출한다. 혁신적 금융사업을 통해 네이버 생태계 안팎으로 외연 확장 속도를 내며 의미있는 매출을 만들겠다는 포부다.    네이버파이낸셜은 14일 더플라자호텔에서 열린 ‘네이버파이낸셜 미디어데이 2022’에서 2025년까지 연간 페이 이용액 100조원을 달성하겠다고 밝혔다. 동시에 데이터 인텔리전스 기반 혁신적 금융 서비스를 이용하는 중소상공인(SME)을 지금보다 5배 늘리고, 마이데이터 서비스 월간활성사용자수(MAU)를 1000만까지 키우겠다고 선언했다.   이날 박상진 네이버파이낸셜 신임 대표는 “그 동안 네이버페이는 독보적 사용성과 혜택으로 1위 간편결제 서비스로 자리매김했으며, 이는 네이버페이와 연결된 SME 거래액 증가로 이어지면서 네이버 생태계 전체의 성장에 기여해왔다”며 “자금융통이 어려운 온라인 SME와 씬파일러(thin-filer, 금융이력부족자) 등 금융소외계층을 위한 혁신적 금융 서비스는 이들이 비즈니스 경쟁력을 갖추고 더 나은 선택을 할 수 있도록 도우며 기존 금융시장에서 새로운 가치를 성공적으로 제시해냈다”고 말했다. 또 “네이버파이낸셜은 결제와 금융 사업 모두 네이버 생태계 안팎의 서비스 연결과 외연 확장을 가속화 해, 사용자와 SME가 금융이 닿는 모든 영역에서 가장 많이 찾는 핀테크 플랫폼으로서 가치를 증명할 것”이라고 강조했다.   ◆라인페이 연동…일본‧대만‧동남아로 확대=네이버페이는 성장가도를 달리고 있다. 지난 5월 네이버페이 월 이용액은 사상 처음으로 4조원을 돌파한 4조1000억원을 기록했다. 2019년 4분기 결제액이 4조8000억원대였다는 점을 감안하면, 그야말로 폭풍 성장이다. 지난 1분기 결제액은 11조2000억원을 달성했다.    네이버파이낸셜 법인 설립 시점 대비 가맹점수는 약 2배 늘었다. 네이버페이 회원 수는 3078만명으로 설립 시점 대비 22% 증가했다. 이는 국내 생산가능인구 84% 수준이다. 충성 사용자에 해당하는 월 순 결제자수는 1644만명으로, 50% 이상 늘었다. 인당 결제액은 14만원에서 25만원, 인당 결제건수는 4건에서 6.2건으로 각각 확대됐다.    이제 네이버파이낸셜은 온라인을 넘어 오프라인, 더 나아가 해외로 결제 영역을 확대한다. 온라인에서는 콘텐츠‧보험 등 정기결제, 여행‧문화‧교육 등 생활결제, 해외 등 외부 가맹점을 늘린다. 올해 중 의료‧문화생활‧모빌리티 등 생활업종 오프라인 가맹점을 넓힌다. 네이버페이 현장결제 핵심은 사용자가 온라인에서 누리던 강력한 포인트 혜택과 편의성이 오프라인으로 연결된다는 점이다.  주목할 점은 연내 대만 라인페이 연동을 시작으로 ‘팀네이버’ 글로벌 네트워크를 활용한 해외 현지 결제 연동을 확대한다는 것이다. 팀 네이버와 Z홀딩스 주축으로 라인페이‧페이페이 연동도 추진한다. 국가별 독점적 지위 주요 결제 사업자 투자‧연동 등도 고려한다.   박상진 대표는 “어디서나 결제할 수 있도록 캠퍼스존, 병원 등 오프라인 현장 결제 사용처를 확대하겠다”며 “스마트폰 없이 결제 가능한 네이버페이 워치 앱을 출시해 MZ세대(밀레니얼+Z세대) 사용자 유입을 기대하고 있다. 모바일, 키오스크, 웨어러블 등 다양한 디바이스에 적용하는 등 새로운 결제방식도 고민 중”이라고 설명했다.    특히 “국내뿐 아니라 팀 네이버 서비스 글로벌 결제를 지원하는 사업을 추진한다. 일본, 대만은 물론 동남아지역까지 서비스할 예정”이라며 “연내 대만에 라인페이를 연동하고, 소프트뱅크와 (미국 블록체인 개발사) TBCA 등 크로스보더 결제 네트워크 참여를 검토하고 있다”고 덧붙였다.    ◆투자 드라이브, “필요하다면 라이선스 취득도”=이날 박 대표는 투자를 적극적으로 추진해 새로운 금융 혁신을 꾀하겠다는 포부도 전달했다. 네이버 최고재무책임자(CFO)를 역임해 온 박 대표는 지난 3월 네이버파이낸셜 수장에 올랐다.    박 대표는 “네이버 CFO로 6년가량 재직하며, 다양한 금융사와 협력하고 투자한 경험이 있으며, 네이버파이낸셜 설립 때부터 보드 멤버로 참여했다. 이러한 네트워크와 경험 등이 향후 네이버파이낸셜 서비스 추진과 새로운 금융 가치를 만드는 데 도움 될 것”이라며 “투자 등에서 당연히 모든 가능성 열어두고 적극 검토하겠다. 플랫폼으로 영향력과 가치뿐 아니라 혁신적 금융 나올 수 있도록 지원하겠다”고 전했다.   이날 박 대표는 카카오페이‧토스와 달리 기존 금융사와 협업하는 형태로 사업을 꾀하는 이유에 대해 다시 한 번 설명하면서도, 필요하다면 금융 라이언스를 취득할 수 있다고 시사했다.    박 대표는 “핀테크 사업자로서 필요한 라이선스를 취득했다. 기존 금융을 단순히 온라인으로 가져오는 그럼 금융을 하고자 하는 것이 아니다. 현재 네이버파이낸셜 1차적 접근은 금융 소비자 니즈와 불편함 개선에 있다. 이를 연결해 풀어가는 것이 우선해야 할 플랫폼 역할”이라고 제언했다.    이어 “금융사와 협업해서 충분히 혁신적인 서비스를 내놓을 수 있기 때문에 협력 관계 확대하는 것이 좋다. 네이버가 물류에선 CJ대한통운, 신선식품 분야에선 신세계와 협업하는 것과 같다”며 “만약, 네이버파이낸셜 혁신금융이 더 높은 가치를 만들어낼 수 있다면 라이선스 취득할 수 있다”고 부연했다.    ◆핀테크 첫 대출비교 서비스…SME와 상생=이와 함께 네이버파이낸셜은 이번달부터 새로운 서비스를 쏟아낸다. 이번달 중 ‘스마트플레이스 사업자 대출’이 출시된다. 오프라인 SME가 네이버 검색, 지도 등에 가게 정보를 등록하고 네이버예약‧주문, 스마트콜 등 비즈니스 도구도 무료도 활용할 수 있는 플랫폼이다. 대출상품은 우리은행, 전북은행과 선보인다.    올해 하반기에는 네이버 생태계 안팎 개인사업자라면 누구나 이용할 수 있는 개인사업자 대출 비교 서비스를 핀테크 최초로 시작한다. 전업권의 사업자 대출 상품이 입점하며, 금융사들과 사업자 특성에 맞는 상품 개발도 추진한다.    마이데이터 기반 ‘내 자산’ 서비스는 네이버쇼핑, 페이, 금융 콘텐츠 사용자 트래픽이 연결될 수 있도록 강화된다. 이번달 내 ‘보험통합조회’ 서비스도 출시된다. 3분기 중에는 ‘네이버 마이플레이스’의 영수증 리뷰 서비스와도 연결된다. 사용자가 내 자산 서비스에서 카드내역을 연동하면 영수증 없이도 방문 인증 및 리뷰 작성이 쉽게 가능하며, 네이버에 가게를 등록한 SME들도 결제 내역을 기반으로 실제 방문 인증 사용자 리뷰를 축적할 수 있게 된다.    아울러, 초기 SME에게 네이버페이 주문관리 수수료를 1년간 무료 지원하는 ‘스타트 제로 수수료’를 이어간다. 지난 5월 출시된 ‘반품안심케어’를 초기 SME에게 1년간 무료로 지원할 예정이다.    서래호 책임리더는 “이번달 스마트스토어 사업자 대출 출시한다. 기존 금융사들이 사용하지 못했던 데이터를 활용해 스마트스토어 플랫폼 등에서 열심히 활동하는 분들에게 혜택을 드릴 수 있다”며 “다른 플랫폼으로 갔을 때, 그 플랫폼만 보유한 데이터를 네이버파이낸셜이 확보할 수 있다면 확대 가능하다. 네이버페이 결제 생태계가 확장되면, 자연스럽게 외부 플랫폼과 제휴할 수 있다”고 내다봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2022.06.02.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>청와대 관람 인원 1만명 늘린다…추첨에서 ‘선착순’으로 변경</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003432104?sid=102</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>지난 10일부터 시작된 청와대 개방행사가 계속되는 가운데 5월 23일부터 영빈관과 춘추관 내부도 관람객들에게 공개됐다. 2022/05/23 김재명 기자 base@donga.com오는 12일부터 청와대 일일 관람 정원이 1만 명 늘어나고 예약 창구가 단일화된다.문화재청 청와대국민개방추진단은 2일 “청와대를 상시 개방함과 동시에 그동안 여러 경로(네이버·카카오·토스)로 나뉘어 있던 신청창구를 단일화해 새로운 관람예약시스템 ‘청와대개방누리집’을 도입했다”고 밝혔다.추진단에 따르면 5월 31일 기준 네이버·카카오·토스 등 민간 플랫폼을 통해 청와대 관람을 신청한 인원은 659만여 명이며 이중 총 57만 4000여 명이 실제 관람을 했다.청와대 일일 관람 인원은 오는 12일부터 기존 3만 9000명에서 4만 9000명(현장발급 1000명 포함)으로 확대된다. 12일부터의 관람 신청은 오는 3일 오전 10시부터 가능하며 청와대개방누리집에 접속한 뒤 관람 희망일을 선택하면 된다.관람자 선정 방식은 기존의 추첨제에서 선착순으로 변경돼 치열한 경쟁이 예상된다. 회당 입장객은 6500명에서 8000명으로 늘어나며 하루 6차례에 걸쳐 1시간 30분 단위로 입장을 구분한다. 관람 시간은 오전 7시~오후 7시에서 오전 9시~ 오후 6시로 조정하며 휴관일은 매주 화요일이다.인터넷 접수가 어려운 65세 이상 어르신·장애인·외국인 등은 하루 두 차례(오전 9시, 오후 1시 30분) 각각 500명의 관람객을 받는 현장발급을 통해 청와대를 관람할 수 있다. 현장발급은 영빈문 안내데스크에서 지원한다.또 2일부터는 시민들이 보다 쉽게 청와대 연계 등산로를 통해 북악산을 오를 수 있도록 북악산 등산로 중 삼청동 방면 출입구를 춘추관으로 옮긴다. 지난달 10~31일 북악산을 찾은 등산객은 전년 동기대비 약 7배 증가한 9만 4000여 명으로 집계됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2022.06.03.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>[미래읽기] 스타트업 정신에서 찾는 정치의 미래</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006137461?sid=004</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>강훈식 더불어민주당 의원.© 뉴스1(서울=뉴스1) = 국회미래연구원 객원필진 강훈식 더불어민주당 국회의원.지난 4월, 스콧 버몬트 구글 아시아태평양 총괄사장이 의원실에 방문한 일이 있었다. 그는 코로나19 이후 첫 한국 방문이라며 이번 방문에 매우 높은 기대를 걸고 있었다. 무엇에 대한 기대인지 묻자, '한국은 언제나 새로운 아이디어와 비즈니스가 태동하는 곳이 아니냐'며 구글의 아태 총괄사장으로서 그 기대가 당연하다는 듯 답했다. 그의 말마따나, 지금 한국은 새로운 아이디어로 과감하게 도전하는 스타트업들이 빠르게 늘어나고 또 성장하는 곳이다. 중소벤처기업부에 따르면 지난해 혁신 벤처·스타트업의 고용 증가율이 전체 기업 성장률인 3.1%보다 세 배 이상 높은 9.4%를 기록했다. 코로나19로 인한 위기 속에서 낸 놀라운 성과다. 한국은 본래도 IT 기술에 대한 자부심이 높은 나라였다. 구글은 전세계 검색 엔진 1위이지만, 우리는 여전히 네이버와 카카오의 사용량이 압도적이다. 국내 이용자들의 요구수준은 다양한 서비스를 경험하며 매우 높아졌고, 정확히 니즈에 맞는 서비스를 찾으면 단번에 옮겨가기도 한다. 한마디로 기업 입장에서는 까다로운 소비자들인 셈이다. 그러나 덕분에 국내 IT 기업들이 글로벌 기업 못지않은 수준을 가지게 되었다. 국민들도 자연스레 국내 서비스에 대한 신뢰를 보인다. 스포티파이나 애플뮤직보다는 멜론이, 구글보다는 네이버 카카오가 국내 소비자의 선택을 받는다. 이러한 흐름 속, 수많은 스타트업들이 연속적으로 등장하고 또 유니콘이 되고 있다. 하나의 기업이 시작되고 성장하는 방식이 이전과 많이 달라지고 있다. 4조원의 기업가치를 인정받는 마켓컬리의 창업자 김슬아 대표는 맞벌이 부부의 경험에서 창업의 아이디어를 얻었다고 한다. 믿을만한 품질의 신선식품을 누가 집 앞에 가져다주면 좋겠다는 마음. 모든 맞벌이 부부의 염원이 그의 창업 계기였다. 토스의 이승건 대표는 "회사의 목적은 돈을 버는 게 아니라 사회의 문제를 해결하는 것"이라고 말한다. 실제로 그는 모두가 접근하기 어려워하던 금융의 영역을 직관적이고 편리하게 바꾸어냈다. 계좌이체도, 주식거래도 어느 때보다 간편해졌다. 쏘카의 창업자 김지만 대표는 '새로운 가치를 만들어내는 일'로서의 창업에 매료됐다고 말한다. 이들은 모두 자신의 아이디어 실현을 위해 주변의 만류에도 다니던 회사를 그만뒀고, 시행 과정에서 '그건 안 된다'는 말을 셀 수 없이 들었을 테다. 그만큼 처음 있는 일들이었고, 모험적인 일들이었다. 그러나 지금은 이 서비스들이 없는 시절을 상상하기도 어려울 정도로 일상에 깊게 들어와 있다.이들 창업가의 정신은 이제 회사의 가치가 되어 시장에서 높이 평가받는다. 이런 시기에 산업통상자원중소벤처기업위원회의 간사로서, 성장세를 볼 수 있는 것은 감사한 일이다. 지척에서 뚜렷한 가치가 있고 실제로 가치 실현을 위한 창업을 성공적으로 해낸 이들을 보고 있으면, 필연적으로 정치와 정치인의 역할에 대해 생각하게 된다. 과거에는 세상을 바꾸고자 하는 이들이라면 시민운동을 하거나, 정치에 뛰어들었다. 나 역시 마찬가지였다. 더 나은 세상에 대한 비전이 있었고, 정치를 통해 구현할 수 있다는 확신이 있었다. 주변에 같은 이유로 정치를 하는 이들이 수많았다. 그런데 지금, 정치는 세상을 더 나은 곳으로 바꾸고자 하는 인재들에게 매력적인 곳일까. 6월1일 제8회 전국동시지방선거가 치러졌다. 대기업을 물려받아 운영하는 시대에서 기업가 정신을 가지고 창업한 사람들의 시대가 되는 동안, 세상을 바꾸는 방식이 정치 외에도 수없이 많아지는 동안에도, 여전히 정치로 세상을 바꿀 수 있다 믿는 후보들이 빛났다. 부디 어떤 자리 자체를 탐내는 사람보다는 세상을 낫게 하고자 하는 후보들이 당선되었기를 바란다. 스타트업을 시작하듯, 세상과 주변을 바꿔보겠단 포부로 정치를 시작한 인재들이 언젠가, 비로소 유니콘이 될 수 있다면 더할 나위 없겠다. 스타트업의 방식으로, 정치의 방식으로, 또 각자의 방식으로, 보다 많은 사람에게 좋은 세상을 만들고자 하는 모든 이들을 응원한다. 세상이 더 좋은 곳이 되길 바라는 이들이 계속해서 망설이지 않고 정치에 뛰어들기를 바란다. 어느덧 재선 국회의원이 되었으니, 그런 토양을 일구는 데 일말의 책임감을 느낀다. 가치와 비전을 가지고 소통하고 설득할 각오로 들어와 그 자체로 평가받는, 스타트업 생태계의 모습과 유사한 정치계를 만들기 위해 할 일들이 무엇인지 그려본다.※미래읽기 칼럼의 내용은 국회미래연구원 원고로 작성됐으며 뉴스1의 편집방향과 일치하지 않을 수 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2022.06.03.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>윤석열의 '심쿵 공약', 당선되더니 갑자기 '심쿵'이 사라졌다</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/002/0002246250?sid=101</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>[삶은경제] 빅테크에 포섭된 윤석열 정부국민의힘 홈페이지 공약자료실에서 '2022년 제20대 대통령선거 게시판'으로 접근하면, '윤석열의 공약위키'라는 배너가 보인다. 국민 여러분이 직접 참여할 수 있는 "쌍방향 디지털 플랫폼"이라고 명시된 배너를 클릭하면, 화면은 검정색으로 가득하고, 오직 한 줄의 흰색 문장만이 남아 있다. ▲ 국민의힘 홈페이지 공약자료실 '2022 제20대 대통령 선거' 중 '윤석열의 공약위키'를 클릭했다.(상단) 그러나 공약위키 URL 'https://www.wikiyoon.com/'에는 "Please check your payment status. support@oopy.io"라는 한줄 메시지만 있을 뿐 대선공약은 볼 수 없었다.(하단) 공식 홈페이지 갈무리.   번역하면, '당신의 지불 상태를 확인하라(Please check your payment status)'는 메시지가 전부다. 공약을 보려면 돈을 내야 하나 생각할 수도 있지만, 그게 아니다. 대선이 끝났으니 이제 볼 필요가 없다는 식으로 게시판을 아예 없애버린 것이다. 검은 화면속 오류메시지 'your payment status'가 궁금해졌다. 내 지불 상태를 확인하라니…. 커피를 사마실 때나 물건을 결제할 때 주로 카드를 사용하지만 가끔은 충전해놓은 '○○페이'를 이용하기도 한다. 휴대폰 소액결제를 이용하는 경우도 있어서 이 부분과 관련된 국민의힘 대선공약이 궁금해졌다. 정당의 홈페이지에도 없으면 어디서 공약을 볼 수 있을까? 대선 당시 국민의힘 정책본부장이었던 원희룡 국토교통부 장관의 블로그에 들어가봤다. 이제는 장관의 업무 내용으로 블로그가 개편되었을 줄 알았는데, 업무와 관련된 내용은 하나도 없고, 지난 대선 당시 발표한 40개의 '석열씨의 심쿵 약속'만 빽빽하게 나열되어 있다. 대선이 끝난 후, 정당의 홈페이지는 정책기능을 상실했고, 장관의 블로그는 아직도 대선에 머물러 있다. 원희룡 장관의 블로그를 보면서 소득이 없었던 것은 아니다. 35번째 심쿵 약속에서 드디어 관련 공약을 발견했기 때문이다. '소상공인에 불합리한 수수료율 부담, 이제 그만! 간편결제(페이) 수수료 체계화!'였다. 전문을 옮기자면 이렇게 설명하고 있다. 석열씨의 심쿵약속 35&lt;소상공인에 불합리한 수수료율 부담, 이제 그만! 간편결제(페이) 수수료 체계화!&gt; 최근 간편결제(페이) 서비스를 제공하는 빅테크 기업의 플랫폼들이 가맹점으로부터 높은 수수료를 징수하면서 영세한 소상공인들의 부담이 가중되고 있습니다. 이는 신용카드 등 결제에 대해 「여신전문금융업법」이 적용되는 것과 달리, 간편결제(페이) 서비스에 대해서는 가맹점 수수료율을 정함에 있어 준수해야할 사항이나, 영세한 소상공인에게 적용되는 우대 수수료 등에 관한 내용을 정하고 있지 않기 때문입니다. 실제로 빅테크 기업은 간편결제(페이) 플랫폼의 가맹점 수수료율을 자체적으로 정해 징수하고 있고, 그렇다 보니 빅테크 기업의 결제수수료가 신용카드 결제수수료보다 최대 3배 이상 높은 것으로 나타났습니다. 소상공인 입장에서는 같은 금액이 결제되더라도 간편결제(페이)에 대해서는 더 많은 수수료를 부담해야 되는 불합리한 상황이 발행하고 있는 것입니다. 이에 윤석열 정부에서는 간편결제(페이) 수수료율 개선은 물론, 수수료 전반을 체계화해 소상공인이 불합리한 부담을 지는 일이 없도록 하겠습니다. 빅테크 금융업 규율에 대한 '동일기능, 동일규제 적용'의 기본원칙이 있습니다. 간편결제(페이) 수수료에 대해서도 신용카드 등과 같이 준수해야 할 사항을 정해 가맹점 수수료와 성격, 서비스 범위 등에 따라 간편결제(페이) 수수료율이 합리적으로 정해지도록 하고, 아울러 영세 소상공인에게 적용되는 우대 수수료도 정하는 등 수수료 체계화를 통해 소상공인들의 수수료 부담을 덜어드리겠습니다. 코로나19, 오미크론 확산에 따른 방역조치에 어려움을 겪고 계신 소상공인 여러분의 고충을 세심히 살피고, 하루속히 코로나19 사태가 종식되어 국민들이 일상을 되찾으실 수 있도록 최선을 다하겠습니다. 감사합니다. ▲ 윤석열의 심쿵약속 35. 공식 홈페이지 갈무리. 공약은 어떻게 후퇴하고 있는가?  심쿵공약 40개를 다 살펴보았지만, 35번 공약이 서민들의 실생활과 밀착되어 있고, 영세상인들을 위해 핵심을 정확히 간파하고, 명확한 대안을 제시한 공약이라고 생각했다. 국민의힘이라고 재벌 편에 선 줄 알았더니 그것이 아니었다. 이 공약이야말로 보수의 품격을 보여준 것이었다. 핵심은 평범한 듯 보이는 문구에 있다. 밑에서 7번째 문단을 살펴보면, '간편결제(페이) 수수료에 대해서도 신용카드 등과 같이 준수해야 할 사항을 정해'라는 표현이 있다. 더구나, 앞선 문단에서는 빅테크 금융업 규율에 대한 '동일기능 동일규제 적용'의 기본원칙을 언급하고 있다. 하지만, 대선이 끝나고 국민의힘이 어떻게 입을 닦았는지는 인수위원회가 발표한 110대 국정과제를 살펴보면 알 수 있다. 심쿵약속 35번과 관련한 조항은 74페이지에 기재되어 있는데 37번 '금융소비자 보호 및 권익향상' 부분에 단 한 줄로 나와 있다. 빅테크 기업이 소상공인 등에게 부과하는 '간편결제 수수료에 대한 공시 및 주기적인 점검 추진' 뭔가 잘못되어도 단단히 잘못되었다. 애초에 심쿵했던 마음은 사라지고 빡치기 시작했다. 법으로 규제하는 것과 빅테크가 제멋대로 수수료를 책정하고 공시하는 것은 차원이 다르기 때문이다. 더구나, 동일기능 동일규제라는 원칙이 온데간데없이 사라졌다. 코로나19로 가뜩이나 어려운 영세상인들에게 과도한 수수료를 뜯어내는 빅테크 기업, 이들을 규제하지 못하는 것이 도대체 뭐하는 짓인가? 작년, 간편결제 서비스 이용 실적은 일평균 6000억 원을 넘어섰다. 지난 3월 23일 한국은행이 발표한 '2021년중 간편결제·간편송금 서비스 이용 현황'에 따르면 지난 2021년 간편결제 서비스 이용실적은 일평균 1981만 건, 6065억 원 규모로 전년 대비 각각 36.3%, 35% 증가했다. 즉, 간편결제가 늘어나면 늘어날수록 빅테크의 이익은 늘어나는 반면, 영세상인들의 부담은 더 커지게 되는 것이다. 빅테크가 카드사와 달리 가맹점 수수료율을 자체적으로 정하는 것은 공정하지 않다는 게 심쿵공약이었다. 신용카드사들이 영세상인들에게 우대 수수료율을 적용하듯, 빅테크 기업의 수수료 책정도 정부가 개입할 수 있는 장치를 마련하는 것이 무엇이 문제인가? 이것이 바로 동일기능 동일규제 원칙이었는데 이를 파기한 것이었다. 빅테크에 포섭된 윤석열 정부, '심쿵공약'을 내주다 이것이 윤석열 대통령이 취임사에서 말한 자유인가? 자유롭게 빅테크가 수수료를 책정하고 공시하면 시장이 알아서 조정될 것이라는 믿음이…. 지난 5월 19일 금융감독원이 개최한 '전자금융업자 결제수수료율 공시제도 관련 태스크포스(TF)' 첫 회의의 구성원들만 봐도 알 수 있다. 회의에 참석한 기업은 네이버파이낸셜, 카카오페이, 토스, NHN페이코, KG이니시스, SSG닷컴, G마켓, 11번가, 우아한형제들(배달의민족) 등 핀테크사와 전자결제대행업체(PG), 오픈마켓 업체 등 12개 업체였다. 이들의 목소리를 반영해서 고작 공시 가이드라인을 만드는 것이다. 이 태스크포스에는 왜 영세상인들의 목소리, 소비자들의 입장은 반영되지 않는 것인가? 제멋대로 수수료를 책정하고 정부에서 규제하지 않다보니, 카드수수료의 몇 배에 달하는 폭거를 취하고 있는데도 말이다. 정부가 하지 않기 때문에 소비자로서 할 수 있는 수단은 단 한가지 뿐이다. 국민의힘 홈페이지의 오류메시지 'Please check your payment status'를 인용해 부탁드린다. 무엇이든 결제하기 전에 당신의 지불 상태를 확인하시라. 어떤 결제수단이 영세상인들에게 부담을 주고 있는지를…. 빅테크의 자유를 규제하지 않으면 결국 그들에게 예속된다. 누군가의 자유는 그들만의 자유라는 사실을 직시해야 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2022.06.03.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>아직 '불법'인데 앞다퉈 투자…수백억대 뭉칫돈 몰렸다 [긱스]</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004707371?sid=105</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>불법인 '비대면 의료'…VC들은 왜 앞다퉈 돈을 넣었을까이 기사는 프리미엄 스타트업 미디어 플랫폼 한경Geeks에 게재된 기사입니다.비대면 진료는 '불법'입니다. 코로나 19 팬데믹(대유행)이라는 특수한 상황 때문에 한시적으로 허용됐지만, 감영병 위기 대응 경보가 '심각'에서 '경계'로 낮춰지면 예전처럼 금지됩니다. 그럼에도 불구하고 벤처캐피털(VC)업계의 비대면 진료 투자 분위기는 뜨겁기만 합니다. 대기업의 관심도 높습니다. 새 정부가 육성 의지를 높이고 있지만 그렇다고 이것만 믿고 투자하기엔 리스크가 큽니다. 비대면 진료 분야에 베팅하는 투자자들은 어떤 속내를 가지고 기회를 모색하고 있을까요. 한경 긱스(Geeks)가 비대면 진료에 꽂힌 투자 전문가들을 만나봤습니다.   사진=뉴스1코로나19로 열린 비대면 진료 시장. 2년 새 관련 플랫폼들은 크게 성장했다. 비대면 진료와 처방약 배송 서비스를 하는 닥터나우가 대표적이다. 누적 이용자 수가 400만명을 넘었다. 실시간 중개 서비스가 강점인 ‘굿닥’ 비브로스의 ‘똑닥’ 라이프시맨틱스의 ‘닥터콜’ 또 블루엔트의 ‘올라케어’도 떴다. 비대면진료를 한다는 앱 숫자만 30여개나 된다. 현행법 상 비대면 진료는 불법이다. 2020년 2월, 감염병 상황을 감안해 비대면 진료가 한시적으로 허용됐지만, 코로나19 유행이 완전히 끝나면 비대면 진료를 할 길은 법적으로 막힌다. 비대면 진료 플랫폼들이 해당 비즈니스를 유지할 수 있겠냐는 물음표가 따라붙는다. 실제로 코로나 유행이 잦아들면서 비대면 진료 이용자도 줄어드는 추세다. 와이즈앱 분석 결과 4월의 비대면 진료 앱 이용자는 3월보다 감소했다. 그럼에도 벤처캐피탈(VC)들은 주요 비대면 진료 플랫폼에 돈을 넣고 있다. 닥터나우는 400억원(누적 520억원), 굿닥 210억원, 메디르는 30억원 규모의 투자를 최근 유치했다. VC들은 왜 불법으로 전락할 수도 있는 이 시장에 투자를 결정했을까. 소프트뱅크벤처스 "규제가 기회"닥터나우에 투자한 소프트뱅크벤처스의 성종헌 책임심사역에게 투자 이유를 묻자 "비대면 진료 서비스를 직접 써봤을 때 충격적이었다. 파괴력이 있는 영역"이라는 답이 돌아왔다. 그러면서 "고객의 수요가 큰 영역에 현재 규제가 있다면, 이 규제가 풀릴 경우 이 시장은 굉장한 기회가 된다”고 했다. 성 책임심사역의 얘기를 더 들어보면,  -코로나19가 종식돼도 비대면 진료가 계속될까. “규제가 풀릴 걸 예상한다. 근거가 있다. 일단 국민 여론이 좋다. 우리(소프트뱅크벤처스)도 타다에 투자한 적이 있고, 타다로 인해 서비스가 중단되는 경험도 했다. 지금은 타다 때와는 다르다. 비대면진료에 대한 여론이 압도적으로 좋다. 96%가 찬성한다. 타다 서비스에 강하게 반발했던 택시 노동자는 사회적 약자의 이미지가 있었지만 의약계는 화이트컬러다. 여론이 다르다.” 비대면 진료를 막는 대표적인 규제는 의료법 제33조 제1항이다. ‘의료인은 이 법에 따른 의료기관을 개설하지 아니하고는 의료업을 할 수 없으며, 그 의료기관 내에서 의료업을 하여야 한다’라고 돼있다. 이 조항에 따라 비대면 진료는 불법이지만, ‘심각단계 이상의 감염병 위기 경보를 발령했을 때’를 전제로 비대면 진료가 한시적으로 허용된 상태다.비대면 진료 플랫폼들은 한시적이 아닌 완전한 규제 완화를 요구하고 있다. 대한의사협회는 비대면 진료의 필요성은 인정하면서도 플랫폼 앱처럼 비대면 진료가 산업화하는 것은 위험하다고 지적한다. 대한약사회는 비대면 약 배달에 전면 반대한다. 대형병원(약국) 쏠림현상과 오진과 오배송 가능성, 개인정보 유출 등이 이유다. -의사협회 반대는. “우리가 의료인 단체들의 인터뷰를 했을 때 캐치했던 게 있다. 여전히 (의사협회가) 부정적이긴 하지만 긍정적인 의견들이 내부에서 생겨나고 있다는 거다. 의사협회 내에서도 ‘이건 피할 수 없는 흐름이고, 차라리 우리가 리드해서 원격의료라는 흐름 자체를 가져가자’는 의견이 나오고 있다. 원격의료 안 된다고 나서서 반대하셨던 분이 창업한 사례도 있다.” -코로나19가 끝나도 사람들이 이 서비스를 쓸까.“쓴다. 굉장히 편하다는 걸 경험해봤기 때문에 간단한 진료는 쓸 거다. 이미 비대면 진료 자체가 실생활로 전환됐다. 규제가 풀리면 시장은 폭발적으로 성장한다. 개인적으로 이렇게 ‘그레이’한 영역에 투자하는 걸 좋아한다. 기회니까.” -고려했던 리스크는.“그 역시 규제다. 풀릴 가능성이 크다고 보지만 100% 예측할 수는 없기 때문이다.” 카카오벤처스 "시장 안착에 시간 필요"비대면 진료 플랫폼 ‘메듭’ 운영사 메디르에 투자한 의사 출신인 김치원 카카오벤처스 상무는 “코로나19로 떴던 시장이 한번은 가라앉을 것”이라고 예상했다. 그러면서 “결국 법은 비대면진료를 허용하는 쪽으로 갈 가능성이 크다. 그 사이에 차근차근 엮어가야 한다. 생각보다 (시장이 완전히 안착하는 데는) 시간이 걸릴 것 같다”고 했다. -비대면 진료가 허용될까. “(초진이 아닌) 재진 정도라면 합의의 여지가 있다. 한시적 허용으로 의사와 환자 모두 경험해봤기 때문이다. 하지만 한국 여건 상 미국처럼 이것저것 다 열리진 못할 걸로 본다. 동네 의원, 재진 환자 위주의 원격진료 모델로 입법화될 가능성이 크다.”-변수는. “비대면 진료를 허용하면서 의사에게 비대면 진료 수가를 두 배로 줬다. 의사들 입장에선 두 배 안줬으면 안했을텐데, 돈을 줘서 한 게 분명히 있다. 코로나가 가라앉으면 두 배까진 줄 수 없다. 그 이후에 의사들이 얼마나 적극적으로 할 거냐는 문제가 있다. 반대로 돈을 줘서 했으니 이제와서 (의사단체가) 반대하기 창피한 상황이 된 측면도 있다.”-코로나19 이후에도 비대면 진료 시장이 성장할까. “한 번은 푹 가라앉을 거다. 코로나19 시기 비대면 진료가 급증한 배경엔 코로나 환자는 원격진료가 무료고, 의사는 수가를 두배로 받았던 이유가 크다. 양쪽이 맞은 건데 이 두가지가 다 꺼져버리고, 그 이후 반복적으로 (비대면 진료 행위가) 일어나기까진 시간이 걸릴 것 같다.” -해외도 그렇나. “미국도 큰 웨이브(유행)가 한번 지나가니까 비대면 진료가 전체 진료에서 차지하는 비중은 확 줄었다. 코로나 한창일 때는 ‘원격진료가 미래다’ 이런 얘기를 하다가 이제는  ‘원격진료만 할 게 아니라 오프라인으로 연결되는 모델을 만들어야 되는 것 아니냐’는 말이 나온다.”-끝내 비대면 진료 허용이 안되면 어떡하나. "내가 투자한 메디르 같은 경우는 일반적으로 생각하는 원격진료 말고도 여러가지 모델들을 같이 염두에 두고 있다. 원격 상담 서비스다. 안전장치도 만들고 있기 때문에 불확실성에도 불구하고 투자를 해볼만한 회사라고 판단했다."플랫폼 대표들 "비대면 시장 열릴 것"비대면 진료 플랫폼을 운영하는 스타트업들은 어떻게 생각할까. 플랫폼 대표들은 지금이 50년만에 온 ‘기회’라고 강조했다. “연 10억 건의 처방 중 5~10%가 비대면으로 바뀔 것”(임진석 굿닥 대표), “3년 안에 원격의료 규제가 다 풀릴 것”(장지호 닥터나우 대표)라고 했다. 비대면 진료앱을 운영하는 두 대표의 이야기를 더 들어보면, 임진석 굿닥 대표(왼쪽), 장지호 닥터나우 대표(오른쪽)-비대면 진료 자체가 불법이 될 수도 있는데 전망은. “한순간에 비즈니스 모델이 무너질 수 있다는 두려움이 없는 건 아니다. 결국엔 대통령이 끌고 나가야 한다. 워낙 이해관계자들이 많다.” (장지호 닥터나우 대표)“의사, 약사, 환자, 플랫폼 네 곳이 합의점을 잘 찾아야할 거고, 합의가 잘 이뤄진다면 합법화될 수 있다. 비대면 진료는 이미 흐름을 탔다.” (임진석 굿닥 대표)-의료계 입장이 변수인데. “의사단체가 반대했던 이유는 원격진료가 허용되면 종합병원으로 다 몰릴 거라는 우려 때문이었다. 그런데 결과는 달랐다. 81%가 1차 의원급을 이용했고, 대학병원 같은 상급종합병원은 20%밖에 안 됐다. 오히려 1차 의원들도 돈을 벌 수 있는 창구가 생긴 거다. 실제 어떤 약국은 폐업 위기였는데 우리와 제휴하면서 매출이 늘었다.” (장 대표)“비대면 진료가 이뤄지면 전체 파이 자체가 커진다. 접근성이 높아져 진료를 안 받던 사람들이 쓴다. 바빠서 병원 안 찾았던 회사원들이 비대면 진료를 이용해 낮에 진료를 받고, 여성질환 수요도 더 늘어난다.” (임 대표) -개원가 입장에서 환자가 늘어날 수 있다는 뜻인가. “그렇다. 환자와의 접점이 늘어나는 거다. 다른 종류의 새로운 환자를 만날 수 있는 계기를 만들어준다. 환자를 만나고 관계를 형성하고, 케어를 하는 주치의 개념이 생긴다.” (임 대표) 장지호 닥터나우 대표-오진이나 약물 오남용에 대한 우려도 있다. “의료계는 30년 전에도 똑같은 이유로 반대했다. 우리나라만큼 마약류 잘 통제되는 나라도 없다. 철저하게 관리하면 된다.” (장 대표) “오진 우려도 거의 없다. 허용범위가 감기나 만성질환 관리 수준일 거다.” (임 대표) -허용 범위가 어디까지 될 걸로 예상하나. “초진은 비허용, 재진부터 허용 얘기가 나오는데 초진도 허용해주는 게 맞다. 재진만 허용해주면 기존에 잘되는 병원만 잘 된다. 예를 들어 밤에 아기가 아플 경우 다니던 병원이 24시간 하는 게 아니라면 새로운 데 가서 초진을 받아야 하는데, 그걸 막으면 응급실에 갈 수밖에 없다.” (장 대표)“환자들은 초진까지 다 풀자고 하는 것 같은데 의약계가 어떻게 판단할지 여부는 예단하기가 어렵다. 개원가 쪽은 해보니 걱정했던 부분이 발생하지 않는다는 쪽으로 컨센서스가 생기는 느낌이다. 약사회 쪽은 여전히 부정적이다.” (임 대표)임진석 굿닥 대표-비대면 진료 자체가 코로나19에 따른 일시적 수요 아닐까. “한 해 발행되는 처방전이 10억건이다. 저는 이중 5~10%는 온라인으로 전환될 수 있다고 본다. 한번 경험을 해봤기 때문에 재사용 수요가 있을 수밖에 없다. 한국 사람들은 1분이라도 빠르면 좋아한다. 배달음식 시장도 맨 처음에는 집 나가면 바로 식당이 있는데 누가 이걸 이용하냐고 하지 않았나.” (임 대표) “미국의 텔레닥은 기업가치가 44조원이다. 중국 최대 보험회사인 핑안보험도 핑안굿닥터라는 자회사를 세워 원격진료 플랫폼을 출시했는데 현재 회원수가 3억명이나 된다. 비대면진료가 허용된 나라들에서 유니콘, 데카콘이 이미 나오고 있다.” (장 대표)  -플랫폼은 뭘로 돈을 버나. “지금은 비급여 진료 광고다. 피부과 안과 성형외과 치과, 한의원 등에 비급여 시설 광고를 한다. 수수료 모델은 의료법 때문에 쉽지 않다.” (임 대표) “우리도 수수료를 전혀 받지 않는다. 그걸 기반해서 돈을 벌 단계도 아니고, 목표도 그게 아니다. 장기적으로는 의료기기 쪽으로 확장할 가능성도 있고, 건강관리 프로그램을 짤 수도 있다.” (장 대표) 이들은 롤모델로 금융 플랫폼인 토스를 꼽았다. 장 대표는 "몇 년전만 해도 ‘돈 이체할 때 중간에 해킹되면 어쩌고. 개인정보 유출되면 어쩌고’ 우려했지만 결국 잘 자리잡지 않았나. 의료업계의 토스가 되는 게 목표”라고 했다. 임 대표는 “토스가 슈퍼앱 전략으로 성공했는데 우리도 헬스케어에서 슈퍼앱이 돼 서비스 가치를 창출할 생각”이라고 했다. 그래서, 비대면의료 어떻게 된다고?그래픽을 저장하면 더 크게 보실 수 있습니다. 코로나19 유행이 끝났다고 비대면 진료를 전면 중단하기는 어려울 것이란 전망이 많다. 정부는 비대면진료협의체를 구성해 제도화를 논의하기로 했다. 대통령직인수위원회는 ‘윤석열정부 110대 국정과제’에 비대면 진료 제도화를 포함했다. 윤석열 대통령은 선거기간 중 "비대면 진료는 피할 수 없는 현실"이라며 팬데믹 이후에도 이어가야 한다는 의지를 내비친 적 있다. 의료 지원 여건이 열악한 군 격오지를 중심으로 이동형 원격진료를 추진하겠다는 공약을 발표하기도 했다. 관련 단체마다 견해 차가 아직 크다. 이를 조율해가며 비대면 진료의 정의부터 허용 범위, 대상까지 치열한 논의가 진행돼야 한다. 의협은 플랫폼 앱처럼 비대면 진료가 산업화하는 것은 위험하다고 지적한다. 박수현 의협 대변인은 “원격진료는 보완수단이어야 한다”며 “환자에게 연속성 있는 진료를 제공해야 하는데, 비대면 진료 앱은 어렵다”고 말했다.의협 의료정책연구소는 최근 보고서에서 비대면 진료 시행 시 △환자 위치 기준 지역 내 1차 의료기관 허용·제한적 2차 의료기관 협진 △초진 불가 △진료 가능 질환 및 처방 약, 월 환자 수 제한 등이 필요하다고 밝혔다. 약사회는 환자에게 제대로 된 복약지도를 할 수 없다며 앱을 통한 비대면 약 배달에 전면 반대하는 상황이다. 지난 4월 대통령직인수위원회가 비대면 진료 스타트업과 간담회를 하는 모습.윤석열 정부가 원격의료를 정식으로 도입하기 위해서는 원격의료의 범위를 협소하게 규정한 현행 의료법을 필수적으로 개정해야 한다. 민주당은 당초 원격의료에 반대하는 입장이었지만, 최근에는 긍정적인 태도를 일부 보이고 있다. 비대면 진료가 다시 국민의힘과 민주당 대립의 중심에 놓일 가능성도 있다. 시민단체들이 의료 영리화의 단초가 될 수 있다며 강하게 반대하고 있는 것도 주목해야 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2022.06.15.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>미·중 창고 재고량 점차 늘어…사상 최고 수준</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011249621?sid=104</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>기사내용 요약"이유 다르지만 공급망의 새로운 압력에 의한 것"소비패턴·취향 변화에 따라 예측하기 어렵게 흘러가지난 7월10일 공중촬영한 중국 상하이 양샨 컨테이너부두 모습. [AP/뉴시스] 2021.07.10.[서울=뉴시스] 임종명 기자 = 미국과 중국의 수출품 창고의 재고량이 사상 최고 수준으로 늘고 있는 것으로 나타났다. 워싱턴포스트(WP)는 14일(현지시간) 이러한 현상이 코로나19 팬데믹(세계적 대유행)에서의 회복에 따라 나타난 것이라고 분석했다.보도에 따르면 미국과 중국의 창고들은 팔리지 않은 텔레비전, 냉장고, 소파들로 가득 차 있다. 나라마다 다른 이유로 상품이 쌓이고 있지만 세계적 공급망에 대한 새로운 압력에 의한 것이라고 WP는 전했다.미국에서는 소비자들이 지난해처럼 식재료를 사는 것보다는 외식 등에 더 많은 돈을 쓰고 있다. 이것이 소매 재고량을 사상 최고 수준으로 끌어올렸다.중국의 경우 최근 몇 달 동안 많은 공장들이 생산을 계속해왔는데 정부의 '제로 코로나' 정책에 따른 봉쇄로 소비 지출이 억제되면서 재고가 늘고 있다.컨설팅업체 에른스트앤드영의 수석 경제분석가 그레고리 데이코는 이러한 재고 상황에 대해 "사용가능한 상품과 판매된 상품 사이에 수요 불일치가 있어 나타난 것"이라고 설명했다.미국의 경우 소비자들이 코로나19 대유행 이전의 생활 방식을 다시 시작하면서 침체됐던 1분기부터 소비 심리가 반등했다.미국은 2년 이상에 걸쳐 충분한 물자를 국내로 들여오기 위해 고군분투했다. 이 결과 갑자기 일부 품목의 양이 너무 많고, 어떤 품목은 양이 충분하지 않게 됐다. 넘쳐나는 재고와 변화하는 소비자 취향의 간극에 경제가 예측할 수 없는 방향으로 뒤틀렸다.지난 4월 미국의 수입은 3월에 비해 130억 달러 감소했다. 이는 컨테이너선에 적재할 수 있는 공간에 대한 수요가 줄어든 것을 의미한다. 세계 컨테이너 운임지수인 프레이토스 지수에 따르면 지난달 1일 이후 중국에서 미국 서해안으로 표준 컨테이너를 보내는 비용이 37%나 떨어졌다. 이달 10일에는 20척의 화물선이 남부 캘리포니아 해안에서 정박하기를 기다리고 있었는데, 이는 올 1월 109척이었던 것에 비하면 크게 감소한 것이다.지난해와 같은 심각한 공급 부족이 반복될 가능성은 거의 없지만 이러한 상황 개선은 일시적인 것일 수 있다고 WP는 밝혔다.미국 소매업체들은 빠르게 변화하는 소비자 취향에 맞춰 주문하는 상품 종류를 바꾸고 있다. 이에 LA항도 예년보다 이른 성수기에 대비하고 있다.시카고의 세코 로지스틱스의 최고성장책임자인 브라이언 버크는 "우리는 공급망 혼잡이 다시 증가할 것으로 예상한다. 그래서 이에 대비하고 있다"고 밝히기도 했다.중국 경제는 올 봄 상업 수도인 상하이 등의 2600만 주민이 봉쇄책을 적용받음에 따라 거의 중단되다시피했다. 최근의 봉쇄는 중국 경제의 주요 부분을 거의 작동하지 못하게 했다. 소비자들은 사실상 집에 갇혔고 현지 기업들은 문을 닫았다. 반면 많은 공장들은 감염 위험을 최소화하기 위해 근로자들을 24시간 내내 현장에 머물게 함으로써 운영을 계속했다.경제가 다시 살아나면서 중국의 재고가 줄기 시작할 것이란 전망이 있지만, 캐피털 이코노믹스의 아시아 담당 수석 경제분석가인 마크 윌리엄스는 "상하이와 베이징은 이미 새로운 규제를 받고 있다. 소비지출은 계속 부진할 것"이라고 말했다.이는 미국 고객들이 이용할 수 있는 소비재의 공급을 증가시켜 수출 가격이 떨어지는 영향을 미칠 것이다.이미 외국산 제품의 과잉은 미국의 일부 상품 가격을 낮추는데 기여하고 있을 수 있다는 예상도 있다. 이렇게 쌓인 재고를 처리하는 것은 세계 2대 경제대국의 큰 성장률을 형성할 것이라고 WP는 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2022.06.07.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>[편집장 레터] ‘국민근심기업’으로 전락한 카카오</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000075467?sid=110</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>문어발 쪼개기 상장에 대한 국민 여론 계속 악화‘노랭이 캐릭터까지 상장할 것’ 비아냥 목소리도연초 ‘일부 경영진의 모럴해저드로 인해 흔들리는 카카오’ 특집 기사와 편집장레터를 썼습니다. 사달의 시작은 카카오페이가 상장한 지 한 달여 만인 지난해 12월 10일, 류영준 대표를 비롯한 경영진 8명이 900억원어치에 달하는 스톡옵션을 일괄 처분한 것이었죠. 그야말로 카카오에 대재앙을 불러온 장본인인 류영준 대표가 카카오그룹 모회사인 카카오 공동대표에 내정돼 있다는 사실이 더 큰 논란을 불러왔습니다. 카카오 직원들은 “류 대표가 이사회와 주총을 거쳐 카카오 공동대표 자리에 오르면 이건 ‘카카오는 모럴해저드를 일으켜도 신경 쓰지 않는다’는 시그널을 주는 것과 다를 바 없다”고 목소리를 높였고, 노조는 “류영준 카카오페이 대표의 카카오 대표 내정을 철회해야 한다. 주주와 사내 구성원 신뢰 회복을 위해 즉각 사퇴하라”는 내용의 성명을 발표했습니다.이 사태는 카카오그룹을 뿌리부터 뒤흔든 핵폭탄이 됐습니다. 좀 괜찮다 싶은 비즈니스 모델이 있으면 바로 자회사로 쪼개어 내보내고 그 자회사를 상장시키는 방식으로 기업가치를 불려온 카카오 모델에 대해 근본적인 점검이 필요하다는 문제의식으로까지 번졌죠. 그리고 6개월. 문제의식은 여전하지만, 별반 달라진 것은 없다는 평가입니다. 그 와중에 카카오 계열사 주가는 급전직하했고 카카오그룹 직원들과 투자자들은 우울한 나날을 보내고 있는 요즘입니다. 당장 주가가 떨어진 건 금리 인상과 인플레이션 시기에 성장주들이 똑같이 직면한 어려움이라 항변할 수도 있겠지만, 더 암울한 사실은 카카오의 미래에 대해서도 그다지 낙관적인 전망이 들려오지 않는다는 것입니다. 지난 5월 20일 토스증권이 ‘네이버와 카카오, 지금 하나만 산다면?’이라는 설문을 돌렸더니 무려 75%가 ‘네이버’를 선택해 압승을 거뒀다는 소식입니다. 수천 개 댓글 대부분이 “물적분할 밥 먹듯 해서 주주 뒤통수치는 기업 믿을 수 없다” “카카오의 양아치 짓을 보고 네이버로 완전 돌아섰다” “라이언인지 뭔지 나중에 노랭이 캐릭터까지 상장할 것” “주주 가지고 노는 방법은 우리 카카오 따라올 기업이 없음” 등 카카오를 비난하는 내용이었습니다. 사실 작금의 사태를 초래한 원인으로 ‘그립이 약한 카카오 조직의 기업문화’가 첫손에 꼽혔습니다. 김범수 창업자가 ‘자율성’이라는 이름 아래 놔둔 것이 빛도 있었지만 분명한 그늘도 만들었다는 평가입니다. 심지어 문어발 쪼개기 비판이 심해지자 카카오가 카카오모빌리티에 “상장 준비를 멈추라”는 의견을 전달했음에도 카카오모빌리티가 들은 척도 안 한다나…. 현재 카카오모빌리티는 ‘나 홀로 내 갈 길 간다’며 상장 준비를 착착 진행하고 있는 중입니다. 이런 상황에서 ‘통합의 리더십’ 주체가 되어야 할 김범수 창업자는 지난 3월 이사회 의장과 등기이사 자리마저 내놓았습니다. 카카오가 향후 어떠한 격랑에 휩싸이든 이제 김범수 창업자는 아무런 책임도 없는 셈입니다. ‘국민꿈의기업’에서 ‘국민근심기업’으로 전락한 카카오. 카카오가 과연 다시 ‘국민꿈의기업’으로 되돌아갈 수 있을까요? 매경이코노미가 그 단초를 찾아보기 위해 카카오를 대해부했습니다.[본 기사는 매경이코노미 제2162호 (2022.06.08~2022.06.14일자) 기사입니다]</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2022.06.09.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>LGU+, AI·데이터 인력 2년간 200명 늘린다</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004063088?sid=105</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>LG유플러스 최고데이터책임자 기자간담회8월 소상공인 AI 콜봇 출시···AI가 전화 응대"200명 더 뽑아 400명 CDO 조직 구성할 것"[서울경제] LG유플러스(032640)가 앞으로 2년간 인공지능(AI)·데이터 인재 200명을 추가 채용한다. 최고데이터책임자(CDO)를 중심으로 AI·데이터를 이용한 수익 창출에 본격적으로 나선다.LG유플러스 AI·데이터 사업 간담회에서 임원들이 기자들 질문에 답하고 있다. 왼쪽부터 성준현 DX전략담당(상무), 전경혜 AI·데이터프로덕트담당(상무), 황규별 최고데이터책임자(CDO), 정소이 AI·데이터엔지니어링담당(상무), 전병기 AI·데이터사이언스담당(상무)./강도림 기자9일 LG유플러스는 서울 용산 사옥에서 AI·데이터 사업 간담회를 열고 디지털 혁신 기업 전환을 가속화한다고 밝혔다. LG유플러스는 지난해 7월 CDO 조직을 신설했다. 올해 1월 미국 AT&amp;T 출신의 황규별 데이터 전문가를 조직 수장 CDO(최고데이터책임자·전무)로 영입했다.황 CDO는 “(회사 전체가) 스타트업처럼 프로덕트 중심의 애자일한 개발 체계로 나아갈 것”이라고 말했다. 상부에서 내려오는 지시를 따르는 과거 방식이 아닌 고객의 소리를 직접 듣고 상품을 지속적으로 업데이트하겠다는 것이다. 프로덕트 중심 조직은 시장과 고객의 변화에 민첩하게 대응할 수 있도록 구글·아마존웹서비스(AWS)·토스 등 테크 기업들도 도입했다. LG유플러스의 CDO 조직은 △DX 전략 △AI·데이터 프로덕트 △AI·데이터 사이언스 △AI· 데이터 엔지니어링 등으로 구성된 프로덕트 중심 조직이다.황규별 CDO가 간담회에서 AI·데이터 사업 전략을 발표하고 있다./강도림 기자황 CDO는 “데이터를 성숙하게 활용 위해서는 그 회사 문화가 바뀌어야 한다”며 “현재 200명으로 구성된 CDO조직을 2년 내 400명으로 만들고 사 내 사업부서·외부 스타트업과도 협력하겠다”고 말했다.LG AI연구원과는 초거대 AI ‘엑사원(EXAONE)’에 대해 협력 중이라 밝혔다. 엑사원으로 기존 고객센터 기능을 향상시키고 8월에 소상공인용 AICC(AI컨택센터)를 출시할 예정이다. 미리 녹음된 음성안내를 사용하는 ARS와 달리 AI가 예약시간·인원·메뉴를 받아 점주에게 자동으로 정리해 알려준다.LG유플러스는 AI/데이터 기술을 프로덕트 그룹으로 분류했다. 사진제공=LG유플러스LG유플러스는 AI·데이터 기술을 프로덕트 그룹으로 분류했다. AICC 프로덕트 그룹에는 AI 콜봇·챗봇·상담어드바이저 등의 서비스가 있는 식이다.황 CDO는 “산학협력 인턴십을 통해 젊은이에게 기회를 제공하고 우리 데이터를 그들도 테스트해볼 수 있을 것”이라며 “역량 있는 스타트업에 투자도 하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2022.06.09.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>LGU+, 데이터·AI로 '디지털 혁신기업'변신</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000677833?sid=105</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>스타트업처럼 빠르게 일하는 '프로덕트' 중심 조직…2024년까지 200여명 채용LG유플러스가 데이터와 인공지능(AI)을 전략적으로 자산화하고 이를 통해 '이용자 중심의 디지털 혁신기업'으로 전환을 가속화한다.LG유플러스 프로덕트 설명 도표 [사진=LG유플러스 ]LG유플러스(대표 황현식)는 구글, 아마존 등 글로벌 빅테크 기업과 같이 데이터와 AI로 수익을 창출하고, 기업가치를 제고하겠다고 9일 발표했다.'디지털 혁신기업'으로의 변신을 추진하는 LG유플러스는 AI 개발과 데이터 분석 등을 전담하는 조직인 '최고데이터책임자(CDO)'를 지난해 7월 신설했다. 이 조직의 수장을 맡아 올해 초 LG유플러스에 합류한 황규별 CDO는 미국 델타항공, 다이렉TV(DirecTV), AT&amp;T, 워너미디어 등에서 데이터 플랫폼을 구축하고 분석해 수익화를 담당한 전문가라고 회사는 소개했다.황 CDO는 데이터·AI를 활용한 수익창출을 위해 ▲소상공인 특화 AI컨택트센터(AICC) 서비스 출시와 데이터 상품(데이터플러스·U+콕) 경쟁력 강화 ▲프로덕트 중심의 애자일 조직 개편 ▲개발역량 내재화를 위한 우수인재 두 배 확대 등을 추진키로 했다.LG유플러스는 이용자가 상품과 서비스를 경험하는 모든 과정에서 '편리함'과 '가치'를 느낄 수 있도록 AI·데이터 기술을 프로덕트 그룹으로 분류했다. AI·데이터 기술과 연관된 개별 상품은 그룹 하부의 프로덕트로 분류하고 있다.'AICC 프로덕트 그룹'에는 AI 콜봇, 챗봇, 상담어드바이저, 커넥티드카 등 서비스가 있다. 특히 오는 8월 출시 예정인 소상공인 특화 AI 콜봇 서비스 'AI 가게 매니저'는 미리 녹음된 음성안내를 사용하는 ARS와 달리 AI가 전화로 소비자를 응대한다.또다른 프로덕트 그룹인 '인사이트(Insights) 그룹'의 '데이터플러스'는 LG유플러스 이용자 특성, 미디어소비, 이동패턴 등 다양한 데이터를 기반으로 이용자 라이프스타일, 온·오프라인의 다양한 수요를 분석해 사업전략을 수립·실행하는데 필요한 인사이트·데이터 마케팅 채널을 제공하는 기업용(B2B) 빅데이터 서비스다.'타겟팅(Targeting) 프로덕트 그룹'의 빅데이터 기반 맞춤형 상품 추천 쇼핑플랫폼 'U+콕'은 지난해 4월 대비 1년 새 거래금액이 4배 이상 성장했다. 월평균 이용자 수(MAU)는 44만명을 돌파했으며 'U+콕'을 통한 재구매율은 40%를 넘었다. 'U+콕'은 지난 4월 UX를 개편한데 이어 5월에는 정기배송 서비스를 시작했으며, 이달에는 전용 모바일 앱을 선보일 예정이다.황규별 CDO는 "이러한 프로덕트의 경쟁력을 확보하기 위해서는 스타트업처럼 애자일하고 민첩하게 움직이는 게 필수"라며 "CDO는 현재 200여명이 20여개 이상의 팀으로 구성되어 있는데, 각 팀에 배속된 전문가들이 기획-개발-출시까지 사업전반에 대한 전략과 예산의 자율권을 보장받는 조직운영으로 탈바꿈시키고 있다"고 말했다.LG유플러스는 AI, 데이터, 디지털 역량을 강화하기 위해 프로덕트 중심 '애자일 조직'으로 진화하고 있다고 설명했다. 프로덕트 중심 조직은 아마존웹서비스(AWS)·구글·토스 등 테크기업들이 도입한 시스템으로, 시장과 이용자 변화에 기민하게 움직이는 구조다.LG유플러스는 이 같은 프로덕트 중심 문화를 뿌리내리고, 외주와 제휴에 의존하던 개발역량을 내재화하는데에도 집중할 계획이다. 오는 2024년까지 AI·데이터 사이언티스트, 데이터·플랫폼 엔지니어, SW·ML-Ops(소프트웨어·기계학습 상용 적용) 엔지니어 등 200여명의 우수 개발인력을 채용해 현재 인원의 두 배 수준인 400명까지 전문인력을 확대할 계획이다.LG유플러스는 우수인재 확보를 위해 산학협력 인턴십 프로그램을 준비하는 등 다양한 채널을 통해 개발자들과 유기적인 관계를 구축하는 데브렐(DevRel, Developer Relations) 활동을 강화할 계획이다.황 CDO는 "초개인화, 초연결과 같은 폭발적인 고객 니즈에 선제 대응하는 자기 완결형 조직이 되려면 소프트웨어 역량은 반드시 내재화가 필요하다"며 "나아가 데이터와 디지털 능력을 기반으로 일하는 문화를 도입하고, LG유플러스가 보유한 AI와 데이터가 전략적인 자산이 될 수 있도록 가치를 창출하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2022.06.15.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>추락하는 주식시장에 비상장 주식도 약세… 상장 철회도 이어져</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003697708?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>서울거래 비상장 앱에서 비상장주식의 주가가 표시되는 모습 /서울거래 비상장 제공										주식시장이 요동치는 가운데 올 들어 금리 상승에 따른 유동성 축소로 비상장 주식의 주가도 하락세를 보이고 있다. 높은 기업 가치를 인정받기 어려운 상황에서 기업공개(IPO)를 포기하는 사례도 이어지고 있다.15일 비상장 주식 거래 플랫폼인 서울거래 비상장에 따르면 전자 상거래 플랫폼 마켓컬리의 운영사인 컬리의 주가는 14일 기준 지난해 말 대비 42% 하락한 6만5000원 수준이다. 비상장 주식의 주가는 ‘서울거래 비상장’에서 비상장 주식이 실제 거래되는 가격과 매물의 가격을 기반으로 산정한 가격이다. 서울거래소 비상장 관계자는 “올 들어 핀테크 기업들의 주가가 약세”라고 했다. 금융 앱 토스의 운영사인 비바리퍼블리카의 주가는 지난해 말 대비 46.9% 하락했다.이처럼 올 들어 주요 비상장 주식들까지 약세를 보이고 있지만 개인 투자자들의 비상장 주식 투자에 대한 관심은 이어지고 있다. 서울거래 비상장은 “올해 1분기 거래 인원은 지난해 4분기 대비 25.2% 증가했다”고 했다.인터넷뱅크 등 핀테크도 약세							인터넷 전문 은행 케이뱅크의 주가도 올 들어 크게 하락했다. 지난 14일 케이뱅크 주가는 1만5600원으로 지난해 말(2만1000원) 대비 25.7% 떨어졌다. 컬리와 마찬가지로 ‘새벽배송’ 서비스를 제공하는 오아시스(오아시스마켓 운영)의 주가도 올 들어 13.6% 하락했다. 또한 숙박 예약 앱인 야놀자의 주가도 올 들어 18.2% 하락했다.금리 인상으로 가상 화폐 가격도 약세를 보이면서 가상 화폐 거래소를 운영하는 기업들의 주가도 올 들어 크게 하락했다. 업비트를 운영하는 두나무의 주가는 올 들어 43.5% 하락했고, 빗썸을 운영하는 빗썸코리아의 주가는 66.7% 떨어졌다. 두나무의 올해 1분기 순이익이 지난해 같은 분기 대비 64.1% 감소했고, 빗썸코리아의 1분기 순이익도 작년 동기 대비 79.2% 줄어들었다. 작년에 비해 거래가 줄어들면서 수수료 수익 등이 줄어들었을 것으로 보인다. 상장 철회도 이어져							올 들어 기업들의 상장 철회도 이어지고 있다. 지난 1월 현대엔지니어링은 “회사의 가치를 적절히 평가받기 어려운 측면 등 제반 여건을 고려했다”며 상장을 철회했다. 지난 5월에는 ‘대어급 공모주’로 분류됐던 SK쉴더스와 원스토어가 같은 이유로 상장을 포기했다.올 들어 상장을 포기했다가 다시 추진한 기업들은 희망 공모가를 많이 낮췄다. 지난 2월에 상장을 철회했던 대명에너지는 희망 공모가액이 2만5000~2만9000원이었는데, 이를 1만5000~1만8000원으로 낮췄다. 실제 공모가는 1만5000원으로 확정됐다. 15일 종가는 1만7050원으로 공모가보다 높은 수준이다.신약 연구·개발 기업 보로노이도 지난 3월 상장을 철회했다가 공모가를 낮춰서 상장 절차를 진행 중이다. 기존에는 희망 공모가액이 5만~6만5000원이었는데, 다시 상장을 추진하면서 4만~4만6000원으로 낮췄다. 실제 공모가는 그중에서도 가장 낮은 4만원으로 결정됐다.지난 4월 상장예비심사를 통과한 쏘카 역시 상장을 준비 중이다. 쏘카는 “정해진 기일(상장예비심사 통과 후 6개월) 내에 상장을 추진할 예정”이라며 “준비 기간 단축을 위해 최대한 노력할 것”이라고 했다.상장을 추진 중인 컬리는 한국거래소로부터 상장예비심사를 받고 있다. 컬리는 “상장예비심사 결과가 나오면 시장 상황을 종합적으로 검토해 최적의 시점에 상장할 수 있도록 준비 중”이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2022.06.09.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>LGU+, 구글처럼 데이터·AI로 수익 창출…CDO 체제 전면에</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003128576?sid=105</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>[일간스포츠 정길준]   황규별 LG유플러스 CDO가 9일 서울 용산사옥에서 열린 기자간담회에서 디지털 전환 계획을 발표하는 모습. LG유플러스 제공     LG유플러스가 주력인 통신사업을 벗어나 구글·아마존처럼 데이터·인공지능(AI)으로 수익을 창출하는 글로벌 빅테크 기업으로 탈바꿈한다.    LG유플러스는 올 초 선임한 황규별 CDO(최고데이터책임자)를 필두로 고객 중심의 디지털 혁신 기업으로 전환을 가속한다고 9일 밝혔다.    황 CDO는 "데이터·AI를 상품의 개념을 접근하면서 고객 니즈를 충족해 LG유플러스가 시도하는 성장의 동력이 되려고 한다"고 말했다.    LG유플러스가 지난해 7월 신설한 데이터·AI 전담 조직의 수장을 맡은 황 CDO는 미국 델타항공·다이렉TV·AT&amp;T·워너미디어 등에서 데이터 플랫폼을 구축하고 분석해 수익화를 담당한 전문가다.    15년간 미국 통신·미디어 사업에 몸담았지만 고객 데이터를 십분 활용하는 사례를 찾기 드물었다는 설명이다.    황 CDO는 "(AT&amp;T는) 구글과 비교해 적지 않은 데이터를 보유하고 있지만 실제 사용하는 양은 2% 불과했다. 기술적으로만 접근해 잘 만들어놓고 쓰지 않는 실수를 하기도 했다"고 말했다.    이어 "결국 고객과 시장 트렌드에 대한 이해가 부족해서 생긴 일"이라며 "워터폴 방식이 아니라 애자일 방식으로 고객의 소리를 듣고 시장에 접근하겠다"고 덧붙였다.    황 CDO는 데이터·AI를 활용한 수익 창출을 위해 소상공인 특화 AICC(AI 고객센터)와 데이터 상품(데이터플러스·U+콕) 경쟁력 강화·프로덕트 중심의 애자일 조직 개편·개발 역량 내재화를 위한 우수 인재 두 배 확대 등을 추진한다.    AICC 프로덕트 그룹에는 AI 콜봇·챗봇·상담 어드바이저·커넥티드 카 등 다양한 서비스가 있다.    오는 8월 출시 예정인 소상공인 특화 AI 콜봇 서비스 'AI 가게 매니저'는 미리 녹음한 음성안내를 사용하는 ARS와 달리 AI가 전화로 고객을 응대하는 차별화 서비스다.    예를 들어 어떤 고객이 식당에 저녁 식사를 예약하는 전화를 걸었다면 AI가 예약시간·인원·주문하고자 하는 메뉴를 받아서 점주에게 자동으로 정리해 알려준다. 매장의 위치나 주차가 가능한지 묻는 등 다양한 상황에도 능동적으로 대처한다.      LG유플러스 고객·상품 중심 데이터·AI 활용 개념도. LG유플러스 제공     또 다른 프로덕트 그룹인 인사이트 그룹의 '데이터플러스'는 LG유플러스가 보유한 고객 특성·미디어 소비·이동 패턴 등 데이터를 기반으로 고객의 라이프스타일과 온·오프라인 수요를 분석해 사업 전략을 수립·실행하는 B2B(기업 간 거래) 빅데이터 서비스다.    타겟팅 프로덕트 그룹의 빅데이터 기반 맞춤형 상품 추천 쇼핑플랫폼 'U+콕'은 지난해 4월 대비 거래금액이 4배 이상 증가했다. 월평균 이용자 수(MAU)는 44만명을 돌파했으며, 재구매율은 40%를 넘었다.    U+콕은 지난 4월 UX(이용자 경험)를 개편한 데 이어 5월에는 정기배송 서비스를 시작했다. 이달 전용 모바일 앱을 선보일 예정이다.    LG유플러스는 AI·데이터·디지털 역량을 강화하기 위해 프로덕트 중심의 애자일 조직으로 움직인다. 프로덕트 중심 조직은 아마존웹서비스(AWS)·구글·토스 등 테크기업들이 도입한 시스템으로, 시장과 고객의 변화에 기민하게 움직이는 구조다.    외주와 제휴에 의존하던 개발 역량은 내재화한다.    2024년까지 데이터·AI 사이언티스트와 데이터·플랫폼 엔지니어, SW·ML-Ops(소프트웨어·기계학습 상용 적용) 엔지니어 등 200여명을 채용해 현재 인원의 두 배 수준인 400명까지 인력을 확대할 계획이다.    정길준 기자 jeong.kiljhun@joongang.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2022.06.05.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>인터넷은행 가계대출 5개월 연속 증가</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001158838?sid=101</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>카카오·케이뱅크 5월 잔액 급증시중은행 5개월 연속 감소와 대조카카오뱅크. 연합뉴스올해 들어 카카오뱅크와 케이뱅크 등 인터넷전문은행의 가계대출 잔액이 다섯 달 연속 증가세를 기록했다. 5대 시중은행의 가계대출이 5개월째 감소하고 있는 것과는 대조된다.5일 은행권에 따르면 지난달 말 기준 카카오뱅크와 케이뱅크의 가계대출 잔액은 각각 26조 5445억 원, 8조 4900억 원으로 집계됐다. 4월 말과 비교하면 한 달 새 각각 3100억 원, 2881억 원 증가했다.토스뱅크는 지난달 말 기준 가계대출 잔액을 공개하지 않았으나, 출범 초기인데다 공격적으로 영업을 확대해나가고 있는 만큼 증가세를 이어갔을 것이라는 관측이 나온다. 토스뱅크의 대출 잔액이 올해 들어 매월 평균 약 4000억 원씩 증가해온 것을 고려하면 5월 말 기준 인터넷 전문은행 3사(카카오·케이·토스뱅크)의 가계대출 잔액은 38조 원대에 육박했을 것으로 추정된다.인터넷 은행의 가계대출 확대 추세는 올해 들어 주요 시중은행의 가계대출 잔액이 5개월 연속 감소한 것과 대조된다.이 같은 현상은 부동산과 주식 등 자산시장이 냉각되면서 고신용자들의 대출 수요가 감소한 반면, 생활비 목적 등의 중·저신용자 대출 수요는 꾸준한 영향으로 풀이된다.최근 인터넷 은행권은 지난해 말 토스뱅크가 제3호 인터넷 전문은행으로 출범하며 업권의 세가 커진데다, 공격적인 영업으로 신규 가입자가 큰 폭 늘어나고 있다.지난달 말 기준 카카오뱅크의 고객 수는 1896만 명, 케이뱅크는 772만 명이었다. 전달 대비 각각 18만 명, 10만 명이 늘었다. 이주환 선임기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2022.06.09.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>기지개 켜는 해외여행…QR 등 글로벌 페이 전쟁</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004849241?sid=101</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>현충일 황금연휴 앞두고 인천공항 이용객 2년 전보다 5배 껑충글로벌 모바일 간편결제 시장 수요 증가…2024년 8조1704억달러 성장 전망 8일 인천국제공항 제1터미널이 여행객들로 붐비고 있다. 사진=뉴시스  [파이낸셜뉴스] 코로나19로 인해 억눌렸던 해외여행 수요가 폭발하는 ‘보복 여행’이 본격적으로 시작되고 있다. 이에 따라 QR코드를 이용한 글로벌 모바일 간편결제 시장에서도 총성없는 전쟁이 펼쳐지고 있다.   9일 국토교통부 항공포털시스템에 따르면 5월 국제선 여객수는 90만명을 넘어섰다. 이는 2020년 2월 이후 2년3개월만이다. 또 시장조사기관 스타티스타에 따르면 전 세계 간편결제 서비스 시장 규모는 2020년 4조9000억달러에서 2024년 8조1704억달러로 성장할 전망이다. 중국, 미국에 이어 한국은 1206억달러로 전 세계 5위 규모의 간편결제 시장을 보유하고 있다.   국내 모바일 간편결제 이용률은 지난해 93%를 기록하며 사실상 결제 패러다임을 완전히 뒤바꿨다. 국내 대표 빅테크 기업 네이버와 카카오는 각각 3000만명이 넘는 누적 가입자를 확보한 상태다. 그 외 토스, 페이코, 삼성페이, 신한플레이, NH플레이, 당근페이 등 다양한 간편결제가 속속 출시되고 있다.   100개 이상의 각양각색의 간편결제 페이들이 추가되고 있는 가운데 고객들은 다른 플랫폼 서비스를 이용하며 축적된 자산을 타 인프라에서는 사용할 수 없어 불편함을 겪고 있다.   세한엔에프씨는 이러한 문제점을 해결할 수 있는 국내외 모든 페이 통합 플랫폼 ‘페이플러그’를 론칭했다. 이 회사는 모든 결제수단을 모바일로 연결시키는 것을 목표로 온·오프라인 모바일 페이 통합 및 결제 인프라를 제공하는 페이플러그를 개발했다.   페이플러그는 모바일 결제기술이라면 무엇이든 결제처리가 가능해 해외여행 본격화로 수요가 확대될 것으로 기대된다. 향후 해외결제는 물론 가상화폐 결제 등으로 확산될수록 경쟁력을 확보할 수 있을 것으로 전망된다.   카카오페이는 포스트 코로나 시대에 맞춰 글로벌 페이 사업 확장을 위해 롯데면세점과 협업에 나섰다. 롯데면세점을 찾는 ‘알리페이+’와 연계된 아시아 전역의 월렛 사용자들에게 카카오페이 망을 통한 결제를 지원할 예정이다. 알리페이+는 글로벌 크로스보더 모바일 결제 솔루션으로 연계된 월렛 사용자들은 추가 앱 설치없이 롯데면세점에서 편하게 결제 서비스를 이용할 수 있다.   다날은 휴대폰결제 시장 점유율 1위 기업으로 국내외 결제, 인증사업 및 온∙오프라인 휴대폰, 바코드결제 등의 사업을 영위하고 있다. 휴대폰이나 태블릿을 통해 QR코드 간편결제 서비스를 제공하고 있다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2022.06.01~2022.06.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.06.01~2022.06.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2022.06.08.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>연봉 150% 올려주고 1억 스톡옵션까지…파격조건 내걸고 "우리회사 와라"</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004709116?sid=105</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>스타트업 '인재 모시기' 치열 국내 1위 원격의료 '닥터나우'입사 축하금 200만원 지급도 직방·리디·브랜디도 영입경쟁사진=게티이미지뱅크‘입사 축하금 200만원, 스톡옵션 최대 1억원.’원격의료 플랫폼 기업인 닥터나우가 8일 공개한 신규 경력직 직원 채용 조건이다. 최근 대규모 투자 유치에 성공한 이 회사는 인재를 잡기 위해 업계 최고 수준의 대우를 약속했다. 정보기술(IT) 분야 개발자 등의 구인난이 심해지면서 파격적 조건을 내거는 스타트업이 늘고 있다.닥터나우는 다음달 말까지 IT 개발, 사용자 경험(UX), 세일즈 등의 1년 이상 경력직 직원을 채용하면서 이전 직장보다 최대 150% 오른 연봉을 지급하겠다고 약속했다. 다른 직장에서 근무하는 지원자를 고려해 두 차례 하는 면접은 하루에 끝낼 계획이다. 지원서 접수부터 면접, 최종 합격 발표까지 7일 안에 마무리된다. 면접만 봐도 입사 여부와 상관없이 스타벅스 기프티콘, 백화점 상품권 등을 선물한다. 업체 관계자는 “개발자 인력난 등으로 좋은 인재를 채용하기 어려운 데다 대규모 투자 유치 이후 헬스케어 슈퍼앱으로 도약할 기반을 마련하기 위해 파격적 채용 조건을 내걸었다”고 했다.누적 이용자가 600만 명에 육박하는 닥터나우는 국내 1위 원격의료 플랫폼이다. 지난 2일엔 400억원의 신규 투자를 유치해 누적 투자액이 520억원으로 늘었다. 기업가치는 2000억원을 넘었다. 직원 40여 명인 이 회사가 두 자릿수 신규 채용에 나선 것은 성장세를 이어가기 위해서다. ‘한시적 규제 완화’라는 원격의료 서비스 특성을 고려해 사업 모델을 다각화하겠다는 포석도 깔렸다.스타트업 간 인재 확보 경쟁은 치열해지고 있다. 부동산 플랫폼 스타트업 직방은 지난 1월 신입 개발자 연봉을 8000만원으로 인상했다. 콘텐츠 스타트업 리디는 최근 경력직 입사자의 연봉을 직전 연봉보다 30% 인상하겠다고 발표했다.거액의 스톡옵션과 사이닝 보너스(입사 시 제공하는 일회성 인센티브)를 제공하는 곳도 늘고 있다. 패션 커머스 스타트업 브랜디는 2월 신규 경력직 개발자에게 스톡옵션 1억원과 사이닝 보너스 1억원을 지급하겠다고 밝혔다. 명품 커머스 플랫폼 스타트업 머스트잇도 시니어급 경력직 개발자에게 사이닝 보너스 1억원 또는 스톡옵션 2억원을 제공한다.일부 유니콘 기업(기업가치 1조원 이상 스타트업)의 평균 연봉은 1억원이 넘는다. 지난해 두나무와 빗썸코리아의 직원 평균 연봉은 각각 3억9294만원과 1억1800만원이었다. 야놀자의 직원 1인당 평균 연봉은 9600만원, 금융 서비스 토스를 운영하는 비바리퍼블리카의 평균 연봉은 9300만원으로 집계됐다.개발자 구인난에 인재를 추천한 직원을 포상하는 스타트업도 생겼다. 핀테크 스타트업 핀다는 채용 인재 추천자와 입사자에게 각각 1000만원의 상여금을 5년간 분할 지급하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2022.06.15.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>한전 배구단, 홍천서 ‘일일 배구교실’</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003280318?sid=004</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>초중고생에 원포인트 레슨훈련복·운동화·사인볼 전달한국전력 빅스톰 남자프로배구단은 15일 홍천종합체육관에서 배구 꿈나무를 대상으로 한 ‘일일 배구교실’을 개최했다. 한전 제공한국전력 빅스톰 남자프로배구단이 강원 홍천지역 배구 꿈나무를 위한 일일 배구교실을 15일 개최했다.이날 홍천종합체육관에서 열린 일일 배구교실에서는 레프트 공격수 서재덕, 리베로 오재성, 세터 황동일이 강사로 나서 남산초 배구부, 홍천 중등배구클럽, 홍천 고등배구클럽 선수 27명을 대상으로 스텝, 토스, 스파이크, 리시브 등의 기본기를 다져주는 원포인트 레슨을 가졌다.빅스톰 배구단은 훈련복, 운동화 등의 용품과 사인볼도 전달했다. 빅스톰 배구단 관계자는 “V리그 시즌에는 꿈나무 선수들을 경기에 초청할 것이고, 비시즌에는 일일코칭을 지속적으로 가지며 유망주 육성에 일조할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2022.06.13.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>인적자원 관리 분야에서 유니콘이 나올 수밖에 없는 이유 '언번들링'</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004710714?sid=105</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>추가영의 HR테크 리포트다양한 은행 기능 중 틈새 찾아기회 잡은 핀테크 스타트업처럼코로나로 원격근무 보편화되며HR관련 특화·맞춤 서비스 봇물십수 년 전만 해도 타이틀곡을 듣기 위해 앨범 전체를 사야 했다. 듣고 싶은 건 한두 곡인데 십여 개의 수록곡을 함께 구매했다. 안 보는 채널이 많은데도 이를 통째로 제공하는 케이블TV에 가입했다. 두 개 이상의 다른 제품을 묶은 일종의 ‘번들’을 구매하는 것이 일반적이었다.하지만 이런 모습은 최근 사라지고 있다. 디지털 싱글이 나오면서 듣고 싶은 노래의 음원만 구입할 수 있게 됐고, 특정 콘텐츠를 내세운 스트리밍 서비스와의 경쟁에서 밀려 케이블TV의 번들은 해체 위기를 맞았다. 이렇게 기존에 하나의 상품이었던 것을 쪼개는 방식을 ‘언번들링(unbundling)’이라고 부른다.언번들링은 주로 하나의 거대한 플랫폼을 특정 분야에만 집중하는 버티컬(수직적) 플랫폼으로 쪼개는 방식으로 일어난다. 한 분야에 특화되거나 특정 소비자에게 맞춤형 서비스를 제공하면서 틈새시장을 발견한다. 미국 실리콘밸리 벤처투자사 안데르센호로위츠(a16z)는 언번들링 과정에서 새롭게 열린 시장에 적시에 진출한 스타트업이 유니콘기업(기업가치 1조원 이상의 스타트업)으로 성장할 가능성이 높다고 강조했다.여수신, 송금, 결제, 투자, 자산관리 등 은행 및 금융회사의 다양한 기능을 해체하면서 등장한 핀테크 스타트업이 대표적인 언번들링 성공 사례로 꼽힌다. 스트라이프(모바일 결제), 렌딩클럽(P2P 대출), 로빈후드(주식 투자) 등 해외 기업이 빠르게 성장했을 뿐 아니라 토스, 렌딧 등의 한국 스타트업들도 성공 가도를 달리고 있다.언번들링을 통해 기존의 번들보다 더 큰 기업으로 성장하거나 경쟁자가 되는 사례도 많다. 대표적인 게 ‘미국의 중고 나라’라고 불리는 크레이그스리스트다. 이곳에서 이뤄지던 프리랜서 구인·구직, 대안 숙박 예약, 데이트 상대 탐색이 쪼개져 업워크, 에어비앤비, 틴더 등이 탄생했다. 에어비앤비의 지난해 연 매출은 60억달러에 육박한다. 크레이그스리스트의 여섯 배다.인적자원(HR) 분야에서도 최근 이런 모습이 나타나고 있다. 코로나19 이후 원격 근무가 보편화되면서 HR의 디지털화를 앞당긴 것이 촉매 역할을 했다. HR의 일부 분야에 특화된 서비스가 등장하면서 통합 인적자본관리(HCM) 소프트웨어를 제공하는 SAP, 워크데이, ADP와의 경쟁이 본격화하고 있다.언번들링을 거쳐 버티컬 플랫폼을 구축하고 있는 HR 테크 스타트업에 대한 투자도 늘었다. 글로벌 시장조사기관 피치북에 따르면 지난해 10월까지 HR 테크 스타트업 투자가 92억달러에 달하는 것으로 집계됐다. 2020년 대비 130% 증가한 수치다.원격근무가 가능한 인력을 채용하고 급여 보상을 관리하는 솔루션을 제공하는 딜, 리모트는 모두 2019년 설립돼 급속도로 성장하고 있다. 구성원의 성과, 웰니스(신체와 정신 건강) 등을 원격으로 관리할 필요가 더욱 부각되면서 이 분야에 집중하는 스타트업도 늘어났다. 구성원의 성과와 몰입 관리를 돕는 래티스, 얼라이 등의 스타트업이 이 시장에서 경쟁하고 있다. 이 가운데 얼라이는 지난해 마이크로소프트에 7600만달러에 인수되기도 했다. 구성원들의 건강 상태를 원격 관리하는 툴을 제공하는 웰독의 누적 투자액은 6500만달러에 달한다. 한국에서도 목표관리부터 다면평가까지 손쉽게 진행하도록 돕는 성과관리 서비스형 소프트웨어(SaaS) 레몬베이스가 대규모 투자를 유치했다.레몬베이스 콘텐츠 리드기사 전문을 보시려면 이 QR코드를 찍으세요. '한경 긱스' 홈페이지로 연결됩니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2022.06.15.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>개미들은 '탈출 중'…파랗게 질린 증시에 '역머니무브' 거세진다</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006158039?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>14일 오후 서울 중구 하나은행 딜링룸에서 취재진이 코스피 종가 취재를 하고 있다. 이날 코스피 지수는 전거래일 대비 11.54포인트(0.46%) 하락한 2492.97로, 코스닥 지수는 5.19포인트(0.63%) 떨어진 823.58로 장을 마쳤다. 2022.6.14/뉴스1 © News1 신웅수 기자(서울=뉴스1) 이기림 기자 = 국내 증시가 연일 하락세를 면치 못하자 주식 투자자들이 증시에서 손을 털고 있다. 증시가 호황이었던 지난해 '증시대기자금'으로 불리는 투자자예탁금이 70조원대까지 상승했지만, 최근 56조원대까지 떨어지며 연중 최저점을 찍었다.15일 금융투자협회에 따르면 지난 13일 기준 투자자예탁금은 59조810억원으로 올해 1월 말 75조1073억원보다 16조원 넘게 감소했다. 5월13일부터는 60조원을 상회한 적이 단 이틀에 불과할 만큼 50조원 중후반대에 갇혀 있다. 지난해 하반기 아무리 낮아도 62조원대를 밑돈 적이 없던 것과는 다른 모습이다.투자자예탁금은 투자자가 주식을 사기 위해서나 팔고난 자금을 증권사 계좌에 맡겨둔 돈이다. 언제든 주식 투자에 사용될 수 있어 증시 투입 자금으로 분류된다. 이에 투자자예탁금의 증감 상태는 투자심리로 여겨지기도 한다.2019년 12월말 27조3000억원에 불과했던 투자자예탁금은 코로나19 이후 증시 활황에 힘입어 빠르게 늘어 올해 1월 70조원대까지 올라섰다. 그러나 올해 인플레이션 등 불확실성에 따라 하락장이 이어지자 다시 감소하고 있다.증권사에서 빚을 내 주식을 매입하는 신용거래융자 잔고도 전날 기준 21조6197억원으로 집계됐다. 러시아의 우크라이나 침공 가능성이 높아지던 2월18일에는 올 들어 최저치인 20조7412억원까지 떨어졌다.하락장이 이어지는 가운데 투자자들의 주식거래에 의한 수익률이 감소하고, 기준금리 상승에 따른 증권사들의 신용융자 금리 인상 및 은행의 예적금 금리 인상은 '역(逆)머니무브'를 가속화하고 있다는 분석도 나온다.변동성이 커진 주식 등에 대한 투자 대신 안전한 예·적금으로 돈이 몰리는 것이다. 은행권에 따르면 KB국민·신한·하나·우리·NH농협은행 등 5대 은행의 5월말 기준 예·적금 잔액은 716조5365억원으로 4월말과 비교해 불과 한 달 만에 19조9374억원 불어났다. 실제 은행들은 '연 5% 이자'를 주는 고금리 적금 상품은 물론 3%를 넘어선 예금 상품을 속속 출시하고 있다. 증권사들도 인상된 기준금리를 반영하고, 고객의 이탈을 막기 위해 예탁금 이용료율을 높이고 있다. 토스증권이 최근 연 0.2%에서 1%로 올렸고, 미래에셋증권이 0.2%에서 0.4%로 올린 것. 그러나 여전히 대부분의 증권사 예탁금 이용료율이 0.2~0.3%대로 제로금리와 차이가 크지 않다.기준금리 상승은 증권사의 신용거래융자 이자율도 함께 끌어올리고 있다. 메리츠증권, 신한금융투자, DB금융투자 등은 이달 들어 각각 0.1%포인트, 0.25%포인트, 0.2%포인트 인상했다. 이에 신용거래융자 이자율이 낮게는 4%대, 높게는 9%대를 나타냈다. 최유준 신한금융투자 연구원은 "팬데믹 시대 증시 수급 주축이었던 개인의 매매가 둔화되고 있다"며 "개인의 주식 비중은 금리 하락과 PER 상승이 동반되는 구간에서 확대되지만 현재는 정반대의 환경"이라고 밝혔다.최 연구원은 "(주식) 매수 대기 자금인 고객예탁금도 1월 정점을 확인하고 감소하는 추세"라며 "수신금리가 시장금리에 후행하는 것을 고려하면 예금으로의 자금 이동은 좀 더 이어질 가능성이 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2022.06.02.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>청와대 하루 관람 1만명 더 늘린다…선착순 접수</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000678457?sid=103</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>지난달까지 57만4,000여 명 청와대 관람지난 1일 오후 서울 종로구 청와대를 찾은 시민들이 경내를 거닐며 휴일을 보내고 있다. 뉴시스청와대 하루 관람 인원이 1만명 더 늘어난다. 청와대 개방 홈페이지에서 신청하면 선착순으로 관람할 수 있다.문화재청 청와대국민개방추진단은 2일 청와대의 일일 관람 인원을 기존 3만9,000명에서 4만9,000명으로 확대한다고 밝혔다. 네이버, 카카오, 토스 등 민간 플랫폼에서 받던 관람 신청도 청와대 개방 홈페이지로 단일화하고, 선정 방식은 추첨에서 선착순으로 바꾼다. 오전 7시에서 오후 7시까지 2시간씩 하루 6회 운영하던 관람 시간도 오전 9시부터 오후 6시로 조정한다.  개인 관람 예약 최대 인원은 4명에서 6명으로 늘어난다. 경복궁과 동일하게 매주 화요일 휴관한다. 현장 발급 인원은 1,000명이다. 인터넷 접수가 어려운 65세 이상 성인과 장애인, 외국인 등은 오전 9시와 오후 1시 30분 하루 두 차례 500명씩 영빈문 안내데스크에서 현장 발급을 지원한다. 12일부터의 관람 신청은 3일 오전 10시부터 www.청와대개방.kr이나 reserve.opencheongwadae.kr에서 하면 된다.청와대 관람 신청 인원은 지난달 31일 기준 총 659만여 명으로, 이중 57만4,000여 명이 실제 관람한 것으로 집계됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2022.06.13.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>“우리 못 믿나?” RTO 갈등 건드린 카카오 ‘메타버스 근무제’</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003201774?sid=105</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>카카오가 다음 달부터 시행하는 원격 근무 제도를 놓고 내홍을 겪고 있다. 지난달 30일 발표한 ‘메타버스 근무제’가 화근이었다. 코로나 기간동안 원격 근무하던 직원에게 7월부터는 ‘주 1회 의무 출근’하고, ‘근무중엔 음성채팅 연결 필수’ 등을 요구하는 내용이었다. 직원이 “자율성을 해치고 직원을 감시하는 판옵티콘(원형 감옥) 근무제”라며 반발하자 카카오는 하루 만에 “재검토하겠다”며 발을 뺐다. 이어 지난 9일 음성 연결을 필수가 아닌 권장 사항으로 바꾸고, 집중 근무 시간도 1시간 줄이는 수정안을 내놨다.      그러나 카카오 직원은 여전히 회사의 방침에 불만이다. 근무 장소뿐 아니라 근무 시간·방식에 관여하려는 데 대한 거부감이 크다. 코로나 엔데믹(endemic·감염병의 풍토병 전환)을 맞아 ‘사무실로 돌아가자’는 RTO(Return to Office) 정책을 둘러싼 갈등이 국내에서도 본격화되는 양상이다.      남궁훈 대표    ◆카카오는 왜 후퇴했나=메타버스 근무제를 놓고 임직원들의 큰 반발에 당황한 카카오는 열흘 만에 수정안을 내놨다. 내부 반발을 샀던 필수·의무 조건은 권장 사항으로 바뀌었다. 오후 1시부터 5시까지였던 집중근무 시간(코어 타임)도 오후 2시부터 5시까지로 한 시간 줄였다. 대신 격주 주 4일제를 ‘당근’으로 제시했다. ‘놀금’(출근하지 않는 금요일) 제도를 도입한다. 비바리퍼블리카(토스)와 우아한형제들(배달의민족) 같은 기업이 선제적으로 주 4~4.5일제를 도입한 바 있는데, 카카오도 이 흐름에 합류한다. 놀금 제도는 카카오 본사에만 해당된다.      최수연 대표    ◆왜 중요한가=국내 양대 IT기업인 카카오와 네이버의 근무 방식 변화는 산업계 전반의 관심사가 됐다. 개발자 등 디지털 인력을 두고 기업 간 경쟁이 치열해진 영향이 크다. 앞서 지난 4월 네이버는 원격 근무제 공식화 계획을 먼저 공개했다. 이후 카카오의 새 근무제에 대한 IT 업계 관심이 자연스레 커졌다.      그래픽=김주원 기자 zoom@joongang.co.kr           7월부터 원격 근무제 ‘커넥티드 워크’를 시행하는 네이버는 상대적으로 호의적인 분위기다. 같은 시기에 근무 제도를 바꾸는 두 회사가 내부적으로 반응이 대비되는 건, 지난 2년간 자율 근무제에 대한 각 사의 해석이 달랐기 때문이다. 일하는 방식을 놓고 카카오는 이를 명문화·제도화하는 쪽으로, 반면 네이버는 이를 직원의 자율에 최대한 맡기는 쪽으로 방향을 잡았다. 네이버는 직원이 자신의 업무, 개인 상황에 맞춰 타입R(Remote·전면 원격 근무)과 타입O(Office·주 3회 이상 사무실 출근) 중에 근무 방식을 정하면 된다. 지난달 사내 설문조사에 따르면 네이버 직원 55%는 타입R을 선호한다.    ◆해외는 어떤가=RTO 정책을 놓고 회사와 직원이 ‘기싸움’을 벌이는 경우는 실리콘밸리에서도 흔하다. 애플은 지난달 23일부터 주 3회 이상 사무실 출근을 의무화했다가 이 계획을 연기했다. 팀 쿡 애플 CEO는 7일 타임지가 주최한 ‘타임100 서밋’에 참석해 “우리는 여전히 실험 중이고, 나는 대면 회의를 선호하지만 온라인 회의가 나쁘다고 생각하는 건 아니다”라고 말하기도 했다. 구글 역시 지난 1월 직원들의 사무실 복귀를 연기했으며, 현재 직원 10명 중 한 명은 완전 원격 근무를 허가받은 상태다.      뉴욕타임스(NYT)는 9일 “많은 기업이 직원들을 사무실로 돌아오라고 하는 것 자체가 직원들과의 갈등을 야기하는 것이고 인재를 잃을 수 있다는 현실을 받아들이고 있다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2022.06.09.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>LGU+ "구글·아마존처럼 데이터·AI로 수익 내는 회사 될 것"</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/079/0003652175?sid=105</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>핵심요약8월 소상공인 대상 AI 콜봇 'AI 가게 매니저' 출시스타트업처럼 빠르게 일하는 '프로덕트' 중심 조직으로 시장 진출2B 빅데이터 서비스 '데이터플러스'·고객 맞춤형 상품 추천 'U+콕'2024년 까지 200여 명의 우수 개발인력 채용할 것황규별 CDO(최고데이터책임자, 전무)가 간담회에서 AI 및 데이터 사업 전략을 발표하고 있는 모습. LG유플러스 제공. LG유플러스가 데이터와 인공지능(AI)을 전략적으로 자산화하고, 이를 통해 고객 중심의 디지털 혁신기업으로 전환을 가속화한다고 밝혔다.LG유플러스 황규별 CDO(최고데이터책임자)는 9일 오전 기자간담회를 열고 구글, 아마존 등 글로벌 빅테크 기업과 같이 데이터와 AI로 수익을 창출하고, 기업가치를 제고하겠다고 발표했다.LG유플러스는 '디지털 혁신기업'으로의 변신을 추진하며 AI 개발과 데이터 분석 등을 전담하는 조직인 'CDO'를 지난해 7월 신설했다. 황규별 CDO는 올해 초 LG유플러스에 합류해 이 조직의 수장을 맡았다. 그는 미국 델타항공, 다이렉TV(DirecTV), AT&amp;T, 워너미디어 등에서 데이터 플랫폼을 구축하고 분석하여 수익화를 담당한 전문가다.황 CDO는 데이터 및 AI를 활용한 수익창출을 위해 △소상공인 특화 AICC 서비스 출시 및 데이터 상품(데이터플러스·U+콕) 경쟁력 강화 △프로덕트 중심의 애자일 조직 개편 △개발역량 내재화를 위한 우수인재 두 배 확대 등을 추진키로 했다.LG유플러스 제공. LG유플러스는 고객이 상품과 서비스를 경험하는 모든 과정에서 '편리함'과 '가치'를 느낄 수 있도록 AI/데이터 기술을 6개 프로덕트 그룹으로 분류했다. △AICC, △메절멘트(Measurement), △디스커버리(Discovery), △타켓팅(Targeting), △인사이트(Insights), △프로파일(Profiles) 등이다. AI/데이터 기술과 연관된 개별 상품은 그룹 하부의 프로덕트로 분류하고 있다.AICC(AI Contact Center) 프로덕트 그룹에는 AI 콜봇, 챗봇, 상담어드바이저, 커넥티드카 등 다양한 서비스가 있다. 특히 오는 8월 출시 예정인 소상공인 특화 AI 콜봇 서비스 'AI 가게 매니저'는 미리 녹음된 음성안내를 사용하는 ARS와 달리 AI가 전화로 고객을 응대하는 차별화된 서비스다.예를 들어, 어떤 고객이 식당에 저녁 식사를 예약하는 전화를 걸었다면 AI가 예약시간과 인원, 주문하고자 하는 메뉴를 받아서 점주에게 자동으로 정리해 알려준다. 매장의 위치나 주차가 가능한지 묻는 등 다양한 상황에도 능동적으로 대처할 수 있다.LG유플러스는 앞서 KB금융그룹의 AICC 구축사업자로 선정되는 등 금융기업고객 대상 AICC 확산에 앞장서고 있다. SOHO 전용 상품인 'U+우리가게패키지'를 출시하며 소상공인 시장을 공략하고 있는 LG유플러스는 'AI 가게 매니저'를 통해 AICC 서비스를 확대한다는 계획이다.또다른 프로덕트 그룹인 '인사이트(Insights)' 그룹엔 '데이터플러스'가 있다. 이는 LG유플러스가 보유한 고객 특성, 미디어소비, 이동패턴 등 다양한 데이터를 기반으로 고객의 라이프스타일, 온·오프라인의 다양한 수요를 분석해 사업전략을 수립·실행하는데 필요한 인사이트·데이터 마케팅 채널을 제공하는 B2B 빅데이터 서비스다.데이터플러스는 지난 4월 출시 이후 교육전문기업 대교의 보습학원 '눈높이러닝센터' 1248곳의 입지를 선정하는데 활용됐다. 유초등학습지 브랜드인 '윙크'' 운영하는 단비교육에도 도입 예정이다. 문화산업분야에서는 국립현대미술관에 데이터플러스 기반 빅데이터 분석 리포트를 제공하고 있으며, 뮤지컬 공연기획사와도 협업을 논의 중이다.타겟팅(Targeting) 프로덕트 그룹의 빅데이터 기반 맞춤형 상품 추천 쇼핑플랫폼 'U+콕'은 지난해 4월 대비 1년 새 거래금액이 4배 이상 성장했다. 월평균 이용자 수(MAU)는 44만 명을 돌파했으며, U+콕을 통한 재구매율은 40%를 넘었다. U+콕은 지난 4월 UX를 개편한 데 이어 5월에는 정기배송 서비스를 시작했으며, 이달에는 전용 모바일 앱을 선보일 예정이다.황 CDO는 "이러한 프로덕트의 경쟁력을 확보하기 위해서는 스타트업처럼 애자일하고 민첩하게 움직이는 게 필수"라며 "CDO는 현재 200여 명이 20여 개 이상의 팀으로 구성되어 있는데, 각 팀에 배속된 전문가들이 기획-개발-출시까지 사업전반에 대한 전략과 예산의 자율권을 보장받는 조직운영으로 탈바꿈시키고 있다"고 말했다.황 CDO의 말대로 LG유플러스는 AI, 데이터, 디지털 역량을 강화하기 위해 프로덕트 중심의 애자일 조직으로 변하고 있다. 프로덕트 중심 조직은 아마존웹서비스(AWS)·구글·토스 등 테크기업들이 도입한 시스템으로, 시장과 고객의 변화에 기민하게 움직이는 구조다.프로덕트 중심 업무체계에서는 여러 조직에서 모인 구성원들이 함께 일하는 가상조직(Virtual Team)이 구성돼 목표 달성을 위해 일한다. '프로덕트 매니저(Product Manager)'는 고객의 니즈를 확실하게 알아내 사업성과로 연결하는 역할을 맡으며, 개발자는 기술개발에 집중한다.LG유플러스는 이 같은 프로덕트 중심 문화를 뿌리내리고, 외주와 제휴에 의존하던 개발역량을 내재화하는 데에도 집중할 계획이다. 오는 2024년까지 AI/데이터 사이언티스트, 데이터/플랫폼 엔지니어, SW/ML-Ops(소프트웨어/기계학습 상용 적용) 엔지니어 등 200여 명의 우수 개발인력을 채용하여 현재 인원의 두 배 수준인 400명까지 전문인력을 확대한다는 계획이다.LG유플러스는 우수인재 확보를 위해 산학협력 인턴십 프로그램을 준비하는 등 다양한 채널을 통해 개발자들과 유기적인 관계를 구축하는 데브렐(DevRel, Developer Relations) 활동을 강화할 계획이다.실리콘밸리뿐만 아니라 전세계의 많은 기업들이 데브렐을 강화하고 있으며, 최근에는 소규모 기업들도 데브렐의 중요성을 인식하고 있다. 소프트웨어 개발자가 기업운영에 핵심자원이 되기 때문이며, 이 때문에 개발자들과의 지속적인 소통으로 우수인재를 확보하려는 기업들이 늘어나는 추세다.황 CDO는 "초개인화, 초연결과 같은 폭발적인 고객 니즈에 선제 대응하는 자기 완결형 조직이 되려면 소프트웨어 역량은 반드시 내재화가 필요하다"며 "나아가 데이터와 디지털 능력을 기반으로 일하는 문화를 도입하고, LG유플러스가 보유한 AI와 데이터가 전략적인 자산이 될 수 있도록 가치를 창출하겠다"고 말했다.※CBS노컷뉴스는 여러분의 제보로 함께 세상을 바꿉니다. 각종 비리와 부당대우, 사건사고와 미담 등 모든 얘깃거리를 알려주세요.이메일 : jebo@cbs.co.kr카카오톡 : @노컷뉴스</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2022.06.13.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>토스증권, MTS 홈 화면 바꾼다…"투자 정보 강화"</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011244102?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>기사내용 요약고객 의견 약 9000여건 분석·반영[서울=뉴시스]최현호 기자 = 토스증권은 올해 두 번째 모바일트레이딩시스템(MTS) 업데이트를 완료했다고 13일 밝혔다. 이번 업데이트는 토스증권이 지난 1년간 수집한 고객 의견 약 9000여건을 분석해 반영한 것이다.먼저 토스증권은 홈 화면을 '내 주식'과 '오늘의 발견' 탭으로 나눠 투자한 주식과 투자할 주식을 보기 쉽게 구분했다고 설명했다.'내 주식' 탭에서는 보유한 주식의 투자현황, 관심주식 정보를 한 눈에 조회할 수 있도록 했다. 보유 종목의 현재가와 평균단가를 비교할 수 있는 기능도 추가했다. 관심주식은 최대 1000개까지 담을 수 있도록 확대했다. '오늘의 발견' 탭에서는 투자 아이디어와 주식 정보를 얻을 수 있도록 구성했다. 상단에는 토스증권 투자자들의 이용 데이터를 기반으로 한 '실시간 TOP 100' 차트를 제공한다. 토스증권 투자자들의 거래량, 관심주식 순위 외에도 '급상승', ‘급하락' 차트를 통해 시장 상황과 전일 대비 등락이 큰 주식들도 확인할 수 있다.토스증권은 이번 업데이트를 통해 나스닥, S&amp;P500, 다우존스30산업평균지수 등 미국 증시 주요 지수 3종도 추가했다. 주요 지수들은 홈 화면 상단에서 볼 수 있도록 했다.토스증권은 이달 내로 매매 과정 개선 업데이트도 진행할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2022.06.01.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>해외에서 카드 사용 시 '이것' 주의하세요</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011222511?sid=101</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>기사내용 요약원화결제 서비스(DCC), 출국 전 차단 신청결제·ATM인출 수수료면제 카드 꼭 챙겨야"도난대비엔 '출입국정보 활용동의서비스'"[서울=뉴시스] 배훈식 기자 = 어린이날 연휴가 시작된 5일 오전 서울 강서구 김포국제공항 출국장이 여행을 떠나는 시민들로 북적이고 있다. 2022.05.05. dahora83@newsis.com[서울=뉴시스] 남정현 기자 = 최근 사회적 거리두기 해제와 해외 입국자 코로나19 검사 완화로 해외여행 수요가 급증하는 추세다. 전문가들은 해외에서 카드 사용 시 원화결제 서비스(DCC) 차단, 결제·ATM수수료 면제 카드 사용 등을 활용하면 불필요한 지출을 막을 수 있다고 조언한다.1일 카드업계에 따르면 '엔데믹'을 맞은 소비자들이 가장 지출을 늘린 업종은 해외여행으로 나타났다. 현대카드가 지난달 신용카드 사용 금액을 분석한 결과, 비행기 티켓 등 항공 분야 결제금액이 전년 대비 226% 늘어난 599억원으로 집계됐다.먼저 해외여행자는 출국 전 해외 원화결제 서비스(DCC, Dynamic Currency Conversion)를 차단할 필요가 있다. DCC란 해외에서 신용카드로 결제할 때 원화로 물품 대금을 결제할 수 있게 한 서비스다. 하지만 해외가맹점에서 원화결제 서비스를 이용해 원화로 결제 시 이용수수료가 3~8% 발생한다. 따라서 현지 통화로 결제하는 것이 유리하다. 결제할 때 영수증을 확인해 금액이 원화(KRW)로 표시돼 있다면, 취소한 뒤 현지 통화 결제를 요구할 수 있다.금감원에 따르면 2020년 한 해 동안 해외 가맹점 결제 1억3800만 건 중 41.8%인 5800만 건이 DCC 서비스를 통한 결제로 확인됐다. 그해 기준 신용·체크카드를 보유한 회원 9610만 명 중 DCC 차단 서비스를 신청한 회원은 1.3%인 120만 명에 불과했다.또 카드결제 인프라가 잘 안 돼 있는 해외를 간다면 자동화기기(ATM) 출금 수수료 면제 혜택이 있는 카드를 반드시 챙겨야 한다. '토스뱅크 체크카드'의 경우, 이 기능에 더해 전월실적과 관계 없이 모든 해외결제 금액에 대해 3.0% 캐시백 혜택을 제공한다. 케이뱅크의 'KT멤버십 더블혜택 체크카드'는 ATM뿐만 아니라 결제 시에도 수수료를 떼지 않는다.또 해외 여행 중 분실한 카드를 다른 사람이 습득해 사용할 수 있는데, IC칩이 장착된 카드를 이용한 거래는 해외 카드사가 보상을 하지 않아, 분실한 사람이 이용대금을 부담하는 경우가 있다. 금융감독원은 이러한 피해를 막기 위해선 '출입국정보 활용동의서비스'를 신청해야 한다고 설명한다. 이 서비스를 활용하면 신용카드사가 회원의 출입국정보를 받아 귀국 이후의 해외결제 승인을 제한, 부정 사용 피해를 예방할 수 있다.또 '결제 알림서비스'를 신청해 두면 국내외 카드결제 내역이 곧바로 안내돼 사고 발생 시 신속하게 대처할 수 있다. 소비자가 정한 기간이나 횟수만 사용할 수 있는 '가상카드 발급서비스'도 활용할 수 있다. 한편 정부는 지난 23일부터 해외 입국자의 입국 전 코로나19 검사로 유전자증폭(PCR) 검사와 함께 신속항원검사(RAT)도 인정하기 시작했다. 오늘(1일)부터는 1일 차에 실행하는 PCR 검사 시기를 입국 후 1일에서 3일 이내로 조정하고 6∼7일차 신속항원검사는 의무에서 권고로 변경된다. 이에 따라 입국 후 의무 검사는 2회에서 1회로 줄어들게 됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2022.06.05.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>‘걷기의 경제학’ 한걸음의 가치는?</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003151283?sid=101</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>걸으면서 보상까지 얻는 다양한 걷기앱 성행Photo by Arek Adeoye on Unsplash스마트폰에서 확인한 지난 5월 한 달간 하루평균 걸음 수는 6350걸음이었다. 거리로 치면 4.1㎞ 정도다. 성인 남성 평균이 6000걸음 정도라는데 딱 그 수준이다. 사무직의 하루평균 걸음 수는 5000걸음 정도라고 한다. 올해 들어 지난 5월 말까지 기자의 하루평균 걸음 수는 5057걸음, 이동거리는 3.3㎞다. 지금까지는 단순하게 수치를 확인하는 정도였다면 요즘에는 걸으면서 작은 보상을 받기 시작했다. 금융 플랫폼 ‘토스’의 만보기 서비스를 이용하면서부터다. 최근 사흘간 140원을 벌었다.2019년 7월 첫선을 보인 토스의 만보기 서비스는 1000걸음, 5000걸음을 걸을 때 10원을 주고, 1만보를 걸으면 20원을 준다. 토스가 지정한 특정 장소를 방문하면 방문 보상으로 20원씩 100원까지 받을 수 있다. 이렇게 해서 받을 수 있는 하루 최대 보상액은 140원이다. 한 달 기준 4000원이 조금 넘는다. 2017년 2월 선보인 캐시워크는 100걸음마다 1캐시를 준다. 하루 최대 100캐시(약 71원)까지 적립할 수 있다. 삼성생명·삼성화재·삼성카드·삼성증권 등 삼성그룹 금융계열사 4곳이 공동으로 지난 4월 선보인 금융 플랫폼 ‘모니모’도 만보기 서비스를 제공한다. 5000보 이상을 걷는 등 특정 미션을 수행하면 ‘젤리’를 보상으로 주는데 젤리 1개당 10원에서 50원의 가치가 있는 ‘모니머니’로 교환해준다. 다양한 걷기앱을 함께 이용하면 한 달 프랜차이즈 브랜드의 커피값 정도는 벌 수 있는 셈이다.만보기 서비스는 이동하면서 돈을 번다는 의미에서 ‘무브 투 언(Move to Earn·M2E)’ 앱으로도 불린다. 그저 목적지에 가려고 걸을 뿐인데, 왜 만보기 서비스를 하는 기업들은 보상을 줄까. 우선 앱에 사용자를 불러들이는 ‘리텐션(Retention·유지)’ 효과가 크기 때문이다. 리텐션이란 앱을 설치한 후 특정 기간 앱을 지속적으로 사용하는 유저의 수를 의미한다. 이용자의 참여와 관심도, 충성도 수준을 나타내는 핵심 지표로 기업의 수익성에 큰 영향을 미친다고 알려져 있다. 톡이 올 때마다 앱을 열게 되는 카카오톡이나 뉴스나 블로그 검색을 위해 자주 찾는 포털사이트와 달리 금융앱은 송금과 결제 외에는 방문할 이유가 많지 않다. 만보기 서비스를 제공하면, 이용자들이 보상을 받기 위해 수시로 앱을 확인하면서 다른 서비스도 이용할 가능성이 높아진다. 토스의 여인욱 매니저는 “사용자들에게 일상에서 쓸 수 있는 혜택을 제공하자는 고민에서 출발했다”면서 “고객의 리텐션을 높이는 효과도 있고, 토스의 다른 서비스를 이용할 수 있는 마중물 역할을 한다는 차원에서 (걸음에 따른 보상을) 광고·마케팅 비용으로 집행하고 있다”고 설명했다. 향후 걷기앱에 쌓인 건강 데이터를 보험 등 금융상품 개발에 활용할 수도 있다. 업계에선 보험사가 함께 참여한 ‘삼성 금융 네트워크’의 모니모가 이런 방향으로 상품을 개발할 수 있다는 전망이 나온다.■‘리텐션 마케팅’에 유용최근엔 가상자산 업계가 M2E 사업의 새로운 주류로 부상했다. 선두주자는 호주의 핀테크 기업 ‘Find satoshi lab’이 선보인 스테픈(STEPN)이다. 스테픈은 이용자가 가상자산 ‘솔라나’를 이용해 대체불가능토큰(NFT) 운동화를 구매 혹은 대여해야 참여할 수 있다. 그후 야외에서 걷거나 뛰면 GST라는 토큰을 받는데 이용자는 이 토큰을 소모해 운동화를 수리하거나 성능을 높일 수 있다. 운동화를 팔 수 있고, 거래소에서 GST를 솔라나 또는 (1달러로 고정된 가치를 유지하는) 스테이블 코인인 USDC로 교환해 현금화할 수도 있다.스테픈은 지난 3월 29일 시장에 나온 이후 글로벌 다운로드 수 100만회 이상을 기록할 정도로 인기를 끌었다. 국내에서도 네이버Z의 투자를 받은 스포츠테크 스타트업 ‘프로그라운드’가 비슷한 구조를 가진 ‘슈퍼워크’를 내놓을 채비를 하고 있다. 카카오 계열의 코인인 클레이튼 기반의 ‘더 스니커즈’도 출시를 앞두고 있다. 하지만 최근 루나·테라 사태로 가상자산 시장 전반이 침체하면서 업계에선 M2E 사업 자체가 거론되는 걸 부담스러워하는 상황으로 분위기가 바뀌었다. 후발주자가 늘어나 기존 이용자가 갖고 있던 NFT운동화와 GST를 사줘야 가격이 오르는 구조라 루나·테라와 비슷한 ‘폰지사기’가 아니냐 하는 논란에 직면했다. 실제 지난 4월 말 8달러 가까이 치솟았던 GST 가격이 6월 2일 현재 0.86달러까지 폭락했다. 오재영 KB증권 애널리스트는 “시장 자체의 심리가 풀려야 하는데 지금은 루나 사태 여파로 모두 안 좋게 생각하니 거론하기 민감한 사업이 됐다”고 말했다.■1만보의 경제적 가치는?가상자산 기반의 M2E 서비스가 투자 수단으로 각광받았다면, 걷기의 환경적 가치에 주목한 서비스도 있다. 대표적인 예로 2020년 창업한 소셜테크 스타트업 글루리가 서비스하는 ‘포레스텝’을 들 수 있다. 포레스텝은 걷기 미션을 주고, 일정 목표에 도달하면 실제 식물 화분을 보상으로 준다. 완료 조건은 조금 까다롭다. 우선 하루 1만보 이상을 걸어야 나뭇잎 1개를 획득할 수 있다. 중간에 5000걸음을 넘을 때마다 물을 줘야 한다. 이렇게 14일 동안 나뭇잎 7개를 모으면 ‘꿈의 식물’을 화분에 담을 수 있다. 식물은 무작위로 정해지는데 화분에 담긴 식물을 터치하면 실제 식물을 받을 수 있는 쿠폰이 나온다. 꿈의 식물 10개를 모으면 실제 나무가 심어진다.가상자산이나 식물 외에 걷기의 경제적 가치를 측정하는 또 하나의 기준으로 탄소배출권을 들 수 있다. 일례로 1만보(약 6.5㎞)를 이동한다고 가정해보자. 이 거리를 승용차(휘발유)를 타고 이동할 경우 약 1.3㎏(1㎞당 약 200g)의 온실가스를 배출하게 된다. 한국거래소(KRX)의 배출권 시장 정보플랫폼에 따르면 6월 2일 기준 국내 탄소배출권 가격(KAU22)은 1t당 2만1800원이다. 온실가스 1㎏을 배출할 수 있는 권리의 가격이 21.8원이라는 뜻이다. 1만보를 기준으로 하면, 28.34원(21.8원×1.3)이 된다. 1만보를 걷는다면 28.34원 가치의 탄소를 줄인다는 뜻이다. 매일 1만보씩 연중 걷는다면, 1만344원(28.34×365)이다. 탄소배출권의 가격은 지역마다 다르다. 세계 최대 거래시장인 유럽연합의 경우 t당 가격이 6월 2일 기준 86.42유로(약 11만5571원)에 달한다. 유럽연합에서라면 매일 1만보씩 한해 동안 걸으면 5만4804원(150.1원×365일)의 경제적 가치를 창출할 수 있다. 탄소중립이 강조되고 배출권 수요가 늘어날 경우 국내에서도 가격이 올라갈 가능성이 높다. 걷기에 따른 개인의 탄소 배출 감축분을 시장에서 거래할 수 있다면, ‘탄소기본소득’의 마중물 역할을 할 수도 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2022.06.02.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>토스뱅크 "고객 80% 이용 중인 체크카드, 최상위 등급 보안 인증 획득"</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000288506?sid=101</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>글로벌 결제 데이터 PCI-DSS 보안 인증 획득토스뱅크가 국내 은행권에서 최초로 글로벌 신용카드 데이터 보안인증인 ‘지불카드업계 정보보안표준(PCI-DSS, Payment Card Industry Data Security Standard)’ 인증을 획득했습니다.PCI-DSS는 정보가 전송되는 과정에서 카드 소유자의 데이터 등을 안전하게 보호하고 있는지를 검증하는데 이용되는 인증입니다. 토스뱅크는 ‘PCI 보안표준위원회’로부터 카드 소유자 데이터 및 민감한 데이터의 저장·전송·처리 절차, 카드 결제 프로세스 안정성 등 총 12개 분야 412개 세부 항목에 대해 종합적인 평가를 통해 레벨 1인 최상위 등급을 받았다고 오늘(2일) 밝혔습니다. 현재 고객의 80% 이상이 체크카드를 이용 중인 토스뱅크는 인증을 획득함에 따라 분기마다 준수 상태 검토 및 준수 여부를 증명해야 합니다.  토스뱅크 관계자는 “외부 컨설팅 없이 토스뱅크가 자체적으로 준비하여 보안 인증을 취득해 그 의미가 크다”라며 “급변하는 ICT 사회에서 새로운 위협과 기술에 적극 대응하고 보안성과 안정성을 지속 강화해나갈 것”이라고 말했습니다.한편 PCI-DSS 인증은 비자(Visa), 마스터카드(MasterCard), 아메리칸익스프레스(American Express) 등 6개 국제브랜드 카드사가 공동으로 카드정보 해킹, 도난, 분실 등의 사고로부터 고객의 신용카드 정보를 보호하기 위해 마련한 카드결제 국제 보안표준 인증입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2022.06.15.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>삼성청년SW아카데미 6기 수료식…누적 취업 2770명에 달해</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/079/0003654108?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>핵심요약2018년 12월부터 시작한 SSAFY는 이날 6기까지 3678명이 수료했고, 이 가운데 2770명이 취업해 75%의 취업률을 보였다. 취업에 성공한 수료생 중 35%를 차지하는 965명은 소프트웨어 비전공자로 SSAFY를 통해 새로운 진로를 찾았다.지난 1월 18일 서울 강남구 '삼성청년SW아카데미' 서울캠퍼스에서 열린 'SSAFY' 7기 입학식에 참석한 교육생들과 관계자들이 기념 촬영하고 있다. 삼성전자 제공.삼성은 15일 서울 강남구 '삼성청년SW아카데미(Samsung Software Academy For Youth·SSAFY)' 서울캠퍼스에서 'SSAFY' 6기 수료식을 열었다고 밝혔다.SSAFY는 삼성이 2018년 발표한 '경제 활성화와 일자리 창출 방안'의 일환으로, 국내 정보통신(IT) 생태계 저변을 확대하고 청년 취업 경쟁력을 높이기 위해 실시하는 사회공헌(CSR) 프로그램이다.이날 수료식에는 고용노동부 권기섭 차관, 국민의힘 윤주경·더불어민주당 김영배 의원, 삼성전자 경영지원실 박학규 사장, 수료생 100명이 참석했다. 서울·대전·광주·구미·부울경 등 전국 5개 캠퍼스 수료생 400여명은 온라인으로 참여했다.2018년 12월부터 시작한 SSAFY는 이날 6기까지 3678명이 수료했고, 이 가운데 2770명이 취업해 75%의 취업률을 보였다. 취업에 성공한 수료생 중 35%를 차지하는 965명은 소프트웨어 비전공자로 SSAFY를 통해 새로운 진로를 찾았다.수료생들은 삼성전자를 비롯해 카카오, 네이버, LG 유플러스, 롯데정보통신, 신세계 I&amp;C, 현대오토에버, 현대모비스, KB국민은행, 신한은행, NH농협은행 등 IT·금융권과 같은 다양한 기업에 취업했다. 이들이 취업한 기업의 수는 730개에 달한다.기업 현장에서 근무하는 SSAFY 수료생들이 늘어나면서 실전형 인재로 인정받아 채용시 우대하는 기업들도 신한은행, 우리은행, 현대오토에버, 딜리버리히어로코리아 등 120여개에 달한다.수료생들은 카카오, 네이버에 100명 이상 취업하며 국내 IT 서비스 기업으로 활발하게 진출하고 있으며 컬리, 토스, 의식주컴퍼니 등 유망 스타트업으로도 취업을 확대하고 있다.연 2회 교육생을 모집하는 SSAFY는 현재 올해 1월에 입과한 7기 약 1150명이 교육을 받고 있으며, 7월부터 1년 간의 과정을 시작하는 8기를 포함해 연간 2300명의 청년을 대상으로 교육을 진행한다.SSAFY는 1년간 매일 8시간씩 총 1600시간의 집중적인 교육과 교육생간 협업 프로젝트 등을 통해 기업에 즉시 투입될 수 있는 역량을 갖춘 소프트웨어 개발자를 양성하는 과정을 운영하고 있다.교육 과정은 무상이며, 교육생 전원에게는 매달 100만원의 교육지원금도 지급하고 있다. 또, 취업에 실질적 도움을 주기 위해 채용 박람회, 기업 설명회 등을 실시하고 취업지원센터를 운영해 진로 상담, 면접 컨설팅, 채용정보 제공 등을 상시 지원하고 있다.삼성 소프트웨어 개발 담당 직원들도 SSAFY 교육에 동참하고 있다. 지난해 시범 운영을 시작해 올해 본격 실시하는 SSAFY 교육생 대상 삼성 임직원 재능기부에는 90여명의 임직원이 멘토단으로 참여하고 있으며, 이 중 12명은 SSAFY 출신 임직원이다.한편 SSAFY는 소규모로 운영되던 수료생 커뮤니티를 확대해 동문회를 결성하고, 지난 9일 SSAFY 서울캠퍼스에서 발대식을 열었다. SSAFY 동문회는 SSAFY 교육생 대상으로 선배 개발자로서의 경험을 공유하고 노하우를 전하는 멘토 활동을 펼친다.사회적 관심과 지원으로 개발자로서 진로를 찾은 SSAFY 출신들은 향후 동문회를 통해 우리 사회에 기여할 수 있는 다양한 활동을 마련해 나눔의 선순환을 실천해 나갈 계획이다.※CBS노컷뉴스는 여러분의 제보로 함께 세상을 바꿉니다. 각종 비리와 부당대우, 사건사고와 미담 등 모든 얘깃거리를 알려주세요.이메일 : jebo@cbs.co.kr카카오톡 : @노컷뉴스</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2022.06.08.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>이웅열 코오롱 명예회장 장남, 디자이너 우영미 딸과 결혼</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003200916?sid=101</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>지난해 코리아 H2 비즈니스 서밋에 참가한 이규호 코오롱 부사장(가운데). 뉴스1       이웅열 코오롱 명예회장의 장남인 이규호(38) 코오롱글로벌 자동차 부문 부사장이 다음 달 결혼식을 올린다. 상대는 유명 디자이너 우영미씨의 차녀 정유진(28)씨다.       8일 재계에 따르면 지인 소개로 만난 두 사람은 다음 달 6일 서울 강남의 한 호텔에서 결혼식을 올릴 예정이다.       미국 코넬대 호텔경영학과를 졸업한 이 부사장은 2012년 코오롱인더스트리 경북구미공장 차장으로 입사했다. 이후 부장, 상무, 전무를 지낸 뒤 지난해 1월 부사장으로 승진하면서 코오롱인더스트리에서 코오롱글로벌로 옮겨 자동차 부문을 맡고 있다.      이 부사장은 지난해 11월 스텔란티스 코리아와 맺은 지프 판매 업무협약(MOU)과 같은 해 12월 토스를 운영하는 비바리퍼블리카와의 전자 결제 서비스 도입 계약 등을 추진한 것으로 알려졌다. 지난해 자동차 부문에서 매출 2조원을 넘기며 역대 최대 실적을 기록했다.      이웅열 명예회장은 지난 2018년 11월 은퇴 발표 당시 "아버지로서 재산은 물려주겠지만, 경영 능력을 인정받지 못하면 주식을 한 주도 물려주지 않겠다"고 선언한 바 있다.       패션 디자이너 우영미. 신인섭 기자       이웅열 명예회장과 사돈을 맺은 패션 디자이너 우영미씨는 성균관대 의상학과를 졸업한 뒤 반도패션(현 LF) 등을 거쳐 1988년 남성복 브랜드 솔리드 옴므를 론칭했다.      2002년 파리에 진출해 2006년 '우영미'라는 이름으로 파리에 단독 매장을 열었고, 2011년 한국인 최초로 프랑스 의상조합 정회원이 됐다.      우씨는 지난해 11월 tvN 예능프로그램 '유퀴즈온더블럭'에 출연해 자신의 유학 시절과 본인 브랜드를 파리 유명 백화점에 입점시킬 당시 일화 등에 대해 이야기하기도 했다.       우씨의 딸 유진씨는 현재 우씨의 회사 일을 돕고 있는 것으로 알려졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2022.06.10.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>[이슈진단+] [기자수첩] 토스 논란에 관한 팩트체크</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002259248?sid=105</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>토스가 연일 시끄럽다. 토스가 보험설계사에게 개인 정보를 판매했다는 점이 보도되면서 토스를 더 이상 쓰지 않겠다는 '불매 운동'까지 거론되고 있다. 토스에 대한 논란은 자극적으로 포장되고 있으며, 있지도 않은 사실까지 더해져 공분을 사도 마땅한 기업처럼 가고 있다. 이번 토스 논란에 대한 팩트 체크를 해보자.1. 토스는 모든 서비스를 이용하는 고객들의 개인 정보를 몰래 팔았다.토스 고객센터에 쏟아지고, 고객들이 의문을 갖고 있는 지점인 듯하다. 그러나 이는 사실이 아니다. 모든 서비스가 아닌 보험 상담을 원하는 고객들의 개인 정보를 설계사에게 제공했다.기존에 토스는 '토스 보험 파트너'라는 설계사 전용 애플리케이션(앱)을 통해 토스 고객의 일부 데이터를 무료로 제공해왔으나 이를 유료로 전환한 것이다. 당시 무료 데이터에는 개인 정보가 현재만큼 상세히 포함되지 않았다는 것이 회사 측 설명이다.그렇지만 고객에게 알리지 않고 판 것은 사실이다. 서비스 이용을 위해 필수적으로 개인 정보를 제3자에게 제공하도록 고객 동의를 받았지만, 설계사에게 판매된다는 점은 고지되지 않았다.토스 로고2. 개인 정보 판매는 불법이다.아니다. 개인 정보 판매는 이제 불법이 아니다. 단, 금융업이라면 신용정보법 상 '마이데이터(본인 신용정보 관리업)'에 대한 라이선스가 필요하다. 라이선스를 받게 되면 법상 데이터 판매를 할 수 있는 권한이 생긴다. 토스도 마이데이터 라이선스를 취득했으며, 마이데이터 사업으로 고객 데이터를 설계사에게 유료로 제공한 것이다.3. 개인 정보 유출이다.개인 정보를 유출한 것도 아니다. 개인 정보를 판매한 것이다. 개인 정보 유출은 시스템 혹은 휴먼 에러로 유출되는데 토스는 개인 정보를 설계사에게 유출한 것이 아니라 '판매'한 것이다. 설계사가 산 개인 정보가 다른 누군가에게 넘겨질 것을 감안해 토스는 개인 휴대전화 번호를 설계사에게 넘기지 않았다. 이름과 나이, 성별, 보험가입 내역 등 보험 상품을 조회하는데 필요한 정보를 팔았다.토스는 억울해하고 있다. 보험설계사에게 암암리에 판매됐던 개인 정보 데이터 셋처럼 악용되지 않도록 최선을 기울였고, 적법하게 데이터를 팔아왔다고 항변한다. 이 과정서 토스는 규제를 지키지 않은 것이 하나도 없다는 점도 강조하고 있다.핵심적인 문제는 신용정보법에 따라 데이터를 판매하도록 법 체계가 구성됐지만, 개인 정보가 포함된 데이터가 유상 거래되는 것에 대한 사회적 합의가 성숙하지 못했다는 점이다.사회적 합의를 이루지 못한 상황에서 데이터 판매가 어떻게, 어떤 방식으로 진행돼야 하는 지에 대한 세부적인 규제도 모자랐다. 금융당국은 시행령 감독규정을 어떻게 정비할 지 검토 중이다.규제만을 운운하기엔 금융사도 고민이 부족했다. 금융사는 데이터 판매 등을 포함한 마이데이터 사업을 회사의 새로운 '먹거리'로만 인지했으며, 어떻게 고객에게 다가갈지 , 판매를 어떻게 설득할지도 깊이 생각하지 못한 듯하다.마이데이터가 무르익으면 개인 정보 판매는 더욱더 많아 질 것이다. 데이터가 돈인 시대가 됐고, 데이터가 많을수록 기업은 차별화된 서비스를 내놓을 수 있도록 법적 '초석'이 마련됐기 때문이다. 누구도 억울한 이가 없도록 합의를 이룰 수 있는 장(場)이 마련되고, 규제 역시 세밀하게 바뀌어야 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2022.06.05.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>시중은행 줄 때 인터넷은행 가계대출 5개월 연속 증가</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003151301?sid=101</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>5대 시중은행의 가계대출이 5개월째 줄었지만 카카오뱅크, 케이뱅크 등 인터넷전문은행의 가계대출 잔액은 증가세를 기록한 것으로 나타났다.5일 은행권에 따르면 카카오뱅크와 케이뱅크의 지난달 가계대출 잔액은 각각 26조5445억원과 8조4900억원으로 집계됐다. 전월과 비교하면 각각 3100억원과 2881억원 증가한 규모다.토스뱅크는 지난달 말 기준 가계대출 잔액을 공개하지 않았지만 올해 들어 가계대출 잔액이 매월 약 4000억원씩 증가했고 공격적 영업을 계속하고 있는 만큼 지난달 말 잔액이 3조2000억원대를 기록했을 것으로 업계에선 보고있다. 토스뱅크의 4월 말 기준 가계대출 잔액은 2조8354억원이었다. 이를 종합하면 인터넷은행 3사의 지난달 가계대출 잔액은 38조원대를 기록했을 것으로 추산된다.금융권에서는 부동산, 주식 등 자산시장이 냉각하면서 고신용자들의 대출 수요는 감소한 반면 생활비 등을 목적으로 하는 중·저신용자 대출 수요는 꾸준히 유지되면서 인터넷은행에 가계대출 수요가 집중됐을 것으로 해석한다. 지난달 말 기준 카카오뱅크 고객 수는 1896만명으로 전월보다 18만명 증가했다. 케이뱅크 고객 수도 같은 기간 10만명이 늘어 772만명을 기록했다.KB국민·신한·하나·우리·NH농협 등 5대 시중은행의 가계대출 잔액이 감소세를 이어가는 것과 대조된다. 5대 시중은행의 지난달 말 가계대출 잔액은 701조615억원으로 전월 보다 1조3302억원 줄었다. 지난해 말과 비교하면 올해 들어서만 7조9914억원이 감소했다. 주택담보대출 통계에 포함되는 전세대출이 지난 2월 이후 계속 증가하고 있지만 전체 주택담보대출과 신용대출은 전월 대비 각각 5245억원과 6613억원 줄어든 것으로 나타났다.아파트 거래 절벽이 이어지면서 전세대출 증가에도 주택담보대출 잔액이 감소하고 있다. 여기에 신용대출 금리 산정 기준인 금융채 6개월물과 1년물 금리가 오르자 차주들이 빚을 새로 내기보다는 일단 갚는 분위기가 조성됐고, 증시와 가상통화 시장 침체로 신용대출 수요 자체도 감소한 것으로 풀이된다. 금융업계 관계자는 “인터넷은행의 세가 확대되고 있지만 세계 각국이 긴축 정책으로 시장 금리가 높아지고 경기 부진도 예상되는 상황에서 인터넷은행이 부실채권 발생에 따른 위험을 관리할 수 있을지 지켜봐야 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2022.06.13.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>[스타트업 까보기] 변협·로톡 7년 전쟁의 진짜 승자들</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/053/0000031673?sid=101</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>서울 서초구 지하철 3호선 교대역에 로톡 광고가 설치돼 있다. photo 뉴시스2014년 2월 출시한 토스의 간편송금서비스는 이용자들의 폭발적인 반응을 얻었지만 전자금융업자가 송금을 구현한 사례가 없다는 이유로 두 달 만에 서비스를 중단해야 했다. 금융서비스는 불특정 다수에 대해 미치는 파급효과가 큰 만큼 엄격한 잣대의 규제를 통과해야 한다. 토스는 시장에 전에 없던 편리함을 선보였지만 시장의 이해를 얻어가며 성장하겠다는 마음으로 서비스를 중단한 채 1년의 시간을 기다렸다. 이제는 과거의 고생담이 되었으니 가볍게 이야기할 수 있게 되었지만 조직도, 자본도 부족한 스타트업이 서비스를 중단한 상태에서 불확실한 미래를 준비하는 것은 결코 쉽지 않은 일이다.루나 코인의 상장폐지로 수많은 피해자가 발생했듯이 금융산업은 불특정 다수의 재산을 보호하기 위한 적절한 규제가 필요하다. 하지만 '적절한'이라는 수식어의 실행에는 수많은 이해관계의 조정 과정이 요구된다. 정부가 규제샌드박스제도를 도입한 것은 혁신의 싹은 보호하되 공공의 위험을 줄이려는 노력의 결과이다.수많은 허들을 넘어야 했지만 유니콘 스타트업으로 성장한 토스와 달리 법률서비스 플랫폼 로톡을 운영하는 로앤컴퍼니(이하 로톡)는 대한변호사협회(변협)와 7년째 갈등을 겪고 있다. 토스가 혁신 금융 플랫폼으로 성장하는 과정에는 감독기관과의 갈등이 주였다면 로톡과 변협 간 갈등은 전문직 단체와의 갈등이라는 차이점이 존재한다. 플랫폼 스타트업과 전문직 단체와의 갈등은 법률 영역만이 아니다. 수수료를 낮춘 세무회계 플랫폼 '삼쩜삼', 미용의료 플랫폼 '강남언니' 등도 세무사, 의사 단체와 갈등을 겪고 있다. 정보 공개를 통해 무한경쟁을 유도하는 플랫폼의 특성상 자격증으로 보호받던 전문직 입장에서는 이러한 변화가 불편하고 부당하게 느껴지는 부분도 많다. 하지만 불평, 부당만으로는 시장의 변화를 거스를 수 없으니 이에 대한 합리적인 해결방법이 필요하다고 할 것이다. 로톡과 변협 간 갈등이 7년간 이어지는 동안 이커머스 등 타 분야에 비해 성장 속도가 더디던 리걸테크 스타트업들이 신발끈을 묶고 달려나가기 시작했다.변협과 로톡 전쟁, 시장의 선택은?로톡과 변협 간 갈등의 시작은 지난 2015년 서울지방변호사회가 로톡에 대해 '변호사가 아닌 자는 법률 사무를 중개,알선할 수 없다'는 변호사법 규정을 위반했다고 고소하면서 시작되었다. 이후 대한변호사협회도 같은 이유로 로톡을 고발했고, 이에 대해 검찰은 모두 무혐의 처분을 내렸다. 로톡에 대한 검찰의 무혐의 결정이 잇따르자 변협은 2021년 5월 변호사들의 플랫폼 가입을 금지하는 '광고에 관한 규정' 개정안을 통과시켰다. 이에 대해 로톡과 로톡 가입 변호사 60명은 "변협의 '변호사 광고에 관한 규정'은 변호사들의 표현·직업의 자유와 플랫폼 운영자의 재산권을 침해한다"며 헌법소원을 냈다. 공정거래위원회에도 관련 규정이 공정거래법과 표시광고법을 위반했다는 이유로 변협을 고발했다. 공정거래위원회는 '변협의 광고에 관한 규정'이 공정거래법과 표시광고법을 위반했다는 취지의 심사보고서를 채택했다. 헌법재판소는 로톡과 로톡 가입 변호사들이 제기한 헌법소원에 대해 지난 5월 26일 '협회의 유권해석에 위반되는 행위를 목적 또는 수단으로 행하는 경우' 등에 대해 일부 위헌결정을 내렸다. 하지만 변협은 헌법재판소가 '변호사 아닌 광고 주체의 광고 금지' 조항에 대해 합헌으로 판단했다는 이유로 로톡 가입 변호사들에 대해 추가로 징계 개시를 결정한 상황이다.변협이 변호사 광고 규정을 개정해 변호사들의 로톡 가입을 막고 로톡을 탈퇴하지 않은 200여명에 대해 징계절차에 들어가면서 로톡에 가입한 변호사 수는 지난해 3월 3966명에서 8월 2855명으로 급감했다. 로톡에 가입한 변호사 회원은 실무 경력 10년 이하의 청년변호사들이 주를 이루고 있다. 특히 지난해 4월에는 10년 이하의 변호사가 전체 변호사 중 78.7%였지만 변협의 제재가 지속된 12월 말에는 81.3%로 늘었다. 법률서비스 플랫폼에 의존하지 않더라도 고객을 만날 수 있는 통로를 확보하고 있는 기성 변호사들에 비해 신진 변호사들은 플랫폼에 대한 의존도와 신뢰가 높아 경력에 따른 온도차를 확인할 수 있다.정보통신정책연구원이 발표한 '전문직 서비스의 플랫폼화'에 따르면 소비자 1009명 중 96%가 전문직 서비스의 플랫폼화가 필요하다고 답했다. 그 이유로는 직접 방문하지 않고도 서비스를 쉽게 이용할 수 있어서(44.9%), 서비스 검색 및 비교가 쉬워질 것 같아서(26.8%), 서비스 가격이 낮아질 거 같아서(15.5%), 서비스 품질이 향상될 거 같아서(7.5%), 서비스 정보 투명성이 높아질 거 같아서(5.2%)로 조사됐다.로톡은 변협과의 7년 전쟁을 진행하는 와중에도 지난해에 230억원에 달하는 투자금을 유치했다. 로톡이 이제까지 유치한 누적 투자금액은 400억원에 달한다. 현재까지 로톡을 통해 이뤄진 누적 상담건수는 약 64만건, 지난해 월평균 방문자 수는 약 97만명이었다. 변협과의 갈등으로 꾸준히 뉴스를 타게 된 로톡은 홍보 비용을 들이지 않고도 법률소비자들에게 존재감을 알리는 반사이익을 얻게 되었다. 변협의 날선 견제가 여전히 이어지고 있지만 서비스 이용 지표가 꾸준한 성장세를 보이고 있으니 투자자들 입장에서는 갈등을 성장의 재료로 만들어내는 로톡에 대한 신뢰가 더욱 커질 수밖에 없는 상황이다.성장 속도 빨라진 리걸테크 스타트업리걸테크(legaltech)는 법률서비스와 기술이 결합된 기업을 뜻한다. 법령을 기준으로 판결을 하는 우리나라와 달리 판례를 기준으로 판결을 하는 미국과 영국에서는 판례 검색 서비스가 필수적인 도구로 이용되어 왔다. 법률 문서 검색 서비스로는 미국의 '렉시스 넥시스(Lexis Nexis)'와 '웨스트로(westlaw)'가 대표적이다. 초기 리걸테크가 판례 검색과 문서 분석에 집중되어 왔다면, 최근에는 자동 문서작성과 법률 자문 시스템 등으로 확장되고 있다. 2016년 미국 대형 로펌 베이커앤드호스테틀러가 스타트업 로스인텔리전스가 개발한 인공지능(AI) 변호사 로스(ROSS)의 사용을 발표하면서 변호사라는 전문직도 인공지능기술에 의해 대체될 수 있다는 충격을 안겨주기도 했다.로톡과 같이 법률소비자와 공급자를 연결하는 서비스인 미국의 리걸줌은 3조원 이상의 기업가치를 평가받는 나스닥 상장 기업이다. 일본의 변호사 광고 플랫폼인 벤고시닷컴은 변호사의 50% 이상이 가입해 이용하고 있다. 리걸테크 관련 정보를 제공하는 미국 스탠퍼드대 로스쿨의 코드엑스(CodeX) 프로젝트에 따르면, 미국에만 2020년 기준 1887개의 리걸테크 기업이 활동 중이라고 한다. 시장의 수요와 기술 개발로 빠르게 성장하고 있는 글로벌 리걸테크와 달리 우리나라의 리걸테크는 다른 분야에 비해 성장 속도가 더딘 편이었다. 코리아스타트업포럼은 2020년 12월 리걸테크산업협의회를 구성해 이해당사자와의 적극적인 소통을 통해 기술발전과 제도개선에 노력하고 있다.규제의 장벽으로 성장세가 더디던 리걸테크 산업에 훈풍이 불기 시작한 것은 로톡과 변협 간 갈등으로 로톡에 이용자가 몰리면서다. 로톡과 변협 간 갈등이 미디어를 통해 자주 소개되면서 법률소비자들은 로테크 서비스를 인식하게 되었고, 로테크를 이용하는 법률소비자의 증가세는 자연스럽게 투자금의 증가로 이어졌다. 로톡과 유사하게 변호사와 법률서비스 소비자를 연결하는 로앤굿이 로톡과 변협 간 갈등으로 반사이익을 얻게 된 대표적인 기업이다. 누적 투자 140억원에 이른 간편전자계약서 작성 서비스 '모두싸인'은 비대면 서비스 시장의 확장세를 타고 이용자가 증가해 기업 간 계약체결 방식을 전자문서로 바꿔가고 있다.로톡과 변협 간 갈등은 변협의 로톡 가입 변호사들에 대한 징계의 정당성을 다투는 과정에서 다시 한번 공권력의 판단을 받아 정리될 것으로 예상된다. 이제까지의 상황으로 볼 때 시장은 변협이 아닌 로톡의 손을 들어주었다. 공익성이 높은 법률서비스 시장의 특성상 사회 전반의 이익을 위한 기준이 필요한 것은 사실이다. 로톡과 변협은 7년 전쟁을 이어가는 대신 법률 시장의 주체로서 서로의 입장을 이해하고 시장의 성장을 이뤄내는 방향으로 역할분배가 이루어져야 할 것이다. 변협과 로톡 간 전쟁은 변호사 시장뿐 아니라 전문직 시장 전반에 재현될 수 있다는 점에서 더욱 필요하고도 시급하게 해결되어야 할 과제이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2022.06.14.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>"동물 키우며 적금해요"…토스뱅크, '연 3% 키워봐요 적금' 출시</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013244326?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>출범 후 첫 정기적금 상품 출시…6개월 만기[토스뱅크 제공. 재판매 및 DB 금지](서울=연합뉴스) 오주현 기자 = 토스뱅크는 출범 후 첫 정기적금 상품인 '키워봐요 적금'을 출시했다고 14일 밝혔다.    이 적금은 연 최고 3%의 금리를 제공하며, 6개월 만기인 자유적립식 정기적금이다. 가입금액과 주 납입 이체 한도는 최소 1천원 이상 최대 20만원까지다.     납입한도는 월 최대 100만원까지며, 한도 내에서 자유롭게 추가 적금할 수 있어 가입 기간에 최대 600만원까지 납입할 수 있다.     적금 가입 시 유령, 거북이, 문어, 망아지 등 동물의 알이 지급된다. 다음 날 부화하는 동물은 6개월 동안 매주 자동이체 시 10단계에 거쳐 자라며, 최종 만기 때 '전설의 동물'로 진화한다.     가입 시 계좌별명도 지을 수 있고 '친구와 함께 키우기' 기능을 통해 서로의 동물이 자라는 모습을 확인하며 저축 과정을 서로 응원할 수 있다. 친구 초대는 무제한으로 가능하다.     가입 기간에 최대 6회의 긴급출금도 할 수 있다. 단, 최소 1만원 이상의 잔액이 있어야만 가능하며, 중도에 해지하더라도 연 1%의 금리를 제공하는 것이 특징이다.    특히 가장 나중에 입금된 금액부터 출금되도록 해 고객이 받는 이자를 최대한 보전하는 등 고객 친화적으로 상품을 기획했다.      토스뱅크는 이번 '키워봐요 적금' 출시를 통해 수신상품 라인업을 강화하고 남녀노소 모두가 즐겁게 저축할 수 있는 경험을 제공하고자 한다고 밝혔다.    토스뱅크 관계자는 "긴 시간 인내하며 목돈을 만들어가는 경험을 더욱 즐거운 금융 경험으로 바꿔 보고자 귀여운 동물을 돈과 함께 키우는 컨셉을 적금상품에 적용하게 됐다"며 "고객이 일상생활 속에서 더 쉽고 즐겁게 금융 서비스를 누릴 수 있도록 고객 중심의 금융을 실현하는 데에 앞장서겠다"고 말했다.     viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2022.06.13.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>이한영 증권플러스 비상장 총괄 "기업 성장 생태계 될 것"</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006154430?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>비상장 시장 운영 2년 '투자자 저변' 확대혁신금융 연장…"거래 지속 위해 회사들과 소통"이한영 두나무 '증권플러스 비상장' 서비스총괄실장이 지난 10일 서울 강남구 테헤란로 두나무 본사에서 뉴스1과 인터뷰를 하고 있다. 2022.6.10/뉴스1 © News1 민경석 기자(서울=뉴스1) 정지형 기자 = 혁신금융서비스 재지정으로 두 번째 도약을 준비 중인 '증권플러스 비상장'은 지난 2년간 사업 성과를 두고 비상장주식 시장 성장에 전환점을 만들었다고 평가했다.이한영 두나무 증권플러스 비상장 서비스총괄실장(36·사진)은 지난 10일 서울 강남구 두나무 본사에서 뉴스1과 만나 "비상장주식을 둘러싼 사회적 편견을 깨고 시장 진입장벽을 낮춰 투자자 저변 확대에 크게 기여했다"고 밝혔다.증권플러스 비상장은 가상화폐 거래소 '업비트'로 유명한 두나무가 2019년 11월 내놓은 비상장주식 거래 플랫폼이다. 2020년 4월 금융위원회에서 혁신금융서비스로 지정됐고 지난 3월 지정이 연장됐다.서울대 경제학부를 졸업한 뒤 서울대 법학전문대학원을 거쳐 변호사 자격을 취득한 이 총괄실장은 2020년 12월에 두나무에 합류했다. 미래에셋생명보험과 얼터너티브자산운용 등에서도 일했던 그는 곧장 증권플러스 비상장 서비스에 투입돼 법적 전문성과 금융회사 경험을 바탕으로 사업을 총괄했다.이전까지 비상장주식은 평범한 '개미'(개인투자자)는 넘볼 수 없는 전문투자자의 영역이라는 인식이 강했다.매매에 필요한 정보가 불충분해 사기 거래 위험이 뒤따랐고, 사설 장외거래사이트를 통해 매도자와 매수자가 1대 1로 직접 연락해 매매를 진행하는 방식도 번거로움을 안겼다.◇시장 둘러싼 '병폐' 없애고 거래는 '쉽게'증권플러스 비상장은 '거래 편리성·투자자 보호·정보격차 해소'라는 삼박자를 갖추며 투자자 발길을 불러 모았다.이 총괄실장은 "증권플러스 비상장은 모바일에 기반한 간편한 UX(사용자 경험)·UI(사용자 인터페이스)로 비상장주식이 오프라인에서만 거래될 수 있다는 발상을 전환했다"고 말했다.또 증권사 안전거래 서비스를 연계해 '병폐'로 꼽히던 거래 불투명성 해소에 앞장섰다.'확인 매물' 기능으로 실제 매도자가 주식을 보유하고 있는지 확인할 수 있도록 했고, 증권사 계좌에 주식거래 내역을 기록해 투자자 피해를 방지했다.이 총괄실장은 "지난 2년간 투자자 보호와 안심투자 환경 조성에 집중했다"며 "자정 능력을 강화해 시장이 건전하게 발전할 수 있는 토대를 마련하고자 했다"고 강조했다.두나무에서 집약한 비상장종목 정보도 투자자들에게 제공해 비상장주식 거래에 걸림돌이던 정보 격차도 줄였다.'증권플러스 비상장' 서비스 출시 2주년 기념 인포그래픽. (두나무 제공)/뉴스1즉각 반응을 보인 건 소위 MZ(밀레니얼 세대와 Z세대를 합한 말)세대로 불리는 2030세대다.2020년 10월부터 2021년 10월까지 1년간 플랫폼 이용자를 연령대별로 살펴본 결과 MZ세대가 43.8%로 절반 가까이 차지했다.이 총괄실장은 "MZ세대에 친숙한 유니콘(기업가치가 10억달러 이상인 비상장 스타트업) 기업 등장과 스톡옵션 활성화에 따른 비상장 시장을 향한 관심 증가도 한몫했다"고 설명했다.토스, 배달의민족, 야놀자, 컬리 등 MZ세대에 친숙한 모바일 플랫폼 같은 경우 운영사가 대부분 비상장사다.◇혁신금융서비스 2기 막바지 준비증권플러스 비상장은 오는 7월 새 '거래가능 종목 기준' 시행을 앞두고 막바지 개편 작업을 진행 중이다.금융위는 증권플러스 비상장의 혁신금융서비스 지정 연장 결정을 내리면서 조건으로 6월까지 투자자 보호 장치를 더 강화하도록 했다.7월부터는 플랫폼에서 주식이 거래되려면 해당 기업이 '최근 사업연도 매출액 5억원 이상' 등 6가지 재무요건을 충족해야 하고, 증권플러스 비상장에 등록도 따로 동의해야 한다.이 총괄실장은 "이번 조치로 이용자 수 감소도 일부 있을 수 있다"면서도 "투자자 보호 강화 조치가 비상장 시장이 건전하게 발전하려면 필요하다는 점에는 공감하고 있다"고 말했다.투자자 사이에서는 컬리와 비바리퍼블리카 등 인기 종목이 플랫폼 안에서 계속 거래가 가능할지가 최대 관심사다.만약 플랫폼 노출을 희망하지 않는 기업이 등록에 동의하지 않더라도 해당 기업 주식을 보유한 투자자는 새로 만들어지는 별도 전문투자자 시장에서 주식을 매도할 수 있다.이 총괄실장은 "기업 등록을 위해 (주식) 발행회사들과 적극적으로 소통하고 있다"며 "(발행회사도) 주식을 거래하고 싶어 하는 주주들의 요구에 화답해주시리라 기대하고 있다"고 했다.증권플러스 비상장은 혁신금융서비스 2기를 맞아 비상장주식 거래 플랫폼을 통해 스타트업과 벤처기업에 성장 생태계를 만들어주고 싶다는 의지를 내비쳤다.그는 "한 회사가 상장하려면 평균 12~15년이 걸리는데 3~4년이면 바뀌는 인재를 계속 붙잡으려면 비상장주식 시장에서 회사와 직원이 이익을 공유할 수 있어야 한다"고 강조했다.이어 "스타트업과 벤처기업이 성장할 수 있는 생태계를 조성해주는 것이 증권플러스 비상장의 역할"이라며 "창업에 도전하는 MZ세대에 안전망을 제공해주고 싶다"고 밝혔다.이한영 두나무 '증권플러스 비상장' 서비스총괄실장이 지난 10일 서울 강남구 테헤란로 두나무 본사에서 뉴스1과 인터뷰를 하고 있다. 2022.6.10/뉴스1 © News1 민경석 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2022.06.02.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>토뱅, 국내은행 최초 지불카드 보안표준 레벨1 획득</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004846134?sid=101</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>토스뱅크는 국내 은행권 최초로 글로벌 신용카드 데이터 보안인증인 '지불카드업계 정보보안표준(PCI-DSS)' 인증을 획득했다고 2일 밝혔다.   PCI-DSS는 정보가 전송되는 과정에서 카드 소유자의 데이터 등을 안전하게 보호하고 있는지를 검증하는 표준이다. 이번 인증 획득으로 토스뱅크는 고객의 카드 정보가 강도 높은 보안 정책에 따라 보호되고, 전송 및 저장되는 모든 처리 영역에서 암호화되고 있어 중도 노출 위험도 없다는 점을 인정받은 셈이다.   토스뱅크는 이번 인증 심사에서 △카드 소유자 데이터 및 민감한 데이터의 저장, 전송, 처리 절차카드 결제 프로세스 안정성 △정보보호 대책과 시설 및 설비 운영·보안관리 절차 등 총 12개 분야 412개 세부 항목에 대해 종합적으로 평가 받았다.   특히 토스뱅크는 레벨 1부터 레벨 4까지 중 최상위 등급인 레벨 1을 받았다. 이번 심사는 'PCI 보안표준위원회'로부터 인증심사 기관으로 지정받은 브로드밴드시큐리티 한국지점이 심사를 진행했다.   아울러 PCI-DSS 인증 획득 후에는 분기마다 준수 상태 검토 및 준수 여부를 증명해야 하기 때문에 토스뱅크 고객들은 보다 안전하게 토스뱅크의 체크카드를 이용할 수 있다. 현재 토스뱅크 고객의 80% 이상이 토스뱅크 체크카드를 사용하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2022.06.10.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>토스 “개인정보 무분별 거래 없어... 보험 상담 과정 보완할 것”</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000819989?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>토스는 최근 개인정보 판매 논란과 관련해 “개인정보의 무분별한 거래는 없었으며, 보험상담을 신청한 일부 고객에 한해 유료 매칭이 이루어졌다”며 “고객 관점에서 상담과정을 보완하겠다”고 10일 밝혔다.토스 제공        앞서 토스는 회원 데이터베이스(DB)를 계열사 토스인슈어런스(법인보험대리점)와 개인 보험설계사들에 유료로 판매해 왔다는 보도가 나와 논란이 일었다.토스는 ‘내 보험’ 서비스 중 보험 상담 선택 시 ‘설계사가 유료로 고객정보를 조회한다’는 점을 동의 과정에 명시해 고객이 상담 전 충분히 고려하고 판단할 수 있도록 조치할 예정이다. 기존의 ‘개인정보 제3자 정보 제공 동의’를 보완한 조치다.토스 관계자는 “설계사 13만 명에게 토스 회원의 개인정보가 판매 되었다는 보도는 사실이 아니며, 논란을 떠나 현재 상황을 책임감 있게 받아들이고 고객 관점에서 서비스를 더욱 발전시켜 나가기 위한 계기로 삼겠다”고 말했다.토스는 보험 상담을 원하는 고객과 전문 설계사를 연결해 주는 서비스를 운영 중이며, 최근 우수 설계사 대상으로 유료 매칭 서비스를 시작했다.특히, 개인정보의 무분별한 유통을 방지하기 위해 매칭되는 고객의 정보는 실제 전화번호가 아닌 ‘1회용 안심번호’로 제공되고 있다는 게 토스 측의 설명이다. 상담을 위해 설계사가 조회한 보험 가입 내역 등의 개인정보도, 고객이 상담을 중단하면 자동 파기된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2022.06.03.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>음원IP 펀드 사업 앞둔 ‘뮤직카우’, 금융전문가 서주희-김재홍 영입</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002125890?sid=105</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>[디지털데일리 최민지기자] 음악 저작권료 참여 청구권 투자 플랫폼 뮤직카우(총괄대표 정현경)가 베테랑 금융전문가 서주희, 김재홍 리더를 영입했다고 3일 밝혔다. 음원 지식재산(IP)에 대한 관리 강화는 물론, 대규모 음원 IP 펀드 조성 및 전문 운용을 위한 행보다.    뮤직카우 IP상품기획팀 책임자로 합류하게 된 서주희 리더는 삼일회계법인, 한국씨티은행, 삼성생명보험, 삼성자산운용, 삼성헤지자산운용, 토스뱅크 등 기존 금융권과 핀테크 업계 전반에서 금융 업무를 두루 경험한 17년 경력 전문가다.    서울대학교와 콜롬비아 비즈니스 스쿨에서 경영학 학위를 받았으며, 자산운용 전문가로 그 밖에 재무자문, 심사 등의 업무 경험도 가지고 있다.   서주희 리더는 뮤직카우에서 추진 중인 대규모 음원 IP 펀드 조성과 운용에 대한 전반적인 업무를 이끌어 가는 것과 동시에, 뮤직카우가 보유한 음원 IP의 고도화된 상장 시스템을 구축할 예정이다. 이용자를 위한 IP 펀드 상품 다양화도 진두지휘한다.   IP자산관리팀 책임자로 신규 선임된 김재홍 리더는 NH투자증권에서 17년 이상 근무하며 다양한 분야의 금융 업무를 맡은 바 있다. 중앙대학교 법학과 졸업 후 NH투자증권에서 지점 영업, 해외투자펀드 기획 및 영업, 유가증권 담보 신용 및 대출 업무 등을 경험했다. 헤지펀드 운용에 필요한 종합 서비스를 제공하는 프라임 브로커리지 서비스(PBS) 업무도 담당했다.    김재홍 리더는 음원 IP에 대한 체계적인 관리 및 체제를 한층 더 강화하고 IP 관련 데이터를 취합‧분석하는 업무를 총괄한다. 뮤직카우에서 매입하고 관리하는 음악 저작권 규모가 급성장하고 있는 만큼, 이번 영입을 통해 체계적이고 전문성 높은 음악 저작권 관리를 전개할 방침이다.    뮤직카우는 “체계적인 음원 IP 관리 시스템 강화 및 상품 다각화에 속도를 높일 수 있을 것”이라며 “뮤직카우는 음악이라는 K-콘텐츠를 기초자산으로 하는 혁신 문화금융 상품을 고안해내고 시장을 만들어낸 문화금융 기업으로, 앞으로도 계속해서 음악 산업 활성화에 기여하는 것은 물론, K팝 가치를 보다 높여 나가기 위해 최선을 다하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2022.06.15.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>대출금리 비교 플랫폼, 주담대로 보폭 넓힌다</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004065402?sid=101</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>LTV 완화에 수요 확대 기대감핀다·팀윙크 3분기중 출시 계획3~4개 저축은행과 제휴 논의나서카카오페이도 연내 시스템 구축사진 제공=이미지투데이[서울경제] 신용대출에 쏠려 있던 비대면 대출 비교 플랫폼들이 하반기에는 주택담보대출로 시장을 확대한다.15일 금융 업계에 따르면 대출 비교 플랫폼 기업 핀다는 3분기 중 주담대 비교 서비스 출시를 목표로 국내 3~4개 저축은행 및 온라인 투자 금융 업체와 제휴?협업을 논의하고 있다. 대출 비교 애플리케이션 ‘알다’ 운영사 팀윙크 역시 3분기에 같은 서비스를 출시하기 위해 현재 1개 대형 저축은행과 논의 중이다.핀다·팀윙크 등 중소형 대출 비교 플랫폼 업체뿐만 아니라 카카오페이도 연내 비대면 주담대 비교 시장에 진출할 계획이다. 보험관리 앱 ‘시그널플래너’를 운영 중인 해빗팩토리의 경우 3월 미국 주담대 시장에 진출한 데 이어 향후 국내에서도 서비스를 출시하고 국내 대출 비교 시장에 본격적으로 뛰어들겠다는 방침이다.현재 주담대 비교 서비스를 운영 중인 곳은 ‘담비’ 운영사 베스트핀과 뱅크몰 두 곳뿐이다. 토스와 핀다도 앱 안에서 주담대 상품을 볼 수 있지만 평균적인 금리 정보를 제공하는 정도에 그치는 수준이다. 한 핀테크사 관계자는 “주택담보대출은 수요자 심리나 시스템 구축 면에서 100% 비대면이 어렵기도 했다”고 설명했다.핀테크 업체들이 앞다퉈 주담대 비교 서비스에 뛰어드는 것은 총부채원리금상환비율(DSR) 규제는 유지되는데 주택담보인정비율(LTV)은 완화돼 신용대출보다 주담대 수요가 상대적으로 더 늘어날 것으로 전망하기 때문이다.금융권에 따르면 정부는 7월 초부터 생애 최초 주택 구입자의 LTV 최대 상한을 기존 60%에서 80%로 상향할 계획이다. 서울에서 5억 원짜리 집을 산다면 대출 받을 수 있는 금액이 최대 3억 원에서 4억 원으로 늘어나는 셈이다. 새 정부는 청년 및 신혼부부를 위한 최대 50년 만기 초장기 주담대 도입도 검토하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2022.06.15.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>P2P투자액 1년 새 4배 ↑…3040 男 비중 34%</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004065071?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>피플펀드 '투자자 이용 행태 리포트' 발간사진 제공=피플펀드[서울경제] 최근 약 1년간 온라인투자연계금융(이하 ‘온투금융’) 투자자의 70.5%가 투자금을 온투금융에 재투자하는 것으로 나타났다. 특히 3040 남성 투자자의 비중이 전체 이용자의 34%를 차지하고 있었다.피플펀드는 지난 14일 ‘온투금융 1주년, 투자자 이용 행태 리포트’를 발간하고 “온투금융이 제도권 금융에 편입되면서 기존 개인투자자들의 투자처 선호도가 상승했다”며 이 같은 조사 결과를 밝혔다. 이번 조사는 회사가 최근 4년 동안 꾸준히 판매해온 아파트담보채권(이하 ‘아담투’) 상품에 투자하는 개인투자자의 이용 패턴을 온투업 등록 이전(2020년 7월~2021년 5월)과 이후(2021년 7월~2022년 5월)로 나눠 분석하는 식으로 진행됐다. 온투금융 등록이 진행되고 있었던 지난해 6월 데이터는 사용되지 않았다.조사에 따르면 아담투 소득적격 투자자의 1인당 연평균 투자 횟수는 온투업 등록 전 38회에서 등록 후 75회로 2배 늘었다. 최근 11개월간 상품당 평균 투자액 역시 약 102만 원으로 등록 전 대비 2.1배 증가했다. 같은 기간 소득적격자의 1인당 연평균 투자 금액은 등록 전보다 4.1배 늘어난 약 7700만 원에 달했다.다만 개인투자자들의 총 투자액은 등록 전 788억 원에서 등록 후 605억 원으로 23.2% 감소했다. 피플펀드 측은 “기존에 개인투자자를 위한 주요 광고 채널이었던 카카오, 토스 등 빅테크 플랫폼 내 광고가 지난해 8월 중단되면서 해당 채널에서 소액 투자를 해온 일반투자자가 줄어든 영향”이라고 분석했다.한편 피플펀드 투자 상품을 이용하는 고객 유형 별로는 남성이 62.2%로 여성보다 많았다. 주 이용 연령대는 40대가 33.9%로 가장 많았다. 이를 종합한 3040 남성 고객 비율은 전체 고객의 41.5% 수준이다. 김대윤 피플펀드 대표이사는 “제도권 금융기관으로서 투자자에게 더 안심하고 투자할 수 있는 환경을 제공할 수 있게 돼 의미 있는 첫 해였다”며 “앞으로도 보다 나은 투자 상품을 개발하고 최신 기술을 도입해 보다 편리한 투자가 가능하도록 하겠다“고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2022.06.08.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>토스증권, 서학개미도 잡았다...해외주식 점유율 10% 돌파</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000008400?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>누적거래대금 13조원, 고객수 140만 넘어첫 돌을 맞은 '새내기' 증권사 토스증권이 해외주식 거래 서비스에서 존재감을 드러내고 있다. 서비스 개시 반년 만에 시장 점유율 10%를 돌파하며 입지 굳히기에 나섰다. /사진=토스증권 제공8일 토스증권은 해외주식 서비스 시장점유율이 12.5%을 기록했다고 밝혔다.토스증권은 지난해 12월 해외주식 서비스를 개시한 후발주자다. 더욱이 최근 글로벌 증시 냉각기에 접어들어 국내 투자자들의 해외주식 열기가 다소 식은 가운데 나온 성과인만큼 회사 측에서는 의의가 크다고 평가했다.토스증권의 누적 거래대금은 13조4000억원을 기록했다. 지난달 월간 거래대금은 전월 대비 54% 늘어난 4조원대에 진입했다. 같은 기간 해외주식 전체 거래대금이 약 4% 증가하는데 그친 점을 감안하면 가파른 성장속도다.해외주식 서비스 이용 고객수는 140만명을 넘어섰다. 연령대별로는 20대가 34%로 가장 많았다. 30대(30%), 40대(23%)가 뒤를 이었다.아울러 해외주식 월간활성화사용자 수(MAU)는 전월 100만명을 돌파한데 이어 5월말 기준 110만명으로 집계됐다. 토스증권 관계자는 "4월 해외주식 소수점 거래 서비스가 시작되며 소액투자에 관심있는 투자자들을 끌어들인 것으로 해석된다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2022.06.05.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>중저신용자 몰리는 인터넷銀…가계대출 5개월 연속 증가세</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004973580?sid=101</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>카뱅·케뱅 한달새 3천억씩 늘어카카오뱅크와 케이뱅크 등 인터넷전문은행의 가계대출 잔액이 5개월 연속 증가했다. KB국민·신한·하나·우리·NH농협 등 5대 시중은행 가계대출이 다섯 달째 감소한 것과 대비되는 결과다. 인터넷은행 주요 고객인 중저신용자 대출 수요가 꾸준한 덕분으로 풀이된다.5일 금융권에 따르면 지난달 말 기준 카카오뱅크와 케이뱅크의 가계대출 잔액은 각각 26조5445억원, 8조4900억원으로 집계됐다. 지난 4월 말과 비교하면 한 달 새 각각 3100억원, 2881억원 증가했다. 토스뱅크는 지난달 말 기준 가계대출 잔액을 공개하지 않았으나, 출범 초기인 데다 공격적으로 영업을 확대해 나가고 있는 만큼 증가세를 이어갔을 것이라는 관측이 나온다.토스뱅크 대출 잔액이 올해 들어 매월 평균 4000억원씩 증가해온 것을 고려하면 5월 말 기준 인터넷은행 3사(카카오·케이·토스뱅크)의 가계대출 잔액은 38조원대에 육박했을 것으로 추정된다. 지난달 말과 비교하면 1조원 정도 증가한 셈이다. 인터넷은행의 가계대출 잔액은 올해 1월 1조1916억원, 2월 6850억원, 3월 8114억원, 4월 1조1279억원 늘어난 데 이어 5개월째 연속 증가세다. 이는 올해 들어 주요 시중은행의 가계대출 잔액이 5개월 연속 감소한 것과 대조된다. 5대 시중은행의 지난달 말 가계대출 잔액은 701조615억원으로, 4월 말보다 1조3302억원 줄었다. 신용대출과 주택담보대출이 감소한 영향이다.인터넷은행은 중저신용자를 겨냥한 대출이 늘어나며 여신 규모가 꾸준히 성장했다. 특히 부동산과 주식 등 자산시장 대출 위주인 고신용자 대출 수요는 감소한 반면, 생활비 목적 등의 중·저신용자 대출 수요는 계속 증가했다. 작년 말까지 카카오뱅크와 케이뱅크의 중저신용자 대출 비중은 각각 17.0%, 16.6%였지만 올해는 20%대로 올라섰다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2022.06.15.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>한전 빅스톰 배구단, 홍천서 일일 배구교실</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006159992?sid=102</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>한전 빅스톰 배구단은 15일 홍천군민스포츠센터에서 홍천군체육회 소속 중‧고등 여자클럽 선수와 남산초교 선수 27명을 대상으로 한 일일 배구교실을 진행했다.(한전 동해안신가평특별대책본부 제공) 2022.6.15/뉴스1(홍천=뉴스1) 이종재 기자 = 한국전력 동해안신가평특별대책본부와 한전 빅스톰 배구단은 15일 강원 홍천군 군민스포츠센터에서 ‘일일 배구교실’을 개최했다.이날 행사는 홍천군 남산초교와 홍천군 체육회 소속 홍천중·고등 여자배구 클럽을 대상으로 진행됐다.행사는 국내 최초 중·고 배구클럽이 창단되고 전국 규모 배구대회가 유치되고 있는 홍천군과 한전의 상생발전과 지역 유소년 스포츠 발전·저변확대를 위해 기획됐다.이날 행사에는 한전 빅스톰 배구단 소속의 국가대표 레프트 공격수 서재덕, 리베로 오재성, 세터 황동일 선수가 초청됐다.일일 배구교실에 참가한 홍천군체육회 소속 중·고등 여자클럽 선수와 남산초교 선수 27명은 스텝, 토스, 스파이크, 리시브 등 배구 기본기를 점검받았다.레슨 이후에는 유니폼, 운동화, 스포츠 음료 등 훈련용품 전달식과 사인회, 기념촬영 등이 진행됐다.한전 관계자는 “앞으로도 배구 꿈나무 선수 육성을 적극 지원하고 지역사회를 위한 다양한 사회공헌활동을 지속 펼치겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2022.06.09.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>“전체를 바꿔라” 황현식 특명…LGU+, 데이터·AI 기업 선언(종합)</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002126227?sid=105</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>[디지털데일리 권하영 기자] “지금 LG유플러스의 급선무는 데이터와 AI를 통해 전체적으로 변화해야 한다는 것이다. 새로운 것을 시도할 수 있도록 황현식 대표가 장을 열어줬고, 그것이 저희 임무라고 생각하고 추진하고 있다.”   황규별 LG유플러스 최고데이터책임자(CDO) 전무&lt;사진&gt;는 9일 서울 용산구 LG유플러스 본사에서 기자간담회를 열고 이 같이 밝혔다.    글로벌 통신사 AT&amp;T 등에서 데이터 전문가로 활약한 황 전무는 올해 초 데이터와 인공지능(AI) 등 신사업을 이끄는 역할로 LG유플러스에 합류했다. 이번 간담회는 황 전무가 LG유플러스의 데이터와 AI 비전 및 전략을 발표하는 첫 자리다.   황규별 전무는 황현식 대표가 회사의 전체적인 변화를 주문했다며 “경영진 전체가 데이터와 AI를 통해 회사가 변화해야 한다는 것에 절실히 공감하고 있으며, 이런 리더십의 의지 자체가 저희가 변화할 수 있는 가장 큰 무기”라고 강조했다.   황 전무는 첫 번째 중점 과제로 사업구조와 조직문화를 탈바꿈하는 것에 방점을 찍었다. AI·데이터 기술을 하나의 상품으로서 ‘프로덕트’ 그룹으로 분류하고, 이러한 프로덕트의 경쟁력을 확보하기 위해 스타트업처럼 애자일한 조직 개편이 단행됐다.    프로덕트 중심 조직은 아마존웹서비스(AWS)·구글·토스 등 테크기업들이 도입한 시스템으로, 시장과 고객의 변화에 기민하게 움직이는 구조다. LG유플러스 내 CDO는 현재 200여명이 20여개 이상의 팀으로 구성되어 있는데, 각 팀에 배속된 전문가들이 기획-개발-출시까지 사업전반에 대한 전략과 예산의 자율권을 보장받는다.   현재 LG유플러스는 프로덕트 그룹을 ▲고객 정보를 세분화해 분석하는 ‘프로파일스’(profiles) ▲데이터 수집·분석을 통해 고객에 제공하는 ‘인사이트’(insight) ▲고객 정보를 조합해 세그먼트별로 하는 ‘타게팅’(targeting) ▲AI·데이터를 활용해 개인화 추천 등 플랫폼서비스를 고도화하는 ‘디스커버리’(discovery) ▲AI를 고객센터에 적용한 ‘AICC’(AI contact center) 등으로 나누고 있다.  예컨대 AICC 프로덕트 그룹에서는 AI 콜봇, 챗봇, 상담어드바이저, 커넥티드카 등 다양한 서비스가 있으며 LG유플러스는 오는 8월 소상공인 특화 AI 콜봇 서비스 ‘AI 가게 매니저’를 출시할 계획이다. 또 다른 프로덕트 그룹인 인사이트 그룹의 ‘데이터플러스’는 데이터 기반 인사이트·데이터 마케팅 채널을 제공하는 B2B 빅데이터 서비스다. 타겟팅 프로덕트 그룹의 빅데이터 기반 맞춤형 상품 추천 쇼핑플랫폼 ‘U+콕’은 이달 전용 모바일 앱을 선보인다.   황 전무는 “데이터와 AI 상품에 대해 고객이 어떤 것을 필요로 하는지를 아는 게 굉장히 중요하다”면서 “데이터를 잘 정제하면서 시장의 필요를 알고 쓰면 서너배 가치가 될 수 있는 것이고, 결국 누가 고객의 필요를 제대로 맞춰 시장에 가져갈 수 있을지가 가장 큰 차별점이 될 것”이라고 짚었다.   외주와 제휴에 의존하던 개발역량을 내재화하는데에도 집중할 계획이다. 오는 2024년까지 AI·데이터 사이언티스트, 데이터·플랫폼 엔지니어, SW/ML-Ops(소프트웨어·기계학습 상용 적용) 엔지니어 등 200여명의 우수 개발인력을 채용해 현재 인원의 두 배 수준인 400명까지 전문인력을 확대한다는 계획이다.   LG유플러스는 우수인재 확보를 위해 산학협력 인턴십 프로그램을 준비하는 등 다양한 채널을 통해 개발자들과 유기적인 관계를 구축하는 데브렐(DevRel·Developer Relations) 활동을 강화할 계획이다. 실리콘밸리뿐만 아니라 전세계의 많은 기업들이 데브렐을 강화하고 있으며, 최근에는 소규모 기업들도 데브렐의 중요성을 인식하고 있다.    황 전무는 “창의적인 솔루션을 만들고 그것을 실제로 시장에 적용하는 이런 비전이 제공되어야 개발자들이 즐거운 마음으로 일할 수 있는 것 같다”며 “처우도 중요하지만 그런 문화를 뿌리내리는 것이 중요하다”고 언급했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2022.06.08.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>[뉴스킹] 조원진 "이준석 우크라이나행은 '생뚱맞은 배낭여행'...왜 갔는지 모르겠어"</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/052/0001748800?sid=100</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>[관련 동영상 보기]YTN라디오(FM 94.5) [뉴스킹 박지훈입니다]□ 방송일시 : 2022년 6월 8일 (수요일) □ 진행 : 박지훈 변호사□ 출연자 : 조원진 우리공화당 대표, 김수현 기상캐스터 * 아래 텍스트는 실제 방송 내용과 차이가 있을 수 있으니 보다 정확한 내용은 방송으로 확인하시기 바랍니다.◇ 박지훈 변호사(이하 박지훈): 수요일 4부에 열리는 뉴스킹의 정치개그특별위원회, '정개특위' 시간입니다. 정치위원 맡고 계신 조원진 우리공화당 대표, 개그위원 맡고 계신 김수현 기상캐스터와 함께합니다. 어서오세요.◆ 조원진 우리공화당 대표(이하 조원진): 안녕하세요.◆ 김수현 기상캐스터(이하 김수현): 안녕하세요.◇ 박지훈: 지방선거 이후의 첫 만남입니다. 6.1 지방선거 총평 한번 들어보겠습니다. 광역단체 기준으로 12대 5 국민의힘 이겼거든요.◆ 조원진: 지방선거 전에 우리 저한테 이 방송할 때 누가 여쭤봤어요.◇ 박지훈: 제가 질문 드렸습니다. 정확하게 맞추셨어요. ◆ 조원진: 완패다. 저는 13대 4로 봤는데 경기도가 막판에 역전이 됐는데요. 여러 가지 악조건이 민주당이 갖고 있었다. 대통령 선거 끝나고 대통령 취임하고 이런 과정에서 지방선거이기 때문에 민심은 국민의힘 쪽에 점수를 많이 주고 있었는데 또 바이든 대통령 오셨잖아요. 한미 관계, 안보 문제, 북한은 7차 핵실험 한다고 그러지 여러 가지 사항 민주당 내부의 송영길 전 대표의 서울 출마 또 그 지역에 이재명 후보 출마 등등 국민 정서에 동 떨어지는 검수완박 문제, 밀어붙이는 문제 이런 것 성희롱 문제 이런 게 악재들이 터졌잖아요. 그런데 경기도지사 부분이 역전이 됐는데 인구적으로 따지면 민주당에서 그런 얘기를 하더니 인구로 따지면 그래도 반은 먹어야 하는 것 같다.◇ 박지훈: 김수현 캐스터 보셨을 거예요. 저도 새벽까지 개표 방송도 하고 하면서 특히 경기도지사 선거 어떻게 뒤집히는 순간 생방송으로 보셨습니까.◆ 김수현: 저는 경기도민이라서 조금 더 관심을 가지고 지켜봤는데 자정 넘어가면서까지 보면서 그때 역전되는 게 제가 그동안 봤을 때는 많지 않았던 것 같아요.◇ 박지훈: 최근에 출구조사가 틀린 적이 거의 없어요. 출구조사 차이도 좀 났었고요.◆ 김수현: 12시 넘어가면서 김은혜 후보가 당선이 되나 보다 하고 잤는데 아침에 일어나서 녹색창 봤더니 역전됐다. 5시 좀 넘어서 그래서 이게 그런 말 있잖아요. 끝날 때까지 끝나는 게 아니다를 거기서 다시 한 번 느꼈습니다.◇ 박지훈: 야구 격언이긴 한데 대표님 얘기를 하셨죠. 13대 4, 12대 5 말씀을 하시면서 강용석 후보 얘기도 계속 했었는데◆ 조원진: 강용석 후보하고 단일화 안 하면 진다. 제가 딱 그 얘기를 했거든요. 강용석 후보하고 단일화 안 하면 박빙인데 모든 여론조사에서 3% 내외 나오잖아요. 아무튼 쏠림 현상이 또 있을 거다. 대선 같이 강용석 후보가 5%, 7%, 10%까지 쭉 나가다가 막판에 김은혜 후보 국민의힘 후보로 쏠림 현상이 있는데 이번에도 심했죠. 문제는 강용석 후보가 선거 활동하는 공약이나 이런 부분들은 좀 참신했다. 단지 인물평에서 김은혜 후보가 내세울 수 있는 것은 윤핵관 윤석열 정부의 윤석열 사람이다. 그 외에 김동연 후보하고 차이점이 뭔가 거기서 인물로 해서 많은 차이점이 있었다. 그런 부분에 있어서는 요즘 좀 시끄러운 이준석 대표의 실이 크다. 왜냐하면 서울시당에서 보통 올리면 이걸 예상을 해야 되는 거예요. 경기도는 대통령 선거에서 5% 가까이 졌잖아요. 이기려면 모든 걸 다 묶어도 이기기 힘들다. 그때는 이준석 대표가 개인적인 사과문을 내려놓고 서울시당의 공천 입당 그걸 받아들였으면 이런 문제가 없죠. 그런데 결과적으로 윤석열 대통령 얘기하듯이 독이 아니고 약이 될 거라는 표현은 제대로 한 거예요. 경기도 이 선거까지 이겼으면 그들이 아무리 고개 낮추는 쇼를 해도 오만해진다.  대통령 선거 때 제가 지금 느낌이 이랬어요. 제가 대통령 선거에 똑같은 케이스입니다. 그래서 국민의힘한테 후보 단일화를 요구를 했고 저희들은 조건이 없었어요. 후보 단일화 요구를 했는데 국민의힘이 거부했잖아요. 그런데 결과적으로 만약에 국민의힘이 우리가 1% 나왔으면 졌다고요. 아니 그래서 우리는 요구를 했는데 강용석하 그쪽은 또 다른 얘기 있더라 무슨 자리 요구 이런 얘기가 나와서 그건 좀 다르지만 우리는 순수하게 요구를 했는데 거기에서 거부했어요. 만약 대통령 선거에서 만약에 졌다. 그 책임이 누구예요. 거부한 쪽이 책임이 있잖아요. 그런데 이겼으니까 1%도 안 돼 0.7%(포인트)로 이겼으니까 지금 이런 상황으로 있지 만약에 졌으면 거부한 쪽은 우리한테 국민들은 왜 네가 계속 나가서 그렇게 됐느냐 할 텐데 우리는 지속적으로 단일 후보 안 하면 진다고 얘기했던 사람이에요. 진다고 얘기했던 사람이고 또 그 경고를 국민의힘의 많은 사람들한테 얘기를 했어요. 단일 후보 우리까지 끼워 넣지 않으면 진다. 그런데 결과는 0.7%(포인트)로 겨우 이겼는데 그걸 예측했던 것이고 이번에 경기도지사 선거도 큰 데서 포용을 못한 쪽이 잘못이 크다. 단지 그 과정에서 강용석 후보가 어떤 자리를 얘기하고 이런 건 대단히 아니길 바랍니다.◇ 박지훈: 지금 선거 끝나고 강용석 후보 측 갈등의 모양새가 큰 것 같아요. 유명한 유튜브 방송이 되게 지금 잘 안 되는 것 같거든요.◆ 김수현: 두 분이서 지금 김세의 대표랑 둘이서 사이가 조금 안 좋아졌다는데 그게 다 김세희 대표는 내가 조금 더 잘 만들어보려고 하다가 단일화 하려다가 안 됐다는 얘기가 둘이서 좀 갈라진 건데 누가 말이 맞는지 모르는 거라 근데 그 프로그램이 굉장히 그런 것들을 추적하고 이렇게 좀 고하는 프로그램 아닙니까.◇ 박지훈: 지금 보십니까 가로세로 연구소◆ 조원진: 방송은 잘 안 봐요. 안 보는데 김세의 대표한테 내가 전화했어요. 전화해서 서로 간 말로 싸울 필요는 없는 것 같다. 서로 상처만 입으니까 만나라 만나서 아예 갈라 서려면 조용히 갈라서고 합치려면 빨리 합쳐라 이게 계속 더 가면 골이 있고 선거라는 것은 하나의 과정이거든요. 그 선거에서 5년, 6년 동안 그들이 싸워왔던 혹은 또 비판도 받고 또 지지도 받는 입장에서 그런 부분들은 두 사람이 빨리 해결하는 게 좋겠다. 그런데 골이 말을 너무 많이 뱉었더라고요. 그래서 골이 깊은데 기회 되면 두 사람 좀 불러서 ◇ 박지훈: 중재를 좀 하신다 이 말씀이십니까.◆ 조원진: 한번 얘기를 해줘야 할 것 같아요. 제가 김세의 대표한테 전화해서 얘기를 했어요.  빨리 만나서 허심탄회하게 얘기들을 하셔라◆ 김수현: 그런 부분이 조금 정치는 잘 모르지만 돌아가는 상황들을 봤을 때 좀 재미있었다고 볼 수 있는 부분이 김세의 대표하고 가세연이 지금 돈을 못 벌고 있는 상황이잖아요. 수익이 정지됐다. 수익 창출이 정지됐는데 강용석 후보가 개인 유튜브에서 슈퍼챗을 많이 받았다는 얘기가 이렇게 막 나와 있더라고요 그래서 김 대표가 나는 이러고 있는데 혼자야 이렇게 좀 그러냐는 얘기도 막 기사가 나오고◆ 조원진: 오랜 세월 동안 했기 때문에 빨리 만나면 나름대로 정리가 될 겁니다. 왜냐하면 내가 차명진 의원하고도 통화했고 내가 그랬어 너 나한테 정치 안 한다고 하더니 가서 손 들고 왔다 갔다 하냐 ◇ 박지훈: 강용석 후보를 이번에 도와줬어요. ◆ 조원진: 차명진 후보 사부라는 김문수 전 지사는 정성열 캠프에 뭐 하고 차명진은 또 하고 해서 두 사람의 갈등에 차명진 의원이 거기 또 끼어 있다는 것도 좀 모양이 안 좋고 그래서  요즘 칩거 하고 있잖아요. 차명진 의원도 이번에 선거 끝나고 대단히 큰 충격을 받은 것 같아요.◇ 박지훈: 약간 비난을 많이 받고 있습니다. ◆ 조원진: 하면 안 되죠. 개입하면 단일화를 이뤄야 돼요. 국민의힘이 좀 변화를 줘야 되는 게 단일화를 거부하고 책임을 단일화를 하자는 쪽의 책임을 묻던가 대통령 선거와 똑같습니다. 대통령 선거도 우리가 지금 한 50만 당원 가까이 되는데 우리 당원들도 정권교체 때문에 많이 이탈이 아니고 어쩔 수 없는 상황으로 그쪽을 찍은 사람이 많아요. 단지 하나 우리는 단일화를 지속적으로 요구를 했는데 단일화를 거부한 쪽이 졌을 때 단일화 요구하는 쪽 보고 요구를 하면 안 된다고. 그거는 자기반성을 하는 게 맞지 그렇지 않습니까.◇ 박지훈: 네, 맞습니다. 다음 주제로 국민의힘 얘기를 좀 해야 될 것 같습니다. 당권 갈등이 있는 것 같은데 이준석 대표는 우크라이나를 지금 갔습니다. 또 얘기도 많아요. 기차가 간다. 그런 얘기도 하면서 정진석 의원은 뭐냐 자기 정치하느냐 이렇게 얘기하고 있는데 일단은 당권 갈등으로 봐야 됩니까.◆ 조원진: 당권 갈등 맞습니다. 왜냐하면 지금 윤리위에 올라와 있고 성상납 문제가 윤리에 올라와 있어서 그것도 너무 질질 끌었어요. 지방선거 때문에 빨리 결론을 내리는 게 좋고 이준석 대표가 우크라이나 간 데 대해서는 나는 배낭여행 간 줄 알았어요. 여당 대표는 전체 서열적으로 국가 서열로 봐도 한 8위, 7, 8위정도 되는데 야당이 아니잖아요. 그럼 윤석열 정부가 대통령 취임하고 여당 대표가 어디 가면 여러 가지 준비해야 할 게 많습니다. 윤석열 정부 가 가지고 있는 외교적인 생각하고 여당 대표 이준석 대표가 생각을 같이 하고 간 건가 그 부분이 좀 문제가 있고요. 그래서 제가 배낭여행이라는 게 절차를 갖추지 않은 여당 대표는 여당 대표 자격이 없다. 두 번째는 지금 7차 핵실험 문제가 계속 대두되잖아요. 7차 핵실험은 우리의 남북 관계 또 한미 관계, 한미일 자유 우방 혹은 중국과의 관계 여러 가지가 다 맞물려 있어요. 이 핵실험에 그러면 윤석열 정부에 대한 도전이고 윤석열 정부의 능력을 보는 그러한 상황인데 외교 능력을 국제적으로 제재를 가할 수 있는 7차 핵실험 하면 미국 대표나 한국 외교부 차관이 다 얘기하잖아요. 국제적인 공조를 통해서 제재 유엔에서 상임이사국이 러시아입니다. 이런 7차 핵실험을 터졌을 때 빌미를 줬다. 러시아한테. 인권적인 부분은 저는 동조를 해요. 동조를 하는데 국가 외교적으로 지금 굉장히 첨예한 상황이다. 7차 핵실험 한다는 것 아닙니까. 이번 주에 할 것 같은데 하게 되면 그 부분에 대한 부분을 이준석 대표가 생각하느냐 국내에서는 미사일 8발 쏘고 7차 핵실험 한다고 그러고 난리를 하잖아요. 그런데 여당 대표가 지금 우크라이나 가는 게 무슨 뜻인가를 제가 잘 모르겠어요. 그냥 국내 정치용이다. 개혁위원회 띄워놓고 개혁위원회 띄워놓고 이런저런 반발에 휩쓸리기 싫고 그냥 밖에 나가서 트위터 하나 띄우고 말 한마디 하고 이게 끝인 거 아니냐. 제가 항상 얘기하지만 이번 경기도지사의 실패 이준석 대표 책임이에요. 또 이번에 외교적인 부분을 다 절차를 무시하고 간 것은 돌출 행동이고 대단히 잘못된 거다. 윤석열 정부의 기본적인 외교 틀에 굉장히 잘못된 관행을 만들어 버린 거예요. 지금 윤석열 정부가 인사하고 미국 대사, 일본 대사, 중국 대사, 러시아 대사 임명했잖아요. 시작하는 시점에서 여당 대표가 윤석열 정부 측하고 논의 없이 그냥 가서 그렇게 행동하는 것은 당내 최고위원회에서도 논의하지 않고 그것은 대단히 잘못된 거다.◇ 박지훈: 일반 시민 입장에서 지금 우크라이나 간 우리나라 사람이 유명한 사람이 이근 대위하고 이준석 대표 같아요. 어떻게 보십니까 이렇게 대표가 당 대표가 전쟁터에 지금 가는 거거든요.◆ 김수현: 정말로 아무것도 정치에 대해서 잘 모르는 일반인 저 정치를 잘 모르지만 일단은 당연히 너무나 지금 우크라이나에서 너무 힘든 일이 있고 많은 응원과 또 격려가 필요하고 도움의 손길이 필요한 건 맞으나 말씀하신 것처럼 근데 왜 이준석 대표가 간 건지 보통 그런 뉴스에 나오잖아요. 윤석열 대통령의 메시지를 받고 갔다든지 이렇게 사명을 띠고 갔다는 기사는 없이 갔고 당내에서도 좀 내용이 조금 서로 분분하고 있다. 간 거에 대해서 보면서 그냥 아마 저도 그렇지만 제 주변 많은 분들이 왜 간 건데.◇ 박지훈: 왜 간 건데 라고 할 수 있겠죠.◆ 김수현: 그래서 지금 지방선거 끝나고 이 타이밍◆ 조원진: 한마디로 생뚱맞은 배낭여행이다. 대표한테 정치 선배로서 한마디 얘기해 주고 싶은 것은 대통령 되기 전에 윤석열과 대통령 되고 난 다음에 윤석열은 다른 겁니다. 다른 사람이 행동을 그렇게 하면 이준석 대표 스스로가 불구덩이로 들어간다.◇ 박지훈: 그러면 누가 봐도 조금 어색한 부분이 있고 우리 대표님은 변한 게 아니냐 이렇게 얘기를 했는데 그럼에도 당 대표가 그것을 감행한 이유 어떤 게 있을까요.◆ 조원진: 아내 문제가 본인한테 경기도지사의 실패에 대한 책임론이 불거질 겁니다. 그거에 대한 회피고 또 하나는 인식 자체를 잘못하고 있다. 하나의 정권교체를 했으면 윤석열 정부 저는 호시후보 라는 용어를 쓰는 게 호랑이의 눈으로 무겁게 지켜보고 있는 그런 상황이거든요. 이번에 이준석 대표의 우크라이나행은 시기적으로도 옳지 않고 행동도 맞지 않고 그래서 왜 갔느냐 국민들이 지금 7차 핵실험 하고 난 다음에 우리가 어떤 상황으로 가야 되는가 이게 초미의 관심이고 윤석열 정부가 들어오면 어제인가 안철수 인수위원장이 인수위 백서 전달할 때 윤석열 대통령 옆에 사진 한 장 찍으러 갔잖아요. 당에서 할 일이 너무 많습니다. 제가 소위 수석 최고위원격으로 있던 사람으로 볼 때는 당에서 정부가 내놓는 여러 가지 정책에 대해서 당도 정책위가 있고 풀가동이 돼야 돼요. 풀가동이 돼서 그걸 당 대표가 수시로 매일 보고를 받으면서 협의를 하고 또 빠진 부분 정부에서 놓치는 빠진 부분을 당에서 토스해 주고 이래야 되는데 당정회의라는 게 요새 안 보이잖아요. 정부가 서면 당정회의라는 게 있다고 고위 당정회의는 당대표, 원내대표, 정책위의장 이렇게 해서 관련된 최고위원들 하고 정부하고 상견례 하잖아요. 임명을 하면 지금 당은 지금 없어져 버린 거예요.◇ 박지훈: 지금 대표가 우크라이나에 갔으니까.◆ 조원진: 그러면 두 개의 수레바퀴 중에 인재들이 당에 많아요. 경험이 있잖아요. 전문의원도 있고 이쪽은 경험이 있고 이쪽은 윤석열 대통령의 인사 스타일이 자기 가까운 검찰 사람들을 많이 했다고 지금 비판이 나오잖아요. 그러면 그걸 보충해 줘야 합니다. 정당이라고 그러면 국민의힘의 당에 있는 노하우 국회의원들이나 전문의원들이나 당내 관료들이나 대개 몇 십 년의 노하우를 가진 사람도 있기 때문에 그래서 당정 회의가 필요한 거예요. 공식적으로 당정회의를 하는 것을 잘 못 봤거든요. 그냥 원내대표하고 얘기하는데 실제로 정부가 경제부총리가 추경호 부총리가 어떤 정책을 발표하기 전에 치밀한 지금 정부의 관료들이 있는 반면에 관료들은 파일이 다 있습니다. 관료들 책상 뒤에 열면 녹색부터 시작해서 녹색, 빨간색, 파란색 등등 색깔이 다 있어요. 파란색 들어오면 이런 정책 빨간색 들어오면 이런 정책 이게 다 있습니다. 그중에서 뽑아내잖아요. 그것을 지적할 수 있는 게 정당이에요. 집권당 그래서 그 집권당의 역할이 존재가 사라지고 이준석 대표의 개인 플레이 이런 부분은 대단히 당정의 견제 기능 왜냐하면 여야의 견제도 있지만 하나의 정책이나 법을 만들고 하나의 특히 정책을 만들어갈 때는 정권교체의 정책을 만들어 갈 때는 당의 굉장한 협조가 필요해요. 서로 논의가◇ 박지훈: 입법을 해야 되니까요.◆ 조원진: 입법도 해야 되고 법이 필요하지 않은 정책도 하나의 정책을 하면 한 300만 명 정도의 국민의 영향이 있어요. 그래서 그것을 지금까지 했던 정당 여러 가지 사항들을 논의를 해야 된다. 물론 경제 부분은 추경호 부총리가 당에 있다 갔지만 나머지 부분들은 과연 지금까지 예를 들어 금융감독원 문제라든지 이걸 다 담당하던 국회의원이 있고 전문위원들이 있어요. 이 사람들하고의 교류를 빨리 시작해라 그렇게 얘기해 주고 싶네요.◇ 박지훈: 예전에는 당정청이라 했는데 청와대는 지금 없으니까 아직까지는 그건 아닌데 당정 그거라도 있어야 되는데 그 모습이 잘 안 보인다고 얘기했는데 당 대표가 지금 징계 먹게 생겼어요. 24일날 윤리위가 되는데 글쎄요 이런 경우를 보셨는지도 그렇고 어떻게 좀 일반 시민으로서 그걸 보고 있는지요.◆ 김수현: 일단은 의혹들이 있잖아요. 의혹들이 있다는 건 만약에 저한테 어떤 의혹이 있다면 빨리 해명하고 빨리 털어버리고 싶을 것 같거든요. 본인 입장에서는 나는 그런 적 없고 사주한 적도 없고 나는 내가 지시한 적 없다. 이렇게 말씀을 하고 있는데 그렇다면 조금 더 빨리 일단 지방선거를 앞두고 있는 상황이었다고 쳐도 딱 끝나자마자 더 빨리 또 이준석 대표 같은 경우에는 sns를 많이 하시잖아요. 나는 죄가 없다면 더 많이 이렇게 좀 할 것 같은데◇ 박지훈: 하기는 했는데 강하게 하지는 않았던 것 같아요. 한 번 정도 얘기는 했던 것 같은데 ◆ 김수현: 그럴 것 같은데 그래서 이번 우크라이나의 행도 조금 더 이 시기에 조금 더 해명이 아닌 본인의 입장을 더 밝히고 더 아니라고 얘기를 해야 되고 제가 이것 때문에 조금 생각을 해봤더니 기존에 같은 경우에는 이런 일이 있을 때 이렇게 관행적으로 내가 지금은 억울하지만 알겠다. 사퇴를 하고 나서 그런 분들이 많아 그렇게 좀 많이 했다고 하더라고요. 그런데 그렇다면 자신이 있다는 생각이◆ 조원진: 이준석 대표 성격은 사실 그러면 파르르 하죠. 그런데 아무튼 시간이 많이 지난 사건이다. 거기에 대해서 자신감이 있는 것 같고 또 하나는 5%, 1% 이겼든 어쨌든 간에 이겼잖아요. 대통령 선거, 지방선거에서 이겼다. 그래서 이긴 당 대표를 어떻게 처리할 수 있는 정리할 수는 없다. 그렇게 보는 거고 정치적으로 그런데 윤리위에서 그냥 넘어갈 겁니다. 그런데 윤핵관 윤석열 대통령도 약간 그런 부분이 있겠죠. 대통령 선거 과정에서의 여러 가지 사항들 이번에 우크라이나 문제 이런 걸 봐서 그런데 윤핵관들이 가만히 안 있을 거예요. 이건 다음에 자기들의 공천권하고 맞물려 있는 상황이고 당이 이렇게 당정청인데 정부하고 제대로 불협화음을 가고 제대로 가지 못할 경우에 피해는 국민들이 가지 않습니까. 그런 부분에 있어서는 이준석 대표가 조금 나름대로 고민을 해야 되는 시점입니다. 그런데 윤리위에서라든지 강제로 몰아내고 이런 상황은 힘들다. 그러니까 지금 공중포만 쓰잖아요. 지금 당 대표 하고 싶은 사람 되게 많잖아요. 지금 당 대표 하면 2년 임기니까 공천권을 쥐잖아요. 공천권을 쥐니까 실세 중에 실세고 그러면 윤석열 정부가 제대로 가려면 윤석열 정부하고 뜻을 같이 하는 윤석열 정부의 생각을 같이 읽고 가는 사람들이 사람이 당대표 하고 싶어 하죠. 지금 정진석, 권성동 그다음에 김기현 이런 사람들이 서로 움직이고 그다음에 바깥에 있다가 안철수 의원이죠. 안철수 의원도 들어갔는데◆ 김수현: 공부모임 만든다고 합니다.◆ 조원진: 안철수 의원은 좀 안착하려면 형태를 좀 바꿔야 될 거예요. 왜냐하면 제가 그 당일에 한 10여 년 있어 봤는데 고질적인 게 있습니다. 텃세◇ 박지훈: 텃세가 심하다는 거잖아요. ◆ 조원진: 낯가림도 되게 심해요. 겉으로는 뭐 허허 하는데 국회의원 악수하면요. 여야 그런 사람 다 악수는 다 합니다. 앞에서 웃는데 그거를 어떻게 포용력을 가지고 비전을 제시해 가면서 대통령 후보군이었으니까 어떻게 나가느냐 그것도 안철수 의원의 앞으로의 길이다. ◇ 박지훈: 국민의힘 얘기를 해 봤고요. 민주당 얘기도 좀 해보죠. 이재명 의원이 등원을 했습니다. 의원총회는 참석하지 않는 걸로 보이는데 민주당 계파 갈등 좀 짚어주십시오.◆ 조원진: 민주당은 특히 좌파 야당은 계파가 굉장히 많습니다. 그래서 갈라선 게 진보당, 정의당 이렇게 갈라서고 또 뿌리들이 있어요. 그런데 이번에 민주당의 갈등은 그 뿌리도 없어요. 인물을 가지고 갈등을 가지고 있는 거다.◇ 박지훈: 이재명이냐 아니냐◆ 조원진: 반 이재명, 이재명 반 이재명 쪽에 여러 가지 이낙연 전 총리는 점잖은 분이니까 진영에 있기 싫다고 도망가신 거예요. 오래있지 못하고 들어오실 것 같은데 아무튼 지금 야당이 거대 야당인데 야당이 저렇게 분열 쪽으로 권력 암투죠. 야당은 항상 좌파 정당은 항상 그런 권력 싸움이 있습니다. 또 노선싸움도 있고 그런데 이번에는 좀 추하다. 왜냐하면 지금은 노선 싸움도 아니고 이거는 완전히 인물 싸움으로 이렇게 개딸 이런 용어를 써가면서 한다는 것은 정통 야당으로서의 정통 좌파 정당으로서의 정체성도 흔들어버렸다. 그래서 이 정체성 흔드는 것은 문재인 정권의 강한 운동권 586 세력들의 잘못이 크다. 이 부분을 정치를 제대로 하려면 한편으로 민주당이 바뀌어야 되는데◇ 박지훈: 바뀌어야 한다.◆ 조원진: 안 바뀔 것 같아요. 왜냐하면 민주당은 아마 극한 상황으로 갈 것 같다. 왜냐하면 그래야지 바깥에 민주당을 지지하는 사람의 결집도가 생겨요. 그러다가 잘못 부정부패한 사람들에 대한 조사도 하고 할 거 아닙니까. 정권이 교체됐으니까 거기에 대한 반발 심리들이 모이면서 최대한 수렁으로 떨어질 거다. 그것이 하나의 작전일 수도 있다. 전략일 수도 있고 최대한 그런 식으로 떨어져서 다시 올라서는 부분들은 민주당 자체적으로는 힘들고 바깥에 있는 시민단체나 이런 쪽에서 아무튼 원탁에 있잖아요. 그런 부분들이 일어나는 상황이 올 거다. 그렇게 되면 민주당은 분열은 안 갈 거예요. 그 대신에 민주당이 국민들이 어떤 평가를 할 거냐 그건 좀 지켜봐야죠.◇ 박지훈: 그때가 중요한 포인트라고 하는데 이재명 의원 등원도 하고 당권이 얼마 안 남았어요. 8월에 전당대회 하는데 어떻게 보십니까. 이재명 내가 이재명이라면 갑니까 안 갑니까 대표◆ 김수현: 정치를 모르는 사람으로 어떻게 말을 할지 모르겠지만 지금 계양을에서 당선되고 이렇게 나가신 거 봤으면 봤을 때는 좀 더 강하게 해서 당 대표에 나가지 않을까. 그런 성향을 많이 진취적인 성향을 많이 보이고 있으니 그렇지 않을까 하는 생각이 드는데 맞나요.◇ 박지훈: 일반 국민들도 이런 시각 같아요. 이 정도 왔으면 당 대표 하는 거 아니냐◆ 조원진: 이재명 의원 입장을 이준석 대표가 했잖아요. 기차는 간다. 아무리 옆에서 떠들어도 기차는 간다. 그렇게 보시면 될 것 같아요. 기차 가는 이유가 공천권하고 연관돼 있기 때문에 그렇습니다. 이재명 개인의 문제가 아니잖아요. 이재명의 개인의 문제가 아니고 다음에 공천권을 쥐고 있는 당 대표 이 문제가 걸려 있기 때문에 떠들어도 기차는 그냥 간다. ◇ 박지훈: 다음 주제는 북한의 미사일 발사입니다. 그다음 날 우리가 바로 8발의 대응 사격을 했는데 윤석열 대통령 현충일 추념사에서 여러 가지 대응 수위 얘기를 했는데요. 북한 도발에 대한 우리 정부의 대응 어떻게 보십니까.◆ 조원진: 지금 맞대응 미사일 8개 발사했잖아요. 그것은 북한의 평양을 겨냥한 겁니다. 그다음에 핵기지들을 겨냥한 거고 또 f35는 스텔스 기능을 갖고 있는 최고의 성능을 가진 전투기인데 f35 그다음에 미국의 비행단 20대를 띄웠잖아요. 그래서 맞대응하겠다는 거잖아요. 그런데 아무튼 북한이 그렇다고 해서 핵실험을 안 하느냐 핵실험 하는 거죠. 7차 핵실험 하면은 5년간의 문재인 정권의 평화 쇼는 완전히 실패로 돌아가는 겁니다.◆ 조원진: 윤석열 정부가 할 수 있는 게 뭔가 이제는 7차 핵실험까지 했을 때는 핵보유국 승인을 받겠다는 거고 미국은 끝까지 그렇게 인정을 안 하겠지만 국제적으로는 그렇게 인정을 할 가능성이 있어요. 그러면 우리도 전술핵 도입을 전면적으로 고민을 해야 된다. 이제는 말로 할 시기가 지났다. 그리고 지금 제재할 수 있는 방법도 미국과 중국이 첨예하게 저렇게 대립하고 있는 과정에서는 봉쇄 자체가 힘들어요. 그런 상황에서는 7차 핵실험에 대한 구체적인 대안들을 좀 내라 이제는 정부가 구체적인 대안들을 내려면 당정청이 한 몸이 돼서 이 문제를 고민을 해야 됩니다. 그래서 그런 부분에 대해서 국민들이 불안해하지 않도록 재래무기는 핵 앞에는 아무런 의미가 없어요. 문재인 정권이 하고자 했던 김대중 대통령이나 좌파 정권이 하고자 했던 낮은 단계의 연방제나 이런 부분들의 핵심은 이겁니다. 대한민국에서의 경제력, 북한에 있어서의 핵무기 보유 뭔가 주고받을 게 있어야 되는데 지금 이 상황에 와버렸어요. 이런 상황이 왔을 때 미일 관계는 한미 관계와 전혀 다릅니다. 굉장히 돈독하다고 그렇기 때문에 우리가 미국하고 어떤 관계를 유지해 나갈 거냐 또 미국을 통해서 확고부동한 한미동맹 또 군사동맹, 경제동맹을 동시에 이뤄가면서 이익도 취하면서 어떻게 갈 거냐. 이번 7차 핵실험이 던지는 여러 가지 상황들이 한반도에 있어서의 힘의 균형 자체가 무너진 거다. 그때 어떻게 할 거냐 이런 부분에 대해서 굉장히 저도 고민하고 많은 고민을 해야 됩니다.◇ 박지훈: 우리 공화당 같은 경우가 그런 부분에 대해서 많이 좀 많은 의견도 내고 하지 않습니까.◆ 조원진: 연구도 하고 전문가들도 모여서 7차 핵실험에 대한 부분들을 특히 지금 이달 6월 아닙니까. 그런데 7차 핵실험에 대한 부분들을 인식을 잘 못하더라고요. 힘의 균형이 무너지는 겁니다. 경제 강국은 군사 강국의 의미가 없습니다. 이걸 어떻게 풀어갈 거냐 강대강이라는 것은 전략핵을 도입하는 거고 또 그렇지 않으면 문재인 정권과 같이 대화를 통해서 갈 거냐 이게 노선을 정확하게 가야 되는데 어정쩡하게 가면 갈수록 또 시간 벌기로 가는 거고 그다음에 또 8차 핵실험이 나오고 그때는 핵보유국 선언을 해버린다고요. 아마 7차 핵실험 이후에 핵보유국 선언을 할 거예요.◇ 박지훈: 그때 우리 정부의 대응이 제일 중요하겠네요.◆ 조원진: 대한민국의 한반도의 핵 문제에 있어서는 독자적인 노선이라는 게 있을 수 없다고요. 그게 한미동맹 또 자유우방 연대 이런 부분을 어떻게 할 거냐 이 부분에 대해서 우리도 고민을 엄청나게 하고 있습니다. ◇ 박지훈: 오늘 어땠습니까. 김수현 캐스터님◆ 김수현: 저는 방송이라고 생각하지 않고 강의를 듣는 것처럼 많은 것들을 또 제가 좀 궁금했던 부분과 또 이런 것들을 알게 돼서 너무 좋은 시간이었습니다.◇ 박지훈: 오늘 정개특위 여기서 마무리 하겠습니다. 감사합니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2022.06.14.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>네이버페이 100조로 키운다…혁신금융 1위 굳힐 것(종합)</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005241757?sid=105</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>박상진 네이버파이낸셜 대표, 첫 기자간담회'25년 페이 결제 100조로 키울것脫 네이버로 외연 확장해 결제 확대금융권과 통큰 제휴..핀테크 최초 소상공인 대출비교 준비소상공인 수수료 부담 줄이는 상생도[이데일리 최훈길 기자] 네이버파이낸셜이 2025년까지 연간 네이버페이 결제액 100조원 달성을 추진한다. 보험 통합 조회, 소상공인 대출 비교 등 신규 서비스도 연내 출시한다. 결제 서비스를 네이버 외부로 확장하는 ‘탈(脫) 네이버’ 구상과 함께, 금융권과의 통큰 제휴를 통한 새로운 금융혁신 서비스 도입으로 ‘업계 1위’를 공고히 하겠다는 전략이다. 박상진 네이버파이낸셜 대표이사는 14일 서울 중구 더플라자 호텔에서 열린 ‘네이버파이낸셜 미디어데이 2022’에 참석해 금융 서비스 혁신을 통한 비즈니스 차별화를 예고했다. (사진=네이버파이낸셜)“간편결제 압도적 1위 굳히겠다”박상진 네이버파이낸셜 대표이사는 14일 서울 중구 더플라자 호텔에서 열린 ‘네이버파이낸셜 미디어데이 2022’ 기자간담회에서 “압도적 1위 간편결제 사업자로서 대세감을 확실히 굳히겠다”며 이같이 밝혔다. 현재 3000만명 넘게 사용하는 네이버페이 결제액(작년 기준 38조원)을 박 대표의 임기 마지막 해인 2025년까지 2배 넘게 확대하겠다는 것이다. 이를 위해 네이버파이낸셜은 네이버 외부로 가맹점을 확대, 결제 외연을 넓힌다. 네이버 외부 결제 비중을 내부 결제보다 확대하는 게 궁극적인 목표다. 박 대표는 “아직 확보해야 할 온·오프라인 결제처가 많이 남아 있어 네이버페이의 성장 여력이 크다”고 지적했다.온라인은 콘텐츠·보험 같은 정기 결제, 여행·문화·교육 등 생활 결제, 해외 등 외부 가맹점을 확대한다. 오프라인은 이용자의 생활·결제 동선을 고려해 의료·문화 생활·모빌리티 등 생활 업종으로 가맹점을 늘릴 계획이다. 연내에 대만의 ‘라인페이’ 연동을 시작으로 해외 결제 연동도 확대한다. 그는 혁신 금융 서비스를 새로운 성장 동력으로 제시했다. 이번 달 중에 ‘스마트플레이스 사업자 대출’이 출시된다. 이를 위해 우리은행, 전북은행과 중소상공인 대출 상품을 선보일 예정이다. 사용자가 가진 여러 보험을 한 번에 관리하는 보험통합조회 서비스도 이번 달에 출시된다. 이 서비스는 오는 3분기 중에 ‘네이버 마이플레이스’의 영수증 리뷰 서비스와도 연결된다. 카드 내역을 연동하면 영수증 없이도 방문 인증 및 리뷰 작성이 손쉽게 가능해진다.(그래픽=이미나 기자)“수수료 무료” 소상공인과 상생 확대특히 올 하반기에는 소상공인 개인사업자 누구나 이용할 수 있는 개인사업자 대출 비교 서비스를 핀테크 최초로 시작한다. 사실상 1~2금융권 전체와 제휴를 맺어 제공하는 것으로 전해졌다. 이 서비스가 시행되면 여러 업권의 사업자를 위한 대출 상품이 만들어질 전망이다. ‘내 손안의 간편 금융서비스’인 마이데이터의 자산 서비스와 네이버쇼핑·페이, 금융 콘텐츠와의 연결 작업도 이뤄진다. 박 대표는 마이데이터 사업 차별화 계획 관련해 “네이버 생태계의 다양한 서비스를 마이데이터에 연결하는 게 핵심”이라며 “서비스 범위를 확대해 2025년까지 마이데이터 서비스 월간활성사용자수(MAU) 1000만을 달성할 것”이라고 예고했다.박상진 네이버파이낸셜 대표는 ‘은행, 보험 라이센스를 가지고 해당 사업을 하는 타사보다 소극적 비즈니스 아니냐’는 질문에 “(지금 1순위는) 금융사와 협력해 혁신적인 서비스를 만드는 것”이라며 서비스 혁신을 강조했다. (사진=네이버파이낸셜)네이버파이낸셜은 최근에 마이데이터를 통해 고객정보를 판매한 토스와 차별화된 비즈니스도 예고했다. 김지식 법무책임리더는 “정보 주체가 제공한 정보를 우리 자산으로 제공하고 판매하는 형식은 바람직하지 않다”며 혁신적인 금융 서비스를 제공하는데 집중하겠다는 뜻을 밝혔다. 소상공인들과의 상생도 확대된다. 네이버페이 주문관리수수료를 1년간 무료 지원하는 ‘스타트 제로 수수료’ 정책을 이어가기로 했다. 지난 5월 출시된 ‘반품안심케어’ 서비스의 경우 신규 중소상공인들에게 1년간 무료로 지원할 예정이다. 캐롯손해보험과 함께 만든 반품안심케어는 배송비를 지원하는 무료 반품·교환 서비스다. 박 대표는 이 같은 금융 서비스에 집중할 것임을 강조했다. 그는 ‘은행, 보험 라이센스를 갖고 해당 사업을 하는 타사보다 소극적 비즈니스 아니냐’는 질문에 “(지금 1순위는) 금융사와 협력해 혁신적인 서비스를 만드는 것”이라고 답했다. 이어 “미래에셋과 네이버 통장 서비스를 잘 진행하고 있다”며 “기존에 없던 서비스 상품들이 나오면서 사업적으로 의미 있는 기회가 있을 것”이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2022.06.10.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>강민국 의원, 전체 금융업권 IT 인력 9.6%에 불과!</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/002/0002246970?sid=102</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>증권사는 5%대 그쳐 … 법령으로 인력 확보 강화 필요국회 강민국 의원실(경남 진주시을)에서 금융감독원에 자료요청을 통해 받은 답변자료인 '국내 주요 금융업권 IT인력 현황'에 따르면 지난 3월말 시중은행과 인터넷은행, 증권사, 빅테크 전체 임․직원 대비 IT 인력이 차지하는 비중은 9.6%(IT 6809명/전체 7만 1195명)에 불과한 것으로 확인됐다. 업권별로 살펴보면 먼저 빅테크 3개사의 IT 인력 비중이 50.4%(IT 1077명/전체 2136명)로 가장 많았다. 다음으로 인터넷은행 42.8%(IT 804명/전체 1879명), 시중은행 7.7%(IT 4215명/전체 5만 4748명), 증권사 5.7%(IT 713명/전체 1만 2432명) 순이다. ▲강민국 의원(경남 진주시을).ⓒ의원사무실 물론 업권의 특수성 차이가 있다고 해도 빅테크와 인터넷은행 대비 시중은행과 증권사의 IT 인력 채용 편차는 심각한 수준이다. 업권별, 회사별 IT 임․직원 채용 현황을 살펴보면 먼저 시중은행의 경우 국민은행이 9.2%(IT 1522명/전체 1만 6598명)로 IT 임․직원 비중이 가장 많았다. 이어 하나은행 7.7%(IT 880명/전체 1만 1470명), 신한은행 7.1%(IT 967명/전체 1만 3582명), 우리은행 6.5%(IT 846명/전체 1만 3098명) 순이다. 인터넷은행 중에서는 토스뱅크가 58.9%(IT 156명/전체 265명)로 IT 인력 비중이 가장 많았으며 다음으로 케이뱅크 43.9%(IT 194명/전체 442명), 카카오뱅크가 38.7%(IT 454명/전체 1172명)로 가장 낮았다. 증권사의 경우 미래에셋증권이 IT 인력 비중 6.2%(IT 235명/전체 3780명)로 가장 많았으며 다음으로 NH투자증권 5.9%(IT 184명/전체 3094명), 삼성증권 5.7%(IT 150명/전체 2628명), 한국투자증권 4.9%(IT 144명/전체 2930명) 순이다. 빅테크 업체 중에서는 토스가 52.0%(IT 359명/전체 690명)로 IT 인력 비중이 가장 많았으며 다음으로 카카오페이 50.1%(IT 488명/전체 974명), 네이버파이낸셜 48.7%(IT 230명/전체 472명) 순이다. 지난 3년간(2019년~2021년) 금융 업권별 IT 인력 신규채용 수준도 비슷했다. IT 인력 신규 채용 비중이 가장 높은 업권 역시 빅테크로 46.3%(IT 920명/전체 1989명)가 IT 인력이었으며 다음으로 인터넷은행 37.6%(IT 473명/전체 1257명), 시중은행 15.5%(IT 982명/전체 6319명), 증권사 6.9%(IT 178명/전체 2567명) 순이다. 업권별로 최근 3년간 IT 임․직원 신규채용을 가장 작게 한 회사를 살펴보면 증권사는 한국투자증권 4.9%(IT 144명/전체 2930명), 시중은행 신한은행 7.3%(IT 203명/전체 2769명), 인터넷은행 카카오뱅크 31.6%(IT 240명/전체 759명), 빅테크 토스 41.0%(IT 355명/전체 865명)였다. 그러나 금융 업권별 IT 인력 퇴직자 비중은 신규채용 비중에 반비례하는 것으로 확인됐다. 최근 3년간 금융 업권별 IT 인력의 퇴직자 비중을 살펴보면 증권사가 2.9%(IT 83명/전체2,817명)로 가장 낮았다. 시중은행 3.2%(IT 346명/전체 1만 651명), 인터넷은행 22.2%((IT 124명/전체 559명), 빅테크 30.3%(IT 163명/전체 538명) 순이다. 이는 빅테크와 인터넷은행 IT 인력의 이직이 은행과 증권사에 비해 상대적으로 많다는 것을 의미하며 금융 업권별 IT 인력의 평균 연봉 수준이 이를 증명한다. 2021년 기준, 금융 업권별 IT인력의 평균 연봉과 그 비중을 살펴보면 가장 평균 연봉이 높은 업권은 증권사로 1억 2722만 840원(93.7%/전체 1억 3576만 1721원)이었다. 시중은행 1억 974만 3504원(104.3%/전체 1억 519만 2076원), 인터넷은행 9609만 3560원(104.6%/전체 9189만 5002원), 빅테크 7816만 4403원(99.9%/전체 7826만 7825원) 순이다. 강민국 의원은 “금융 분야의 디지털 전환 가속화 등 새로운 보안 리스크에 효과적으로 대응하기 위해서는 IT 인력 확충이 그 어느 때보다 중요한 시기임에도 불구하고 10명 중 1명도 채 안 된다는 것은 금융업권의 안일함과 금융 당국의 금융보안에 대한 무감각 때문이다”고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2022.06.05.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>인터넷은행 가계대출, 다섯달 연속 증가… 시중은행은 줄어</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000818833?sid=101</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>올 들어 카카오뱅크와 케이뱅크 가계대출 잔액이 다섯 달 연속으로 늘었다. 반면 시중은행은 올해 가계대출 잔액이 꾸준히 줄고 있다.5일 은행권에 따르면 지난달 말 기준 카카오뱅크와 케이뱅크 가계대출 잔액은 각각 26조5445억원, 8조4900억원으로 집계됐다. 4월 말과 비교하면 한 달 새 각각 3100억원, 2881억원이 늘었다.토스뱅크는 아직 지난달 말 기준 가계대출 잔액을 공개하지 않았다. 다만 지난달 기준 토스뱅크 가계대출 잔액은 2조8354억원이었다. 토스뱅크 가계대출 잔액 올해 들어 매달 평균 약 4000억원 정도 늘어나고 있다.카카오뱅크와 케이뱅크ⓒ 뉴스1        이 추세를 감안하면 5월 말 기준 인터넷 전문은행 3사(카카오·케이·토스뱅크)의 가계대출 잔액은 38조원대에 달했을 것으로 추정된다.인터넷은행이 금융소비자의 선택을 받은 주요 이유로는 상대적으로 유리한 대출 조건이 꼽힌다. 인터넷전문은행은 비대면·모바일 플랫폼이 가진 편의성과 상대적으로 싼 금리·수수료, 혁신적인 서비스를 앞세워 젊은 세대를 중심으로 이용자를 끌어모으고 있다지난달 말 기준 카카오뱅크 이용자 수는 1896만명, 케이뱅크는 772만명이었다. 전달 대비 각각 18만명, 10만명이 늘었다.반면 KB국민·신한·하나·우리·NH농협 등 5대 주요 시중은행은 텃밭이었던 가계대출 시장을 인터넷은행들에게 빼앗기면서 설 곳을 잃는 추세다. 주요 시중은행 기준 지난달 말 가계대출 잔액은 701조615억원으로, 4월 말보다 1조3302억원 줄었다. 지난달 감소 폭은 4월(8020억원)보다도 커졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2022.06.08.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>토스증권, 6개월 만에 해외주식 시장점유율 10% 돌파</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002610590?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>누적 거래대금 13조ⓒ토스증권[데일리안 = 황인욱 기자] 토스증권은 해외주식 서비스 시작 6개월 만에 해외주식 시장점유율 10%를 돌파했다고 8일 밝혔다. 토스증권의 해외주식 누적 거래대금은 13조원, 해외주식 서비스 이용자는 140만명을 넘어섰다.토스증권은 지난 해 12월부터 지난 달까지 6개월 연속 해외주식 시장점유율이 상승하며 해외주식 시장에서의 입지를 넓혀가고 있다. 해외주식 서비스를 시작한 첫 달 1% 수준이었던 해외주식 시장점유율은 6개월 만에 12.5%로 상승했다.토스증권의 해외주식 누적 거래대금은 13조4000억원(110억 달러)을 기록했다. 지난 달 토스증권의 해외주식 월 거래대금은 4조원대에 진입 전월 대비 54% 증가했다. 같은 기간 해외주식 전체 거래대금은 약 4% 상승하는데 그쳤다.토스증권의 해외주식 서비스 이용 고객수는 140만명을 넘어섰다. 지난 해 300만명을 넘어선 국내의 해외주식 투자자 3명 중 1명은 토스증권을 이용 중인 셈이다. 연령대별로는 20대가 34%로 가장 많고, 30대(30%), 40대(23%) 순이었다.5월 말 기준 해외주식 월활성이용자는 110만명으로 해외주식 이용 고객의 약 80%에 해당한다. 해외주식 월활성이용자(MAU)는 4월을 기점으로 100만명을 넘어섰는데, 이는 해외주식 소수점 거래 서비스가 시작되며 소액투자에 관심있는 투자자들을 끌어들인 것으로 해석된다.토스증권 관계자는 "연초부터 이어지고 있는 해외주식 시장의 하락세에도 불구하고, 토스증권의 4, 5월 해외주식 거래대금은 이미 1분기 거래대금을 넘어섰다"며 "해외주식 투자를 처음 시작하는 고객도 쉽게 다양한 투자 정보를 탐색할 수 있고, 실시간 해외주식 소수점 거래와 같이 고객 관점에서 보다 익숙한 방식의 서비스를 제공해 높은 호응을 얻었다"고 밝혔다.토스증권은 지난 4월 1000원부터 소액으로도 미국의 우량 주식에 투자할 수 있는 소수점 거래 서비스를 선보였다. 이 서비스는 국내 증권사 중 유일하게 주문 즉시 체결되는 '실시간' 방식을 지원해 가장 빠르고, 3000개 이상의 가장 많은 종목에 투자할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2022.06.02.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>청와대 하루 관람 1만명 더 늘린다...12일부터 4만9000명</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000818302?sid=100</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>시민들이 청와대 본관 앞에서 줄지어 순서를 기다리고 있다./뉴스1        오는 12일부터 청와대 일일 관람 정원이 1만명 늘어난다. 예약 창구도 단일화된다.2일 문화재청 청와대국민개방추진단은 오는 12일부터 하루 관람 인원을 3만9000명에서 1만 명 많은 4만9000명으로 확대한다고 2일 밝혔다.12일 이후 관람 예약은 3일 오전 10시부터 청와대 개방 누리집에서 하면 된다. 기존에는 네이버, 카카오톡, 토스 애플리케이션 등을 이용해야 했다. 관람자 선정 방식은 추첨에서 선착순으로 바뀌고, 1명이 예약할 수 있는 인원도 4명에서 6명으로 늘어난다.관람 시간은 오전 7시∼오후 7시에서 오전 9시∼오후 6시로 변경된다. 1시간 30분 간격으로 6차례에 걸쳐 온라인 신청자가 8000명씩 입장한다. 온라인 관람 예약이 어려운 65세 이상 어르신, 장애인, 외국인은 오전 9시와 오후 1시 30분에 영빈문 안내데스크에서 관람권을 받을 수 있다. 현장 발급 정원은 회차당 500명이다.청와대와 연계한 북악산 등산로 출입구는 2일 금융연수원 인근에서 춘추관으로 옮겨진다.지난달 31일까지 청와대 관람 신청자는 659만 명을 넘었고, 관람자는 57만4000여 명이었다. 지난달 10∼31일 북악산 등산객은 작년 같은 기간보다 7배 많은 9만4000여 명으로 집계됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2022.06.09.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>스타트업생태계컨퍼런스 2년 만에 오프라인 개최</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004975474?sid=105</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>"지난해 벤처투자 20조원 이상.. 쿠팡, 하이퍼커넥트 등 엑시트"스타트업얼라이언스 주최, 네이버 후원 9일 강원도 강릉 세인트존스호텔에서 개최된 스타트업생태계컨퍼런스에서 참석자들이 패널토론을 하고 있다. 왼쪽부터 임정욱 TBT벤처파트너, 최인혁 BCG 대표파트너, 최항집 스타트업얼라이언스 센터장, 유정호 KB인베스트먼트 그룹장, 김천수 파라마크벤처스 대표. &lt;사진=스타트업얼라이언스&gt;  스타트업생태계에 속한 스타트업, 벤처투자자, 대기업, 유관기관 등이 참여하는 '스타트업생태계컨퍼런스(스생컨)'이 2년 만에 강원도 강릉에서 개최됐다. 9일 스타트업얼라이언스에 따르면 이날 세인트존스호텔 그랜드볼룸에서 개최된 행사에는 약 300여명이 참석해 성황을 이뤘다. 이번 행사는 네이버와 많은 스타트업의 후원으로 개최된다.이날 기조연설을 담당한 최인혁 BCG 대표파트너는 "전 세계적으로 테크 주식의 주가가 하락하면서 비상장기업과 상장기업의 가치 차이를 설명해주는 '멀티플'이 크게 낮아졌다"면서 "하지만 과거 분석을 보면 불황기 투자가 호황기에 투자하는 것보다 수익률이 높았다"면서 위기가 동시에 기회가 될 수 있음을 설명했다.지난해 스타트업생태계는 역대 최대규모로 성장하면서 질적, 양적인 성장을 이룬 것으로 나타났다. 최항집 스타트업얼라이언스 센터장은 "벤처투자조합과 신기술투자조합의 투자규모에 사모펀드, 해외자본, 대기업 벤처투자를 합하면 최소 20조원 이상 벤처투자가 이뤄진 것으로 추정된다"고 설명했다. 지난해 투자회수 시장에서는 쿠팡의 상장, 하이퍼커넥트의 매각 등 대규모 딜이 있었고 컬리, 토스, 무신사, 야놀자 같은 유니콘 기업들이 큰 폭의 성장을 이뤘다. 또한, 벤처투자와 사모펀드 투자의 경계가 흐려지고 CVC(기업벤처캐피털)이 크게 늘어나는 등 비전통적 투자금이 크게 늘어났다.다만, 전세계적으로 벤처투자가 위축되면서 '벤처투자 겨울'에 대한 우려의 목소리도 있었다. KB인베스트먼트에서 동남아 지역에 대한 투자를 담당하는 유정호 그룹장은 "동남아 테크 기업들의 주가가 많이 하락하면서 동남아 지역도 투자금 시장은 50% 정도 줄어들었다"면서 "이제는 벤처캐피털들도 기업의 펀더멘털과 기본을 돌아보는 분위기"라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2022.06.07.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>[기획]마이데이터 블루칩&lt;16&gt;마이데이터 기업 '고민 해결사' 쿠콘</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003021713?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>지난해 1월부터 개화한 마이데이터 영향으로 데이터 제공 기업 쿠콘(대표 김종현)이 최대 수혜기업으로 주목받고 있다. 고객에게 특화된 서비스를 제공하려는 마이데이터 기업들에 자동차, 부동산, 헬스케어, 유통, 통신 등 다양한 비금융 정보를 쿠콘이 API 형태로 표준화해 제공하기 때문이다.마이데이터 경쟁이 격화되는 가운데 금융권과 빅테크들은 '고객에게 특화된 맞춤 서비스' 제공을 위한 방안 마련에 고심하고 있다. 기존 금융·공공 데이터 이외에도 다양한 분야 비금융 데이터에 대한 요구가 증가했고 부동산이나 자동차, 가상자산에 이르기까지 비금융 정보를 세밀하게 분석해 연말정산과 절세 기능과 같은 고객 편의 기능을 제공하는데 관심을 기울이고 있다.대표 사례로 쿠콘은 삼성카드, BNK금융그룹 마이데이터 사업 구축을 도우며 마이데이터 제휴 사업을 확대하고 있다. 약 15년 동안 데이터 비즈니스를 해오며 쌓은 노하우와 기술력을 기반으로 마이데이터 시장 안착에 집중하겠다는 방침이다.◇'데이터 연결 통로' 쿠콘, 금융 넘어 '비금융' 데이터도 선점쿠콘은 디지털 혁신 서비스를 구축하려는 기업에 일종의 '데이터 연결 통로' 역할을 하는 기업이다. 국내 500여개 기관으로부터 고객에게 필요한 각종 데이터를 수집한다. 국내 전 은행·증권·금융사와 금융망을 물리적으로 연결해 정보중개망을 구축한 곳은 국내 기업 중 쿠콘이 유일하다.이밖에도 글로벌 40여개국 2000여기관으로부터 비즈니스 데이터를 수집하고 있으며 스마트 스크래핑, 금융 VAN, 오픈 API 허브로 정보를 연결한다. 고객사들은 국내 최대 API 스토어 '쿠콘닷넷'을 통해 구축된 250여개 API를 마이데이터나 혁신 서비스에 사용할 수 있다.쿠콘이 API 제공을 통해 확보한 고객사는 금융기관, 핀테크기업, 일반기업, 공공기관을 포함해 1800여개에 달한다. 디지털혁신이 본격화되면서 데이터 수요도 함께 증가하고 있기 때문에 API 시장은 앞으로도 크게 확대될 것으로 전망된다. 특히 최근에는 금융기관의 디지털 전환이나 핀테크 서비스 연계 등으로 쿠콘닷넷을 찾는 고객이 늘고 있다.특히 쿠콘은 다양한 비금융 데이터를 함께 제공하고 있기 때문에 특화 서비스 구축 지원에 유리하다. BNK금융그룹, 삼성카드를 비롯 보험사, 핀테크 기업까지 제휴 업권이 지속 확대되고 있다. 마이데이터 제휴를 통해 제공하는 서비스는 △통합자산 조회 △소비분석 리포트 △금융캘린더 등이 있다.향후 통합자산 조회를 넘어 고객 편의에 특화된 서비스를 추가 제공할 계획이다. 소비지표 및 개인 금융생활 분석을 세밀하게 반영한 소비분석 리포트 등으로 제공 범위를 확대하고 세무캘린더, 재무설계, 절세조회 등도 확대를 준비하고 있다.쿠콘은 마이데이터 사업에 대한 높은 이해도와 데이터 가공 및 결합에서 전문 기술력을 보유하고 있다. 제휴기관은 시간, 전문인력, 개발전문성에 대한 부담을 최소화할 수 있다. 또 단기간 내 안정적으로 서비스를 구축하고 빠르게 고객들에게 이를 제공하는 것이 가능하다.이처럼 쿠콘은 데이터 수집 및 연결에 역량을 집중하며 데이터 시장을 선도하겠다는 포부다. 장기간 데이터 산업 노하우를 축적한 덕분에 280여개의 지식재산권을 보유하고 있다는 점도 차별점이다. 또 대형 금융기관 수준의 금융보안 클라우드 센터를 운영하며 '안정적인 데이터 제공'에 총력을 기울이고 있다.◇금융기관-핀테크 잇는 '대출정보 중개 사업'까지마이데이터 사업자는 금융기관과 제휴를 통해 금융상품을 중개하거나 판매할 수 있다. 이를 통해 금융상품 광고를 진행하며 수익을 실현하는 것이 주요 사업 모델 중 하나다. 세밀한 고객 분석을 통해 최적의 금융상품을 추천하는 서비스를 앞다퉈 선보이고 있다.토스, 카카오페이, 핀다, 뱅크샐러드 등 시중에 출시된 비교대출 사업자 대부분은 모두 쿠콘 서비스를 탑재하고 있다. 이미 여러 금융기관과 연결돼 있는 쿠콘 네트워크를 활용해 쉽고 빠른 접근 및 서비스 적용이 가능하다는 점에 주목한 것이다. 금융기관 입장에서는 고객 유입 채널을 늘리고 판매 채널을 확장할 수 있으며, 핀테크 플랫폼 입장에서는 고객 특화 서비스로 경쟁력을 강화할 수 있다.쿠콘은 대출정보 중개 사업을 위해 API 및 전문 개발을 표준화, 기관 추가 및 API 추가 시에도 신속 대응이 가능한 시스템을 구축했다. 금융기관과 대출중개 사업자가 연계 시 소요되는 기간과 비용 대비 최소한의 비용으로 서비스 운영이 가능하다. 현재 은행, 저축은행, 카드사, 캐피털 등 42개 금융기관이 쿠콘을 통해 대출 정보를 제공한다.쿠콘 전용망을 통해 대출 정보를 조회한 건수는 올해 약 1억1000만건으로 집계됐다. 이는 작년 동기 대비 약 200% 증가한 수치다.쿠콘 관계자는 “쿠콘 비금융 정보와 빅데이터를 적극 활용해 고객사별 특화 서비스를 제공하는 것이 목표”라며 “마이데이터뿐만 아니라 다양한 데이터에 대한 요구는 증가할 것으로 예상되며, 마이데이터 시장 내 쿠콘의 역할도 점점 확대될 것으로 기대된다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2022.06.12.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>토스 사태로 ‘마이데이터 DB판매’ 도마위</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005240152?sid=105</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>신용정보법에서 데이터판매업 부수업무로 허용제3자 제공동의 거쳐 자체로 위법은 아냐더 친절하게 동의받기로 한 토스마이데이터 사업 신뢰성 확보에 영향개인정보 이동권 담은 개인정보보호법 개정안 계류중[이데일리 김현아 기자] 토스는 회원DB를 1건당 6만9000원을 받고 보험설계사에게 팔았다는 보도에 대해 △동의한 고객에 한해 △고객 휴대폰 번호가 아닌 안심번호를 제공했다고 해명했다. 또, △고객이 더 이상 상담을 원하지 않으면 제공된 정보는 즉시 삭제되고 △고객에게 좋은 평가를 받은 설계사에게만 매칭 기회가 주어진다고 밝혔다.토스가 ‘내 보험’ 서비스 이용 고객의 개인정보를 1건당 6만9000원을 받고 보험설계사에게 제공한 것으로 확인되면서 마이데이터 사업자에 허용된 데이터베이스(DB)판매업의 신뢰성 확보가 도마 위에 올랐다.마이데이터 사업은 고객(개인정보주체)이 동의하면 각 금융사에 흩어져 있는 개인정보를 하나의 플랫폼에서 조회·관리하는 사업이다. 신용정보법은 마이데이터 사업자에게 금융 회사 수준의 신용정보 보호의무를 부여하면서 고객정보의 제3자 제공(데이터 판매)을 부수업무로 허용했다. 이번에 토스가 ‘내 보험’ 서비스에 가입해 보험 상담을 원하는 고객의 개인정보(이름, 보험가입여부, 1회용 안심번호 등)를 보험설계사에게 제공할 수 있었던 것도 이런 법적 근거 덕분이다. 지금까지 1700여 명의 고객 개인정보가 600여 명의 보험설계사에게 전달됐다.그런데, 이 과정에서 토스는 ‘제3자 정보제공동의’는 거쳤지만 구체적으로 설명하지 않았고, 고객 개인정보를 가지고 무분별하게 장사하는 것 아니냐는 논란에 휩싸였다.토스는 “설계사 13만 명에게 토스 회원의 개인정보가 판매됐다는 보도는 사실이 아니다”라면서도 “논란을 떠나 현 상황을 책임감 있게 받아들인다. ‘설계사가 유료로 정보를 조회한다’는 점을 동의과정에 명시해 고객이 충분히 고려하고 판단할 수 있게 하겠다”고 밝혔다.이번 일이 중요한 이유는 토스외에도 수십 여개의 마이데이터 사업자들이 존재하기 때문이다. 마이데이터 사업이란 것이 개인의 동의하에 이뤄지는 것이나, 제3자에게 내 개인정보가 넘어갈 때 유료인지 무료인지, 어떻게 쓰이는지 등에 대해 일반 국민은 언뜻 알기 어렵다. 이는 개인정보를 제3자에게 넘기려면 동의받을 때 명시성을 담보해야 한다는 개인정보보호법의 취지와 다르다.일단 당장 토스의 행위를 불법이라고 단정하긴 어렵다는 평가다. 다만, 이번 사태가 국회에 제출된 ‘개인정보 이동권(정보전송권)이 담긴 개인정보보호법 개정안과 맞물려’ 마이데이터 시대 개인정보 이동권을 둘러싼 신용정보법과 개인정보보호법간 역할분담 논쟁으로 확대될 소지는 있다. 신용정보법 개정으로 금융정보에 한해 데이터 전송권이 일부 도입됐지만, 개인정보와 관련된 일반법인 개인정보보호법에는 아직 관련 조항이 없기 때문이다. 업계 관계자는 “토스가 발빠르게 (제3자 정보제공) 동의과정을 개인정보보호법 수준에 맞게 보완한 것은 개인정보보호법 개정안에 마이데이터 관련 조문이 들어갈 걸 고려한 것 아니겠나”라고 했다. 자칫 신용정보법으로 개인정보가 제대로 보호되지 않는다는 인식이 퍼지면 마이데이터 사업의 신뢰성이 흔들리는 것은 물론, 지금보다 강화된 규제에 놓일 수 있다.개인정보보호위 관계자는 “토스 사태 하나로 마이데이터 전반에 대해 들여다 볼 수는 없다”면서도 “개인정보보호법에 개인정보 이동권이 들어가면 일반법적 근거가 생겨 지금보다 더 적극적으로 개인정보주체의 권리 보호에 나설 수 있을 것”이라고 기대했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2022.06.06.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>[기고] 배민·토스 이을 유니콘 유망주는 어디?</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002737622?sid=110</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>김혁균 먼슬리키친 대표최근 기술주 폭락, 경기침체 우려 등으로 투자심리가 꽁꽁 얼어붙으면서 스타트업에 대한 벤처캐피털(VC) 업계의 투자가 급감했다. 최근 월스트리트저널(WSJ)에 따르면 시장분석업체 CB인사이츠는 올해 2분기 중반까지 글로벌 스타트업에 대한 펀딩 계약이 580억달러 규모로, 전년 동기대비 20% 가량 감소했다고 전했다.이처럼 벤처캐피털들이 스타트업에 대한 투자를 줄인 이유는 경기침체 우려에도 미 연방준비제도(Fed·연준)가 인플레이션을 잡기 위해 기준금리를 빠른 속도로 올리고 있기 때문이다. 금리가 오르면 같은 금액이라도 자본의 값어치가 비싸진다. 이는 벤처캐피털이 현금을 보유해야 한다는 압박을 증가시킨다고 WSJ은 설명했다.지금의 모습은 2000년 3월 10일 코스피 지수가 2834.4로 사상 최대치를 찍고 같은 해 연말 525.8포인트로 80% 이상 추락하던 상황을 떠올리게 한다. 당시 인기몰이를 하던 프리챌, 아이러브스쿨, 네띠앙, 엠파스 등의 인터넷 기업들이 거품 붕괴와 함께 역사 속으로 사라졌다. '묻지마 투자'가 만들어낸 각종 비리와 정치스캔들이 하루가 멀다 하고 터져 경제 전반에 아수라장을 연출하기도 했다. 하지만 지금의 상황은 20년 전과는 다른 모습이다. 20년 전 벤처 생태계와 오늘날의 스타트업 생태계는 뭐가 달라졌을까? 스타트업, 투자사, 정부, 지원기관으로 구성된 스타트업 생태계가 촘촘하게 짜여 견제와 균형의 역할을 해내고 있다는 점이 가장 큰 차이가 아닐까 생각된다. 이러한 가운데 DS자산운용과 KTB네트워크 등 국내 VC 업계가 투자한 스타트업들이 잭팟을 터뜨리며 이들이 투자한 업체들에 대한 관심이 높아지고 있다.DS자산운용은 배민과 최근 핫한 유니콘으로 부상한 직방, 마켓컬리를 비롯해 투자 시장에서 유명세를 탄 펄어비스, 유틸렉스 등을 투자했다. DS자사운용은 직방에 총 35억원을 투자해 105억원을 회수했고 유틸렉스의 경우 총 35억원을 투입해 125억원을 거둬들였다. 각각 투자 수익률은 198.71%, 257.61%로 집계됐다. 펄어비스 역시  70억원을 투자해 243억원을 회수하면서 투자수익률 247.73%를 기록했다. 마켓컬리는 더욱 드라마틱한 수익률을 기록했다. 총 35억원을 투입한 지분을 기관 투자자에 412억원으로 넘기면서 투자수익률이 무려 1077.87%에 달했다. 다올인베스트먼트(구 KTB네트워크)도 토스(비바리퍼블리카), 스타일쉐어 등에 투자하며 꾸준히 호실적을 기록했다. 다올인베스트먼트는 펀드 청산 기준 671개 기업 투자 경험과 58개의 펀드 운용 경력, 내부수익률(IRR) 19.8%를 기록한 바 있다.이러한 성과와 함께 최근 대규모 투자 유치를 성공한 기업도 관심을 모으고 있다. 국내 대표 원격의료 플랫폼 닥터나우가 약사회를 비롯한 기존 의료시장 플레이어의 견제구 속에도 대규모 투자유치에 성공해 이목이 쏠린다. 닥터나우가 현재까지 유치한 누적투자액은 총 520억원에 이른다. 시리즈B 라운드 투자에는 소프트뱅크벤처스, 새한창업투자, 해시드, 크릿벤처스, 프라이머사제, 미래에셋캐피탈 등 다수의 기존 투자사와 함께, 앤파트너스, 굿워터캐피탈, 스마트스터디벤처스, 스프링벤처스 등 유수의 벤처캐피탈이 새롭게 참여했다.이와 함께, 외식산업의 디지털화를 선도하는 디지털 외식플랫폼 '먼키'를 운영하는 먼슬리키친도 83억원의 시리즈A 투자에 이어 1년만에 230억원의 시리즈B 투자를 성공적으로 완료하며 누적투자금액 총 313억원을 유치하며 업계의 주목을 받고 있다. 먼슬리키친의 기업가치는 1000억원을 넘은 것으로 투자업계는 평가하고 있다.먼키는 모든 외식업에 적용시키기 위해 오피스, 쇼핑몰, 주상복합, 구내식당 등 다양한 외식포맷에서 디지털화를 통해 기존 외식사업자 대비 탁월한 운영 실적이 도출되는 결과를 입증했다. 외식산업에서 가장 어려운 운영 형태로 꼽히는 구내식당에서조차도 먼키앱과 먼키 'AI Biz'를 통해 직원들이 대기하지 않고 200여가지 메뉴를 즐길 수 있는 구내식당 플랫폼을 구현했다.  이를 통해 세계 최초 점심 홀 6회전이라는 일반 외식에서는 보기 힘든 결과를 만들었고, 나아가 AI에 의한 시간대별 메뉴 수요예측을 통해 푸드메이커의 생산 부하를 조절하는 등 외식산업이 갖는 공간, 생산, 수요 한계를 디지털로 극복했다는 점에서 투자사로부터 높은 평가를 받았다. 최근 경기침체 우려 등으로 투자심리가 좋지 않은 상황에도 불구하고 독특한 사업 아이템과 비전으로 대규모 투자를 유치하며 유니콘 기업을 향해 나아가는 업체들이 있어 희망적이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2022.06.09.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>엔데믹 오자 여행·패션 앱 설치 늘었다</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011238453?sid=105</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>기사내용 요약NHN 데이터, 상반기 앱 트렌드 리포트 발표명품·한정판 플랫폼 강세 지속… 4050층 패션 핵심 고객 부상16개 업종별 앱 설치 분석…엔데믹·재테크 등 주요 흐름 주목[사진=NHN 데이터] *재판매 및 DB 금지【서울=뉴시스】송종호 기자 = 사회적 거리두기 해제로 여행 및 패션 관련 앱 설치가 증가한 것으로 나타났다. 또 금리 상승의 영향으로 고금리를 주는 저축은행 앱의 강세가 두드러졌다. NHN 데이터는 이 같은 조사 결과를 담은 ‘2022 상반기 앱 트렌드 리포트’를 9일 발표했다. NHN 데이터는 NHN의 자회사로, 데이터기술 전문 기업이다. NHN데이터는 16개 업종별 2800만개 안드로이드 앱 설치 데이터를 분석했다.일상 회복이 본격화에 여행·패션 앱 상승세코로나19 대유행 기간 동안 주춤했던 항공사 앱과 숙박 앱 등의 설치가 늘었다. 해외 여행이 재개됨에 따라 대한항공 앱은 지난해 10월 대비 올해 5월 설치 수가 32% 급증했다. 또 다른 여행 관련 앱인 ‘케이케이데이와 마이리얼트립은 각각 13%, 11% 설치가 늘었다. 상위 숙박앱 야놀자(1%), 여기어때(4%), 에어비앤비(6%) 등도 일제히 설치 증가세를 보였다. 명품·한정판 판매 플랫폼의 인기도 계속됐다. NHN 데이터는 코로나19를 거치며 온라인 채널을 통한 명품 소비가 일상으로 자리잡은 결과라고 봤다. 트렌비(163%), 발란(137%), 머스트잇(96%), 크림(54%) 순으로 설치 상승률을 기록했다. 이들 명품·한정판 앱은 다른 패션 앱에 비해 중복 설치 비중이 적어 충성 고객 비중이 높은 것으로 분석됐다. 전체 패션 앱에서 4050세대 비중도 눈에 띄게 증가했다. 온라인으로 패션 상품을 구매하는 경향이 전 연령층으로 확대됐기 때문이다. NHN 데이터는 올 상반기 전체 패션 앱에서 4050 세대의 비중은 절반 가량에 달한다고 밝혔다. 퀸잇이 88%로 4050 비중이 가장 높았다. 이어 스타일온미(87%), 하프클럽 (78%) 순이었다.  고금리 주는 저축은행 앱 강세은행 분야에서는 금리상승이 앱 인기에 영향을 미쳤다. 한국투자저축은행과 하나저축은행이 각각 34%, 33%의 설치 상승률을 기록했다. 이들은 올 상반기 설치 상승률 은행 앱 1위와 2위를 차지했다. 최근 저축은행이 예금금리 인상 및 중금리 대출을 확대한 결과다.  3위도 고금리 특판 상품 출시가 잦은 신협이 차지했다. 전체 은행앱 순위는 인터넷 은행이 대세를 이뤘다. 토스가 1위, 카카오뱅크가 2위, 케이뱅크가 5위를 기록했다. 이에 대해 NHN 데이터는 "지난 10월 인터넷 은행을 공식 출범한 토스뱅크는 대출 및 다양한 금융 상품을 선보이며 앱 설치 수 1위를 놓치지 않고 있다"고 설명했다. 카드앱은 혜택에 따라 중복 설치 비중이 달랐다. 신한카드와 우리카드 앱의 경우 다른 카드앱과 중복 설치 비율이 높았다. 캐시백 등을 제공하는 카드 이용 후 다른 카드로 갈아타는 결제 습관이 반영된 결과다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2022.06.11.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>[탐정M] 인터넷방송하다 '덜미'‥팬심 등친 사기범, 이렇게 잡았다</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/214/0001202089?sid=102</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>매진됐던 콘서트 티켓‥원가에 양도한다고?길고 길었던 코로나 이후 3년 만에 '대면' 콘서트가 돌아왔습니다. 아이돌 콘서트부터 각종 페스티벌과 축제가 열리기 시작한 겁니다. 드디어 내가 좋아하는 가수와 아티스트들을 볼 수 있다는 생각에 팬들은 기대만발입니다. 하지만 모두가 갈 수는 없는 법. 인기 있는 행사라면 힘겨운 티켓팅 과정을 거쳐야 합니다. 다음주 토요일에 열리는 대표적인 K팝 콘서트 '드림콘서트'도 마찬가지였습니다. 3년 만의 대면 콘서트가 열리는건데, 무려 2만 석 규모의 좌석이 20분 만에 매진됐습니다.표를 구하지 못한 팬들은 지푸라기를 잡는 심정으로 트위터 등 SNS와 중고거래 사이트를 찾았습니다. 혹시 피치못할 사정으로 콘서트에 못가는 사람들의 표를 받기 위해선데, 표를 무려 원가인 단돈 2만원에 양도한다는 글이 올라왔습니다. 심지어 판매자는 관계자가 지인이라 입장도 잘하도록 도와준다고 강조합니다. 이 글에 혹한 일부 팬들은 판매자에게 곧바로 연락을 했습니다. 이때까지만 해도 피해자들은 수백만원을 잃게 될 줄 전혀 몰랐습니다."내가 소속사 관계자‥사인CD 받아주겠다" 다른 구매자의 인증 믿었다가..오픈 채팅방 링크로 연락한 구매자들에게 사기범은 자신이 아이돌 소속사 관계자와 밀접한 관계임을 강조했습니다. 어떤 아이돌을 좋아하냐고 물어보면서 자신이 아이돌 가수가 사인한 CD를 받아줄 수 있다고 속였습니다. 그리고 전문으로 티켓을 양도하는 업체라면서 앞서 자신에게 티켓을 산 사람들의 구매 인증 사진을 여러 장 보냈습니다. 위 사진은 사기범이 보낸 인증 사진 중 하나입니다. '원가 양도'에 의심을 품은 구매자들은 일단 여기서 한시름을 놓고 사기범을 신뢰하기 시작합니다. 먼저 티켓 가격만 달라고 합니다. 그리고 난 뒤에는 '아옮'을 해야 한다고 말합니다. '아이디 옮기기'의 줄임말인데, 티켓을 구매한 사이트에서 판매자에게 속한 티켓을 구매자 아이디로 옮겨주겠다는 의미입니다. 판매자는 아이디를 옮기기 위해선 구매자의 아이디는 물론이고 이름, 전화번호, 주민번호 앞자리가 필요하다면서 개인정보를 요구합니다. 그리고 인증번호가 문자로 갈테니, 자신에게 그 인증번호를 알려달라고 말합니다.구매자들은 수차례에서 많게는 수십차례 인증번호를 보내주었는데, 정작 날아온 건 티켓이 아니라 수십만 원에 달하는 청구서였습니다. 구매자 명의의 휴대폰으로 소액결제가 된 겁니다. 사기범은 소액결제로 상품권을 사서 그걸 다시 되팔아 현금화했습니다. 적게는 수십만원에서 수백만원까지 결제가 됐지만 피해자들은 이때까지만 해도 사기라고 생각하지 못했습니다."'보증금액'이 필요하다?"‥비상금 대출까지 유도'암표 거래'를 막기 위해 일부 콘서트들은 입장할 때 신분증을 검사할 수 있다고 주의를 주기도 합니다. 표를 실제 산 사람과 콘서트에 온 사람이 동일한 사람인지 확인하면 암표 거래를 막을 수 있기 때문입니다. 사기범은 이런 점을 적극 이용했습니다. 다른 사람의 표를 양도받는 입장에서는 '표를 사고도 혹시나 콘서트장에 들어가지 못하면 어쩌지?'라는 우려가 들 수 있기 때문입니다.사기범은 대행업체와 함께 콘서트 티켓의 명의 변경, 입장 변경을 해야 한다고 설득했습니다. 그리고 이를 위해서는 '보증보관금액'이 필요하다면서 또다시 다른 사람들이 돈을 보냈다가 돌려받은 인증 사진들을 제시했습니다. 소액결제를 해도 명의만 변경되면 다시 돈을 돌려준다고 하니 피해자들은 그 말을 믿고 의심을 품지 않았습니다.사기범은 여기서 더 나아갔습니다. 최소 300만원 정도의 보증금이 필요한데 수중에 현금이 얼마나 있냐고 묻습니다. 개인정보를 통해 피해자들이 사회초년생임을 잘 알고 있는 사기범은 수중에 돈이 없으면 비상금 대출을 받을 수 있다면서 친절하게 카카오뱅크와 토스뱅크 이용법까지 안내했습니다. 그리고 대행업체가 대출을 오늘 안에 없던 걸로 만들어 줄 수 있다고 속였습니다. 인터넷은행의 비상금 대출 한도는 보통 최대 300만원. 사기범은 이 점을 노렸고, 피해자들의 대출금을 전달 받아 잠적했습니다.그제서야 사기임을 알게 된 피해자들. 한 피해자는 1,600만원을 사기범에게 보내기도 했습니다. 의심을 피하기 위해 사기범은 최소 3시간에서 길게는 일주일 넘게도 피해자와 연락을 주고 받았고 그 과정에서 계속 돈을 요구해 피해자들이 사기를 당하고 있는지도 모르게 교묘하게 속였습니다.똘똘 뭉친 피해자들‥ 직접 범인 찾아 나섰다사기범은 드림콘서트 이전에도 아이돌 단독 콘서트, 음악 공연 등 다양한 사기로 돈을 가로챘습니다. 주로 비상금대출과 소액결제가 가능한 성인, 그중에서도 사회초년생 여성을 노렸습니다. 피해자들은 SNS로 피해 상황을 올렸습니다. 그리고 동일한 수법임을 확인하고 단체 채팅방을 만들었습니다. 그렇게 모인 23명. 이들은 먼저 자신들이 어떻게 사기를 당했는지 피해 내역을 공유했습니다. 돈을 보낸 계좌, 소액결제 내역, 사기범의 sns 아이디 등이 차근차근 모였습니다. 또 각자 자신이 사는 경찰서에 고소장을 접수했습니다.사기꾼이 대포통장과 대포폰 등도 함께 이용한 탓에, 사이버수사는 시간이 오래걸릴 수밖에 없었습니다. 게다가 고소장을 받은 경찰서도 제각각 달랐습니다. 하지만 단체 채팅방에 모인 피해자들은 동일범의 수법이란 걸 눈치챘습니다. 그렇게 은행 계좌를 통해 사기범의 이름과 sns 아이디를 특정했습니다. 특히 한 피해자의 소액결제 내역이 눈에 띄었습니다. 인터넷 방송의 유료 후원 아이템을 구매한 걸 발견한 겁니다.방송 화면 속에 수상한 사진이‥'딱 걸린' 사기범 피해자들의 수사 속도는 빨라졌습니다. 사기범의 sns 아이디와 '인터넷 방송'을 조합해 구글링을 했더니, 한 게임 인터넷 방송 진행자가 딱 걸렸습니다. 완벽히 아이디가 일치하지 않아 우연일 수도 있겠다 싶었지만 일단 피해자들은 해당 방송을 모두 돌려봤습니다. 그러던 중 게임 아이디도 사기범의 아이디와 비슷하다는 점을 찾아냈고, 결정적으로 게임을 시작하기 전 컴퓨터 바탕화면에서 수상한 걸 발견했습니다. '여성의 운전면허증 사진'과 자신들에게 보여준 '구매인증 사진'이었습니다. 아주 작은 아이콘처럼 보였지만 피해자들은 확신이 들었습니다.피해자들이 증거를 모으던 지난달, 경찰도 가만히 있지 않았습니다. 비교적 빨리 동일한 수법의 티켓 사기 신고를 접수한 경기 광명경찰서 사이버수사팀. 사이버 수사 베테랑인 팀원들은 사기범의 수법을 보고 기존 티켓 사기에 메신저 피싱까지 결합한 신종 수법이라고 판단했습니다. 초기에 광명서에 접수된 사건은 몇 백만원짜리 사이버 사기 1건에 불과했습니다. 하지만 광명서는 사기범을 빨리 잡지 않으면 더 큰 피해가 우려된다는 생각에 전국 경찰서에 연락을 취해 접수된 비슷한 사건을 모으기 시작했습니다.계좌를 찾고, 소액결제된 사업체에 구매내역을 받고 적지 않은 시간이 걸렸습니다. 그동안 경찰이 파악한 피해자는 11명, 금액은 5,800만 원으로 불어났습니다. 범인을 좁혀갔지만 결정적 단서는 나오지 않았던 그때, 피해자와 연락을 꾸준히 주고 받던 경찰관은 피해자들의 증거를 전달받게 됩니다. 그렇게 '공조 수사'가 시작된 겁니다.피해자들에게 범인이 인터넷 방송 진행자 같다는 내용을 전달받은 경찰. 경찰과 피해자들은 그때부터 지난 게임 방송을 전부 돌려 보기 시작했습니다. 방송 속에서 범인이 시청자들과 대화한 내용을 통해 사는 동네를 특정, 일대에서 잠복한 끝에 지난 7일 사기 혐의로 20대 남성을 체포했습니다.이 남성은 대면 공연이 재개되기 시작한 지난해 12월부터 여섯 달 동안 티켓 사기를 벌인 혐의를 받고 있는데, 심지어 체포되기 하루 전날까지도 사기를 치고 있었습니다. 심지어 이미 비슷한 사기 전과가 있었고 체포 당시에도 다른 범행으로 재판을 받고 있었습니다. 그런데 그 재판에 여러차례 출석하지 않아 이미 구속영장이 발부된 상태였습니다. 결국 이 남성은 구속됐습니다. 방송이 나간 이후, 같은 피해를 당했다는 제보가 MBC로 추가로 접수됐습니다. 광명경찰서에선 3일 만에 피해자 8명이 추가됐고, 피해액도 7천만 원을 넘어 앞으로 더 추가될 것으로 보인다고 전했습니다.팬심으로 사기를 당했지만 도리어 사기범을 잡아낸 사회초년생 피해자들과 경찰들, 그들 덕분에 다른 피해자들이 추가되는 걸 막을 수 있었습니다. 이제는 사기를 당해 전전긍긍하고 있는 분들의 피해가 빨리 회복될 수 있기를 간절히 바랍니다.[원본기사] [단독] 팬심 등친 콘서트 티켓 사기범‥어떻게 잡았나 봤더니https://imnews.imbc.com/replay/2022/nwdesk/article/6376698_35744.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2022.06.02.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>토스뱅크, 지불카드 정보보안표준 인증</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002737285?sid=101</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>토스뱅크가 글로벌 글로벌 데이터 결제 보안인증을 획득했다. 토스뱅크 제공    토스뱅크가 국내 은행권에서 최초로 글로벌 신용카드 데이터 보안인증인 '지불카드업계 정보보안표준(PCI-DSS, Payment Card Industry Data Security Standard)' 인증을 획득했다고 2일 밝혔다.PCI-DSS는 정보가 전송되는 과정에서 카드 소유자의 데이터 등을 안전하게 보호하고 있는지를 검증하는데 목적이 있다. 고객의 카드 정보는 강도 높은 보안 정책에 따라 보호되며, 전송 및 저장되는 모든 처리 영역에서 암호화되고 있어 중도에 노출될 우려도 없다. PCI-DSS 인증은 레벨 1부터 4까지로, 토스뱅크가 받은 인증은 레벨 1인 최상위 등급이다. 이번 심사는 'PCI 보안표준위원회'로부터 인증심사 기관으로 지정받은 브로드밴드시큐리티 한국지점이 심사를 진행했다.카드를 소유한 고객의 경우 개인정보와 신용카드번호, 각종 추가 정보를 포함한 거래정보가 이른바 '민감정보'로 다뤄진다. 이들 정보는 고객이 결제를 할 때마다 카드사가 구축한 인프라를 통해 전송되는데, 이 과정에서 보안이 취약할 경우 탈취되거나 노출되는 문제가 발생한다.이에 토스뱅크는 이번 인증 심사에서 카드 소유자 데이터 및 민감한 데이터의 저장·전송·처리 절차, 카드 결제 프로세스 안정성, 정보보호 대책과 시설 및 설비 운영·보안관리 절차 등 총 12개 분야 412개 세부 항목에 대해 종합적으로 평가받았다. 아울러 PCI-DSS 인증 획득 후에는 분기마다 준수 상태 검토 및 준수 여부를 증명해야 하기 때문에 토스뱅크 고객들은 보다 안전하게 토스뱅크의 체크카드를 이용할 수 있다는 설명이다. 현재 토스뱅크 고객의 80% 이상이 토스뱅크 체크카드를 사용하고 있다. 토스뱅크 체크카드는 커피·패스트푸드·편의점·택시·대중교통 등 5대 생활밀착형 업종에서 결제하면 캐시백 혜택을 준다. 해외결제는 온·오프라인 구분 없이 이용금액의 3%를 즉시 캐시백하고 있다. 또한 NFC(근거리 무선통신) 기술을 활용한 OTP 기능을 탑재해 휴대폰 뒷면에 체크카드를 접촉하면 안전하고 손쉽게 고액 송금이 가능하도록 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2022.06.07.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>이상거래 탐지에 해킹 방어 훈련도…인터넷은행 보안 전쟁</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/422/0000545507?sid=101</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>[앵커] 고객을 직접 만나지 않고 영업하는 인터넷전문은행들에게 보안은 생명이나 다름없죠. 이상 거래 탐지시스템으로 보이스피싱 같은 이상 거래를 적발하고, 군사 훈련하듯 모의 해킹 공격에 대한 방어훈련을 하는 곳도 있는데요. 김동욱 기자가 취재했습니다.[기자] 한 인터넷전문은행 사무실. 알람이 울리자 직원이 분주히 움직입니다. 수상한 거래가 이상거래 탐지시스템에 감지됐기 때문입니다.&lt;현장음&gt; "안녕하세요. 토스뱅크입니다. 보이스피싱이 의심되니 거래내용 확인 부탁드립니다." 이 은행은 부정거래 위험도를 점수로 매겨 모니터링하는데, 월 1만2,000건이 넘는 이상 거래가 탐지돼 이 중 3,000건이 차단됐습니다.&lt;최승락 / 토스뱅크 금융소비자보호최고책임자&gt; "한밤중에 거래 기록이 전혀 없던 사람으로부터 송금을 받고 지체 없이 ATM기로 빠져나가는 경우가 종종 있었는데요. 인터넷 은행 특성에 맞춰서 은행권 유일하게 24시간 모니터링팀을 운영하고 있고 보안을 강화하고 있습니다."이에 더해 금융 앱 '토스'는 보안 기술의 허점을 찾아 방어 기술을 만드는 세계 최고 화이트해커를 영입해 모의 해킹 공격 방어훈련도 진행합니다.신뢰가 생명인 은행, 특히나 보안의 중요성이 더 큰 인터넷전문은행들이 보안 강화에 사활을 걸고 있습니다.카카오뱅크는 고객 거래 데이터 보호를 위해 총 3개의 데이터센터를 구축해 운영 중인데, 어느 한 곳 통신사의 통신망이 마비돼도 다른 두 곳이 살아있으면 정상 운영됩니다.케이뱅크는 백신과 지능형 지속 위협 대응 솔루션을 국산과 외국산 모두 활용해 외부 유입 데이터를 교차 검증하는 시스템을 운영하고 있습니다.아무리 강력한 방패도 언젠가는 새로운 창에 뚫릴 가능성을 배제할 수 없습니다.금융보안망의 지속적 강화를 아무리 강조해도 지나치지 않은 이유입니다. 연합뉴스TV 김동욱입니다. (dk1@yna.co.kr)#인터넷은행 #금융보안 #해킹연합뉴스TV 기사문의 및 제보 : 카톡/라인 jebo23</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2022.06.12.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>스타트업 투자 침체기…기업벤처캐피털이 ‘구세주’</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002594298?sid=105</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>스타트업 생태계 컨퍼런스 2022참석자들 시브이시에 높은 기대감‘뒷배’ 든든하고 ‘전략적 투자’ 많아내부혁신 목마른 대기업 적극 나서10일 스타트업얼라이언스가 강원도 강릉에서 연 ‘스타트업 생태계 컨퍼런스 2022’에서 (왼쪽부터) 안상일 하이퍼커넥트 대표, 이성화 지에스(GS)리테일 신사업부문장, 임정민 시그나이트파트너스 투자총괄, 신성우 현대자동차 상무가 발언하고 있다. 스타트업얼라이언스 제공코로나19 특수는 줄어들고 금리는 올라가자 벤처캐피털(VC)들의 스타트업 투자가 감소하는 가운데 틈새를 노린 ‘기업벤처캐피털(CVC)’이 시장의 주요 ‘선수’로 떠오르고 있다.스타트업얼라이언스가 지난 9~10일 강원도 강릉 세인트존스호텔에서 연 ‘스타트업 생태계 컨퍼런스 2022’에 참석한 스타트업·벤처캐피털 업계 관계자들은 시브이시가 침체된 스타트업 투자 시장에 활력을 불어넣을 것이라고 기대하고 있었다. 시브이시는 기업들이 계열사 또는 사업부 형태로 운영하는 벤처캐피털이다.시브이시의 장점은 무엇보다 ‘뒷배’가 든든하다는 점이다. 유정호 케이비(KB)인베스트먼트 글로벌투자그룹장은 “올해 들어서만 유니콘(기업 가치 1조원 이상) 규모의 국내 스타트업 최소 세 곳이 기업공개(IPO) 계획을 접었다고 알려질 정도로 시장 상황이 나쁘다보니 투자를 유치하려는 스타트업들도 좀 더 오래 함께할 수 있는 자본에 대한 수요가 커졌다”며 “이로 인해 시브이시의 시장 지배력이 더욱 커지고 있다”고 말했다.‘재무적 투자’뿐 아니라 ‘전략적 투자’ 비중이 상대적으로 높다는 점도 시브이시의 특징이다. 특히 모기업의 신사업 탐색이나 기술 경쟁력 강화 등 필요와 맞아떨어지는 경우에는 당장 큰 수익을 기대하기 어려운 스타트업에 대한 투자 계약도 종종 성사된다. 외부 기업 투자가 대기업 내부 혁신의 마중물 역할을 하기를 기대하는 것이다. 최항집 스타트업얼라이언스 센터장은 “살아남으려면 혁신이 불가피하다는 의지를 갖고 시브이시를 만드는 대기업이 늘고 있다”고 말했다.신세계그룹 시브이시인 시그나이트파트너스의 임정민 투자 총괄은 “전세계 160개 시브이시를 대상으로 설립 이유를 물어보니 절반가량이 ‘도전과 모험을 위해서’라고 답했다”며 “시그나이트파트너스는 신세계그룹의 기존 사업 영역과 연계가 쉬운 리테일·모빌리티·라이프스타일 분야나 기술 경쟁력을 키우는 데 도움이 되는 바이오·헬스케어·서비스형 소프트웨어(SaaS) 분야 스타트업에 투자를 많이 한다”고 말했다. 신성우 현대자동차 시브이시팀 이노베이션담당 상무는 “과거에는 투자 한 건을 성사시키려면 회사 안의 여러 사업부를 각각 설득해야 해 힘들었는데, 지금은 역으로 사업부 쪽에서 먼저 특정 기업에 투자해 달라고 찾아오기도 한다”고 했다.다만, 외부 유한책임투자자(LP)들로부터 조성한 펀드로 투자를 해 재무 성과의 제약을 많이 받을 수밖에 없는 전통적 브이시와 달리 시브이시는 100% 자기 자본으로 투자를 집행하는 경우가 많아 전략적 투자 비중을 높게 둘 수 있다는 분석도 나왔다.스타트업이 시브이시를 만들어 또 다른 스타트업에 투자하는 경우도 늘었다. 지난해 토스가 타다 운영사인 브이시엔시(VCNC) 지분 60%를 사들인 게 대표적이다. 더핑크퐁컴퍼니, 쿠팡, 우아한형제들 등도 계열사 형태로 시브이시를 운영하거나 내부 사업부에서 직접 투자 활동을 하고 있다. 심지어 스타트업 시브이시가 대기업의 특정 사업 부문을 거꾸로 인수하는 경우도 있다. 토스는 지난 2020년 엘지유플러스(LGU+)의 전자결제(PG) 사업부를 인수했다. 모바일 세탁 서비스 런드리고도 올해 2월 아워홈 계열사인 크린누리의 사업과 설비 일체를 사들였다.가상자산 거래소 업비트 운영사인 두나무의 시브이시 두나무앤파트너스의 임수진 파트너는 “두나무 역시 아직 성장해야 하는 스타트업인 만큼 다양한 분야 기업과 협업할 필요가 있다”며 “두나무앤파트너스가 기회를 탐색하는 안테나 역할을 한다”고 말했다. 정상엽 쿠팡 전무는 “지난 2016년 빅데이터·클라우드 부문에서 실력 있는 개발자를 다수 보유한 그루터를 인수해 이듬해 쿠팡 서비스 전체를 3개월 만에 클라우드로 이전한 것처럼, 고객들이 겪고 있는 불편함을 해결해줄 수 있는 기업들에 주로 투자하고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2022.06.01.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>인뱅, 관료 출신 영입전… 카뱅 이어 토뱅도 사외이사 기용</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002737064?sid=101</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>카카오뱅크 진웅섭 전 금감원장 이어 토스뱅크 정완규 증권금융 사장 사외이사 선임지난해 카카오뱅크가 진웅섭 전 금융감독원 원장을 사외이사로 영입한 데 이어 토스뱅크가 정완규 전 한국증권금융 사장을 이사회 구성원으로 영입했다. 시중은행에 이어 인터넷전문은행에서도 재무관료 출신이 잇따라 이사회에 진입하기 시작했다.1일 금융권에 따르면 토스뱅크는 지난달 26일 박진회 전 한국씨티은행장 후임 사외이사로 정완규 전 한국증권금융 사장을 선임했다.정완규 사외이사는 행정고시 34회로 금융위원회 자산운용과장, 자본시장과장, 공정시장과장, 행정인사과장을 거쳐 기획조정국장, 중소금융정책국장, 금융정보분석원장을 역임했다. 2018년부터 지난해 3월까지 한국증권금융 사장을 마지막으로 공직을 떠났다가 은행권 사외이사로 민간에 첫 진출했다. 토스뱅크가 재무관료 출신을 사외이사로 영입한 것은 이번이 처음이다. 토스뱅크 이사회는 홍민택 은행장이 이사회 의장을 맡고, 중소기업중앙회 상근 부회장을 역임했던 서승원 선임사외이사와 이랜드그룹 출신의 권순문 사외이사, 삼성전자 출신의 김대영 사외이사, 삼덕회계법인 상무인 정성원 사외이사, 한미회계법인 감사담당 파트너인 김인수 사외이사 등으로 구성돼 있다.인터넷은행 중에서 재무관료 출신을 사외이사로 영입한 것은 카카오뱅크가 처음이다. 카카오뱅크는 지난해 3월 금융감독원 원장을 역임한 진웅섭 법무법인 광장 고문을 사외이사로 선임했다.인터넷은행이 재무관료 출신을 사외이사로 영입하는 것은 금융감독 당국의 검사가 진행되면서 이에 대한 방어 차원으로 풀이된다. 카카오뱅크는 지난해 금융감독원의 종합검사를 받았고, 토스뱅크는 올해 정기 검사가 예정돼 있다. 인터넷은행은 출범 당시 여러 여건을 감안해 종합 검사를 일정 기간 면제받았다. 시중은행은 재무관료 출신을 사외이사로 다수 영입했으나 인터넷은행이 사외이사를 영입한 것은 비교적 최근의 일이다.시중은행 중에서는 국민은행이 금융위 상임위원을 역임한 임승태, 금감원 수석부원장 출신의 서태종 금융연수원장을 사외이사를 선임했다. 신한은행은 금감원 도쿄사무소장 출신의 윤승한 사외이사가 이사회를 구성하고 있다. 은행지주회사에도 재무관료 출신이 다수 사외이사로 활동하고 있다. 신한지주의 이윤재·변양호 사외이사는 각각 재정경제원, 재정경제부 출신이다. 하나금융지주 김홍진 사외이사는 재정경제부 금융정보분석원 기획행정실장을 역임했다.김현동기자 citizenk@dt.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2022.06.01.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>금융권 ‘앱 잘 쓰는 어르신들 모셔라’</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004845393?sid=101</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>토뱅·카사 등 5060 가입 증가세기은 ‘쉬운뱅킹’ 등 타깃앱 출시  50대 이상 뉴 시니어 고객층의 금융 애플리케이션(앱)에 대한 관심이 높아지고 있다. 전통은행의 금융 앱뿐 아니라 핀테크 이용자 가운데에서도 50대 이상이 차지하는 비율이 높아지고 있는 것이다. 고령층의 수요에 맞춰 금융권 전반이 뉴 시니어 고객 모시기에 적극 나서는 분위기다.   1일 부동산 수익증권 거래 플랫폼 카사에 따르면 카사 전체 가입자 중 50대 이상이 17.43%를 차지했다. 이는 처음 앱 서비스를 시작했던 지난 2020년 9월과 비교해 1.5배 수준이다. 특히 50대 가입자 성장세가 두드러졌는데, 기존 가장 높은 비율을 차지했던 30대 가입자 비중이 14.79%p 줄어드는 동안 50대 비율은 5.8%p 높아졌다.   투자 회원 기준으로도 추이가 비슷했다. 20대와 30대 투자 회원 비중은 지난 2020년 9월 대비 지난 4월 각각 0.57%p, 11.86%p 줄어들었다. 이런 가운데 50대와 60대 비중은 각각 5.38%p, 0.56%p 늘어나는 모습을 보였다.   이와 관련 카사 관계자는 "코로나19로 시니어 고객의 모바일 추세가 늘어난 것 같다"며 "또 주식과 부동산 시장이 좋지 않아 안정적인 투자를 찾는 이들이 포트폴리오 다각화에 나서면서 고객 연령층이 확대됐다"고 진단했다.   실제, 한국소비자원이 발간한 '2021년 소비자생활지표'에 따르면 지난 3년 동안 50대 이상의 디지털 소비 이용이 크게 증가한 것으로 나타났다. 지난해 50대의 디지털 소비량은 79.2%로 2019년(29.5%) 대비 2.6배 상승했다. 같은 기간 60대 이상은 10배 이상 늘며 전체 연령대 중 증가폭이 가장 컸다. 금융 플랫폼 관련 소비자정책 수요에 대한 질문에 대해 이들은 1순위로 안전한 결제 시스템(38.2%, 47.5%)을 가장 많이 선택했다.   이 같은 50대 이상 고객층 급증은 최근 핀테크 업계 곳곳에서 감지되고 있다. 토스뱅크도 지난달 31일 1·4분기 실적발표와 함께 고객 5명 중 2명이 40대 이상이라고 밝혔다. 40대 이상이 24.2%를, 50대 이상 고객이 18.7%를 차지했다.   또 다른 핀테크 업체인 핀다도 앞서 지난해 50대 이상 사용자 비중이 전년 대비 3.74배 증가했다고 밝힌 바 있다. 같은 기간 전체 회원 2.74배 증가한 데 비해 유의미한 성장폭이라는 평가다. 핀다는 개인 맞춤 대출 비교 서비스를 제공하는 플랫폼이다.   이 같은 추세에 금융권은 소외됐던 시니어 고객 모시기에 팔을 걷어붙이고 있다. IBK기업은행은 지난 2월 모바일 앱 아이원 뱅크(i-ONE Bank)를 고령자도 쉽게 사용할 수 있도록 한 '쉬운뱅킹' 서비스를 출시했다. 금융당국이 마련한 '고령자 친화적 모바일 금융 앱 구성 지침'을 반영해 뱅킹 서비스를 출시한 최초 사례다. 또 토스도 연금·자산 관리나 건강과 같은 특화 콘텐츠 전진 배치 등으로 대표되는 시니어 전용 서비스를 올 상반기 도입한다고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2022.06.15.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>토스가 촉발한 '고객 정보 판매' 논란 [김효숙의 쑥덕쑥덕]</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002612481?sid=101</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>1건당 6만9000원 팔아…'유출' 논란닻 올린 마이데이터, 고객 신뢰 우선토스 보험파트너 관련 포스터 ⓒ토스[데일리안 = 김효숙 기자] 30대 직장인 A씨는 최근 황당한 일을 겪었다. 보험 상담을 받으려고 한 금융사의 '내보험' 상담 서비스를 이용했는데, 이 과정에서 금융사에 제공한 자신의 개인정보를 6만9000원에 보험설계사에게 판매한 것이다. '금융사가 무책임하게 내 정보를 돈 받고 팔아먹다니.' 개인정보 유출이라 판단한 A씨가 자초지종을 알아봤더니 불법이 아니라는 답변을 들었다.최근 벌어진 토스의 '개인정보 판매'가 논란이다. 다만 토스는 개인정보를 유출한 것이 아니라 '판매'했다. 그리고 이같은 행위는 불법도 아니며 금지된 것도 아니다. 신용정보법(11조의 2)은 마이데이터 사업자에 데이터베이스 판매 행위를 부수 업무로 허용하고 있기 때문이다. 마이데이터 사업자인 토스가 보험 상담을 원하는 고객들의 개인정보를 판 것은 불법 소지가 없다.개인정보보호법상 개인 정보를 넘기려면 ▲제공 목적 ▲제공받는 곳 ▲제공하는 항목 ▲이용 및 보유기간 ▲거부할 권리 및 불이익 설명을 명시해야 한다. 토스는 '제3자 정보 제공 동의'를 받으면서 이같은 원칙도 지켰다는 입장이다.동의한 고객에 한해서 정보 전송이 이뤄졌으며, 고객 전화번호는 1회성 안심번호로 제공했고 고객이 상담을 중단하면 설계사가 조회한 정보 등은 자동 파기하는 등 개인정보 무분별 유통을 방지했다는 설명이다.문제는 일반 국민은 자신의 개인정보가 판매됐다는 사실, 애초 돈을 주고 자신의 정보가 판매될 수 있다는 사실도 몰랐다는 점이다. 보통 금융 서비스를 이용하는 고객은 정보제공 관련 내역을 제대로 읽지 않고 동의를 누르는 것을 으레 당연하게 여긴다. 토스의 제3자에게 정보제공 동의 항목도 무심결에 누른 고객들이 많았을 테다.토스가 개인정보를 유료로 판매할 수 있다는 사실을 따로 고지하지 않았던 탓도 크다. 내 정보가 어디로, 어떻게 이용되는 것인지 상세히 알리라는 개인정보보법 취지와 어긋날 수 있는 부분이다. 다만, 앞으로 토스도 보험 상담서비스 신청 동의 과정에서 '매칭된 설계사가 본인의 정보를 유료로 조회한다'는 사실을 명시해 보완하겠다고 밝혔다.이같은 논란은 데이터판매가 '합법'이라 할지라도 개인정보 '유상 판매'에 대한 사회적 합의가 설익었다는 방증이다. 일반 국민은 내 정보가 팔릴 수 있는 것인지, 그 과정에서 제대로 보호될 수 있는지 잘 몰라서다. 금융사들도 접근법 고민이 부족했다.마이데이터 사업이 이제 막 돛을 달았다. 금융사들이 더 친절하게 고객에 설명하고 설득할 방법을 고민해야 하는 이유다. 금융당국도 시행령과 감독규정을 세밀히 살펴 금융소비자들의 알 권리, 개인정보보호권이 침해될 제도 공백은 없는지 점검하고 보완해야 한다. 기존 금융업권의 고질 문제였던 개인정보 유출 사고를 막아 신뢰성을 해결하는 것도 잊지 말아야 한다.데이터사업은 신뢰 사업이다. 어렵게 합의를 거쳐 등장한 마이데이터사업이 순항하려면 고객 보호라는 신뢰의 닻을 단단히 내리는 게 먼저다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2022.06.03.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>'토스→토스' 회원끼리 착오송금도 반환지원 혜택 가능해질 듯</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004972989?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>김태현 예보 사장 "지원 대상 포함 필요성" 밝혀착오송금 67.5%가 30~50대…20대 미만 17.4%김태현 예금보험공사 사장(왼쪽)이 2일 서울 중구 예보 본사에서 열린 기자간담회에서 답변하고 있다.[사진 제공 = 예보] 생활밀착형 금융으로 '착오송금 반환지원 제도'가 시행 후 큰 호응을 얻는 가운데 향후 반환지원 대상 확대가 추진될지 주목된다.이렇게 되면 카카오페이 회원 간, 토스 회원 간, 네이버페이 회원 간의 착오송금도 예금보험공사(이하 예보)가 운영하는 착오송금 반환지원 제도를 통해 혜택을 받게 될 전망이다.착오송금은 실수로 수취 금융회사, 수취인 계좌번호, 금액 등을 잘못 입력해 이체된 거래다. 3일 예보에 따르면 지난해 7월 6일 이후 발생한 5만원 이상 1000만원 이하 착오송금에 대해 금융회사를 통한 자진반환이 거절된 건에 한해 예보가 착오송금 반환지원 신청을 받아 대신 돌려주고 있다. 제도가 시행된 가운데 지난 2일 김태현 예보 사장은 예보 창립 26주년 기념 간담회에서 '착오송금 반환지원 제도가 곧 시행 1년이 되는 가운데 개선될 점이 있는지'에 대한 질문에 "(카카오, 토스, 네이버) 페이도 지원 대상에 포함시켜야 할 필요성이 있다"고 말했다. 이어 반환지원 대상 금액도 "금액을 올려야 한다는 공감대가 형성된다면 확대하는 방안을 검토할 수 있다"는 입장을 밝혔다.카카오페, 토스, 네이버페이 회원 간의 착오송금 반환지원의 경우 국회에서 관련 법 개정이 필요한 사항이다.  예보 한 관계자는 "5만원 이상 1000만원 이하 착오송금 반환지원 대상 금액은 금액 상한을 올려달라는 민원이 많고 실제 1000만원 이상 착오송금 사례도 적지 않다"며 "본격적으로 검토할 필요가 있다"고 말했다.[자료 제공 = 예보] 착오송금 반환지원 제도 시행 이전에는 착오송금 발생 시 반환되지 않는 경우가 많아 소송을 통해서만 착오송금 회수가 가능했다. 때문에 착오송금 금액이 소액일 경우 소송비가 더 들고 소송기간도 적지 않게 소요됐다. 금융당국은 착오송금 반환지원 제도 시행 이전 1년간 발생한 착오송금은 반환받는데 소송기간이 6개월 이상 소요됐고 소송비용은 착오송금 100만원 기준 60만원 이상 발생한 것으로 추산했다.한편, 지난해 7월 6일 이후 발생한 착오송금에 대한 반환지원 제도 시행 후 올해 4월말까지 예보의 반환지원 실적을 보면 월 평균 약 294건(3억7000만원)으로 증가 추세다. 예보는 이 기간 착오송금 반반환지원 신청을 받아 2649건(33억원)을 송금인에게 반환했다.또, 착오송금 반환 시 평균 지급률은 96.0%(착오송금 100만원 시 96만원 반환)이며, 신청일로부터 반환까지 평균 소요기간은 43일이 걸렸다. 착오송금액 규모는 300만원 미만이 전체의 83.9%를 차지했다. 연령별로는 경제활동이 왕성한 30~50대가 67.5%로 가장 많았다. 이어 20대 미만이 17.4%, 60대 이상이 15.1%였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2022.06.08.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>'구인난' 개발자들 수두룩…이 회사는 왜 이렇게 많을까</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011233916?sid=101</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>기사내용 요약개발자 모시기 전쟁 속 인력 비중 60% 넘어자율근무제·장비지원 등 복지제도개선 앞장[서울=뉴시스]애플은 대한민국 포항시에 개소한 '애플 개발자 아카데미(Apple Developer Academy)'를 통해 미래의 개발자 및 기업가로 성장할 수강생들을 직접 맞이했다고 28일 밝혔다. 사진은 애플 개발자 아카데미 수강생들이 맥북을 들고 논의하고 있는 모습. (사진=애플 제공)[서울=뉴시스] 배민욱 기자 = IT·스타트업의 꽃은 '개발자'다. 사업 모델이 아무리 뛰어나더라도 역량을 갖춘 개발자가 없다면 구현이 어렵기 때문이다. 특히 디지털 전환 붐이 크게 불었던 최근 몇년간 프로그램의 중요도는 더욱 커졌다. 개발자가 전체 인력의 가장 높은 비중을 차지하는 기술 기업을 향한 주목도 역시 높아졌다.개발자 모시기가 업계의 최대 난제라는 요즘 직원의 대다수가 개발자로 구성된 기업들이 주목받고 있다. 개발자들의 마음을 사로잡기 위해 자율근무제, 재택근무, 최신 장비 지원 등 복지 제도를 속속 도입해 운영하고 있다. 8일 관련 업계에 따르면 소셜 인공지능(AI) 메타버스(3차원 가상세계) 채팅 서비스 '오픈타운'을 개발한 스타트업 마인드로직은 임직원의 80% 이상이 개발자로 구성됐다. 오픈타운은 사용자의 말과 성격을 학습한 나만의 소셜AI가 자동 대화를 통해 더 많은 친구를 만들어주는 소셜 메타버스 플랫폼이다. 마인드로직은 기술을 더욱 고도화하고 오픈타운 서비스를 안정적으로 운영하기 위해 개발 인력을 확보하고 높은 비중을 유지하고 있다. 업계 최고 수준의 연봉은 물론 최신형 장비 제공, 유연근무제 등을 다양한 지원 정책을 시행 중이다. 카카오엔터프라이즈는 솔루션·서비스 고도화를 위해 출범 이후 꾸준히 임직원의 70%를 개발 직군으로 유지해 왔다. 또 우수 인재들을 위해 스톡옵션, 자율근무제 등 다양한 복지 제도를 강화했다. 카카오엔터프라이즈는 클라우드 시장에서의 사업 확대를 위해 적극적으로 개발자를 확보해 성장을 꾀할 예정이다. 자사가 자체 개발한 자연어처리 AI 모델은 지난 3월 한국어 기계독해 데이터셋 '코리안 퀘스천 앤서링 데이터셋 2.0(KorQuAD 2.0)' 성능 평가에서 1위를 차지했다.핀테크 증권사 토스증권은 테크직 비중이 70%가 넘는다. 토스증권이 선보인 MTS(모바일 트레이딩 시스템)는 고객 중심의 새로운 주식거래 서비스가 특징이다.토스증권은 모바일 증권서비스의 기술적 우위를 강화하기 위해 개발 직군 비율을 계속해서 확대하고 있다. 개발자를 포함한 임직원들의 근무 만족도를 높이기 위해 주 4.5일제, 자율적 휴가 사용할 수 있는 것은 물론, 근무형태·출퇴근 시간 자율적 선택 등을 시행하고 있다. 통화 음성을 텍스트로 변환시켜주는 비토를 서비스하는 리턴제로는 임직원의 60%가 개발자다. 꾸준한 기술 업데이트와 서비스의 안정적인 운영을 위해서다. 우수한 인재들을 영입하기 위해 복지 제도도 지속적으로 강화하고 있다. 리턴제로의 직원들은 별도 승인 절차 없이 무제한 휴가 사용이 가능하고 출퇴근 시간과 근무형태도 자유롭다. 리턴제로는 재택근무 장비를 지원하고 올해 제주도, 강원도 등 각지에서 워케이션 근무를 진행한다. 12월부터 내년 1월까지는 뉴질랜드 워케이션도 지원할 예정이다.헬시테크 플랫폼 넛지헬스케어가 운영하는 건강관리 앱 캐시워크는 안정적인 서비스 운영을 위해 개발자 비중을 전 직원의 80%까지 확대했다. 2017년 2월 출시 이후 꾸준한 이용률 증가는 물론 개발자 비중 확대를 통해 기업의 기술력을 향상시켰다.캐시워크는 만보기를 휴대폰 잠금화면에 최초로 도입해 사용자의 편의성을 도모하는 동시에 걷는 만큼 캐시(금전적 보상)를 제공하는 방식으로 걷기 운동 습관화를 도모하는 건강관리 앱이다. 능력 있는 개발 인력을 영입하고 높은 비중을 유지할 수 있는 비결은 유연한 조직문화, 기업과 구성원 간 '같이(가치) 성장'을 유도하는 사내 정책에 있다. 넛지헬스케어는 최신형 장비 제공과 사내 스터디 지원하고 임직원 추천 제도를 운영해 근속을 장려한다. 2년 이상 근속한 개발자에게는 해외 콘퍼런스 참석을 위한 체류 비용이 전액 지원된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2022.06.09.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>LG유플러스, AI·데이터로 디지털 혁신기업 전환 가속화한다</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000820871?sid=105</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>LG유플러스는 9일 서울 용산사옥에서 기자간담회를 열고 디지털트랜스포메이션(DX) 전략과 AI/데이터 프로덕트, 그리고 우수 개발인재 확보 계획 등을 발표했다. 사진은 황규별 CDO(최고데이터책임자, 전무)가 간담회에서 AI 및 데이터 사업 전략을 발표하고 있는 모습. /사진=LG유플러스 LG유플러스가 데이터와 인공지능(AI)을 전략적으로 자산화하고 이를 통해 고객 중심의 디지털 혁신기업으로 전환을 가속화한다고 밝혔다. 황규별  LG유플러스 최고데이터책임자(CDO)는 9일 오전 기자간담회를 열고 "구글, 아마존 등 글로벌 빅테크 기업과 같이 데이터와 AI로 수익을 창출하고 기업가치를 제고하겠다"고 발표했다. LG유플러스는 AI 개발과 데이터 분석 등을 전담하는 조직인 'CDO'를 지난해 7월 신설했다. 이 조직의 수장을 맡아 올해 초 LG유플러스에 합류한 황 CDO는 미국 델타항공, 다이렉TV, AT&amp;T, 워너미디어 등에서 데이터 플랫폼을 구축하고 분석해 수익화를 담당한 전문가다.그는 데이터 및 AI를 활용한 수익창출을 위해 ▲소상공인 특화 AICC 서비스 출시 및 데이터 상품 경쟁력 강화 ▲프로덕트 중심의 애자일 조직 개편 ▲개발역량 내재화를 위한 우수인재 두 배 확대 등을 추진키로 했다.LG유플러스는 고객이 상품과 서비스를 경험하는 모든 과정에서 '편리함'과 '가치'를 느낄 수 있도록 AI·데이터 기술을 프로덕트 그룹으로 분류했다. AI·데이터 기술과 연관된 개별 상품은 그룹 하부의 프로덕트로 분류하고 있다.AICC(AI Contact Center) 프로덕트 그룹에는 AI 콜봇, 챗봇, 상담어드바이저, 커넥티드카 등 다양한 서비스가 있다. 오는 8월 출시 예정인 소상공인 특화 AI 콜봇 서비스 'AI 가게 매니저'는 AI가 전화로 고객을 응대하는 차별화된 서비스다. 'AI 가게 매니저'를 통해 AICC 서비스를 확대한다는 계획이다.또 다른 프로덕트 그룹인 '인사이트' 그룹의 '데이터플러스'는 LG유플러스가 보유한 고객 특성, 미디어소비, 이동패턴 등 다양한 데이터를 기반으로 고객의 라이프스타일, 온·오프라인의 다양한 수요를 분석해 사업전략을 수립·실행하는데 필요한 인사이트·데이터 마케팅 채널을 제공하는 기업 간 거래(B2B) 빅데이터 서비스다.황 CDO는 "이러한 프로덕트의 경쟁력을 확보하기 위해서는 스타트업처럼 애자일하고 민첩하게 움직이는 게 필수다"라며 "CDO는 현재 200여명이 20여개 이상의 팀으로 구성돼 있는데 각 팀에 배속된 전문가들이 기획-개발-출시까지 사업전반에 대한 전략과 예산의 자율권을 보장받는 조직운영으로 탈바꿈시키고 있다"고 말했다.LG유플러스는 AI, 데이터, 디지털 역량을 강화하기 위해 프로덕트 중심의 애자일 조직으로 탈바꿈하고 있다. 프로덕트 중심 조직은 구글·토스 등 테크기업들이 도입한 시스템으로 시장과 고객의 변화에 기민하게 움직이는 구조다.프로덕트 중심 업무체계에서는 여러 조직에서 모인 구성원들이 함께 일하는 가상조직이 구성돼 목표달성을 위해 일한다. '프로덕트 매니저'는 고객의 니즈를 확실하게 알아내 사업성과로 연결하는 역할을 맡으며 개발자는 기술개발에 집중한다.LG유플러스는 이 같은 프로덕트 중심 문화를 뿌리내리고 외주와 제휴에 의존하던 개발역량을 내재화하는데 집중할 계획이다.  2024년까지 AI·데이터 사이언티스트, 데이터·플랫폼 엔지니어, 소프트웨어·기계학습 상용 적용(SW·ML-Ops) 엔지니어 등 200여명의 우수 개발인력을 채용해 현재 인원의 두 배 수준인 400명까지 전문인력을 확대한다.우수인재 확보를 위해 산학협력 인턴십 프로그램을 준비하는 등 다양한 채널을 통해 개발자들과 유기적인 관계를 구축하는 데브렐(DevRel, Developer Relations) 활동을 강화할 계획이다.황 CDO는 "초개인화, 초연결과 같은 폭발적인 고객 니즈에 선제 대응하는 자기 완결형 조직이 되려면 소프트웨어 역량은 반드시 내재화가 필요하다"며 "데이터와 디지털 능력을 기반으로 일하는 문화를 도입하고 LG유플러스가 보유한 AI와 데이터가 전략적인 자산이 될 수 있도록 가치를 창출하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2022.06.08.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>호메로스~보들레르까지...민음사 '인문학 클래식' 시리즈 출간</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011234931?sid=103</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 인문학 클래식 시리즈 (사진=민음사 제공) 2022.06.08. photo@newsis.com *재판매 및 DB 금지[서울=뉴시스]신재우 기자 = 호메로스부터 보들레르까지. 인문교양 고전 시리즈 '인문학 클래식' 시리즈가 새롭게 출간됐다.도서출판 민음사가 문학, 역사, 철학, 예술 분야에서 교양으로서 반드시 읽어야 하는 고전들을 선별해 출간하는 연작이다. 첫 출간으로는 '오뒷세이아', '철학자의 위로', '메데이아', '우울의 고백'이 동시에 나왔다.'오뒷세이아'는 호메로스의 영웅 서사시로 트로이 전쟁을 승리로 이끈 오뒷세이아의 귀향 이야기를 담았다.'메데이아'는 고대 그리스 비극 작가 에우리피데스의 대표 선집이다.  표제작 메데이아를 비롯해 힙폴뤼토스, 엘렉트라, 알케스티스 등이 실렸다.'철학자의 위로'는 루키우스 안나이우스 세네카의 '위로 3부작'으로 유명한 작품이다. 세네카는 서간문 형식으로 가족의 죽음이나 추방을 견뎌야 하는 이들을 위로하고 슬픔의 극복 방법을 제시한다.'우울의 고백'은 현대시의 서막을 열었다는 평가를 받는 샤를 피에르 보들레르의 편지 모음이다. 보들레르의 중학생 시절인 1832년부터 세상을 떠나기 전해인 1866년까지의 편지 43통을 엄선했다.민음사는 이번 출간과 함께 "고전은 끊임없이 재발견돼야 한다"며 "거장들의 작품과 고민에 귀를 기울임으로써, 그 풍부한 해석과 무한한 가능성의 세계를 열어나가고자 한다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2022.06.01.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>평균 연봉 3억9000만원·1억 무이자 대출…'파격 복지' 스타트업 [긱스]</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004706225?sid=105</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>잡플래닛 유니콘 대상 기업평가복지, 급여, 성장성 등 평가두나무, 토스 등 핀테크나란히 1, 2위 기록연봉, 복지포인트 등 파격 지급 "금융 치료가 최고의 복지"이 기사는 프리미엄 스타트업 미디어 플랫폼 한경Geeks에 게재된 기사입니다.지난해 말 국내 유니콘'(기업가치 1조원 이상인 비상장사)은 18개로 집계 이래 최대를 기록했다. 2020년 13개에서 7개가 늘었다. 2017년 3개였던 것에 비해 4년 만에 6배나 늘어난 것이다.단기간에 큰 성장을 이룬 유니콘 기업은 대체로 인력 구성과 조직 형태가 빠르게 바뀌는 등 변화의 폭이 크다. 이런 유니콘은 근로자의 입장에서 어떤 기업일까.기업정보 플랫폼 '잡플래닛'이 2021년 유니콘 18곳을 대상으로 2019~2021년 기업평가 데이터를 집계했다. 평가 항목은 △성장·가능성 △복지·급여 △워라밸(업무와 삶의 균형) △사내 문화 △경영진 평가 등 5개 항목(5점 만점)을 더해 총점(10점 만점)을 산출했다.데이터에 따르면 눈에 띄게 상위권을 차지한 유니콘 2곳이 있었다. 2021년 나란히 1·2위를 차지한 업비트 운영사 '두나무'와 토스 운영사 '비바리퍼블리카'다. 두 기업 모두 핀테크 분야 스타트업이라는 공통점이 있다. '금융치료'가 최고의 복지암호화폐거래소를 업비트를 운영하는 두나무는 2019년 5위, 2020년 4위에서 2021년 토스를 제치고 1위를 차지했다. 2021년 유니콘 대열에 합류하자마자 1위를 차지한 것.업비트의 급격한 성장 탓에 지난해 1위를 내준 토스지만 그의 완패로 보긴 어렵다. 토스 운영사 비바리퍼블리카는 3년간 평균 총점 6점대(10점 만점)에서 매년 꾸준히 상승해왔으며 지난해를 제외하고 2년 연속 1위를 했다.두 핀테크는 어떻게 근로자를 사로잡은 걸까. 두나무는 국내 최고 수준의 연봉으로 정보기술(IT) 업계에서 화제가 됐다. 지난해 기준 두나무는 직원 370명의 1인당 평균 연봉이 3억9300만원이라고 공시했다. 임원을 빼도 1억6000만원 정도로 국내 최고 수준이다. 잡플래닛 평점에 따르면 두나무는 2021년 총점 8.52점(10점 만점)으로 이례적으로 8점 이상의 고점을 기록했다.두나무는 5점 만점인 성장성(3.92), 급여(4.36) 부분에서 특히 높게 나타났다. 두나무에 따르면 회사는 근로자에게 매년 본인 포함 3인 가족 기준 인당 100만 원 상당의 건강검진을 지원하며 연봉의 3배까지 보상해 주는 생명보험을 제공한다. 본인 및 배우자, 직계 존비속 대상 실손 의료비를 지원하기도 한다.복지도 업계 최고 수준이다. 연간 500만원 상당의 복지포인트를 제공하고, 1년 이상 재직한 임직원에겐 사내 대출을 통해 1억원까지 무이자로 주택 자금을 지원한다.핀테크 업계 관계자는 "두나무는 가파른 성장세와 파격적 혜택으로 인재를 끌어들이고 있다"며 "경쟁이 치열한 만큼 '금융치료'로 해결할 수 있도록 파격적인 급여를 준다"고 말했다. 한편에선 "성장세가 언젠가 꺾일지도 모르는데 그때에도 인건비에 이렇게 많은 돈을 들일 수 있을지 의문"이라는 시각도 나온다. 조직 문화에 진심인 토스토스는 파격적인 대우만큼이나 치열한 경쟁문화와 높은 업무 강도로 유명하다. 실제로 비바리퍼블리카의 항목별 평점에서 가장 낮은 부분은 '워라밸(워크라이프밸런스)'로 나타났다. 3년 내 2점대에 머물고 있다. 두나무, 야놀자, 쏘카 등이 3점대 초중반을 오가는 것에 비해 저조한 수준이다.토스는 이를 고려해 기존의 조직문화와 사내 복지에 더욱 힘쓰는 분위기다. 토스는 지난해 말 신규 직원들에게 압박 요인으로 작용하던 ‘3개월 리뷰 과정’과 ‘스트라이크’ 제도를 폐지했다. 동료 간 피드백을 토대로 지원자의 최종 채용 여부를 결정하는 제도지만 오히려 과도한 심리적 부담으로 성과를 해친다는 우려가 나왔기 때문이다. 올해부터는 지나친 경쟁은 줄이고 복지 혜택 늘리는 행보를 보이고 있다. 토스는 조직문화를 담당하는 별도의 조직인 ‘피플앤컬쳐’팀을 마련할 정도로 조직문화를 중시하는 것으로 알려져 있다. 피플앤컬쳐팀에는 신규입사자의 적응을 돕는 ‘온보딩 코디네이터’라는 팀원이 소속돼 있다. 이들은 신규입사자들을 멘토, 짝꿍처럼 밀착 케어하며 신규직원의 연착륙을 돕는다. 토스 전체 신규입사자가 4주간 참여하는 온보딩 프로그램에는 토스팀의 리더인 이승건 대표가 직접 참여하기도 한다.서울 강남구의 토스 사무실에서 직원들이 업무를 하고있 사진=비바리버블리카 제공이외에도 지난해 연말부터는 정례화된 겨울방학 제도를 마련했다. 성탄절 전후로 약 10일간의 전사 휴무를 갖는 제도다. △점심·저녁 식대 제공 △반기마다 팀별 성과급 지급 △주택자금 대출 무이자 1억원 지원 등의 복리후생 혜택은 기본이다. 경력 입사자를 대상으로 한 채용에선 전 직장의 최대 1.5배 연봉, 1억원어치 스톡옵션(주식매수선택권)을 적용해 화제가 되기도 했다.한 IT 업계 관계자는 "스타트업으로 이직하는 사람들은 간판보다 '커리어'를 택하는 사람이 많다"며 "업무강도만큼 많은 보상과 성장이 있기 때문에 핀테크에 대한 선호가 높은 것으로 보인다"고 말했다.한국경제신문의 실리콘밸리·한국 스타트업 관련 뉴스레터 한경 긱스(GEEKS)를 만나보세요! ▶무료 구독하기 hankyung.com/newsletter</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
